--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="26780" windowHeight="14880" tabRatio="543" activeTab="4"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="382">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1800,6 +1800,63 @@
 4. Click on "sign in" button of login page or press enter
 5. Click on "Avatar" in menu bar
 6. Click "Notification" list in personal page</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Logged in successfully
+4. The "medicinal plants" page is displayed
+5. "Medicinal plants detail" page is displayed
+6. "Author" is displayed</t>
+  </si>
+  <si>
+    <t>1. Enter the website: thuocnam.com
+2. Click on Login button
+3. Input:
++ Email: "dangnhse02992@fpt.edu.vn"
++ Password: "123456789"
+4. Click on "sign in" button of login page or press enter
+5. Click on "Medicinal Plants" in menu bar
+6. Click on a "medicinal plants" picture of medicinal plants page
+7. Click on "author" link of "medicinal plants detail" page</t>
+  </si>
+  <si>
+    <t>1. Enter the website: thuocnam.com
+2. Click on Login button
+3. Input:
++ Email: "dangnhse02992@fpt.edu.vn"
++ Password: "123456789"
+4. Click on "sign in" button of login page or press enter
+5. Click on "Remedy" in menu bar
+6. Click on a "Remedy" picture of remedy page
+7. Click on "relational HMS" of remedy detail page</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Logged in successfully
+4. The "remedy" page is displayed
+5. "Remedy detail" page is displayed
+6. "Author" is displayed</t>
+  </si>
+  <si>
+    <t>1. Enter the website: thuocnam.com
+2. Click on Login button
+3. Input:
++ Email: "dangnhse02992@fpt.edu.vn"
++ Password: "123456789"
+4. Click on "sign in" button of login page or press enter
+5. Click on "Remedy" in menu bar
+6. Click on a "Remedy" picture of remedy page
+7. Click on "author" of remedy detail page</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Logged in successfully
+4. The "remedy" page is displayed
+5. "Remedy detail" page is displayed
+6. "HMS" is displayed</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2748,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
@@ -2744,6 +2801,13 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3329,7 +3393,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -3374,6 +3438,13 @@
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -4451,7 +4522,7 @@
       </c>
       <c r="F11" s="76">
         <f>User_Function!C6</f>
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="G11" s="76">
         <f>User_Function!D6</f>
@@ -4459,7 +4530,7 @@
       </c>
       <c r="H11" s="77">
         <f>User_Function!E6</f>
-        <v>82</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4507,7 +4578,7 @@
       </c>
       <c r="F13" s="79">
         <f>SUM(F9:F12)</f>
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="G13" s="79">
         <f>SUM(G9:G12)</f>
@@ -4515,7 +4586,7 @@
       </c>
       <c r="H13" s="80">
         <f>SUM(H9:H12)</f>
-        <v>108</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4922,8 +4993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -5050,7 +5121,7 @@
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G688,"N/A")</f>
@@ -5058,7 +5129,7 @@
       </c>
       <c r="E6" s="214">
         <f>COUNTA(A11:A245)*2</f>
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F6" s="214"/>
       <c r="G6" s="214"/>
@@ -5685,7 +5756,9 @@
       <c r="J38" s="105"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="169"/>
+      <c r="A39" s="169" t="s">
+        <v>303</v>
+      </c>
       <c r="B39" s="169" t="s">
         <v>328</v>
       </c>
@@ -5699,7 +5772,10 @@
       <c r="J39" s="105"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A40" s="163"/>
+      <c r="A40" s="163" t="str">
+        <f t="shared" ref="A39:A58" si="2">IF(OR(B40&lt;&gt;"",D40&lt;E39&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User_login-30]</v>
+      </c>
       <c r="B40" s="117" t="s">
         <v>329</v>
       </c>
@@ -5717,7 +5793,9 @@
       <c r="J40" s="105"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A41" s="169"/>
+      <c r="A41" s="169" t="s">
+        <v>303</v>
+      </c>
       <c r="B41" s="169" t="s">
         <v>331</v>
       </c>
@@ -5731,7 +5809,10 @@
       <c r="J41" s="105"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A42" s="163"/>
+      <c r="A42" s="163" t="str">
+        <f t="shared" si="2"/>
+        <v>[User_login-32]</v>
+      </c>
       <c r="B42" s="117" t="s">
         <v>329</v>
       </c>
@@ -5749,7 +5830,9 @@
       <c r="J42" s="105"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A43" s="169"/>
+      <c r="A43" s="169" t="s">
+        <v>303</v>
+      </c>
       <c r="B43" s="169" t="s">
         <v>333</v>
       </c>
@@ -5763,7 +5846,10 @@
       <c r="J43" s="105"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A44" s="163"/>
+      <c r="A44" s="163" t="str">
+        <f t="shared" si="2"/>
+        <v>[User_login-34]</v>
+      </c>
       <c r="B44" s="117" t="s">
         <v>334</v>
       </c>
@@ -5781,7 +5867,9 @@
       <c r="J44" s="105"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A45" s="169"/>
+      <c r="A45" s="169" t="s">
+        <v>303</v>
+      </c>
       <c r="B45" s="169" t="s">
         <v>336</v>
       </c>
@@ -5795,7 +5883,10 @@
       <c r="J45" s="105"/>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A46" s="163"/>
+      <c r="A46" s="163" t="str">
+        <f t="shared" si="2"/>
+        <v>[User_login-36]</v>
+      </c>
       <c r="B46" s="117" t="s">
         <v>337</v>
       </c>
@@ -5813,7 +5904,9 @@
       <c r="J46" s="105"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A47" s="169"/>
+      <c r="A47" s="169" t="s">
+        <v>303</v>
+      </c>
       <c r="B47" s="169" t="s">
         <v>357</v>
       </c>
@@ -5827,7 +5920,10 @@
       <c r="J47" s="105"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A48" s="163"/>
+      <c r="A48" s="163" t="str">
+        <f t="shared" si="2"/>
+        <v>[User_login-38]</v>
+      </c>
       <c r="B48" s="117" t="s">
         <v>358</v>
       </c>
@@ -5845,7 +5941,9 @@
       <c r="J48" s="105"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A49" s="169"/>
+      <c r="A49" s="169" t="s">
+        <v>303</v>
+      </c>
       <c r="B49" s="169" t="s">
         <v>360</v>
       </c>
@@ -5859,7 +5957,10 @@
       <c r="J49" s="105"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A50" s="163"/>
+      <c r="A50" s="163" t="str">
+        <f t="shared" si="2"/>
+        <v>[User_login-40]</v>
+      </c>
       <c r="B50" s="117" t="s">
         <v>361</v>
       </c>
@@ -5877,7 +5978,9 @@
       <c r="J50" s="105"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A51" s="169"/>
+      <c r="A51" s="169" t="s">
+        <v>303</v>
+      </c>
       <c r="B51" s="169" t="s">
         <v>363</v>
       </c>
@@ -5891,7 +5994,10 @@
       <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A52" s="163"/>
+      <c r="A52" s="163" t="str">
+        <f t="shared" si="2"/>
+        <v>[User_login-42]</v>
+      </c>
       <c r="B52" s="117" t="s">
         <v>368</v>
       </c>
@@ -5909,7 +6015,9 @@
       <c r="J52" s="105"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A53" s="169"/>
+      <c r="A53" s="169" t="s">
+        <v>303</v>
+      </c>
       <c r="B53" s="169" t="s">
         <v>370</v>
       </c>
@@ -5923,20 +6031,29 @@
       <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A54" s="193"/>
-      <c r="B54" s="194" t="s">
+      <c r="A54" s="163" t="str">
+        <f t="shared" si="2"/>
+        <v>[User_login-44]</v>
+      </c>
+      <c r="B54" s="117" t="s">
         <v>373</v>
       </c>
-      <c r="C54" s="194"/>
-      <c r="D54" s="194"/>
-      <c r="E54" s="193"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="194"/>
-      <c r="H54" s="195"/>
-      <c r="I54" s="196"/>
+      <c r="C54" s="117" t="s">
+        <v>377</v>
+      </c>
+      <c r="D54" s="117" t="s">
+        <v>376</v>
+      </c>
+      <c r="E54" s="118"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="120"/>
     </row>
     <row r="55" spans="1:10" s="184" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A55" s="169"/>
+      <c r="A55" s="169" t="s">
+        <v>303</v>
+      </c>
       <c r="B55" s="169" t="s">
         <v>371</v>
       </c>
@@ -5949,20 +6066,29 @@
       <c r="I55" s="168"/>
     </row>
     <row r="56" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A56" s="193"/>
-      <c r="B56" s="194" t="s">
+      <c r="A56" s="163" t="str">
+        <f t="shared" si="2"/>
+        <v>[User_login-46]</v>
+      </c>
+      <c r="B56" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="C56" s="194"/>
-      <c r="D56" s="194"/>
-      <c r="E56" s="193"/>
-      <c r="F56" s="194"/>
-      <c r="G56" s="194"/>
-      <c r="H56" s="195"/>
-      <c r="I56" s="196"/>
+      <c r="C56" s="117" t="s">
+        <v>378</v>
+      </c>
+      <c r="D56" s="117" t="s">
+        <v>381</v>
+      </c>
+      <c r="E56" s="118"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="120"/>
     </row>
     <row r="57" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A57" s="169"/>
+      <c r="A57" s="169" t="s">
+        <v>303</v>
+      </c>
       <c r="B57" s="169" t="s">
         <v>372</v>
       </c>
@@ -5975,17 +6101,24 @@
       <c r="I57" s="168"/>
     </row>
     <row r="58" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A58" s="193"/>
-      <c r="B58" s="194" t="s">
+      <c r="A58" s="163" t="str">
+        <f t="shared" si="2"/>
+        <v>[User_login-48]</v>
+      </c>
+      <c r="B58" s="117" t="s">
         <v>373</v>
       </c>
-      <c r="C58" s="194"/>
-      <c r="D58" s="194"/>
-      <c r="E58" s="193"/>
-      <c r="F58" s="194"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="195"/>
-      <c r="I58" s="196"/>
+      <c r="C58" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="D58" s="117" t="s">
+        <v>379</v>
+      </c>
+      <c r="E58" s="118"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="120"/>
     </row>
     <row r="59" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
       <c r="A59" s="193"/>
@@ -6038,7 +6171,7 @@
     <row r="63" spans="1:10" s="190" customFormat="1" ht="14.25" customHeight="1">
       <c r="A63" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A62)+1)</f>
-        <v>ID-24</v>
+        <v>ID-44</v>
       </c>
       <c r="B63" s="117" t="s">
         <v>208</v>
@@ -6060,7 +6193,7 @@
     <row r="64" spans="1:10" s="190" customFormat="1" ht="14.25" customHeight="1">
       <c r="A64" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A63)+1)</f>
-        <v>ID-25</v>
+        <v>ID-45</v>
       </c>
       <c r="B64" s="117" t="s">
         <v>248</v>
@@ -6082,7 +6215,7 @@
     <row r="65" spans="1:9" s="190" customFormat="1" ht="14.25" customHeight="1">
       <c r="A65" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A64)+1)</f>
-        <v>ID-26</v>
+        <v>ID-46</v>
       </c>
       <c r="B65" s="117" t="s">
         <v>250</v>
@@ -6104,7 +6237,7 @@
     <row r="66" spans="1:9" s="189" customFormat="1" ht="14.25" customHeight="1">
       <c r="A66" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A65)+1)</f>
-        <v>ID-27</v>
+        <v>ID-47</v>
       </c>
       <c r="B66" s="117" t="s">
         <v>252</v>
@@ -6126,7 +6259,7 @@
     <row r="67" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A67" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A66)+1)</f>
-        <v>ID-28</v>
+        <v>ID-48</v>
       </c>
       <c r="B67" s="117" t="s">
         <v>254</v>
@@ -6148,7 +6281,7 @@
     <row r="68" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A68" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A67)+1)</f>
-        <v>ID-29</v>
+        <v>ID-49</v>
       </c>
       <c r="B68" s="117" t="s">
         <v>256</v>
@@ -6183,7 +6316,7 @@
     <row r="70" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A70" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A69)+1)</f>
-        <v>ID-30</v>
+        <v>ID-50</v>
       </c>
       <c r="B70" s="117" t="s">
         <v>213</v>
@@ -6205,7 +6338,7 @@
     <row r="71" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A71" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A70)+1)</f>
-        <v>ID-31</v>
+        <v>ID-51</v>
       </c>
       <c r="B71" s="117" t="s">
         <v>214</v>
@@ -6227,7 +6360,7 @@
     <row r="72" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A72" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A71)+1)</f>
-        <v>ID-32</v>
+        <v>ID-52</v>
       </c>
       <c r="B72" s="117" t="s">
         <v>217</v>
@@ -6249,7 +6382,7 @@
     <row r="73" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A73" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A72)+1)</f>
-        <v>ID-33</v>
+        <v>ID-53</v>
       </c>
       <c r="B73" s="117" t="s">
         <v>219</v>
@@ -6271,7 +6404,7 @@
     <row r="74" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A74" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A73)+1)</f>
-        <v>ID-34</v>
+        <v>ID-54</v>
       </c>
       <c r="B74" s="117" t="s">
         <v>221</v>
@@ -6293,7 +6426,7 @@
     <row r="75" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A75" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A74)+1)</f>
-        <v>ID-35</v>
+        <v>ID-55</v>
       </c>
       <c r="B75" s="117" t="s">
         <v>224</v>
@@ -6315,7 +6448,7 @@
     <row r="76" spans="1:9" ht="13.5" customHeight="1">
       <c r="A76" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A75)+1)</f>
-        <v>ID-36</v>
+        <v>ID-56</v>
       </c>
       <c r="B76" s="117" t="s">
         <v>227</v>
@@ -6337,7 +6470,7 @@
     <row r="77" spans="1:9" ht="13.5" customHeight="1">
       <c r="A77" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A76)+1)</f>
-        <v>ID-37</v>
+        <v>ID-57</v>
       </c>
       <c r="B77" s="117" t="s">
         <v>230</v>
@@ -6359,7 +6492,7 @@
     <row r="78" spans="1:9" ht="13.5" customHeight="1">
       <c r="A78" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A77)+1)</f>
-        <v>ID-38</v>
+        <v>ID-58</v>
       </c>
       <c r="B78" s="117" t="s">
         <v>233</v>
@@ -6381,7 +6514,7 @@
     <row r="79" spans="1:9" ht="13.5" customHeight="1">
       <c r="A79" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A78)+1)</f>
-        <v>ID-39</v>
+        <v>ID-59</v>
       </c>
       <c r="B79" s="117" t="s">
         <v>236</v>
@@ -6403,7 +6536,7 @@
     <row r="80" spans="1:9" ht="13.5" customHeight="1">
       <c r="A80" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A79)+1)</f>
-        <v>ID-40</v>
+        <v>ID-60</v>
       </c>
       <c r="B80" s="117" t="s">
         <v>239</v>
@@ -6425,7 +6558,7 @@
     <row r="81" spans="1:9" ht="13.5" customHeight="1">
       <c r="A81" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A80)+1)</f>
-        <v>ID-41</v>
+        <v>ID-61</v>
       </c>
       <c r="B81" s="117" t="s">
         <v>242</v>
@@ -6447,7 +6580,7 @@
     <row r="82" spans="1:9" ht="13.5" customHeight="1">
       <c r="A82" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A81)+1)</f>
-        <v>ID-42</v>
+        <v>ID-62</v>
       </c>
       <c r="B82" s="117" t="s">
         <v>245</v>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27260" windowHeight="14880" tabRatio="543" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -1128,54 +1128,10 @@
     <t>Color of all tabs selection is the same</t>
   </si>
   <si>
-    <t>Backed List</t>
-  </si>
-  <si>
-    <t>1. Login on one browser
-2. Click Dự án đã ủng hộ
-3. Copy link
-4. Change to other browser
-5. Paste link and press Enter</t>
-  </si>
-  <si>
-    <t>Starred List</t>
-  </si>
-  <si>
-    <t>1. Login on one browser
-2. Click Dự án theo dõi
-3. Copy link
-4. Change to other browser
-5. Paste link and press Enter</t>
-  </si>
-  <si>
-    <t>Created List</t>
-  </si>
-  <si>
-    <t>1. Login on one browser
-2. Click Dự án đã tạo
-3. Copy link
-4. Change to other browser
-5. Paste link and press Enter</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
-    <t>1. Login on one browser
-2. Click Tin nhắn
-3. Copy link
-4. Change to other browser
-5. Paste link and press Enter</t>
-  </si>
-  <si>
     <t>Account</t>
-  </si>
-  <si>
-    <t>1. Login on one browser
-2. Click Tài khoản
-3. Copy link
-4. Change to other browser
-5. Paste link and press Enter</t>
   </si>
   <si>
     <t>1. Set language of Browser isVietnamese
@@ -1210,13 +1166,6 @@
   </si>
   <si>
     <t>VMN</t>
-  </si>
-  <si>
-    <t>List enviroment requires in this system
-1. Server: 
-2. Database server: Neo4j
-3. Browser: Google Chrome 40, Mozzila Firefox 30
-4. Operation System: Mac OS X</t>
   </si>
   <si>
     <t>1. Go to thuocnam.com
@@ -1417,9 +1366,6 @@
 6. Show posted article is displayed</t>
   </si>
   <si>
-    <t>Vietnamese Medicinal Plant Network</t>
-  </si>
-  <si>
     <t>Mod Common module</t>
   </si>
   <si>
@@ -1857,6 +1803,60 @@
 4. The "remedy" page is displayed
 5. "Remedy detail" page is displayed
 6. "HMS" is displayed</t>
+  </si>
+  <si>
+    <t>Vietnamese Medicinal Plants Network</t>
+  </si>
+  <si>
+    <t>List enviroment requires in this system
+1. Server: 
+2. Database server: MySQL server
+3. Browser: Google Chrome 40, Mozzila Firefox 30
+4. Operation System: Mac OS X</t>
+  </si>
+  <si>
+    <t>Medicinal Plant</t>
+  </si>
+  <si>
+    <t>Remedy</t>
+  </si>
+  <si>
+    <t>Herb Store Medicine</t>
+  </si>
+  <si>
+    <t>1. Login on one browser
+2. Click "Mecicinal plant" menu
+3. Copy link
+4. Change to other browser
+5. Paste link and press Enter</t>
+  </si>
+  <si>
+    <t>1. Login on one browser
+2. Click "Remedy" menu
+3. Copy link
+4. Change to other browser
+5. Paste link and press Enter</t>
+  </si>
+  <si>
+    <t>1. Login on one browser
+2. Click "HMS" menu
+3. Copy link
+4. Change to other browser
+5. Paste link and press Enter</t>
+  </si>
+  <si>
+    <t>1. Login on one browser
+2. Click Message
+3. Copy link
+4. Change to other browser
+5. Paste link and press Enter</t>
+  </si>
+  <si>
+    <t>1. Login on one browser
+2. Click Account
+3. Copy link
+4. Change to other browser
+5. Paste link and press Enter</t>
   </si>
 </sst>
 </file>
@@ -3901,7 +3901,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="200" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="D4" s="200"/>
       <c r="E4" s="200"/>
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
@@ -3953,7 +3953,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="200" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D5" s="200"/>
       <c r="E5" s="200"/>
@@ -3961,7 +3961,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -4045,7 +4045,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
@@ -4125,7 +4125,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4158,7 +4158,7 @@
       <c r="C3" s="205"/>
       <c r="D3" s="206" t="str">
         <f>Cover!C4</f>
-        <v>Vietnamese Medicinal Plant Network</v>
+        <v>Vietnamese Medicinal Plants Network</v>
       </c>
       <c r="E3" s="206"/>
       <c r="F3" s="206"/>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C5" s="203"/>
       <c r="D5" s="204" t="s">
-        <v>267</v>
+        <v>373</v>
       </c>
       <c r="E5" s="204"/>
       <c r="F5" s="204"/>
@@ -4353,7 +4353,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="C3" s="206" t="str">
         <f>Cover!C4</f>
-        <v>Vietnamese Medicinal Plant Network</v>
+        <v>Vietnamese Medicinal Plants Network</v>
       </c>
       <c r="D3" s="206"/>
       <c r="E3" s="207" t="s">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="F3" s="207"/>
       <c r="G3" s="10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H3" s="65"/>
     </row>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="F4" s="207"/>
       <c r="G4" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H4" s="65"/>
     </row>
@@ -4993,8 +4993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:I58"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -5071,7 +5071,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="212" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C4" s="212"/>
       <c r="D4" s="212"/>
@@ -5228,7 +5228,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D12" s="117" t="s">
         <v>97</v>
@@ -5249,7 +5249,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D13" s="117" t="s">
         <v>98</v>
@@ -5270,10 +5270,10 @@
         <v>62</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E14" s="122"/>
       <c r="F14" s="117"/>
@@ -5291,7 +5291,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D15" s="124" t="s">
         <v>99</v>
@@ -5312,7 +5312,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D16" s="124" t="s">
         <v>161</v>
@@ -5333,7 +5333,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D17" s="124" t="s">
         <v>162</v>
@@ -5354,7 +5354,7 @@
         <v>66</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D18" s="124" t="s">
         <v>163</v>
@@ -5389,10 +5389,10 @@
         <v>82</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E20" s="91" t="s">
         <v>83</v>
@@ -5406,7 +5406,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="58" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -5426,7 +5426,7 @@
         <v>87</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D22" s="91" t="s">
         <v>164</v>
@@ -5449,7 +5449,7 @@
         <v>88</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D23" s="91" t="s">
         <v>165</v>
@@ -5470,7 +5470,7 @@
         <v>89</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D24" s="91" t="s">
         <v>166</v>
@@ -5504,13 +5504,13 @@
         <v>[User_login-16]</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D26" s="136" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>86</v>
@@ -5530,10 +5530,10 @@
         <v>90</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E27" s="91" t="s">
         <v>84</v>
@@ -5567,10 +5567,10 @@
         <v>167</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E29" s="104" t="s">
         <v>91</v>
@@ -5590,10 +5590,10 @@
         <v>92</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D30" s="104" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E30" s="104" t="s">
         <v>91</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
       <c r="A31" s="58" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B31" s="58" t="s">
         <v>169</v>
@@ -5626,13 +5626,13 @@
         <v>[User_login-22]</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="117"/>
@@ -5647,13 +5647,13 @@
         <v>[User_login-23]</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="117"/>
@@ -5664,10 +5664,10 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
       <c r="A34" s="58" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -5684,13 +5684,13 @@
         <v>[User_login-25]</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="117"/>
@@ -5722,10 +5722,10 @@
         <v>203</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D37" s="117" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E37" s="118"/>
       <c r="F37" s="117"/>
@@ -5740,10 +5740,10 @@
         <v>[User_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C38" s="117" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D38" s="117" t="s">
         <v>205</v>
@@ -5757,10 +5757,10 @@
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
       <c r="A39" s="169" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B39" s="169" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C39" s="166"/>
       <c r="D39" s="166"/>
@@ -5773,17 +5773,17 @@
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1">
       <c r="A40" s="163" t="str">
-        <f t="shared" ref="A39:A58" si="2">IF(OR(B40&lt;&gt;"",D40&lt;E39&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A40:A58" si="2">IF(OR(B40&lt;&gt;"",D40&lt;E39&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C40" s="117" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D40" s="117" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E40" s="118"/>
       <c r="F40" s="117"/>
@@ -5794,10 +5794,10 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
       <c r="A41" s="169" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B41" s="169" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C41" s="166"/>
       <c r="D41" s="166"/>
@@ -5814,13 +5814,13 @@
         <v>[User_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="117" t="s">
         <v>329</v>
       </c>
-      <c r="C42" s="117" t="s">
-        <v>339</v>
-      </c>
       <c r="D42" s="117" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E42" s="118"/>
       <c r="F42" s="117"/>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="169" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B43" s="169" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C43" s="166"/>
       <c r="D43" s="166"/>
@@ -5851,13 +5851,13 @@
         <v>[User_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C44" s="117" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D44" s="117" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E44" s="118"/>
       <c r="F44" s="117"/>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1">
       <c r="A45" s="169" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B45" s="169" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C45" s="166"/>
       <c r="D45" s="166"/>
@@ -5888,13 +5888,13 @@
         <v>[User_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D46" s="117" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E46" s="118"/>
       <c r="F46" s="117"/>
@@ -5905,10 +5905,10 @@
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
       <c r="A47" s="169" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B47" s="169" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C47" s="166"/>
       <c r="D47" s="166"/>
@@ -5925,13 +5925,13 @@
         <v>[User_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D48" s="117" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E48" s="118"/>
       <c r="F48" s="117"/>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
       <c r="A49" s="169" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B49" s="169" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C49" s="166"/>
       <c r="D49" s="166"/>
@@ -5962,13 +5962,13 @@
         <v>[User_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D50" s="117" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E50" s="118"/>
       <c r="F50" s="117"/>
@@ -5979,10 +5979,10 @@
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
       <c r="A51" s="169" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B51" s="169" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C51" s="166"/>
       <c r="D51" s="166"/>
@@ -5999,13 +5999,13 @@
         <v>[User_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D52" s="117" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E52" s="118"/>
       <c r="F52" s="117"/>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="169" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B53" s="169" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C53" s="166"/>
       <c r="D53" s="166"/>
@@ -6036,13 +6036,13 @@
         <v>[User_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D54" s="117" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="117"/>
@@ -6052,10 +6052,10 @@
     </row>
     <row r="55" spans="1:10" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A55" s="169" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B55" s="169" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C55" s="166"/>
       <c r="D55" s="166"/>
@@ -6071,13 +6071,13 @@
         <v>[User_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E56" s="118"/>
       <c r="F56" s="117"/>
@@ -6087,10 +6087,10 @@
     </row>
     <row r="57" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
       <c r="A57" s="169" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B57" s="169" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C57" s="166"/>
       <c r="D57" s="166"/>
@@ -6106,13 +6106,13 @@
         <v>[User_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="117"/>
@@ -6196,10 +6196,10 @@
         <v>ID-45</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>248</v>
+        <v>374</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>249</v>
+        <v>377</v>
       </c>
       <c r="D64" s="117" t="s">
         <v>210</v>
@@ -6218,10 +6218,10 @@
         <v>ID-46</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>251</v>
+        <v>378</v>
       </c>
       <c r="D65" s="117" t="s">
         <v>210</v>
@@ -6240,10 +6240,10 @@
         <v>ID-47</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>252</v>
+        <v>376</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="D66" s="117" t="s">
         <v>210</v>
@@ -6262,10 +6262,10 @@
         <v>ID-48</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>255</v>
+        <v>380</v>
       </c>
       <c r="D67" s="117" t="s">
         <v>210</v>
@@ -6284,10 +6284,10 @@
         <v>ID-49</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="D68" s="117" t="s">
         <v>210</v>
@@ -6322,10 +6322,10 @@
         <v>213</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D70" s="117" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E70" s="117"/>
       <c r="F70" s="117"/>
@@ -6391,7 +6391,7 @@
         <v>220</v>
       </c>
       <c r="D73" s="117" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E73" s="117"/>
       <c r="F73" s="117"/>
@@ -6683,7 +6683,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="211" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C2" s="211"/>
       <c r="D2" s="211"/>
@@ -6715,7 +6715,7 @@
         <v>189</v>
       </c>
       <c r="B4" s="212" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C4" s="212"/>
       <c r="D4" s="212"/>
@@ -6845,10 +6845,10 @@
         <v>196</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E12" s="171"/>
       <c r="F12" s="117"/>
@@ -6865,10 +6865,10 @@
         <v>67</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E13" s="197"/>
       <c r="F13" s="117"/>
@@ -6885,10 +6885,10 @@
         <v>173</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E14" s="173"/>
       <c r="F14" s="117"/>
@@ -6905,10 +6905,10 @@
         <v>176</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E15" s="173"/>
       <c r="F15" s="117"/>
@@ -6925,10 +6925,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E16" s="173"/>
       <c r="F16" s="117"/>
@@ -6945,10 +6945,10 @@
         <v>69</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E17" s="173"/>
       <c r="F17" s="117"/>
@@ -6965,10 +6965,10 @@
         <v>71</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E18" s="173"/>
       <c r="F18" s="117"/>
@@ -6985,10 +6985,10 @@
         <v>73</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E19" s="173"/>
       <c r="F19" s="117"/>
@@ -7005,10 +7005,10 @@
         <v>75</v>
       </c>
       <c r="C20" s="117" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E20" s="173"/>
       <c r="F20" s="117"/>
@@ -7020,7 +7020,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="176"/>
       <c r="B21" s="177" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C21" s="176"/>
       <c r="D21" s="176"/>
@@ -7037,13 +7037,13 @@
         <v>[Mod_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E22" s="179"/>
       <c r="F22" s="117"/>
@@ -7061,10 +7061,10 @@
         <v>198</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E23" s="179"/>
       <c r="F23" s="117"/>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="176" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B24" s="58" t="s">
         <v>81</v>
@@ -7098,10 +7098,10 @@
         <v>82</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E25" s="179"/>
       <c r="F25" s="117"/>
@@ -7111,10 +7111,10 @@
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1">
       <c r="A26" s="176" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C26" s="176"/>
       <c r="D26" s="176"/>
@@ -7130,13 +7130,13 @@
         <v>[Mod_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" s="117" t="s">
+        <v>306</v>
+      </c>
+      <c r="D27" s="117" t="s">
         <v>308</v>
-      </c>
-      <c r="C27" s="117" t="s">
-        <v>316</v>
-      </c>
-      <c r="D27" s="117" t="s">
-        <v>318</v>
       </c>
       <c r="E27" s="173"/>
       <c r="F27" s="117"/>
@@ -7146,10 +7146,10 @@
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="176" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C28" s="176"/>
       <c r="D28" s="176"/>
@@ -7165,13 +7165,13 @@
         <v>[Mod_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D29" s="117" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E29" s="173"/>
       <c r="F29" s="117"/>
@@ -7181,10 +7181,10 @@
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
       <c r="A30" s="176" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C30" s="176"/>
       <c r="D30" s="176"/>
@@ -7200,13 +7200,13 @@
         <v>[Mod_login-21]</v>
       </c>
       <c r="B31" s="117" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C31" s="117" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D31" s="117" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E31" s="173"/>
       <c r="F31" s="117"/>
@@ -7318,7 +7318,7 @@
         <v>189</v>
       </c>
       <c r="B4" s="212" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C4" s="212"/>
       <c r="D4" s="212"/>
@@ -7451,7 +7451,7 @@
         <v>171</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E12" s="171"/>
       <c r="F12" s="117"/>
@@ -7474,7 +7474,7 @@
         <v>172</v>
       </c>
       <c r="E13" s="173" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F13" s="117"/>
       <c r="G13" s="117"/>
@@ -7496,7 +7496,7 @@
         <v>175</v>
       </c>
       <c r="E14" s="173" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F14" s="117"/>
       <c r="G14" s="117"/>
@@ -7518,7 +7518,7 @@
         <v>178</v>
       </c>
       <c r="E15" s="173" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F15" s="117"/>
       <c r="G15" s="117"/>
@@ -7540,7 +7540,7 @@
         <v>79</v>
       </c>
       <c r="E16" s="173" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="117"/>
@@ -7562,7 +7562,7 @@
         <v>70</v>
       </c>
       <c r="E17" s="173" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F17" s="117"/>
       <c r="G17" s="117"/>
@@ -7584,7 +7584,7 @@
         <v>72</v>
       </c>
       <c r="E18" s="173" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F18" s="117"/>
       <c r="G18" s="117"/>
@@ -7606,7 +7606,7 @@
         <v>72</v>
       </c>
       <c r="E19" s="173" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="117"/>
@@ -7628,7 +7628,7 @@
         <v>72</v>
       </c>
       <c r="E20" s="173" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="117"/>
@@ -7662,10 +7662,10 @@
         <v>171</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F22" s="117"/>
       <c r="G22" s="117"/>
@@ -7685,10 +7685,10 @@
         <v>182</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F23" s="117"/>
       <c r="G23" s="117"/>
@@ -7725,7 +7725,7 @@
         <v>200</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F25" s="117"/>
       <c r="G25" s="117"/>
@@ -7771,7 +7771,7 @@
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="176"/>
       <c r="B28" s="177" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C28" s="176"/>
       <c r="D28" s="176"/>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27260" windowHeight="14880" tabRatio="543" activeTab="4"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="383">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -420,15 +420,6 @@
   </si>
   <si>
     <t>Add new</t>
-  </si>
-  <si>
-    <t>Registered User function</t>
-  </si>
-  <si>
-    <t>Integrating all functions of registered user together then execute test</t>
-  </si>
-  <si>
-    <t>Registered_User_function</t>
   </si>
   <si>
     <t>Login</t>
@@ -1857,6 +1848,18 @@
 3. Copy link
 4. Change to other browser
 5. Paste link and press Enter</t>
+  </si>
+  <si>
+    <t>User function</t>
+  </si>
+  <si>
+    <t>Integrating all functions of user together then execute test</t>
+  </si>
+  <si>
+    <t>User_Function</t>
+  </si>
+  <si>
+    <t>Mod_Function</t>
   </si>
 </sst>
 </file>
@@ -2809,7 +2812,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3392,6 +3395,7 @@
     <xf numFmtId="0" fontId="27" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -3937,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="200" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D4" s="200"/>
       <c r="E4" s="200"/>
@@ -3945,7 +3949,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
@@ -3953,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="200" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D5" s="200"/>
       <c r="E5" s="200"/>
@@ -3961,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -4045,7 +4049,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
@@ -4124,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4181,7 +4185,7 @@
       </c>
       <c r="C5" s="203"/>
       <c r="D5" s="204" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E5" s="204"/>
       <c r="F5" s="204"/>
@@ -4217,21 +4221,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="39">
+    <row r="9" spans="2:6" ht="26">
       <c r="B9" s="46">
         <v>1</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>56</v>
+        <v>379</v>
       </c>
       <c r="D9" s="149" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>57</v>
+        <v>380</v>
       </c>
       <c r="F9" s="113" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="26">
@@ -4248,7 +4252,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17">
@@ -4350,10 +4354,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4401,7 +4405,7 @@
       </c>
       <c r="F3" s="207"/>
       <c r="G3" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H3" s="65"/>
     </row>
@@ -4419,7 +4423,7 @@
       </c>
       <c r="F4" s="207"/>
       <c r="G4" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H4" s="65"/>
     </row>
@@ -4510,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="149" t="s">
-        <v>58</v>
+        <v>381</v>
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
@@ -4533,98 +4537,110 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="17">
       <c r="A12" s="75"/>
       <c r="B12" s="151">
         <v>2</v>
       </c>
-      <c r="C12" s="149" t="s">
-        <v>80</v>
+      <c r="C12" s="217" t="s">
+        <v>382</v>
       </c>
       <c r="D12" s="76">
+        <f>Mod_Function!A6</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="76">
+        <f>Mod_Function!B6</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="76">
+        <f>Mod_Function!C6</f>
+        <v>38</v>
+      </c>
+      <c r="G12" s="76">
+        <f>Mod_Function!D6</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="77">
+        <f>Mod_Function!E6</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="75"/>
+      <c r="B13" s="151">
+        <v>3</v>
+      </c>
+      <c r="C13" s="149" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="76">
         <f>Admin_Function!A6</f>
         <v>0</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E13" s="76">
         <f>Admin_Function!B6</f>
         <v>0</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F13" s="76">
         <f>Admin_Function!C6</f>
         <v>26</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G13" s="76">
         <f>Admin_Function!D6</f>
         <v>0</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H13" s="77">
         <f>Admin_Function!E6</f>
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="75"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="79">
-        <f>SUM(D9:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="79">
-        <f>SUM(E9:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="79">
-        <f>SUM(F9:F12)</f>
-        <v>148</v>
-      </c>
-      <c r="G13" s="79">
-        <f>SUM(G9:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="80">
-        <f>SUM(H9:H12)</f>
-        <v>148</v>
-      </c>
-    </row>
     <row r="14" spans="1:8">
       <c r="A14" s="70"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="79">
+        <f>SUM(D11:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="79">
+        <f>SUM(E11:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="79">
+        <f>SUM(F11:F13)</f>
+        <v>186</v>
+      </c>
+      <c r="G14" s="79">
+        <f>SUM(G9:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="80">
+        <f>SUM(H11:H13)</f>
+        <v>186</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="85">
-        <f>(D13+E13)*100/(H13-G13)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="55"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="70"/>
       <c r="B16" s="70"/>
       <c r="C16" s="84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="85">
-        <f>D13*100/(H13-G13)</f>
+        <f>(D14+E14)*100/(H14-G14)</f>
         <v>0</v>
       </c>
       <c r="F16" s="70" t="s">
@@ -4633,12 +4649,28 @@
       <c r="G16" s="70"/>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="70"/>
+    <row r="17" spans="2:8">
+      <c r="B17" s="70"/>
+      <c r="C17" s="84" t="s">
+        <v>44</v>
+      </c>
       <c r="D17" s="70"/>
-    </row>
-    <row r="18" spans="3:4" ht="17">
-      <c r="C18" s="198"/>
+      <c r="E17" s="85">
+        <f>D14*100/(H14-G14)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="70"/>
+      <c r="H17" s="55"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+    </row>
+    <row r="19" spans="2:8" ht="17">
+      <c r="C19" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4653,8 +4685,9 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C12" location="Admin_Function!A1" display="Admin_function"/>
+    <hyperlink ref="C13" location="Admin_Function!A1" display="Admin_function"/>
     <hyperlink ref="C11" location="User_Function!A1" display="User_function"/>
+    <hyperlink ref="C12" location="Mod_Function!A1" display="Mod_Function"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777772" header="0.51180555555555562" footer="0.5"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -4687,7 +4720,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="210" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="210"/>
       <c r="C1" s="210"/>
@@ -4698,279 +4731,279 @@
         <v>16</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="157" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13">
       <c r="A4" s="158" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4" s="159" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" s="159"/>
     </row>
     <row r="5" spans="1:3" ht="13">
       <c r="A5" s="158" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="159" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="159"/>
     </row>
     <row r="6" spans="1:3" ht="13">
       <c r="A6" s="158" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" s="159" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C6" s="159"/>
     </row>
     <row r="7" spans="1:3" ht="13">
       <c r="A7" s="158" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B7" s="159" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="159"/>
     </row>
     <row r="8" spans="1:3" ht="13">
       <c r="A8" s="158" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" s="159" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="159"/>
     </row>
     <row r="9" spans="1:3" ht="13">
       <c r="A9" s="158" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B9" s="159" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C9" s="159"/>
     </row>
     <row r="10" spans="1:3" ht="13">
       <c r="A10" s="158" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B10" s="159" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C10" s="159"/>
     </row>
     <row r="11" spans="1:3" ht="13">
       <c r="A11" s="158" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B11" s="159" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="159"/>
     </row>
     <row r="12" spans="1:3" ht="13">
       <c r="A12" s="158" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B12" s="159" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" s="159"/>
     </row>
     <row r="13" spans="1:3" ht="13">
       <c r="A13" s="158" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13" s="159" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C13" s="159"/>
     </row>
     <row r="14" spans="1:3" ht="13">
       <c r="A14" s="158" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" s="160" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" s="159"/>
     </row>
     <row r="15" spans="1:3" ht="13">
       <c r="A15" s="158" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B15" s="159" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C15" s="159"/>
     </row>
     <row r="16" spans="1:3" ht="13">
       <c r="A16" s="158" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B16" s="159" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C16" s="159"/>
     </row>
     <row r="17" spans="1:3" ht="13">
       <c r="A17" s="158" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B17" s="159" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C17" s="159"/>
     </row>
     <row r="18" spans="1:3" ht="13">
       <c r="A18" s="158" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B18" s="159" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C18" s="159"/>
     </row>
     <row r="19" spans="1:3" ht="13">
       <c r="A19" s="158" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B19" s="160" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C19" s="159"/>
     </row>
     <row r="20" spans="1:3" ht="13">
       <c r="A20" s="158" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B20" s="160" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C20" s="159"/>
     </row>
     <row r="21" spans="1:3" ht="13">
       <c r="A21" s="158" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B21" s="160" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="159"/>
     </row>
     <row r="22" spans="1:3" ht="52">
       <c r="A22" s="158" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B22" s="161" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C22" s="159"/>
     </row>
     <row r="23" spans="1:3" ht="13">
       <c r="A23" s="158" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B23" s="159" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C23" s="159"/>
     </row>
     <row r="24" spans="1:3" ht="13">
       <c r="A24" s="158" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B24" s="159" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C24" s="159"/>
     </row>
     <row r="25" spans="1:3" ht="13">
       <c r="A25" s="158" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B25" s="159" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C25" s="159"/>
     </row>
     <row r="26" spans="1:3" ht="13">
       <c r="A26" s="162" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B26" s="159" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C26" s="159"/>
     </row>
     <row r="27" spans="1:3" ht="13">
       <c r="A27" s="162" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B27" s="159" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C27" s="159"/>
     </row>
     <row r="28" spans="1:3" ht="13">
       <c r="A28" s="162" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B28" s="159" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C28" s="159"/>
     </row>
     <row r="29" spans="1:3" ht="13">
       <c r="A29" s="162" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B29" s="159" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C29" s="159"/>
     </row>
     <row r="30" spans="1:3" ht="13">
       <c r="A30" s="162" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B30" s="159" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C30" s="159"/>
     </row>
     <row r="31" spans="1:3" ht="13">
       <c r="A31" s="162" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B31" s="159"/>
       <c r="C31" s="159"/>
     </row>
     <row r="32" spans="1:3" ht="13">
       <c r="A32" s="162" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B32" s="159"/>
       <c r="C32" s="159"/>
     </row>
     <row r="33" spans="1:3" ht="13">
       <c r="A33" s="162" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B33" s="159"/>
       <c r="C33" s="159"/>
     </row>
     <row r="34" spans="1:3" ht="13">
       <c r="A34" s="162" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B34" s="159"/>
       <c r="C34" s="159"/>
@@ -4993,9 +5026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -5071,7 +5102,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="212" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" s="212"/>
       <c r="D4" s="212"/>
@@ -5192,10 +5223,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H10" s="57" t="s">
         <v>35</v>
@@ -5208,7 +5239,7 @@
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
       <c r="A11" s="133"/>
       <c r="B11" s="58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -5225,13 +5256,13 @@
         <v>[User_login-2]</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E12" s="118"/>
       <c r="F12" s="117"/>
@@ -5246,13 +5277,13 @@
         <v>[User_login-3]</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E13" s="118"/>
       <c r="F13" s="117"/>
@@ -5267,13 +5298,13 @@
         <v>[User_login-4]</v>
       </c>
       <c r="B14" s="121" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E14" s="122"/>
       <c r="F14" s="117"/>
@@ -5288,13 +5319,13 @@
         <v>[User_login-5]</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D15" s="124" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E15" s="118"/>
       <c r="F15" s="117"/>
@@ -5309,13 +5340,13 @@
         <v>[User_login-6]</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E16" s="125"/>
       <c r="F16" s="117"/>
@@ -5330,13 +5361,13 @@
         <v>[User_login-7]</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E17" s="125"/>
       <c r="F17" s="117"/>
@@ -5351,13 +5382,13 @@
         <v>[User_login-8]</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E18" s="125"/>
       <c r="F18" s="117"/>
@@ -5369,7 +5400,7 @@
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
       <c r="A19" s="58"/>
       <c r="B19" s="58" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -5386,16 +5417,16 @@
         <v>[User_login-10]</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="91"/>
@@ -5406,7 +5437,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="58" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -5423,16 +5454,16 @@
         <v>[User_login-12]</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F22" s="117"/>
       <c r="G22" s="91"/>
@@ -5446,13 +5477,13 @@
         <v>[User_login-13]</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="117"/>
@@ -5467,16 +5498,16 @@
         <v>[User_login-14]</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E24" s="91" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F24" s="117"/>
       <c r="G24" s="91"/>
@@ -5487,7 +5518,7 @@
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
       <c r="A25" s="58"/>
       <c r="B25" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -5504,16 +5535,16 @@
         <v>[User_login-16]</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D26" s="136" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E26" s="91" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" s="91"/>
       <c r="G26" s="91"/>
@@ -5527,16 +5558,16 @@
         <v>[User_login-17]</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F27" s="91"/>
       <c r="G27" s="91"/>
@@ -5547,7 +5578,7 @@
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
       <c r="A28" s="58"/>
       <c r="B28" s="58" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -5564,16 +5595,16 @@
         <v>[User_login-19]</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E29" s="104" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F29" s="117"/>
       <c r="G29" s="91"/>
@@ -5587,16 +5618,16 @@
         <v>[User_login-20]</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D30" s="104" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E30" s="104" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F30" s="117"/>
       <c r="G30" s="165"/>
@@ -5606,10 +5637,10 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
       <c r="A31" s="58" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="59"/>
@@ -5626,13 +5657,13 @@
         <v>[User_login-22]</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="117"/>
@@ -5647,13 +5678,13 @@
         <v>[User_login-23]</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="117"/>
@@ -5664,10 +5695,10 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
       <c r="A34" s="58" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -5684,13 +5715,13 @@
         <v>[User_login-25]</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="117"/>
@@ -5702,7 +5733,7 @@
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
       <c r="A36" s="169"/>
       <c r="B36" s="169" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C36" s="166"/>
       <c r="D36" s="166"/>
@@ -5719,13 +5750,13 @@
         <v>[User_login-27]</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D37" s="117" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E37" s="118"/>
       <c r="F37" s="117"/>
@@ -5740,13 +5771,13 @@
         <v>[User_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C38" s="117" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D38" s="117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E38" s="118"/>
       <c r="F38" s="117"/>
@@ -5757,10 +5788,10 @@
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
       <c r="A39" s="169" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B39" s="169" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C39" s="166"/>
       <c r="D39" s="166"/>
@@ -5777,13 +5808,13 @@
         <v>[User_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C40" s="117" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D40" s="117" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E40" s="118"/>
       <c r="F40" s="117"/>
@@ -5794,10 +5825,10 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
       <c r="A41" s="169" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B41" s="169" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C41" s="166"/>
       <c r="D41" s="166"/>
@@ -5814,13 +5845,13 @@
         <v>[User_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
+        <v>316</v>
+      </c>
+      <c r="C42" s="117" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="117" t="s">
         <v>319</v>
-      </c>
-      <c r="C42" s="117" t="s">
-        <v>329</v>
-      </c>
-      <c r="D42" s="117" t="s">
-        <v>322</v>
       </c>
       <c r="E42" s="118"/>
       <c r="F42" s="117"/>
@@ -5831,10 +5862,10 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="169" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B43" s="169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C43" s="166"/>
       <c r="D43" s="166"/>
@@ -5851,13 +5882,13 @@
         <v>[User_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C44" s="117" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D44" s="117" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E44" s="118"/>
       <c r="F44" s="117"/>
@@ -5868,10 +5899,10 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1">
       <c r="A45" s="169" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B45" s="169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C45" s="166"/>
       <c r="D45" s="166"/>
@@ -5888,13 +5919,13 @@
         <v>[User_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D46" s="117" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E46" s="118"/>
       <c r="F46" s="117"/>
@@ -5905,10 +5936,10 @@
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
       <c r="A47" s="169" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B47" s="169" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C47" s="166"/>
       <c r="D47" s="166"/>
@@ -5925,13 +5956,13 @@
         <v>[User_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D48" s="117" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E48" s="118"/>
       <c r="F48" s="117"/>
@@ -5942,10 +5973,10 @@
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
       <c r="A49" s="169" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B49" s="169" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C49" s="166"/>
       <c r="D49" s="166"/>
@@ -5962,13 +5993,13 @@
         <v>[User_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D50" s="117" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E50" s="118"/>
       <c r="F50" s="117"/>
@@ -5979,10 +6010,10 @@
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
       <c r="A51" s="169" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B51" s="169" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C51" s="166"/>
       <c r="D51" s="166"/>
@@ -5999,13 +6030,13 @@
         <v>[User_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C52" s="117" t="s">
+        <v>353</v>
+      </c>
+      <c r="D52" s="117" t="s">
         <v>356</v>
-      </c>
-      <c r="D52" s="117" t="s">
-        <v>359</v>
       </c>
       <c r="E52" s="118"/>
       <c r="F52" s="117"/>
@@ -6016,10 +6047,10 @@
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="169" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B53" s="169" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C53" s="166"/>
       <c r="D53" s="166"/>
@@ -6036,13 +6067,13 @@
         <v>[User_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
+        <v>360</v>
+      </c>
+      <c r="C54" s="117" t="s">
+        <v>364</v>
+      </c>
+      <c r="D54" s="117" t="s">
         <v>363</v>
-      </c>
-      <c r="C54" s="117" t="s">
-        <v>367</v>
-      </c>
-      <c r="D54" s="117" t="s">
-        <v>366</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="117"/>
@@ -6052,10 +6083,10 @@
     </row>
     <row r="55" spans="1:10" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A55" s="169" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B55" s="169" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C55" s="166"/>
       <c r="D55" s="166"/>
@@ -6071,13 +6102,13 @@
         <v>[User_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C56" s="117" t="s">
+        <v>365</v>
+      </c>
+      <c r="D56" s="117" t="s">
         <v>368</v>
-      </c>
-      <c r="D56" s="117" t="s">
-        <v>371</v>
       </c>
       <c r="E56" s="118"/>
       <c r="F56" s="117"/>
@@ -6087,10 +6118,10 @@
     </row>
     <row r="57" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
       <c r="A57" s="169" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B57" s="169" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C57" s="166"/>
       <c r="D57" s="166"/>
@@ -6106,13 +6137,13 @@
         <v>[User_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="117"/>
@@ -6145,7 +6176,7 @@
     <row r="61" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
       <c r="A61" s="169"/>
       <c r="B61" s="169" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C61" s="169"/>
       <c r="D61" s="169"/>
@@ -6158,7 +6189,7 @@
     <row r="62" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
       <c r="A62" s="185"/>
       <c r="B62" s="186" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C62" s="187"/>
       <c r="D62" s="187"/>
@@ -6174,20 +6205,20 @@
         <v>ID-44</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C63" s="117" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D63" s="117" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E63" s="117"/>
       <c r="F63" s="117"/>
       <c r="G63" s="117"/>
       <c r="H63" s="117"/>
       <c r="I63" s="188" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="190" customFormat="1" ht="14.25" customHeight="1">
@@ -6196,20 +6227,20 @@
         <v>ID-45</v>
       </c>
       <c r="B64" s="117" t="s">
+        <v>371</v>
+      </c>
+      <c r="C64" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="C64" s="117" t="s">
-        <v>377</v>
-      </c>
       <c r="D64" s="117" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E64" s="117"/>
       <c r="F64" s="117"/>
       <c r="G64" s="117"/>
       <c r="H64" s="117"/>
       <c r="I64" s="188" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="190" customFormat="1" ht="14.25" customHeight="1">
@@ -6218,20 +6249,20 @@
         <v>ID-46</v>
       </c>
       <c r="B65" s="117" t="s">
+        <v>372</v>
+      </c>
+      <c r="C65" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="C65" s="117" t="s">
-        <v>378</v>
-      </c>
       <c r="D65" s="117" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E65" s="117"/>
       <c r="F65" s="117"/>
       <c r="G65" s="117"/>
       <c r="H65" s="117"/>
       <c r="I65" s="188" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="189" customFormat="1" ht="14.25" customHeight="1">
@@ -6240,20 +6271,20 @@
         <v>ID-47</v>
       </c>
       <c r="B66" s="117" t="s">
+        <v>373</v>
+      </c>
+      <c r="C66" s="117" t="s">
         <v>376</v>
       </c>
-      <c r="C66" s="117" t="s">
-        <v>379</v>
-      </c>
       <c r="D66" s="117" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E66" s="117"/>
       <c r="F66" s="117"/>
       <c r="G66" s="117"/>
       <c r="H66" s="117"/>
       <c r="I66" s="188" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6262,20 +6293,20 @@
         <v>ID-48</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D67" s="117" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E67" s="117"/>
       <c r="F67" s="117"/>
       <c r="G67" s="117"/>
       <c r="H67" s="117"/>
       <c r="I67" s="188" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6284,26 +6315,26 @@
         <v>ID-49</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D68" s="117" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E68" s="117"/>
       <c r="F68" s="117"/>
       <c r="G68" s="117"/>
       <c r="H68" s="117"/>
       <c r="I68" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A69" s="169"/>
       <c r="B69" s="169" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C69" s="169"/>
       <c r="D69" s="169"/>
@@ -6319,20 +6350,20 @@
         <v>ID-50</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D70" s="117" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E70" s="117"/>
       <c r="F70" s="117"/>
       <c r="G70" s="117"/>
       <c r="H70" s="117"/>
       <c r="I70" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6341,20 +6372,20 @@
         <v>ID-51</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D71" s="117" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E71" s="117"/>
       <c r="F71" s="117"/>
       <c r="G71" s="117"/>
       <c r="H71" s="117"/>
       <c r="I71" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6363,20 +6394,20 @@
         <v>ID-52</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C72" s="117" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="117" t="s">
         <v>215</v>
-      </c>
-      <c r="D72" s="117" t="s">
-        <v>218</v>
       </c>
       <c r="E72" s="117"/>
       <c r="F72" s="117"/>
       <c r="G72" s="117"/>
       <c r="H72" s="117"/>
       <c r="I72" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6385,20 +6416,20 @@
         <v>ID-53</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D73" s="117" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E73" s="117"/>
       <c r="F73" s="117"/>
       <c r="G73" s="117"/>
       <c r="H73" s="117"/>
       <c r="I73" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6407,20 +6438,20 @@
         <v>ID-54</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C74" s="117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D74" s="117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E74" s="117"/>
       <c r="F74" s="117"/>
       <c r="G74" s="117"/>
       <c r="H74" s="117"/>
       <c r="I74" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6429,20 +6460,20 @@
         <v>ID-55</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C75" s="117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D75" s="117" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E75" s="117"/>
       <c r="F75" s="117"/>
       <c r="G75" s="117"/>
       <c r="H75" s="117"/>
       <c r="I75" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="13.5" customHeight="1">
@@ -6451,20 +6482,20 @@
         <v>ID-56</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C76" s="117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D76" s="117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
       <c r="G76" s="117"/>
       <c r="H76" s="117"/>
       <c r="I76" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="13.5" customHeight="1">
@@ -6473,20 +6504,20 @@
         <v>ID-57</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C77" s="117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D77" s="117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E77" s="117"/>
       <c r="F77" s="117"/>
       <c r="G77" s="117"/>
       <c r="H77" s="117"/>
       <c r="I77" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.5" customHeight="1">
@@ -6495,20 +6526,20 @@
         <v>ID-58</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C78" s="117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D78" s="117" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E78" s="117"/>
       <c r="F78" s="117"/>
       <c r="G78" s="117"/>
       <c r="H78" s="117"/>
       <c r="I78" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="13.5" customHeight="1">
@@ -6517,20 +6548,20 @@
         <v>ID-59</v>
       </c>
       <c r="B79" s="117" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C79" s="117" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D79" s="117" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E79" s="117"/>
       <c r="F79" s="117"/>
       <c r="G79" s="117"/>
       <c r="H79" s="117"/>
       <c r="I79" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1">
@@ -6539,20 +6570,20 @@
         <v>ID-60</v>
       </c>
       <c r="B80" s="117" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C80" s="117" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D80" s="117" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E80" s="117"/>
       <c r="F80" s="117"/>
       <c r="G80" s="117"/>
       <c r="H80" s="117"/>
       <c r="I80" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1">
@@ -6561,20 +6592,20 @@
         <v>ID-61</v>
       </c>
       <c r="B81" s="117" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C81" s="117" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D81" s="117" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E81" s="117"/>
       <c r="F81" s="117"/>
       <c r="G81" s="117"/>
       <c r="H81" s="117"/>
       <c r="I81" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1">
@@ -6583,20 +6614,20 @@
         <v>ID-62</v>
       </c>
       <c r="B82" s="117" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C82" s="117" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D82" s="117" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E82" s="117"/>
       <c r="F82" s="117"/>
       <c r="G82" s="117"/>
       <c r="H82" s="117"/>
       <c r="I82" s="117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6645,9 +6676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -6669,7 +6698,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="137" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="138" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -6683,7 +6712,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="211" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" s="211"/>
       <c r="D2" s="211"/>
@@ -6696,10 +6725,10 @@
     </row>
     <row r="3" spans="1:10" s="137" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="142" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" s="211" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3" s="211"/>
       <c r="D3" s="211"/>
@@ -6712,10 +6741,10 @@
     </row>
     <row r="4" spans="1:10" s="137" customFormat="1" ht="17">
       <c r="A4" s="141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B4" s="212" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" s="212"/>
       <c r="D4" s="212"/>
@@ -6732,13 +6761,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="215" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F5" s="215"/>
       <c r="G5" s="215"/>
@@ -6799,25 +6828,25 @@
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
@@ -6826,7 +6855,7 @@
     <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="133"/>
       <c r="B11" s="58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -6842,13 +6871,13 @@
         <v>[Mod_login-2]</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E12" s="171"/>
       <c r="F12" s="117"/>
@@ -6862,13 +6891,13 @@
         <v>[Mod_login-3]</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E13" s="197"/>
       <c r="F13" s="117"/>
@@ -6882,13 +6911,13 @@
         <v>[Mod_login-4]</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E14" s="173"/>
       <c r="F14" s="117"/>
@@ -6902,13 +6931,13 @@
         <v>[Mod_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E15" s="173"/>
       <c r="F15" s="117"/>
@@ -6922,13 +6951,13 @@
         <v>[Mod_login-6]</v>
       </c>
       <c r="B16" s="117" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E16" s="173"/>
       <c r="F16" s="117"/>
@@ -6942,13 +6971,13 @@
         <v>[Mod_login-7]</v>
       </c>
       <c r="B17" s="117" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E17" s="173"/>
       <c r="F17" s="117"/>
@@ -6962,13 +6991,13 @@
         <v>[Mod_login-8]</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E18" s="173"/>
       <c r="F18" s="117"/>
@@ -6982,13 +7011,13 @@
         <v>[Mod_login-9]</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E19" s="173"/>
       <c r="F19" s="117"/>
@@ -7002,13 +7031,13 @@
         <v>[Mod_login-10]</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" s="117" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E20" s="173"/>
       <c r="F20" s="117"/>
@@ -7020,7 +7049,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="176"/>
       <c r="B21" s="177" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C21" s="176"/>
       <c r="D21" s="176"/>
@@ -7037,13 +7066,13 @@
         <v>[Mod_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E22" s="179"/>
       <c r="F22" s="117"/>
@@ -7058,13 +7087,13 @@
         <v>[Mod_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E23" s="179"/>
       <c r="F23" s="117"/>
@@ -7075,10 +7104,10 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="176" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" s="176"/>
       <c r="D24" s="176"/>
@@ -7095,13 +7124,13 @@
         <v>[Mod_login-15]</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E25" s="179"/>
       <c r="F25" s="117"/>
@@ -7111,10 +7140,10 @@
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1">
       <c r="A26" s="176" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C26" s="176"/>
       <c r="D26" s="176"/>
@@ -7130,13 +7159,13 @@
         <v>[Mod_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D27" s="117" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E27" s="173"/>
       <c r="F27" s="117"/>
@@ -7146,10 +7175,10 @@
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="176" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C28" s="176"/>
       <c r="D28" s="176"/>
@@ -7165,13 +7194,13 @@
         <v>[Mod_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D29" s="117" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E29" s="173"/>
       <c r="F29" s="117"/>
@@ -7181,10 +7210,10 @@
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
       <c r="A30" s="176" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C30" s="176"/>
       <c r="D30" s="176"/>
@@ -7200,13 +7229,13 @@
         <v>[Mod_login-21]</v>
       </c>
       <c r="B31" s="117" t="s">
+        <v>310</v>
+      </c>
+      <c r="C31" s="117" t="s">
+        <v>312</v>
+      </c>
+      <c r="D31" s="117" t="s">
         <v>313</v>
-      </c>
-      <c r="C31" s="117" t="s">
-        <v>315</v>
-      </c>
-      <c r="D31" s="117" t="s">
-        <v>316</v>
       </c>
       <c r="E31" s="173"/>
       <c r="F31" s="117"/>
@@ -7248,9 +7277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -7272,7 +7299,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="137" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="138" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -7299,10 +7326,10 @@
     </row>
     <row r="3" spans="1:10" s="137" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="142" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" s="211" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3" s="211"/>
       <c r="D3" s="211"/>
@@ -7315,10 +7342,10 @@
     </row>
     <row r="4" spans="1:10" s="137" customFormat="1" ht="17">
       <c r="A4" s="141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B4" s="212" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" s="212"/>
       <c r="D4" s="212"/>
@@ -7335,13 +7362,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="215" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F5" s="215"/>
       <c r="G5" s="215"/>
@@ -7402,25 +7429,25 @@
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
@@ -7429,7 +7456,7 @@
     <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="170"/>
       <c r="B11" s="216" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" s="216"/>
       <c r="D11" s="216"/>
@@ -7445,13 +7472,13 @@
         <v>[Admin_login-2]</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E12" s="171"/>
       <c r="F12" s="117"/>
@@ -7465,16 +7492,16 @@
         <v>[Admin_login-3]</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E13" s="173" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F13" s="117"/>
       <c r="G13" s="117"/>
@@ -7487,16 +7514,16 @@
         <v>[Admin_login-4]</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E14" s="173" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F14" s="117"/>
       <c r="G14" s="117"/>
@@ -7509,16 +7536,16 @@
         <v>[Admin_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E15" s="173" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F15" s="117"/>
       <c r="G15" s="117"/>
@@ -7531,16 +7558,16 @@
         <v>[Admin_login-6]</v>
       </c>
       <c r="B16" s="117" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" s="173" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="117"/>
@@ -7553,16 +7580,16 @@
         <v>[Admin_login-7]</v>
       </c>
       <c r="B17" s="117" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E17" s="173" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F17" s="117"/>
       <c r="G17" s="117"/>
@@ -7575,16 +7602,16 @@
         <v>[Admin_login-8]</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" s="173" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F18" s="117"/>
       <c r="G18" s="117"/>
@@ -7597,16 +7624,16 @@
         <v>[Admin_login-9]</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="173" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="117"/>
@@ -7619,16 +7646,16 @@
         <v>[Admin_login-10]</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" s="117" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="173" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="117"/>
@@ -7639,7 +7666,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="176"/>
       <c r="B21" s="177" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C21" s="176"/>
       <c r="D21" s="176"/>
@@ -7656,16 +7683,16 @@
         <v>[Admin_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F22" s="117"/>
       <c r="G22" s="117"/>
@@ -7679,16 +7706,16 @@
         <v>[Admin_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F23" s="117"/>
       <c r="G23" s="117"/>
@@ -7699,7 +7726,7 @@
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="176"/>
       <c r="B24" s="177" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C24" s="176"/>
       <c r="D24" s="176"/>
@@ -7716,16 +7743,16 @@
         <v>[Admin_login-15]</v>
       </c>
       <c r="B25" s="117" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C25" s="117" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D25" s="180" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F25" s="117"/>
       <c r="G25" s="117"/>
@@ -7736,7 +7763,7 @@
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
       <c r="A26" s="176"/>
       <c r="B26" s="177" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C26" s="176"/>
       <c r="D26" s="176"/>
@@ -7753,13 +7780,13 @@
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D27" s="180" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E27" s="179"/>
       <c r="F27" s="117"/>
@@ -7771,7 +7798,7 @@
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="176"/>
       <c r="B28" s="177" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C28" s="176"/>
       <c r="D28" s="176"/>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" activeTab="2"/>
+    <workbookView xWindow="620" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="382">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -743,93 +743,8 @@
     <t>MS31</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Homepage is displayed
-2. Login panel is displayed
-3. Display message: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Homepage is displayed
-2. Login page is displayed
-3. 
-- "username@gmail.com" is displayed in user name text box
-- "••••••" is displayed in password text box
-3. Display message: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Homepage is displayed
-2. Login page is displayed
-3. Display message: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>1.The Homepage is displayed 
 2. Register page is displayed with "Register" form</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. Register page is displayed with "Register" form
-4. New account registered sucessfully</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-3. Login page is displayed
-4. Logged in successfully</t>
   </si>
   <si>
     <t>Check "Account" button</t>
@@ -961,10 +876,6 @@
   </si>
   <si>
     <t>Common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log out successfully
-2. Homepage is displayed </t>
   </si>
   <si>
     <t>Security</t>
@@ -1214,12 +1125,6 @@
 6. Click on Edit profile button</t>
   </si>
   <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The Account page is displayed</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Log in Page is displayed
 </t>
   </si>
@@ -1234,61 +1139,7 @@
 - "Login" button</t>
   </si>
   <si>
-    <t>1. Enter the mod page</t>
-  </si>
-  <si>
-    <t>1. Enter the mod page
-2. Click on "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter the mod page
-2. Click "Username" field</t>
-  </si>
-  <si>
-    <t>1. Enter the mod page
-2. Click "Password" field</t>
-  </si>
-  <si>
-    <t>1. Enter the mod page
-2. Input data to "Password" field</t>
-  </si>
-  <si>
-    <t>1. Enter the mod page
-2. Input username "email0@gmail.com" password "123456", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter the mod page
-2. Input username "email0@gmail.com" and password "fsdfs", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter the mod page
-2. Input username and password, then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter the mod page
-2. Input wrong username "fsdfsd" and password "123456789", then click "Login" button</t>
-  </si>
-  <si>
     <t>Check mod view</t>
-  </si>
-  <si>
-    <t>1. Enter the mod page
-2. Click logout button in Right Slide bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Mod Page is displayed with the following list:
-- Header
-- Right Side bar:
-+ Logout button
-- Content details left
-+ Dashboard (default)
-+ Medicinal plant management
-+ Remedy management 
-- Content details middle
-+ Total medicinal plant article
-+ Total remedy article
-+ Pending approved article
-</t>
   </si>
   <si>
     <t xml:space="preserve">1. Admin Page is displayed with the following list:
@@ -1307,33 +1158,11 @@
 </t>
   </si>
   <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. Click on avatar account dropdown list
-5. Click Edit profile button is displayed</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Login successfully
 2. Click on avatar at right side screen
 3. Click on Logout button </t>
   </si>
   <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The Account page is displayed
-5. Message list displayed</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The Account page is displayed
-5. Message list displayed
-6. Message detail displayed</t>
-  </si>
-  <si>
     <t>Integration Login with Posted Article</t>
   </si>
   <si>
@@ -1347,14 +1176,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The Account page is displayed
-5. Posted Article list
-6. Show posted article is displayed</t>
   </si>
   <si>
     <t>Mod Common module</t>
@@ -1399,16 +1220,6 @@
   <si>
     <t>1.The login of mod page is displayed 
 2. Logged in successfully, The "Mod" page is displayed</t>
-  </si>
-  <si>
-    <t>1. Enter the mod page
-2. Input username "email0@gmail.com" password "123456", then click "Login" button
-3. Click Dashboard tap</t>
-  </si>
-  <si>
-    <t>1. Enter the mod page
-2. Input username "email0@gmail.com" password "123456", then click "Login" button
-3. Click Medicinal plant management tab</t>
   </si>
   <si>
     <t>1. The login of mod page is displayed 
@@ -1443,11 +1254,6 @@
     <t>Check "medicinal plant" management</t>
   </si>
   <si>
-    <t>1. Enter the mod page
-2. Input username "email0@gmail.com" password "123456", then click "Login" button
-3. Click remedy management tab</t>
-  </si>
-  <si>
     <t>1. The login of mod page is displayed 
 2. Logged in successfully, The "Mod" page is displayed
 3. Show remedy management content 
@@ -1463,9 +1269,6 @@
     <t>Integration Login with medicinal plants</t>
   </si>
   <si>
-    <t>Check "Medicinal plants" button in menu</t>
-  </si>
-  <si>
     <t>1.The Homepage is displayed 
 2. The log in page is displayed
 3. Logged in successfully
@@ -1484,19 +1287,10 @@
     <t>Integration Login with HMS</t>
   </si>
   <si>
-    <t>Check "HMS" button in menu</t>
-  </si>
-  <si>
     <t>1.The Homepage is displayed 
 2. The log in page is displayed
 3. Logged in successfully
 4. The "HMS" page is displayed</t>
-  </si>
-  <si>
-    <t>Integration Personal page with medicinal plants link</t>
-  </si>
-  <si>
-    <t>Check "Medicinal plants" link</t>
   </si>
   <si>
     <t>1. Enter the website: thuocnam.com
@@ -1565,106 +1359,11 @@
 4. Click "Sign up" button of register page</t>
   </si>
   <si>
-    <t>1.The Homepage is displayed 
-2. Login page is displayed
-3. Forgot password form is displayed
-4. Change password page is sent to email "thuocnam@fpt.edu.vn"</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. Login page is displayed
-3. Log in successfully</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button in header
-3. Input: 
-Email: "dangnhse02992@fpt.edu.vn"
-Password: Enter new password which has been changed in change password page
-4. Click "Sign in" button of login page</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click on Login button in header
-3. Click on "Forgot password" link
-4. Input "dangnhse02992@fpt.edu.vn"
-5. Click "send" button</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on Avatar menu
-6. Click on Account button
-7. Show message list</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on Avatar menu
-6. Click on Account button
-7. Show message list
-8. Click a message of message list
-9. Show message detail modal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on Avatar menu
-6. Click on Account button
-7. Click on Image of posted article
-8. Show posted article </t>
-  </si>
-  <si>
     <t>1. Enter the website: thuocnam.com
 2. Click on Home button</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Homepage is displayed </t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The "personal" page is displayed
-5. "Medicinal plants detail" page is displayed</t>
-  </si>
-  <si>
-    <t>Integration Personal page with remedy link</t>
-  </si>
-  <si>
-    <t>Check "remedy" link</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The "personal" page is displayed
-5. "Remedy detail" page is displayed</t>
-  </si>
-  <si>
     <t>Integration Personal page with notification</t>
-  </si>
-  <si>
-    <t>Check "Notification" list</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The "personal" page is displayed
-5. "Notification" list is displayed</t>
   </si>
   <si>
     <t>Integration Medicinal plants with remedy</t>
@@ -1703,9 +1402,6 @@
     <t>Check "log out"  when user login successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">Check "relational remedy" link </t>
-  </si>
-  <si>
     <t>1.The Homepage is displayed 
 2. The log in page is displayed
 3. Logged in successfully
@@ -1721,12 +1417,6 @@
   </si>
   <si>
     <t>Integration Remedy with author</t>
-  </si>
-  <si>
-    <t>Check "Author" link</t>
-  </si>
-  <si>
-    <t>Check "HMS" link</t>
   </si>
   <si>
     <t>1. Enter the website: thuocnam.com
@@ -1737,14 +1427,6 @@
 4. Click on "sign in" button of login page or press enter
 5. Click on "Avatar" in menu bar
 6. Click "Notification" list in personal page</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The "medicinal plants" page is displayed
-5. "Medicinal plants detail" page is displayed
-6. "Author" is displayed</t>
   </si>
   <si>
     <t>1. Enter the website: thuocnam.com
@@ -1766,15 +1448,220 @@
 4. Click on "sign in" button of login page or press enter
 5. Click on "Remedy" in menu bar
 6. Click on a "Remedy" picture of remedy page
-7. Click on "relational HMS" of remedy detail page</t>
+7. Click on "author" of remedy detail page</t>
+  </si>
+  <si>
+    <t>Vietnamese Medicinal Plants Network</t>
+  </si>
+  <si>
+    <t>List enviroment requires in this system
+1. Server: 
+2. Database server: MySQL server
+3. Browser: Google Chrome 40, Mozzila Firefox 30
+4. Operation System: Mac OS X</t>
+  </si>
+  <si>
+    <t>Medicinal Plant</t>
+  </si>
+  <si>
+    <t>Remedy</t>
+  </si>
+  <si>
+    <t>Herb Store Medicine</t>
+  </si>
+  <si>
+    <t>1. Login on one browser
+2. Click "Mecicinal plant" menu
+3. Copy link
+4. Change to other browser
+5. Paste link and press Enter</t>
+  </si>
+  <si>
+    <t>1. Login on one browser
+2. Click "Remedy" menu
+3. Copy link
+4. Change to other browser
+5. Paste link and press Enter</t>
+  </si>
+  <si>
+    <t>1. Login on one browser
+2. Click "HMS" menu
+3. Copy link
+4. Change to other browser
+5. Paste link and press Enter</t>
+  </si>
+  <si>
+    <t>1. Login on one browser
+2. Click Message
+3. Copy link
+4. Change to other browser
+5. Paste link and press Enter</t>
+  </si>
+  <si>
+    <t>1. Login on one browser
+2. Click Account
+3. Copy link
+4. Change to other browser
+5. Paste link and press Enter</t>
+  </si>
+  <si>
+    <t>User function</t>
+  </si>
+  <si>
+    <t>Integrating all functions of user together then execute test</t>
+  </si>
+  <si>
+    <t>User_Function</t>
+  </si>
+  <si>
+    <t>Mod_Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mod Page is displayed with the following list:
+- Header
+- Right Side bar:
++ Logout button
+- Content details left
++ Dashboard (default)
++ Medicinal plant management
++ Remedy management 
+</t>
+  </si>
+  <si>
+    <t>Check "Medicinal plants" tab</t>
+  </si>
+  <si>
+    <t>Check "HMS" tab</t>
+  </si>
+  <si>
+    <t>Integration Personal page with related remedy</t>
+  </si>
+  <si>
+    <t>Integration Personal page with related medicinal plants</t>
+  </si>
+  <si>
+    <t>Check "Notification" tab</t>
+  </si>
+  <si>
+    <t>1. Enter the website: thuocnam.com
+2. Click on Login button
+3. Input:
++ Email: "dangnhse02992@fpt.edu.vn"
++ Password: "123456789"
+4. Click on "sign in" button of login page or press enter
+5. Click on Avatar menu
+6. Click on Account button
+7. Show message tab</t>
+  </si>
+  <si>
+    <t>Check "related remedy" tab</t>
+  </si>
+  <si>
+    <t>Check "remedy" tab</t>
+  </si>
+  <si>
+    <t>Check "Author" tab</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. Reload homepage, homepage is displayed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Homepage is displayed
+2. Login panel is displayed
+3. Username and password textarea is displayed
+4. Display message: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>MS02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Homepage is displayed
+2. Login page is displayed
+3. 
+  "username@gmail.com" is displayed in user name text box
+- "••••••" is displayed in password text box
+4. Display message: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>MS06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on Login button in header
+3. Click on "Forgot password" link
+4. Input "dangnh@fpt.edu.vn"
+5. Click "send" button</t>
   </si>
   <si>
     <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The "remedy" page is displayed
-5. "Remedy detail" page is displayed
-6. "Author" is displayed</t>
+2. Login page is displayed
+3. Forgot password form is displayed
+4. Email textarea is displayed
+5. Change password page is sent to email "dangnh@fpt.edu.vn"</t>
+  </si>
+  <si>
+    <t>1. Enter the website: thuocnam.com
+2. Click on Login button in header
+3. Input: 
+Email: "dangnhse02992@fpt.edu.vn"
+Password: Enter new password (which has been changed in change password page)
+4. Click "Sign in" button of login page</t>
+  </si>
+  <si>
+    <t>1. Enter the website: thuocnam.com
+2. Click on Login button
+3. Input:
++ Email: "dangnhse02992@fpt.edu.vn"
++ Password: "123456789"
+4. Click on "sign in" button of login page or press enter
+5. Click on Avatar menu
+6. Click on Account button
+7. Click message tab
+8. Click a message of message tab</t>
+  </si>
+  <si>
+    <t>1. Enter the website: thuocnam.com
+2. Click on Login button
+3. Input:
++ Email: "dangnhse02992@fpt.edu.vn"
++ Password: "123456789"
+4. Click on "sign in" button of login page or press enter
+5. Click on Avatar menu
+6. Click on Account button
+7. Click on Image of posted article tab</t>
   </si>
   <si>
     <t>1. Enter the website: thuocnam.com
@@ -1785,81 +1672,211 @@
 4. Click on "sign in" button of login page or press enter
 5. Click on "Remedy" in menu bar
 6. Click on a "Remedy" picture of remedy page
-7. Click on "author" of remedy detail page</t>
+7. Click on "related HMS" of remedy detail page</t>
   </si>
   <si>
     <t>1.The Homepage is displayed 
 2. The log in page is displayed
-3. Logged in successfully
-4. The "remedy" page is displayed
-5. "Remedy detail" page is displayed
-6. "HMS" is displayed</t>
-  </si>
-  <si>
-    <t>Vietnamese Medicinal Plants Network</t>
-  </si>
-  <si>
-    <t>List enviroment requires in this system
-1. Server: 
-2. Database server: MySQL server
-3. Browser: Google Chrome 40, Mozzila Firefox 30
-4. Operation System: Mac OS X</t>
-  </si>
-  <si>
-    <t>Medicinal Plant</t>
-  </si>
-  <si>
-    <t>Remedy</t>
-  </si>
-  <si>
-    <t>Herb Store Medicine</t>
-  </si>
-  <si>
-    <t>1. Login on one browser
-2. Click "Mecicinal plant" menu
-3. Copy link
-4. Change to other browser
-5. Paste link and press Enter</t>
-  </si>
-  <si>
-    <t>1. Login on one browser
-2. Click "Remedy" menu
-3. Copy link
-4. Change to other browser
-5. Paste link and press Enter</t>
-  </si>
-  <si>
-    <t>1. Login on one browser
-2. Click "HMS" menu
-3. Copy link
-4. Change to other browser
-5. Paste link and press Enter</t>
-  </si>
-  <si>
-    <t>1. Login on one browser
-2. Click Message
-3. Copy link
-4. Change to other browser
-5. Paste link and press Enter</t>
-  </si>
-  <si>
-    <t>1. Login on one browser
-2. Click Account
-3. Copy link
-4. Change to other browser
-5. Paste link and press Enter</t>
-  </si>
-  <si>
-    <t>User function</t>
-  </si>
-  <si>
-    <t>Integrating all functions of user together then execute test</t>
-  </si>
-  <si>
-    <t>User_Function</t>
-  </si>
-  <si>
-    <t>Mod_Function</t>
+3. Email and password textarea are displayed
+4. Logged in successfully
+5. The "medicinal plants" page is displayed
+6. "Medicinal plants detail" page is displayed
+7. "Author" is displayed</t>
+  </si>
+  <si>
+    <t>1. The Homepage is displayed 
+2. The log in page is displayed
+3. Email and password textarea are displayed
+4. Logged in successfully
+5. The "remedy" page is displayed
+6. "Remedy detail" page is displayed
+7. "Related HMS" is displayed</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Email and password textarea are displayed
+4. Logged in successfully
+5. The "remedy" page is displayed
+6. "Remedy detail" page is displayed
+7. "Author" is displayed</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Email and password textarea are displayed
+4. Logged in successfully
+5. The "personal" page is displayed
+6. "Notification" list is displayed</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Email and password textarea are displayed
+4. Logged in successfully
+5. The "personal" page is displayed
+6. "Remedy detail" page is displayed</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Email and password textarea are displayed
+4. Logged in successfully
+5. The "personal" page is displayed
+6. "Medicinal plants detail" page is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage and avatar is displayed 
+2. Log out successfully
+3. Homepage is displayed </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Homepage is displayed
+2. Login page is displayed
+3. Username and password is displayed
+4. Display message: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>MS12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>1. The Homepage is displayed 
+2. Login page is displayed
+3. Username and password textarea are displayed
+4. Logged in successfully</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. Register page is displayed with "Register" form
+3. Username, password, email, address, phone textarea are displayed
+4. New account registered sucessfully</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. Login page is displayed
+3. Email and password textarea ara displayed
+4. Log in successfully</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Email, password text area are displayed
+4. Logged in successfully
+5. Avatar logo is displayed
+6. The Edit page is displayed</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Email, password text area are displayed
+4. Logged in successfully
+5. Avatar logo is displayed
+6. The Account page is displayed</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Email, password text area are displayed
+4. Logged in successfully
+5. Avatar logo is displayed
+6. The Account page is displayed
+7. Message is displayed</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Email, password text area are displayed
+4. Logged in successfully
+5. Avatar logo is displayed
+6. The Account page is displayed
+7. Message is displayed
+8. Message detail is displayed</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. The log in page is displayed
+3. Email, password text area are displayed
+4. Logged in successfully
+5. Avatar logo is displayed
+6. The Account page is displayed
+7. Posted article is displayed</t>
+  </si>
+  <si>
+    <t>1. The Homepage is displayed
+2. Avatar menu is showed
+3. Logout user and redirect to homepage as guest rule</t>
+  </si>
+  <si>
+    <t>1. Enter mod page</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Click on "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Click "Username" field</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Click "Password" field</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Input data to "Password" field</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Input username "email0@gmail.com" password "123456", then click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Input username "email0@gmail.com" and password "fsdfs", then click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Input username and password, then click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Input wrong username "fsdfsd" and password "123456789", then click "Login" button</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Click logout button in Right Slide bar</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Input username "email0@gmail.com" password "123456", then click "Login" button
+3. Click Dashboard tap</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Input username "email0@gmail.com" password "123456"
+3. Click "Login" button
+4. Click Medicinal plant management tab</t>
+  </si>
+  <si>
+    <t>1. Enter mod page
+2. Input username "email0@gmail.com" password "123456"
+3. Click "Login" button
+4. Click remedy management tab</t>
   </si>
 </sst>
 </file>
@@ -2751,7 +2768,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
@@ -2811,6 +2828,11 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3343,6 +3365,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3395,9 +3418,8 @@
     <xf numFmtId="0" fontId="27" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="64">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -3449,6 +3471,11 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -3923,13 +3950,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -3940,44 +3967,44 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="200" t="s">
-        <v>369</v>
-      </c>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
+      <c r="C4" s="201" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="200" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
+      <c r="C5" s="201" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="202" t="str">
+      <c r="C6" s="203" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -3986,10 +4013,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="201"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -4049,7 +4076,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
@@ -4156,39 +4183,39 @@
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206" t="str">
+      <c r="C3" s="206"/>
+      <c r="D3" s="207" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="206" t="str">
+      <c r="C4" s="206"/>
+      <c r="D4" s="207" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
     </row>
     <row r="5" spans="2:6" s="35" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="204" t="s">
-        <v>370</v>
-      </c>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="205" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="36"/>
@@ -4226,13 +4253,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="D9" s="149" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="F9" s="113" t="s">
         <v>90</v>
@@ -4356,7 +4383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4371,15 +4398,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="62"/>
@@ -4395,17 +4422,17 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="206" t="str">
+      <c r="C3" s="207" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207" t="s">
+      <c r="D3" s="207"/>
+      <c r="E3" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="207"/>
+      <c r="F3" s="208"/>
       <c r="G3" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H3" s="65"/>
     </row>
@@ -4413,17 +4440,17 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="206" t="str">
+      <c r="C4" s="207" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="206"/>
-      <c r="E4" s="207" t="s">
+      <c r="D4" s="207"/>
+      <c r="E4" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="207"/>
+      <c r="F4" s="208"/>
       <c r="G4" s="10" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="H4" s="65"/>
     </row>
@@ -4431,15 +4458,15 @@
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="206" t="str">
+      <c r="C5" s="207" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="206"/>
-      <c r="E5" s="207" t="s">
+      <c r="D5" s="207"/>
+      <c r="E5" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="207"/>
+      <c r="F5" s="208"/>
       <c r="G5" s="115"/>
       <c r="H5" s="67"/>
     </row>
@@ -4448,12 +4475,12 @@
       <c r="B6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="62"/>
@@ -4514,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="149" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
@@ -4542,8 +4569,8 @@
       <c r="B12" s="151">
         <v>2</v>
       </c>
-      <c r="C12" s="217" t="s">
-        <v>382</v>
+      <c r="C12" s="199" t="s">
+        <v>332</v>
       </c>
       <c r="D12" s="76">
         <f>Mod_Function!A6</f>
@@ -4719,11 +4746,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="13">
@@ -5026,7 +5053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -5061,14 +5090,14 @@
       <c r="A2" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="212" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
       <c r="H2" s="147" t="s">
         <v>22</v>
       </c>
@@ -5081,14 +5110,14 @@
       <c r="A3" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
       <c r="H3" s="147" t="s">
         <v>24</v>
       </c>
@@ -5101,14 +5130,14 @@
       <c r="A4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="212" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
+      <c r="B4" s="213" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
       <c r="H4" s="147" t="s">
         <v>27</v>
       </c>
@@ -5128,11 +5157,11 @@
       <c r="D5" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="213" t="s">
+      <c r="E5" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
       <c r="H5" s="148" t="s">
         <v>26</v>
       </c>
@@ -5158,12 +5187,12 @@
         <f>COUNTIF(F11:G688,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="215">
         <f>COUNTA(A11:A245)*2</f>
         <v>122</v>
       </c>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
       <c r="H6" s="99"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95" t="s">
@@ -5259,7 +5288,7 @@
         <v>57</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D12" s="117" t="s">
         <v>94</v>
@@ -5280,7 +5309,7 @@
         <v>58</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D13" s="117" t="s">
         <v>95</v>
@@ -5301,10 +5330,10 @@
         <v>59</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E14" s="122"/>
       <c r="F14" s="117"/>
@@ -5322,7 +5351,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D15" s="124" t="s">
         <v>96</v>
@@ -5343,10 +5372,10 @@
         <v>61</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>158</v>
+        <v>344</v>
       </c>
       <c r="E16" s="125"/>
       <c r="F16" s="117"/>
@@ -5364,10 +5393,10 @@
         <v>62</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>159</v>
+        <v>345</v>
       </c>
       <c r="E17" s="125"/>
       <c r="F17" s="117"/>
@@ -5385,10 +5414,10 @@
         <v>63</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>160</v>
+        <v>359</v>
       </c>
       <c r="E18" s="125"/>
       <c r="F18" s="117"/>
@@ -5420,10 +5449,10 @@
         <v>79</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E20" s="91" t="s">
         <v>80</v>
@@ -5437,7 +5466,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="58" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -5457,10 +5486,10 @@
         <v>84</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E22" s="91" t="s">
         <v>81</v>
@@ -5480,10 +5509,10 @@
         <v>85</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>162</v>
+        <v>361</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="117"/>
@@ -5501,10 +5530,10 @@
         <v>86</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>163</v>
+        <v>360</v>
       </c>
       <c r="E24" s="91" t="s">
         <v>81</v>
@@ -5535,13 +5564,13 @@
         <v>[User_login-16]</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D26" s="136" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>83</v>
@@ -5561,10 +5590,10 @@
         <v>87</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="E27" s="91" t="s">
         <v>81</v>
@@ -5578,7 +5607,7 @@
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
       <c r="A28" s="58"/>
       <c r="B28" s="58" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -5595,13 +5624,13 @@
         <v>[User_login-19]</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="E29" s="104" t="s">
         <v>88</v>
@@ -5621,10 +5650,10 @@
         <v>89</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D30" s="104" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="E30" s="104" t="s">
         <v>88</v>
@@ -5637,10 +5666,10 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
       <c r="A31" s="58" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="59"/>
@@ -5657,13 +5686,13 @@
         <v>[User_login-22]</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="117"/>
@@ -5678,13 +5707,13 @@
         <v>[User_login-23]</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="117"/>
@@ -5695,10 +5724,10 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
       <c r="A34" s="58" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -5715,13 +5744,13 @@
         <v>[User_login-25]</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="117"/>
@@ -5733,7 +5762,7 @@
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
       <c r="A36" s="169"/>
       <c r="B36" s="169" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C36" s="166"/>
       <c r="D36" s="166"/>
@@ -5750,13 +5779,13 @@
         <v>[User_login-27]</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="D37" s="117" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E37" s="118"/>
       <c r="F37" s="117"/>
@@ -5771,13 +5800,13 @@
         <v>[User_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="C38" s="117" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D38" s="117" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="E38" s="118"/>
       <c r="F38" s="117"/>
@@ -5788,10 +5817,10 @@
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
       <c r="A39" s="169" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B39" s="169" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C39" s="166"/>
       <c r="D39" s="166"/>
@@ -5808,13 +5837,13 @@
         <v>[User_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C40" s="117" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="D40" s="117" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E40" s="118"/>
       <c r="F40" s="117"/>
@@ -5825,10 +5854,10 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
       <c r="A41" s="169" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B41" s="169" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="C41" s="166"/>
       <c r="D41" s="166"/>
@@ -5845,13 +5874,13 @@
         <v>[User_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C42" s="117" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="D42" s="117" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="E42" s="118"/>
       <c r="F42" s="117"/>
@@ -5862,10 +5891,10 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="169" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B43" s="169" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="C43" s="166"/>
       <c r="D43" s="166"/>
@@ -5882,13 +5911,13 @@
         <v>[User_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C44" s="117" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="D44" s="117" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="E44" s="118"/>
       <c r="F44" s="117"/>
@@ -5899,10 +5928,10 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1">
       <c r="A45" s="169" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B45" s="169" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C45" s="166"/>
       <c r="D45" s="166"/>
@@ -5919,13 +5948,13 @@
         <v>[User_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="D46" s="117" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="E46" s="118"/>
       <c r="F46" s="117"/>
@@ -5936,10 +5965,10 @@
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
       <c r="A47" s="169" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B47" s="169" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C47" s="166"/>
       <c r="D47" s="166"/>
@@ -5956,13 +5985,13 @@
         <v>[User_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="D48" s="117" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E48" s="118"/>
       <c r="F48" s="117"/>
@@ -5973,10 +6002,10 @@
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
       <c r="A49" s="169" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B49" s="169" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="C49" s="166"/>
       <c r="D49" s="166"/>
@@ -5993,13 +6022,13 @@
         <v>[User_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="D50" s="117" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E50" s="118"/>
       <c r="F50" s="117"/>
@@ -6010,10 +6039,10 @@
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
       <c r="A51" s="169" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B51" s="169" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C51" s="166"/>
       <c r="D51" s="166"/>
@@ -6030,13 +6059,13 @@
         <v>[User_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="D52" s="117" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="E52" s="118"/>
       <c r="F52" s="117"/>
@@ -6047,10 +6076,10 @@
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="169" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B53" s="169" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="C53" s="166"/>
       <c r="D53" s="166"/>
@@ -6067,13 +6096,13 @@
         <v>[User_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="D54" s="117" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="117"/>
@@ -6083,10 +6112,10 @@
     </row>
     <row r="55" spans="1:10" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A55" s="169" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B55" s="169" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="C55" s="166"/>
       <c r="D55" s="166"/>
@@ -6102,13 +6131,13 @@
         <v>[User_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E56" s="118"/>
       <c r="F56" s="117"/>
@@ -6118,10 +6147,10 @@
     </row>
     <row r="57" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
       <c r="A57" s="169" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B57" s="169" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="C57" s="166"/>
       <c r="D57" s="166"/>
@@ -6137,13 +6166,13 @@
         <v>[User_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="117"/>
@@ -6176,7 +6205,7 @@
     <row r="61" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
       <c r="A61" s="169"/>
       <c r="B61" s="169" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C61" s="169"/>
       <c r="D61" s="169"/>
@@ -6189,7 +6218,7 @@
     <row r="62" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
       <c r="A62" s="185"/>
       <c r="B62" s="186" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C62" s="187"/>
       <c r="D62" s="187"/>
@@ -6205,20 +6234,20 @@
         <v>ID-44</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C63" s="117" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D63" s="117" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E63" s="117"/>
       <c r="F63" s="117"/>
       <c r="G63" s="117"/>
       <c r="H63" s="117"/>
       <c r="I63" s="188" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="190" customFormat="1" ht="14.25" customHeight="1">
@@ -6227,20 +6256,20 @@
         <v>ID-45</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="D64" s="117" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E64" s="117"/>
       <c r="F64" s="117"/>
       <c r="G64" s="117"/>
       <c r="H64" s="117"/>
       <c r="I64" s="188" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="190" customFormat="1" ht="14.25" customHeight="1">
@@ -6249,20 +6278,20 @@
         <v>ID-46</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="D65" s="117" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E65" s="117"/>
       <c r="F65" s="117"/>
       <c r="G65" s="117"/>
       <c r="H65" s="117"/>
       <c r="I65" s="188" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="189" customFormat="1" ht="14.25" customHeight="1">
@@ -6271,20 +6300,20 @@
         <v>ID-47</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="D66" s="117" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E66" s="117"/>
       <c r="F66" s="117"/>
       <c r="G66" s="117"/>
       <c r="H66" s="117"/>
       <c r="I66" s="188" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6293,20 +6322,20 @@
         <v>ID-48</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="D67" s="117" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E67" s="117"/>
       <c r="F67" s="117"/>
       <c r="G67" s="117"/>
       <c r="H67" s="117"/>
       <c r="I67" s="188" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6315,26 +6344,26 @@
         <v>ID-49</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="D68" s="117" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E68" s="117"/>
       <c r="F68" s="117"/>
       <c r="G68" s="117"/>
       <c r="H68" s="117"/>
       <c r="I68" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A69" s="169"/>
       <c r="B69" s="169" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C69" s="169"/>
       <c r="D69" s="169"/>
@@ -6350,20 +6379,20 @@
         <v>ID-50</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D70" s="117" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E70" s="117"/>
       <c r="F70" s="117"/>
       <c r="G70" s="117"/>
       <c r="H70" s="117"/>
       <c r="I70" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6372,20 +6401,20 @@
         <v>ID-51</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D71" s="117" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E71" s="117"/>
       <c r="F71" s="117"/>
       <c r="G71" s="117"/>
       <c r="H71" s="117"/>
       <c r="I71" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6394,20 +6423,20 @@
         <v>ID-52</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D72" s="117" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E72" s="117"/>
       <c r="F72" s="117"/>
       <c r="G72" s="117"/>
       <c r="H72" s="117"/>
       <c r="I72" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6416,20 +6445,20 @@
         <v>ID-53</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D73" s="117" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E73" s="117"/>
       <c r="F73" s="117"/>
       <c r="G73" s="117"/>
       <c r="H73" s="117"/>
       <c r="I73" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6438,20 +6467,20 @@
         <v>ID-54</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C74" s="117" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D74" s="117" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E74" s="117"/>
       <c r="F74" s="117"/>
       <c r="G74" s="117"/>
       <c r="H74" s="117"/>
       <c r="I74" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6460,20 +6489,20 @@
         <v>ID-55</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C75" s="117" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D75" s="117" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E75" s="117"/>
       <c r="F75" s="117"/>
       <c r="G75" s="117"/>
       <c r="H75" s="117"/>
       <c r="I75" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="13.5" customHeight="1">
@@ -6482,20 +6511,20 @@
         <v>ID-56</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C76" s="117" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D76" s="117" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
       <c r="G76" s="117"/>
       <c r="H76" s="117"/>
       <c r="I76" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="13.5" customHeight="1">
@@ -6504,20 +6533,20 @@
         <v>ID-57</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C77" s="117" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D77" s="117" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E77" s="117"/>
       <c r="F77" s="117"/>
       <c r="G77" s="117"/>
       <c r="H77" s="117"/>
       <c r="I77" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.5" customHeight="1">
@@ -6526,20 +6555,20 @@
         <v>ID-58</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C78" s="117" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D78" s="117" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E78" s="117"/>
       <c r="F78" s="117"/>
       <c r="G78" s="117"/>
       <c r="H78" s="117"/>
       <c r="I78" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="13.5" customHeight="1">
@@ -6548,20 +6577,20 @@
         <v>ID-59</v>
       </c>
       <c r="B79" s="117" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C79" s="117" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D79" s="117" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E79" s="117"/>
       <c r="F79" s="117"/>
       <c r="G79" s="117"/>
       <c r="H79" s="117"/>
       <c r="I79" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1">
@@ -6570,20 +6599,20 @@
         <v>ID-60</v>
       </c>
       <c r="B80" s="117" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C80" s="117" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D80" s="117" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E80" s="117"/>
       <c r="F80" s="117"/>
       <c r="G80" s="117"/>
       <c r="H80" s="117"/>
       <c r="I80" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1">
@@ -6592,20 +6621,20 @@
         <v>ID-61</v>
       </c>
       <c r="B81" s="117" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C81" s="117" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D81" s="117" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E81" s="117"/>
       <c r="F81" s="117"/>
       <c r="G81" s="117"/>
       <c r="H81" s="117"/>
       <c r="I81" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1">
@@ -6614,20 +6643,20 @@
         <v>ID-62</v>
       </c>
       <c r="B82" s="117" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C82" s="117" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D82" s="117" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E82" s="117"/>
       <c r="F82" s="117"/>
       <c r="G82" s="117"/>
       <c r="H82" s="117"/>
       <c r="I82" s="117" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6676,7 +6705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -6698,7 +6729,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="137" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="138" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -6711,46 +6742,46 @@
       <c r="A2" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="211" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
+      <c r="B2" s="212" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
       <c r="J2" s="95" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="137" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="142" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="211" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
+        <v>179</v>
+      </c>
+      <c r="B3" s="212" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
       <c r="J3" s="95" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="137" customFormat="1" ht="17">
       <c r="A4" s="141" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="212" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
+        <v>181</v>
+      </c>
+      <c r="B4" s="213" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
       <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:10" s="137" customFormat="1" ht="17">
@@ -6761,16 +6792,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="215" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
+      <c r="E5" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
       <c r="J5" s="95" t="s">
         <v>29</v>
       </c>
@@ -6792,12 +6823,12 @@
         <f>COUNTIF(F11:G705,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="215">
         <f>COUNTA(A11:A263)*2</f>
         <v>38</v>
       </c>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
       <c r="J6" s="95" t="s">
         <v>27</v>
       </c>
@@ -6828,16 +6859,16 @@
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F10" s="57" t="s">
         <v>92</v>
@@ -6846,7 +6877,7 @@
         <v>93</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
@@ -6855,7 +6886,7 @@
     <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="133"/>
       <c r="B11" s="58" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -6871,13 +6902,13 @@
         <v>[Mod_login-2]</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="E12" s="171"/>
       <c r="F12" s="117"/>
@@ -6894,10 +6925,10 @@
         <v>64</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="E13" s="197"/>
       <c r="F13" s="117"/>
@@ -6911,13 +6942,13 @@
         <v>[Mod_login-4]</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="E14" s="173"/>
       <c r="F14" s="117"/>
@@ -6931,13 +6962,13 @@
         <v>[Mod_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="E15" s="173"/>
       <c r="F15" s="117"/>
@@ -6954,10 +6985,10 @@
         <v>74</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>274</v>
+        <v>373</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E16" s="173"/>
       <c r="F16" s="117"/>
@@ -6974,10 +7005,10 @@
         <v>66</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>275</v>
+        <v>374</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="E17" s="173"/>
       <c r="F17" s="117"/>
@@ -6994,10 +7025,10 @@
         <v>68</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>276</v>
+        <v>375</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E18" s="173"/>
       <c r="F18" s="117"/>
@@ -7014,10 +7045,10 @@
         <v>70</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E19" s="173"/>
       <c r="F19" s="117"/>
@@ -7034,10 +7065,10 @@
         <v>72</v>
       </c>
       <c r="C20" s="117" t="s">
-        <v>278</v>
+        <v>377</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E20" s="173"/>
       <c r="F20" s="117"/>
@@ -7049,7 +7080,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="176"/>
       <c r="B21" s="177" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C21" s="176"/>
       <c r="D21" s="176"/>
@@ -7066,13 +7097,13 @@
         <v>[Mod_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="E22" s="179"/>
       <c r="F22" s="117"/>
@@ -7087,13 +7118,13 @@
         <v>[Mod_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E23" s="179"/>
       <c r="F23" s="117"/>
@@ -7104,7 +7135,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="176" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B24" s="58" t="s">
         <v>78</v>
@@ -7127,10 +7158,10 @@
         <v>79</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>261</v>
+        <v>368</v>
       </c>
       <c r="E25" s="179"/>
       <c r="F25" s="117"/>
@@ -7140,10 +7171,10 @@
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1">
       <c r="A26" s="176" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C26" s="176"/>
       <c r="D26" s="176"/>
@@ -7159,13 +7190,13 @@
         <v>[Mod_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="D27" s="117" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="E27" s="173"/>
       <c r="F27" s="117"/>
@@ -7175,10 +7206,10 @@
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="176" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C28" s="176"/>
       <c r="D28" s="176"/>
@@ -7194,13 +7225,13 @@
         <v>[Mod_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="D29" s="117" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="E29" s="173"/>
       <c r="F29" s="117"/>
@@ -7210,10 +7241,10 @@
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
       <c r="A30" s="176" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C30" s="176"/>
       <c r="D30" s="176"/>
@@ -7229,13 +7260,13 @@
         <v>[Mod_login-21]</v>
       </c>
       <c r="B31" s="117" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C31" s="117" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="D31" s="117" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="E31" s="173"/>
       <c r="F31" s="117"/>
@@ -7277,7 +7308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView topLeftCell="B6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -7299,7 +7332,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="137" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="138" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -7312,46 +7345,46 @@
       <c r="A2" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="212" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
       <c r="J2" s="95" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="137" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="142" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="211" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
+        <v>179</v>
+      </c>
+      <c r="B3" s="212" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
       <c r="J3" s="95" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="137" customFormat="1" ht="17">
       <c r="A4" s="141" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="212" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
+        <v>181</v>
+      </c>
+      <c r="B4" s="213" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
       <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:10" s="137" customFormat="1" ht="17">
@@ -7362,16 +7395,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="215" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
+      <c r="E5" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
       <c r="J5" s="95" t="s">
         <v>29</v>
       </c>
@@ -7393,12 +7426,12 @@
         <f>COUNTIF(F11:G708,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="214">
+      <c r="E6" s="215">
         <f>COUNTA(A11:A265)*2</f>
         <v>26</v>
       </c>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
       <c r="J6" s="95" t="s">
         <v>27</v>
       </c>
@@ -7429,16 +7462,16 @@
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F10" s="57" t="s">
         <v>92</v>
@@ -7447,7 +7480,7 @@
         <v>93</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
@@ -7455,16 +7488,16 @@
     </row>
     <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="170"/>
-      <c r="B11" s="216" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="216"/>
+      <c r="B11" s="217" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="217"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="217"/>
     </row>
     <row r="12" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="165" t="str">
@@ -7472,13 +7505,13 @@
         <v>[Admin_login-2]</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E12" s="171"/>
       <c r="F12" s="117"/>
@@ -7498,10 +7531,10 @@
         <v>65</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E13" s="173" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F13" s="117"/>
       <c r="G13" s="117"/>
@@ -7514,16 +7547,16 @@
         <v>[Admin_login-4]</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E14" s="173" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F14" s="117"/>
       <c r="G14" s="117"/>
@@ -7536,16 +7569,16 @@
         <v>[Admin_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E15" s="173" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F15" s="117"/>
       <c r="G15" s="117"/>
@@ -7567,7 +7600,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="173" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="117"/>
@@ -7583,13 +7616,13 @@
         <v>66</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D17" s="117" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="173" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F17" s="117"/>
       <c r="G17" s="117"/>
@@ -7605,13 +7638,13 @@
         <v>68</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D18" s="117" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="173" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F18" s="117"/>
       <c r="G18" s="117"/>
@@ -7633,7 +7666,7 @@
         <v>69</v>
       </c>
       <c r="E19" s="173" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="117"/>
@@ -7655,7 +7688,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="173" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="117"/>
@@ -7666,7 +7699,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="176"/>
       <c r="B21" s="177" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C21" s="176"/>
       <c r="D21" s="176"/>
@@ -7683,16 +7716,16 @@
         <v>[Admin_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F22" s="117"/>
       <c r="G22" s="117"/>
@@ -7706,16 +7739,16 @@
         <v>[Admin_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F23" s="117"/>
       <c r="G23" s="117"/>
@@ -7726,7 +7759,7 @@
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="176"/>
       <c r="B24" s="177" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C24" s="176"/>
       <c r="D24" s="176"/>
@@ -7743,16 +7776,16 @@
         <v>[Admin_login-15]</v>
       </c>
       <c r="B25" s="117" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C25" s="117" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D25" s="180" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F25" s="117"/>
       <c r="G25" s="117"/>
@@ -7763,7 +7796,7 @@
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
       <c r="A26" s="176"/>
       <c r="B26" s="177" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C26" s="176"/>
       <c r="D26" s="176"/>
@@ -7780,13 +7813,13 @@
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D27" s="180" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E27" s="179"/>
       <c r="F27" s="117"/>
@@ -7798,7 +7831,7 @@
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="176"/>
       <c r="B28" s="177" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="C28" s="176"/>
       <c r="D28" s="176"/>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" activeTab="5"/>
+    <workbookView xWindow="660" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="383">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -801,18 +801,9 @@
     <t>Admin Common module</t>
   </si>
   <si>
-    <t>1. Enter the admin page
-2. Click logout button in Right Slide bar</t>
-  </si>
-  <si>
     <t>Admin Dashboard module</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Enter the admin page
-2. Click Dashboard button in Right Slide bar
-</t>
-  </si>
-  <si>
     <t>User Management module</t>
   </si>
   <si>
@@ -853,16 +844,10 @@
   </si>
   <si>
     <t>Check Logout button</t>
-  </si>
-  <si>
-    <t>Check Admin when admin click Dashboard button in sidebar</t>
   </si>
   <si>
     <t>1. Admin Page is displayed
 2. Content about dashboard is displayed</t>
-  </si>
-  <si>
-    <t>Check  User button in sidebar</t>
   </si>
   <si>
     <t>1. Admin Page is displayed
@@ -1140,22 +1125,6 @@
   </si>
   <si>
     <t>Check mod view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Admin Page is displayed with the following list:
-- Header
-- Right Side bar:
-+ Logout button
-- Content details left
-+ Dashboard (default)
-+ User management
-+ New herb medicine store resgister 
-- Content details middle
-+ Total user account
-+ Total herb medicine store
-+ Pending approved herb medicine store
-+ Total viewer
-</t>
   </si>
   <si>
     <t xml:space="preserve">1. Login successfully
@@ -1877,6 +1846,38 @@
 2. Input username "email0@gmail.com" password "123456"
 3. Click "Login" button
 4. Click remedy management tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Admin Page is displayed with the following list:
+- Header
+- Right Side bar:
++ Logout button
+- Content details left
++ Dashboard (default)
++ User management
++ New herb medicine store resgister 
+</t>
+  </si>
+  <si>
+    <t>1. Enter the admin page
+2. Input correct account and password as admin rule
+3. Click logout button in Right Slide bar</t>
+  </si>
+  <si>
+    <t>1. Log in Page is displayed
+2. Login successful as admin rule
+3. Login page is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the admin page
+2. Click Dashboard tab in Left Slide bar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Dashboard tab </t>
+  </si>
+  <si>
+    <t>Check User Management tab</t>
   </si>
 </sst>
 </file>
@@ -3968,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="201" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D4" s="201"/>
       <c r="E4" s="201"/>
@@ -3976,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
@@ -3984,7 +3985,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="201" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D5" s="201"/>
       <c r="E5" s="201"/>
@@ -3992,7 +3993,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -4076,7 +4077,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
@@ -4212,7 +4213,7 @@
       </c>
       <c r="C5" s="204"/>
       <c r="D5" s="205" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E5" s="205"/>
       <c r="F5" s="205"/>
@@ -4253,13 +4254,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D9" s="149" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F9" s="113" t="s">
         <v>90</v>
@@ -4432,7 +4433,7 @@
       </c>
       <c r="F3" s="208"/>
       <c r="G3" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H3" s="65"/>
     </row>
@@ -4450,7 +4451,7 @@
       </c>
       <c r="F4" s="208"/>
       <c r="G4" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H4" s="65"/>
     </row>
@@ -4541,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="149" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
@@ -4570,7 +4571,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D12" s="76">
         <f>Mod_Function!A6</f>
@@ -5131,7 +5132,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="213" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C4" s="213"/>
       <c r="D4" s="213"/>
@@ -5288,7 +5289,7 @@
         <v>57</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D12" s="117" t="s">
         <v>94</v>
@@ -5309,7 +5310,7 @@
         <v>58</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D13" s="117" t="s">
         <v>95</v>
@@ -5330,10 +5331,10 @@
         <v>59</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E14" s="122"/>
       <c r="F14" s="117"/>
@@ -5351,7 +5352,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D15" s="124" t="s">
         <v>96</v>
@@ -5372,10 +5373,10 @@
         <v>61</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E16" s="125"/>
       <c r="F16" s="117"/>
@@ -5393,10 +5394,10 @@
         <v>62</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E17" s="125"/>
       <c r="F17" s="117"/>
@@ -5414,10 +5415,10 @@
         <v>63</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E18" s="125"/>
       <c r="F18" s="117"/>
@@ -5449,10 +5450,10 @@
         <v>79</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E20" s="91" t="s">
         <v>80</v>
@@ -5466,7 +5467,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="58" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -5486,7 +5487,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D22" s="91" t="s">
         <v>158</v>
@@ -5509,10 +5510,10 @@
         <v>85</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="117"/>
@@ -5530,10 +5531,10 @@
         <v>86</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E24" s="91" t="s">
         <v>81</v>
@@ -5564,13 +5565,13 @@
         <v>[User_login-16]</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D26" s="136" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>83</v>
@@ -5590,10 +5591,10 @@
         <v>87</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E27" s="91" t="s">
         <v>81</v>
@@ -5627,10 +5628,10 @@
         <v>159</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E29" s="104" t="s">
         <v>88</v>
@@ -5650,10 +5651,10 @@
         <v>89</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D30" s="104" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E30" s="104" t="s">
         <v>88</v>
@@ -5666,7 +5667,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
       <c r="A31" s="58" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B31" s="58" t="s">
         <v>161</v>
@@ -5686,13 +5687,13 @@
         <v>[User_login-22]</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="117"/>
@@ -5707,13 +5708,13 @@
         <v>[User_login-23]</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="117"/>
@@ -5724,10 +5725,10 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
       <c r="A34" s="58" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -5744,13 +5745,13 @@
         <v>[User_login-25]</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="117"/>
@@ -5762,7 +5763,7 @@
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
       <c r="A36" s="169"/>
       <c r="B36" s="169" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C36" s="166"/>
       <c r="D36" s="166"/>
@@ -5779,13 +5780,13 @@
         <v>[User_login-27]</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D37" s="117" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E37" s="118"/>
       <c r="F37" s="117"/>
@@ -5800,13 +5801,13 @@
         <v>[User_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C38" s="117" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D38" s="117" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E38" s="118"/>
       <c r="F38" s="117"/>
@@ -5817,10 +5818,10 @@
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
       <c r="A39" s="169" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B39" s="169" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C39" s="166"/>
       <c r="D39" s="166"/>
@@ -5837,13 +5838,13 @@
         <v>[User_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C40" s="117" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D40" s="117" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E40" s="118"/>
       <c r="F40" s="117"/>
@@ -5854,10 +5855,10 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
       <c r="A41" s="169" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B41" s="169" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C41" s="166"/>
       <c r="D41" s="166"/>
@@ -5874,13 +5875,13 @@
         <v>[User_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C42" s="117" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D42" s="117" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E42" s="118"/>
       <c r="F42" s="117"/>
@@ -5891,10 +5892,10 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="169" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B43" s="169" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C43" s="166"/>
       <c r="D43" s="166"/>
@@ -5911,13 +5912,13 @@
         <v>[User_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C44" s="117" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D44" s="117" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E44" s="118"/>
       <c r="F44" s="117"/>
@@ -5928,10 +5929,10 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1">
       <c r="A45" s="169" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B45" s="169" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C45" s="166"/>
       <c r="D45" s="166"/>
@@ -5948,13 +5949,13 @@
         <v>[User_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D46" s="117" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E46" s="118"/>
       <c r="F46" s="117"/>
@@ -5965,10 +5966,10 @@
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
       <c r="A47" s="169" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B47" s="169" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C47" s="166"/>
       <c r="D47" s="166"/>
@@ -5985,13 +5986,13 @@
         <v>[User_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D48" s="117" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E48" s="118"/>
       <c r="F48" s="117"/>
@@ -6002,10 +6003,10 @@
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
       <c r="A49" s="169" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B49" s="169" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C49" s="166"/>
       <c r="D49" s="166"/>
@@ -6022,13 +6023,13 @@
         <v>[User_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D50" s="117" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E50" s="118"/>
       <c r="F50" s="117"/>
@@ -6039,10 +6040,10 @@
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
       <c r="A51" s="169" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B51" s="169" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C51" s="166"/>
       <c r="D51" s="166"/>
@@ -6059,13 +6060,13 @@
         <v>[User_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D52" s="117" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E52" s="118"/>
       <c r="F52" s="117"/>
@@ -6076,10 +6077,10 @@
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="169" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B53" s="169" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C53" s="166"/>
       <c r="D53" s="166"/>
@@ -6096,13 +6097,13 @@
         <v>[User_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D54" s="117" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="117"/>
@@ -6112,10 +6113,10 @@
     </row>
     <row r="55" spans="1:10" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A55" s="169" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B55" s="169" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C55" s="166"/>
       <c r="D55" s="166"/>
@@ -6131,13 +6132,13 @@
         <v>[User_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E56" s="118"/>
       <c r="F56" s="117"/>
@@ -6147,10 +6148,10 @@
     </row>
     <row r="57" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
       <c r="A57" s="169" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B57" s="169" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C57" s="166"/>
       <c r="D57" s="166"/>
@@ -6166,13 +6167,13 @@
         <v>[User_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="117"/>
@@ -6205,7 +6206,7 @@
     <row r="61" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
       <c r="A61" s="169"/>
       <c r="B61" s="169" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C61" s="169"/>
       <c r="D61" s="169"/>
@@ -6218,7 +6219,7 @@
     <row r="62" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
       <c r="A62" s="185"/>
       <c r="B62" s="186" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C62" s="187"/>
       <c r="D62" s="187"/>
@@ -6234,20 +6235,20 @@
         <v>ID-44</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C63" s="117" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D63" s="117" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E63" s="117"/>
       <c r="F63" s="117"/>
       <c r="G63" s="117"/>
       <c r="H63" s="117"/>
       <c r="I63" s="188" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="190" customFormat="1" ht="14.25" customHeight="1">
@@ -6256,20 +6257,20 @@
         <v>ID-45</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D64" s="117" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E64" s="117"/>
       <c r="F64" s="117"/>
       <c r="G64" s="117"/>
       <c r="H64" s="117"/>
       <c r="I64" s="188" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="190" customFormat="1" ht="14.25" customHeight="1">
@@ -6278,20 +6279,20 @@
         <v>ID-46</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D65" s="117" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E65" s="117"/>
       <c r="F65" s="117"/>
       <c r="G65" s="117"/>
       <c r="H65" s="117"/>
       <c r="I65" s="188" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="189" customFormat="1" ht="14.25" customHeight="1">
@@ -6300,20 +6301,20 @@
         <v>ID-47</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D66" s="117" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E66" s="117"/>
       <c r="F66" s="117"/>
       <c r="G66" s="117"/>
       <c r="H66" s="117"/>
       <c r="I66" s="188" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6322,20 +6323,20 @@
         <v>ID-48</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D67" s="117" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E67" s="117"/>
       <c r="F67" s="117"/>
       <c r="G67" s="117"/>
       <c r="H67" s="117"/>
       <c r="I67" s="188" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6344,26 +6345,26 @@
         <v>ID-49</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D68" s="117" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E68" s="117"/>
       <c r="F68" s="117"/>
       <c r="G68" s="117"/>
       <c r="H68" s="117"/>
       <c r="I68" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A69" s="169"/>
       <c r="B69" s="169" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C69" s="169"/>
       <c r="D69" s="169"/>
@@ -6379,20 +6380,20 @@
         <v>ID-50</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D70" s="117" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E70" s="117"/>
       <c r="F70" s="117"/>
       <c r="G70" s="117"/>
       <c r="H70" s="117"/>
       <c r="I70" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6401,20 +6402,20 @@
         <v>ID-51</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D71" s="117" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E71" s="117"/>
       <c r="F71" s="117"/>
       <c r="G71" s="117"/>
       <c r="H71" s="117"/>
       <c r="I71" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6423,20 +6424,20 @@
         <v>ID-52</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D72" s="117" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E72" s="117"/>
       <c r="F72" s="117"/>
       <c r="G72" s="117"/>
       <c r="H72" s="117"/>
       <c r="I72" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6445,20 +6446,20 @@
         <v>ID-53</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D73" s="117" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E73" s="117"/>
       <c r="F73" s="117"/>
       <c r="G73" s="117"/>
       <c r="H73" s="117"/>
       <c r="I73" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6467,20 +6468,20 @@
         <v>ID-54</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C74" s="117" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D74" s="117" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E74" s="117"/>
       <c r="F74" s="117"/>
       <c r="G74" s="117"/>
       <c r="H74" s="117"/>
       <c r="I74" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6489,20 +6490,20 @@
         <v>ID-55</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C75" s="117" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D75" s="117" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E75" s="117"/>
       <c r="F75" s="117"/>
       <c r="G75" s="117"/>
       <c r="H75" s="117"/>
       <c r="I75" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="13.5" customHeight="1">
@@ -6511,20 +6512,20 @@
         <v>ID-56</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C76" s="117" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D76" s="117" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
       <c r="G76" s="117"/>
       <c r="H76" s="117"/>
       <c r="I76" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="13.5" customHeight="1">
@@ -6533,20 +6534,20 @@
         <v>ID-57</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C77" s="117" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D77" s="117" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E77" s="117"/>
       <c r="F77" s="117"/>
       <c r="G77" s="117"/>
       <c r="H77" s="117"/>
       <c r="I77" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.5" customHeight="1">
@@ -6555,20 +6556,20 @@
         <v>ID-58</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C78" s="117" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D78" s="117" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E78" s="117"/>
       <c r="F78" s="117"/>
       <c r="G78" s="117"/>
       <c r="H78" s="117"/>
       <c r="I78" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="13.5" customHeight="1">
@@ -6577,20 +6578,20 @@
         <v>ID-59</v>
       </c>
       <c r="B79" s="117" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C79" s="117" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D79" s="117" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E79" s="117"/>
       <c r="F79" s="117"/>
       <c r="G79" s="117"/>
       <c r="H79" s="117"/>
       <c r="I79" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1">
@@ -6599,20 +6600,20 @@
         <v>ID-60</v>
       </c>
       <c r="B80" s="117" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C80" s="117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D80" s="117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E80" s="117"/>
       <c r="F80" s="117"/>
       <c r="G80" s="117"/>
       <c r="H80" s="117"/>
       <c r="I80" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1">
@@ -6621,20 +6622,20 @@
         <v>ID-61</v>
       </c>
       <c r="B81" s="117" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C81" s="117" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D81" s="117" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E81" s="117"/>
       <c r="F81" s="117"/>
       <c r="G81" s="117"/>
       <c r="H81" s="117"/>
       <c r="I81" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1">
@@ -6643,20 +6644,20 @@
         <v>ID-62</v>
       </c>
       <c r="B82" s="117" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C82" s="117" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D82" s="117" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E82" s="117"/>
       <c r="F82" s="117"/>
       <c r="G82" s="117"/>
       <c r="H82" s="117"/>
       <c r="I82" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6705,8 +6706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -6729,7 +6730,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="137" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="138" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -6743,7 +6744,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="212" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C2" s="212"/>
       <c r="D2" s="212"/>
@@ -6756,10 +6757,10 @@
     </row>
     <row r="3" spans="1:10" s="137" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="142" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -6772,10 +6773,10 @@
     </row>
     <row r="4" spans="1:10" s="137" customFormat="1" ht="17">
       <c r="A4" s="141" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4" s="213" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C4" s="213"/>
       <c r="D4" s="213"/>
@@ -6792,13 +6793,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="216" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F5" s="216"/>
       <c r="G5" s="216"/>
@@ -6859,16 +6860,16 @@
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F10" s="57" t="s">
         <v>92</v>
@@ -6877,7 +6878,7 @@
         <v>93</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
@@ -6902,13 +6903,13 @@
         <v>[Mod_login-2]</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E12" s="171"/>
       <c r="F12" s="117"/>
@@ -6925,10 +6926,10 @@
         <v>64</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E13" s="197"/>
       <c r="F13" s="117"/>
@@ -6945,10 +6946,10 @@
         <v>165</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E14" s="173"/>
       <c r="F14" s="117"/>
@@ -6965,10 +6966,10 @@
         <v>168</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E15" s="173"/>
       <c r="F15" s="117"/>
@@ -6985,10 +6986,10 @@
         <v>74</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E16" s="173"/>
       <c r="F16" s="117"/>
@@ -7005,10 +7006,10 @@
         <v>66</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E17" s="173"/>
       <c r="F17" s="117"/>
@@ -7025,10 +7026,10 @@
         <v>68</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E18" s="173"/>
       <c r="F18" s="117"/>
@@ -7045,10 +7046,10 @@
         <v>70</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E19" s="173"/>
       <c r="F19" s="117"/>
@@ -7065,10 +7066,10 @@
         <v>72</v>
       </c>
       <c r="C20" s="117" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E20" s="173"/>
       <c r="F20" s="117"/>
@@ -7080,7 +7081,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="176"/>
       <c r="B21" s="177" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C21" s="176"/>
       <c r="D21" s="176"/>
@@ -7097,13 +7098,13 @@
         <v>[Mod_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E22" s="179"/>
       <c r="F22" s="117"/>
@@ -7118,13 +7119,13 @@
         <v>[Mod_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E23" s="179"/>
       <c r="F23" s="117"/>
@@ -7135,7 +7136,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="176" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B24" s="58" t="s">
         <v>78</v>
@@ -7158,10 +7159,10 @@
         <v>79</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E25" s="179"/>
       <c r="F25" s="117"/>
@@ -7171,10 +7172,10 @@
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1">
       <c r="A26" s="176" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C26" s="176"/>
       <c r="D26" s="176"/>
@@ -7190,13 +7191,13 @@
         <v>[Mod_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D27" s="117" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E27" s="173"/>
       <c r="F27" s="117"/>
@@ -7206,10 +7207,10 @@
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="176" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C28" s="176"/>
       <c r="D28" s="176"/>
@@ -7225,13 +7226,13 @@
         <v>[Mod_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D29" s="117" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E29" s="173"/>
       <c r="F29" s="117"/>
@@ -7241,10 +7242,10 @@
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
       <c r="A30" s="176" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C30" s="176"/>
       <c r="D30" s="176"/>
@@ -7260,13 +7261,13 @@
         <v>[Mod_login-21]</v>
       </c>
       <c r="B31" s="117" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C31" s="117" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D31" s="117" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E31" s="173"/>
       <c r="F31" s="117"/>
@@ -7308,8 +7309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -7332,7 +7333,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="137" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="138" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -7359,10 +7360,10 @@
     </row>
     <row r="3" spans="1:10" s="137" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="142" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="212" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="212"/>
       <c r="D3" s="212"/>
@@ -7375,10 +7376,10 @@
     </row>
     <row r="4" spans="1:10" s="137" customFormat="1" ht="17">
       <c r="A4" s="141" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4" s="213" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C4" s="213"/>
       <c r="D4" s="213"/>
@@ -7395,13 +7396,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="216" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F5" s="216"/>
       <c r="G5" s="216"/>
@@ -7462,16 +7463,16 @@
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F10" s="57" t="s">
         <v>92</v>
@@ -7480,7 +7481,7 @@
         <v>93</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
@@ -7505,13 +7506,13 @@
         <v>[Admin_login-2]</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="117" t="s">
         <v>163</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E12" s="171"/>
       <c r="F12" s="117"/>
@@ -7534,7 +7535,7 @@
         <v>164</v>
       </c>
       <c r="E13" s="173" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F13" s="117"/>
       <c r="G13" s="117"/>
@@ -7556,7 +7557,7 @@
         <v>167</v>
       </c>
       <c r="E14" s="173" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F14" s="117"/>
       <c r="G14" s="117"/>
@@ -7578,7 +7579,7 @@
         <v>170</v>
       </c>
       <c r="E15" s="173" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F15" s="117"/>
       <c r="G15" s="117"/>
@@ -7600,7 +7601,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="173" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="117"/>
@@ -7622,7 +7623,7 @@
         <v>67</v>
       </c>
       <c r="E17" s="173" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F17" s="117"/>
       <c r="G17" s="117"/>
@@ -7644,7 +7645,7 @@
         <v>69</v>
       </c>
       <c r="E18" s="173" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F18" s="117"/>
       <c r="G18" s="117"/>
@@ -7666,7 +7667,7 @@
         <v>69</v>
       </c>
       <c r="E19" s="173" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="117"/>
@@ -7688,7 +7689,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="173" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="117"/>
@@ -7716,16 +7717,16 @@
         <v>[Admin_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="117" t="s">
         <v>163</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>264</v>
+        <v>377</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F22" s="117"/>
       <c r="G22" s="117"/>
@@ -7739,16 +7740,16 @@
         <v>[Admin_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F23" s="117"/>
       <c r="G23" s="117"/>
@@ -7759,7 +7760,7 @@
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="176"/>
       <c r="B24" s="177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="176"/>
       <c r="D24" s="176"/>
@@ -7776,16 +7777,16 @@
         <v>[Admin_login-15]</v>
       </c>
       <c r="B25" s="117" t="s">
-        <v>191</v>
+        <v>381</v>
       </c>
       <c r="C25" s="117" t="s">
-        <v>176</v>
+        <v>380</v>
       </c>
       <c r="D25" s="180" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F25" s="117"/>
       <c r="G25" s="117"/>
@@ -7796,7 +7797,7 @@
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
       <c r="A26" s="176"/>
       <c r="B26" s="177" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C26" s="176"/>
       <c r="D26" s="176"/>
@@ -7813,13 +7814,13 @@
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>193</v>
+        <v>382</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>176</v>
+        <v>380</v>
       </c>
       <c r="D27" s="180" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E27" s="179"/>
       <c r="F27" s="117"/>
@@ -7831,7 +7832,7 @@
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="176"/>
       <c r="B28" s="177" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C28" s="176"/>
       <c r="D28" s="176"/>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" activeTab="6"/>
+    <workbookView xWindow="700" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,10 @@
     <sheet name="User_Function" sheetId="9" r:id="rId5"/>
     <sheet name="Mod_Function" sheetId="12" r:id="rId6"/>
     <sheet name="Admin_Function" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACTION" localSheetId="3">#REF!</definedName>
@@ -252,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="387">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -848,13 +849,6 @@
   <si>
     <t>1. Admin Page is displayed
 2. Content about dashboard is displayed</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. Dropdowlist is displayed with:
-+ Dashboard
-+ User list
-3. Content about dashboard of user is displayed</t>
   </si>
   <si>
     <t>Check clicking on link on Home page screen</t>
@@ -1230,9 +1224,6 @@
 + Remedy
 + Author
 + Posted date</t>
-  </si>
-  <si>
-    <t>New herb medicine store</t>
   </si>
   <si>
     <t>Integration Login with medicinal plants</t>
@@ -1878,6 +1869,30 @@
   </si>
   <si>
     <t>Check User Management tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the admin page
+2. Click User Management tab in Left Slide bar
+</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. User Information Management page is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the admin page
+2. Click New Herb Medicine Store tab in Left Slide bar
+</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. New register of herb medicine store information page is displayed</t>
+  </si>
+  <si>
+    <t>New register of herb medicine store</t>
+  </si>
+  <si>
+    <t>Check New register of Herb Medicine Store tap</t>
   </si>
 </sst>
 </file>
@@ -2769,7 +2784,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
@@ -2834,6 +2849,8 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3420,7 +3437,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -3477,6 +3494,8 @@
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -3969,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="201" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D4" s="201"/>
       <c r="E4" s="201"/>
@@ -3977,7 +3996,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
@@ -3985,7 +4004,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="201" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="201"/>
       <c r="E5" s="201"/>
@@ -3993,7 +4012,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -4077,7 +4096,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
@@ -4213,7 +4232,7 @@
       </c>
       <c r="C5" s="204"/>
       <c r="D5" s="205" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E5" s="205"/>
       <c r="F5" s="205"/>
@@ -4254,13 +4273,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D9" s="149" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F9" s="113" t="s">
         <v>90</v>
@@ -4433,7 +4452,7 @@
       </c>
       <c r="F3" s="208"/>
       <c r="G3" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H3" s="65"/>
     </row>
@@ -4451,7 +4470,7 @@
       </c>
       <c r="F4" s="208"/>
       <c r="G4" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H4" s="65"/>
     </row>
@@ -4542,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="149" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
@@ -4571,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D12" s="76">
         <f>Mod_Function!A6</f>
@@ -4612,7 +4631,7 @@
       </c>
       <c r="F13" s="76">
         <f>Admin_Function!C6</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G13" s="76">
         <f>Admin_Function!D6</f>
@@ -4620,7 +4639,7 @@
       </c>
       <c r="H13" s="77">
         <f>Admin_Function!E6</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4639,7 +4658,7 @@
       </c>
       <c r="F14" s="79">
         <f>SUM(F11:F13)</f>
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G14" s="79">
         <f>SUM(G9:G13)</f>
@@ -4647,7 +4666,7 @@
       </c>
       <c r="H14" s="80">
         <f>SUM(H11:H13)</f>
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5132,7 +5151,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="213" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="213"/>
       <c r="D4" s="213"/>
@@ -5289,7 +5308,7 @@
         <v>57</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D12" s="117" t="s">
         <v>94</v>
@@ -5310,7 +5329,7 @@
         <v>58</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D13" s="117" t="s">
         <v>95</v>
@@ -5331,10 +5350,10 @@
         <v>59</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14" s="122"/>
       <c r="F14" s="117"/>
@@ -5352,7 +5371,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" s="124" t="s">
         <v>96</v>
@@ -5373,10 +5392,10 @@
         <v>61</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E16" s="125"/>
       <c r="F16" s="117"/>
@@ -5394,10 +5413,10 @@
         <v>62</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E17" s="125"/>
       <c r="F17" s="117"/>
@@ -5415,10 +5434,10 @@
         <v>63</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E18" s="125"/>
       <c r="F18" s="117"/>
@@ -5450,10 +5469,10 @@
         <v>79</v>
       </c>
       <c r="C20" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="91" t="s">
         <v>250</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>251</v>
       </c>
       <c r="E20" s="91" t="s">
         <v>80</v>
@@ -5467,7 +5486,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -5487,7 +5506,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D22" s="91" t="s">
         <v>158</v>
@@ -5510,10 +5529,10 @@
         <v>85</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="117"/>
@@ -5531,10 +5550,10 @@
         <v>86</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E24" s="91" t="s">
         <v>81</v>
@@ -5565,13 +5584,13 @@
         <v>[User_login-16]</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D26" s="136" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>83</v>
@@ -5591,10 +5610,10 @@
         <v>87</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E27" s="91" t="s">
         <v>81</v>
@@ -5628,10 +5647,10 @@
         <v>159</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E29" s="104" t="s">
         <v>88</v>
@@ -5651,10 +5670,10 @@
         <v>89</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D30" s="104" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E30" s="104" t="s">
         <v>88</v>
@@ -5667,7 +5686,7 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
       <c r="A31" s="58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B31" s="58" t="s">
         <v>161</v>
@@ -5687,13 +5706,13 @@
         <v>[User_login-22]</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="117"/>
@@ -5708,13 +5727,13 @@
         <v>[User_login-23]</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="117"/>
@@ -5725,10 +5744,10 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
       <c r="A34" s="58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -5745,13 +5764,13 @@
         <v>[User_login-25]</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="117"/>
@@ -5763,7 +5782,7 @@
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
       <c r="A36" s="169"/>
       <c r="B36" s="169" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C36" s="166"/>
       <c r="D36" s="166"/>
@@ -5780,13 +5799,13 @@
         <v>[User_login-27]</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D37" s="117" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E37" s="118"/>
       <c r="F37" s="117"/>
@@ -5801,13 +5820,13 @@
         <v>[User_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C38" s="117" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D38" s="117" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E38" s="118"/>
       <c r="F38" s="117"/>
@@ -5818,10 +5837,10 @@
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
       <c r="A39" s="169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B39" s="169" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C39" s="166"/>
       <c r="D39" s="166"/>
@@ -5838,13 +5857,13 @@
         <v>[User_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C40" s="117" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D40" s="117" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E40" s="118"/>
       <c r="F40" s="117"/>
@@ -5855,10 +5874,10 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
       <c r="A41" s="169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B41" s="169" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C41" s="166"/>
       <c r="D41" s="166"/>
@@ -5875,13 +5894,13 @@
         <v>[User_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C42" s="117" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D42" s="117" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E42" s="118"/>
       <c r="F42" s="117"/>
@@ -5892,10 +5911,10 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B43" s="169" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C43" s="166"/>
       <c r="D43" s="166"/>
@@ -5912,13 +5931,13 @@
         <v>[User_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C44" s="117" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D44" s="117" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E44" s="118"/>
       <c r="F44" s="117"/>
@@ -5929,10 +5948,10 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1">
       <c r="A45" s="169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B45" s="169" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C45" s="166"/>
       <c r="D45" s="166"/>
@@ -5949,13 +5968,13 @@
         <v>[User_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D46" s="117" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E46" s="118"/>
       <c r="F46" s="117"/>
@@ -5966,10 +5985,10 @@
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
       <c r="A47" s="169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B47" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C47" s="166"/>
       <c r="D47" s="166"/>
@@ -5986,13 +6005,13 @@
         <v>[User_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D48" s="117" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E48" s="118"/>
       <c r="F48" s="117"/>
@@ -6003,10 +6022,10 @@
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
       <c r="A49" s="169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B49" s="169" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C49" s="166"/>
       <c r="D49" s="166"/>
@@ -6023,13 +6042,13 @@
         <v>[User_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D50" s="117" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E50" s="118"/>
       <c r="F50" s="117"/>
@@ -6040,10 +6059,10 @@
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
       <c r="A51" s="169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B51" s="169" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C51" s="166"/>
       <c r="D51" s="166"/>
@@ -6060,13 +6079,13 @@
         <v>[User_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C52" s="117" t="s">
+        <v>303</v>
+      </c>
+      <c r="D52" s="117" t="s">
         <v>305</v>
-      </c>
-      <c r="D52" s="117" t="s">
-        <v>307</v>
       </c>
       <c r="E52" s="118"/>
       <c r="F52" s="117"/>
@@ -6077,10 +6096,10 @@
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B53" s="169" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C53" s="166"/>
       <c r="D53" s="166"/>
@@ -6097,13 +6116,13 @@
         <v>[User_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D54" s="117" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="117"/>
@@ -6113,10 +6132,10 @@
     </row>
     <row r="55" spans="1:10" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A55" s="169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B55" s="169" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C55" s="166"/>
       <c r="D55" s="166"/>
@@ -6132,13 +6151,13 @@
         <v>[User_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C56" s="117" t="s">
+        <v>344</v>
+      </c>
+      <c r="D56" s="117" t="s">
         <v>346</v>
-      </c>
-      <c r="D56" s="117" t="s">
-        <v>348</v>
       </c>
       <c r="E56" s="118"/>
       <c r="F56" s="117"/>
@@ -6148,10 +6167,10 @@
     </row>
     <row r="57" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
       <c r="A57" s="169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B57" s="169" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C57" s="166"/>
       <c r="D57" s="166"/>
@@ -6167,13 +6186,13 @@
         <v>[User_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="117"/>
@@ -6206,7 +6225,7 @@
     <row r="61" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
       <c r="A61" s="169"/>
       <c r="B61" s="169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C61" s="169"/>
       <c r="D61" s="169"/>
@@ -6219,7 +6238,7 @@
     <row r="62" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
       <c r="A62" s="185"/>
       <c r="B62" s="186" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C62" s="187"/>
       <c r="D62" s="187"/>
@@ -6235,20 +6254,20 @@
         <v>ID-44</v>
       </c>
       <c r="B63" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="117" t="s">
+      <c r="D63" s="117" t="s">
         <v>196</v>
-      </c>
-      <c r="D63" s="117" t="s">
-        <v>197</v>
       </c>
       <c r="E63" s="117"/>
       <c r="F63" s="117"/>
       <c r="G63" s="117"/>
       <c r="H63" s="117"/>
       <c r="I63" s="188" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="190" customFormat="1" ht="14.25" customHeight="1">
@@ -6257,20 +6276,20 @@
         <v>ID-45</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D64" s="117" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E64" s="117"/>
       <c r="F64" s="117"/>
       <c r="G64" s="117"/>
       <c r="H64" s="117"/>
       <c r="I64" s="188" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="190" customFormat="1" ht="14.25" customHeight="1">
@@ -6279,20 +6298,20 @@
         <v>ID-46</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D65" s="117" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" s="117"/>
       <c r="F65" s="117"/>
       <c r="G65" s="117"/>
       <c r="H65" s="117"/>
       <c r="I65" s="188" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="189" customFormat="1" ht="14.25" customHeight="1">
@@ -6301,20 +6320,20 @@
         <v>ID-47</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D66" s="117" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E66" s="117"/>
       <c r="F66" s="117"/>
       <c r="G66" s="117"/>
       <c r="H66" s="117"/>
       <c r="I66" s="188" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6323,20 +6342,20 @@
         <v>ID-48</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D67" s="117" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E67" s="117"/>
       <c r="F67" s="117"/>
       <c r="G67" s="117"/>
       <c r="H67" s="117"/>
       <c r="I67" s="188" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6345,26 +6364,26 @@
         <v>ID-49</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D68" s="117" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E68" s="117"/>
       <c r="F68" s="117"/>
       <c r="G68" s="117"/>
       <c r="H68" s="117"/>
       <c r="I68" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
       <c r="A69" s="169"/>
       <c r="B69" s="169" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="169"/>
       <c r="D69" s="169"/>
@@ -6380,20 +6399,20 @@
         <v>ID-50</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C70" s="117" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="117" t="s">
         <v>237</v>
-      </c>
-      <c r="D70" s="117" t="s">
-        <v>238</v>
       </c>
       <c r="E70" s="117"/>
       <c r="F70" s="117"/>
       <c r="G70" s="117"/>
       <c r="H70" s="117"/>
       <c r="I70" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6402,20 +6421,20 @@
         <v>ID-51</v>
       </c>
       <c r="B71" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="117" t="s">
+      <c r="D71" s="117" t="s">
         <v>202</v>
-      </c>
-      <c r="D71" s="117" t="s">
-        <v>203</v>
       </c>
       <c r="E71" s="117"/>
       <c r="F71" s="117"/>
       <c r="G71" s="117"/>
       <c r="H71" s="117"/>
       <c r="I71" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6424,20 +6443,20 @@
         <v>ID-52</v>
       </c>
       <c r="B72" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="117" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="117" t="s">
         <v>204</v>
-      </c>
-      <c r="C72" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="117" t="s">
-        <v>205</v>
       </c>
       <c r="E72" s="117"/>
       <c r="F72" s="117"/>
       <c r="G72" s="117"/>
       <c r="H72" s="117"/>
       <c r="I72" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6446,20 +6465,20 @@
         <v>ID-53</v>
       </c>
       <c r="B73" s="117" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="C73" s="117" t="s">
-        <v>207</v>
-      </c>
       <c r="D73" s="117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E73" s="117"/>
       <c r="F73" s="117"/>
       <c r="G73" s="117"/>
       <c r="H73" s="117"/>
       <c r="I73" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6468,20 +6487,20 @@
         <v>ID-54</v>
       </c>
       <c r="B74" s="117" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="117" t="s">
+      <c r="D74" s="117" t="s">
         <v>209</v>
-      </c>
-      <c r="D74" s="117" t="s">
-        <v>210</v>
       </c>
       <c r="E74" s="117"/>
       <c r="F74" s="117"/>
       <c r="G74" s="117"/>
       <c r="H74" s="117"/>
       <c r="I74" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
@@ -6490,20 +6509,20 @@
         <v>ID-55</v>
       </c>
       <c r="B75" s="117" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="117" t="s">
+      <c r="D75" s="117" t="s">
         <v>212</v>
-      </c>
-      <c r="D75" s="117" t="s">
-        <v>213</v>
       </c>
       <c r="E75" s="117"/>
       <c r="F75" s="117"/>
       <c r="G75" s="117"/>
       <c r="H75" s="117"/>
       <c r="I75" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="13.5" customHeight="1">
@@ -6512,20 +6531,20 @@
         <v>ID-56</v>
       </c>
       <c r="B76" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="C76" s="117" t="s">
+      <c r="D76" s="117" t="s">
         <v>215</v>
-      </c>
-      <c r="D76" s="117" t="s">
-        <v>216</v>
       </c>
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
       <c r="G76" s="117"/>
       <c r="H76" s="117"/>
       <c r="I76" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="13.5" customHeight="1">
@@ -6534,20 +6553,20 @@
         <v>ID-57</v>
       </c>
       <c r="B77" s="117" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="C77" s="117" t="s">
+      <c r="D77" s="117" t="s">
         <v>218</v>
-      </c>
-      <c r="D77" s="117" t="s">
-        <v>219</v>
       </c>
       <c r="E77" s="117"/>
       <c r="F77" s="117"/>
       <c r="G77" s="117"/>
       <c r="H77" s="117"/>
       <c r="I77" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.5" customHeight="1">
@@ -6556,20 +6575,20 @@
         <v>ID-58</v>
       </c>
       <c r="B78" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="117" t="s">
+      <c r="D78" s="117" t="s">
         <v>221</v>
-      </c>
-      <c r="D78" s="117" t="s">
-        <v>222</v>
       </c>
       <c r="E78" s="117"/>
       <c r="F78" s="117"/>
       <c r="G78" s="117"/>
       <c r="H78" s="117"/>
       <c r="I78" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="13.5" customHeight="1">
@@ -6578,20 +6597,20 @@
         <v>ID-59</v>
       </c>
       <c r="B79" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="C79" s="117" t="s">
+      <c r="D79" s="117" t="s">
         <v>224</v>
-      </c>
-      <c r="D79" s="117" t="s">
-        <v>225</v>
       </c>
       <c r="E79" s="117"/>
       <c r="F79" s="117"/>
       <c r="G79" s="117"/>
       <c r="H79" s="117"/>
       <c r="I79" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1">
@@ -6600,20 +6619,20 @@
         <v>ID-60</v>
       </c>
       <c r="B80" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="117" t="s">
+      <c r="D80" s="117" t="s">
         <v>227</v>
-      </c>
-      <c r="D80" s="117" t="s">
-        <v>228</v>
       </c>
       <c r="E80" s="117"/>
       <c r="F80" s="117"/>
       <c r="G80" s="117"/>
       <c r="H80" s="117"/>
       <c r="I80" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1">
@@ -6622,20 +6641,20 @@
         <v>ID-61</v>
       </c>
       <c r="B81" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="117" t="s">
+      <c r="D81" s="117" t="s">
         <v>230</v>
-      </c>
-      <c r="D81" s="117" t="s">
-        <v>231</v>
       </c>
       <c r="E81" s="117"/>
       <c r="F81" s="117"/>
       <c r="G81" s="117"/>
       <c r="H81" s="117"/>
       <c r="I81" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1">
@@ -6644,20 +6663,20 @@
         <v>ID-62</v>
       </c>
       <c r="B82" s="117" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="117" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="117" t="s">
+      <c r="D82" s="117" t="s">
         <v>233</v>
-      </c>
-      <c r="D82" s="117" t="s">
-        <v>234</v>
       </c>
       <c r="E82" s="117"/>
       <c r="F82" s="117"/>
       <c r="G82" s="117"/>
       <c r="H82" s="117"/>
       <c r="I82" s="117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6706,7 +6725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -6744,7 +6763,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="212" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="212"/>
       <c r="D2" s="212"/>
@@ -6776,7 +6795,7 @@
         <v>179</v>
       </c>
       <c r="B4" s="213" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="213"/>
       <c r="D4" s="213"/>
@@ -6906,10 +6925,10 @@
         <v>186</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="171"/>
       <c r="F12" s="117"/>
@@ -6926,10 +6945,10 @@
         <v>64</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E13" s="197"/>
       <c r="F13" s="117"/>
@@ -6946,10 +6965,10 @@
         <v>165</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="173"/>
       <c r="F14" s="117"/>
@@ -6966,10 +6985,10 @@
         <v>168</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E15" s="173"/>
       <c r="F15" s="117"/>
@@ -6986,10 +7005,10 @@
         <v>74</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="173"/>
       <c r="F16" s="117"/>
@@ -7006,10 +7025,10 @@
         <v>66</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="173"/>
       <c r="F17" s="117"/>
@@ -7026,10 +7045,10 @@
         <v>68</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E18" s="173"/>
       <c r="F18" s="117"/>
@@ -7046,10 +7065,10 @@
         <v>70</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E19" s="173"/>
       <c r="F19" s="117"/>
@@ -7066,10 +7085,10 @@
         <v>72</v>
       </c>
       <c r="C20" s="117" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E20" s="173"/>
       <c r="F20" s="117"/>
@@ -7081,7 +7100,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="176"/>
       <c r="B21" s="177" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="176"/>
       <c r="D21" s="176"/>
@@ -7098,13 +7117,13 @@
         <v>[Mod_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E22" s="179"/>
       <c r="F22" s="117"/>
@@ -7122,10 +7141,10 @@
         <v>188</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E23" s="179"/>
       <c r="F23" s="117"/>
@@ -7136,7 +7155,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="176" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B24" s="58" t="s">
         <v>78</v>
@@ -7159,10 +7178,10 @@
         <v>79</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E25" s="179"/>
       <c r="F25" s="117"/>
@@ -7172,10 +7191,10 @@
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1">
       <c r="A26" s="176" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" s="176"/>
       <c r="D26" s="176"/>
@@ -7191,13 +7210,13 @@
         <v>[Mod_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D27" s="117" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E27" s="173"/>
       <c r="F27" s="117"/>
@@ -7207,10 +7226,10 @@
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="176" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C28" s="176"/>
       <c r="D28" s="176"/>
@@ -7226,13 +7245,13 @@
         <v>[Mod_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D29" s="117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E29" s="173"/>
       <c r="F29" s="117"/>
@@ -7242,10 +7261,10 @@
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
       <c r="A30" s="176" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C30" s="176"/>
       <c r="D30" s="176"/>
@@ -7261,13 +7280,13 @@
         <v>[Mod_login-21]</v>
       </c>
       <c r="B31" s="117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C31" s="117" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D31" s="117" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E31" s="173"/>
       <c r="F31" s="117"/>
@@ -7307,10 +7326,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -7379,7 +7398,7 @@
         <v>179</v>
       </c>
       <c r="B4" s="213" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="213"/>
       <c r="D4" s="213"/>
@@ -7421,7 +7440,7 @@
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G708,"N/A")</f>
@@ -7429,7 +7448,7 @@
       </c>
       <c r="E6" s="215">
         <f>COUNTA(A11:A265)*2</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="215"/>
       <c r="G6" s="215"/>
@@ -7512,7 +7531,7 @@
         <v>163</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" s="171"/>
       <c r="F12" s="117"/>
@@ -7535,7 +7554,7 @@
         <v>164</v>
       </c>
       <c r="E13" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F13" s="117"/>
       <c r="G13" s="117"/>
@@ -7557,7 +7576,7 @@
         <v>167</v>
       </c>
       <c r="E14" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F14" s="117"/>
       <c r="G14" s="117"/>
@@ -7579,7 +7598,7 @@
         <v>170</v>
       </c>
       <c r="E15" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F15" s="117"/>
       <c r="G15" s="117"/>
@@ -7601,7 +7620,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="117"/>
@@ -7623,7 +7642,7 @@
         <v>67</v>
       </c>
       <c r="E17" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17" s="117"/>
       <c r="G17" s="117"/>
@@ -7645,7 +7664,7 @@
         <v>69</v>
       </c>
       <c r="E18" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F18" s="117"/>
       <c r="G18" s="117"/>
@@ -7667,7 +7686,7 @@
         <v>69</v>
       </c>
       <c r="E19" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="117"/>
@@ -7689,7 +7708,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="117"/>
@@ -7723,10 +7742,10 @@
         <v>163</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F22" s="117"/>
       <c r="G22" s="117"/>
@@ -7743,13 +7762,13 @@
         <v>188</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F23" s="117"/>
       <c r="G23" s="117"/>
@@ -7777,16 +7796,16 @@
         <v>[Admin_login-15]</v>
       </c>
       <c r="B25" s="117" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C25" s="117" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D25" s="180" t="s">
         <v>189</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F25" s="117"/>
       <c r="G25" s="117"/>
@@ -7810,17 +7829,17 @@
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
       <c r="A27" s="165" t="str">
-        <f t="shared" ref="A27" si="3">IF(OR(B27&lt;&gt;"",D27&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A27:A29" si="3">IF(OR(B27&lt;&gt;"",D27&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="117" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27" s="180" t="s">
         <v>382</v>
-      </c>
-      <c r="C27" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="D27" s="180" t="s">
-        <v>190</v>
       </c>
       <c r="E27" s="179"/>
       <c r="F27" s="117"/>
@@ -7830,9 +7849,11 @@
       <c r="J27" s="105"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A28" s="176"/>
+      <c r="A28" s="176" t="s">
+        <v>264</v>
+      </c>
       <c r="B28" s="177" t="s">
-        <v>284</v>
+        <v>385</v>
       </c>
       <c r="C28" s="176"/>
       <c r="D28" s="176"/>
@@ -7841,6 +7862,26 @@
       <c r="G28" s="176"/>
       <c r="H28" s="176"/>
       <c r="I28" s="178"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A29" s="165" t="str">
+        <f t="shared" si="3"/>
+        <v>[Admin_login-19]</v>
+      </c>
+      <c r="B29" s="117" t="s">
+        <v>386</v>
+      </c>
+      <c r="C29" s="117" t="s">
+        <v>383</v>
+      </c>
+      <c r="D29" s="180" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" s="179"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7871,4 +7912,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="700" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -1414,13 +1414,6 @@
     <t>Vietnamese Medicinal Plants Network</t>
   </si>
   <si>
-    <t>List enviroment requires in this system
-1. Server: 
-2. Database server: MySQL server
-3. Browser: Google Chrome 40, Mozzila Firefox 30
-4. Operation System: Mac OS X</t>
-  </si>
-  <si>
     <t>Medicinal Plant</t>
   </si>
   <si>
@@ -1893,6 +1886,13 @@
   </si>
   <si>
     <t>Check New register of Herb Medicine Store tap</t>
+  </si>
+  <si>
+    <t>List enviroment requires in this system
+1. Server: Ubuntu 14.03
+2. Database server: MySQL server
+3. Browser: Google Chrome 40, Mozzila Firefox 30
+4. Operation System: Mac OS X</t>
   </si>
 </sst>
 </file>
@@ -4175,8 +4175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="C5" s="204"/>
       <c r="D5" s="205" t="s">
-        <v>313</v>
+        <v>386</v>
       </c>
       <c r="E5" s="205"/>
       <c r="F5" s="205"/>
@@ -4273,13 +4273,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" s="149" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F9" s="113" t="s">
         <v>90</v>
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="149" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
@@ -4590,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D12" s="76">
         <f>Mod_Function!A6</f>
@@ -5395,7 +5395,7 @@
         <v>295</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E16" s="125"/>
       <c r="F16" s="117"/>
@@ -5416,7 +5416,7 @@
         <v>293</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E17" s="125"/>
       <c r="F17" s="117"/>
@@ -5437,7 +5437,7 @@
         <v>294</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E18" s="125"/>
       <c r="F18" s="117"/>
@@ -5532,7 +5532,7 @@
         <v>297</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="117"/>
@@ -5553,7 +5553,7 @@
         <v>296</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E24" s="91" t="s">
         <v>81</v>
@@ -5587,10 +5587,10 @@
         <v>252</v>
       </c>
       <c r="C26" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="136" t="s">
         <v>339</v>
-      </c>
-      <c r="D26" s="136" t="s">
-        <v>340</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>83</v>
@@ -5610,10 +5610,10 @@
         <v>87</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E27" s="91" t="s">
         <v>81</v>
@@ -5650,7 +5650,7 @@
         <v>253</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E29" s="104" t="s">
         <v>88</v>
@@ -5673,7 +5673,7 @@
         <v>254</v>
       </c>
       <c r="D30" s="104" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E30" s="104" t="s">
         <v>88</v>
@@ -5709,10 +5709,10 @@
         <v>261</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="117"/>
@@ -5730,10 +5730,10 @@
         <v>262</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="117"/>
@@ -5767,10 +5767,10 @@
         <v>263</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="117"/>
@@ -5805,7 +5805,7 @@
         <v>298</v>
       </c>
       <c r="D37" s="117" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E37" s="118"/>
       <c r="F37" s="117"/>
@@ -5826,7 +5826,7 @@
         <v>259</v>
       </c>
       <c r="D38" s="117" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E38" s="118"/>
       <c r="F38" s="117"/>
@@ -5857,7 +5857,7 @@
         <v>[User_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" s="117" t="s">
         <v>289</v>
@@ -5894,7 +5894,7 @@
         <v>[User_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C42" s="117" t="s">
         <v>290</v>
@@ -5931,7 +5931,7 @@
         <v>[User_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C44" s="117" t="s">
         <v>291</v>
@@ -5951,7 +5951,7 @@
         <v>264</v>
       </c>
       <c r="B45" s="169" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C45" s="166"/>
       <c r="D45" s="166"/>
@@ -5968,13 +5968,13 @@
         <v>[User_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C46" s="117" t="s">
         <v>301</v>
       </c>
       <c r="D46" s="117" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E46" s="118"/>
       <c r="F46" s="117"/>
@@ -5988,7 +5988,7 @@
         <v>264</v>
       </c>
       <c r="B47" s="169" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C47" s="166"/>
       <c r="D47" s="166"/>
@@ -6005,13 +6005,13 @@
         <v>[User_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C48" s="117" t="s">
         <v>302</v>
       </c>
       <c r="D48" s="117" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E48" s="118"/>
       <c r="F48" s="117"/>
@@ -6042,13 +6042,13 @@
         <v>[User_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C50" s="117" t="s">
         <v>309</v>
       </c>
       <c r="D50" s="117" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E50" s="118"/>
       <c r="F50" s="117"/>
@@ -6079,7 +6079,7 @@
         <v>[User_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C52" s="117" t="s">
         <v>303</v>
@@ -6116,13 +6116,13 @@
         <v>[User_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C54" s="117" t="s">
         <v>310</v>
       </c>
       <c r="D54" s="117" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="117"/>
@@ -6151,13 +6151,13 @@
         <v>[User_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E56" s="118"/>
       <c r="F56" s="117"/>
@@ -6186,13 +6186,13 @@
         <v>[User_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C58" s="117" t="s">
         <v>311</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="117"/>
@@ -6276,10 +6276,10 @@
         <v>ID-45</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D64" s="117" t="s">
         <v>196</v>
@@ -6298,10 +6298,10 @@
         <v>ID-46</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D65" s="117" t="s">
         <v>196</v>
@@ -6320,10 +6320,10 @@
         <v>ID-47</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D66" s="117" t="s">
         <v>196</v>
@@ -6345,7 +6345,7 @@
         <v>234</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D67" s="117" t="s">
         <v>196</v>
@@ -6367,7 +6367,7 @@
         <v>235</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D68" s="117" t="s">
         <v>196</v>
@@ -6925,7 +6925,7 @@
         <v>186</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D12" s="117" t="s">
         <v>268</v>
@@ -6945,7 +6945,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D13" s="117" t="s">
         <v>269</v>
@@ -6965,7 +6965,7 @@
         <v>165</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D14" s="117" t="s">
         <v>270</v>
@@ -6985,7 +6985,7 @@
         <v>168</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D15" s="117" t="s">
         <v>271</v>
@@ -7005,7 +7005,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D16" s="117" t="s">
         <v>272</v>
@@ -7025,7 +7025,7 @@
         <v>66</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D17" s="117" t="s">
         <v>274</v>
@@ -7045,7 +7045,7 @@
         <v>68</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D18" s="117" t="s">
         <v>273</v>
@@ -7065,7 +7065,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D19" s="117" t="s">
         <v>273</v>
@@ -7085,7 +7085,7 @@
         <v>72</v>
       </c>
       <c r="C20" s="117" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D20" s="117" t="s">
         <v>273</v>
@@ -7120,10 +7120,10 @@
         <v>258</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E22" s="179"/>
       <c r="F22" s="117"/>
@@ -7141,7 +7141,7 @@
         <v>188</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D23" s="180" t="s">
         <v>255</v>
@@ -7181,7 +7181,7 @@
         <v>266</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E25" s="179"/>
       <c r="F25" s="117"/>
@@ -7213,7 +7213,7 @@
         <v>267</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D27" s="117" t="s">
         <v>275</v>
@@ -7248,7 +7248,7 @@
         <v>281</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D29" s="117" t="s">
         <v>276</v>
@@ -7283,7 +7283,7 @@
         <v>280</v>
       </c>
       <c r="C31" s="117" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D31" s="117" t="s">
         <v>282</v>
@@ -7328,7 +7328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -7742,7 +7742,7 @@
         <v>163</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E22" s="179" t="s">
         <v>241</v>
@@ -7762,10 +7762,10 @@
         <v>188</v>
       </c>
       <c r="C23" s="117" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23" s="180" t="s">
         <v>376</v>
-      </c>
-      <c r="D23" s="180" t="s">
-        <v>377</v>
       </c>
       <c r="E23" s="179" t="s">
         <v>241</v>
@@ -7796,10 +7796,10 @@
         <v>[Admin_login-15]</v>
       </c>
       <c r="B25" s="117" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C25" s="117" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D25" s="180" t="s">
         <v>189</v>
@@ -7833,13 +7833,13 @@
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="117" t="s">
         <v>380</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="D27" s="180" t="s">
         <v>381</v>
-      </c>
-      <c r="D27" s="180" t="s">
-        <v>382</v>
       </c>
       <c r="E27" s="179"/>
       <c r="F27" s="117"/>
@@ -7853,7 +7853,7 @@
         <v>264</v>
       </c>
       <c r="B28" s="177" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C28" s="176"/>
       <c r="D28" s="176"/>
@@ -7869,13 +7869,13 @@
         <v>[Admin_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C29" s="117" t="s">
+        <v>382</v>
+      </c>
+      <c r="D29" s="180" t="s">
         <v>383</v>
-      </c>
-      <c r="D29" s="180" t="s">
-        <v>384</v>
       </c>
       <c r="E29" s="179"/>
       <c r="F29" s="117"/>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="389">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -1893,6 +1893,12 @@
 2. Database server: MySQL server
 3. Browser: Google Chrome 40, Mozzila Firefox 30
 4. Operation System: Mac OS X</t>
+  </si>
+  <si>
+    <t>Mod function</t>
+  </si>
+  <si>
+    <t>Mod_function</t>
   </si>
 </sst>
 </file>
@@ -3951,7 +3957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
@@ -4175,8 +4181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4290,10 +4296,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="149" t="s">
-        <v>48</v>
+        <v>387</v>
+      </c>
+      <c r="D10" s="199" t="s">
+        <v>388</v>
       </c>
       <c r="E10" s="114" t="s">
         <v>52</v>
@@ -4302,12 +4308,22 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="17">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
+    <row r="11" spans="2:6" ht="26">
+      <c r="B11" s="46">
+        <v>3</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="149" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="113" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="17">
       <c r="B12" s="46"/>
@@ -4383,8 +4399,9 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D10" location="Admin_Function!A1" display="Admin_function"/>
+    <hyperlink ref="D10" location="Mod_Function!A1" display="Admin_function"/>
     <hyperlink ref="D9" location="User_Function!A1" display="User_function"/>
+    <hyperlink ref="D11" location="Admin_Function!A1" display="Admin_function"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777783"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -4404,7 +4421,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -5073,9 +5090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -6725,9 +6740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -7328,9 +7341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\201601JS01\WIP\Deliverable\Report3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="543"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Test case List" sheetId="2" r:id="rId2"/>
     <sheet name="Test Report" sheetId="5" r:id="rId3"/>
     <sheet name="Message Rules" sheetId="11" r:id="rId4"/>
-    <sheet name="User_Function" sheetId="9" r:id="rId5"/>
-    <sheet name="Mod_Function" sheetId="12" r:id="rId6"/>
-    <sheet name="Admin_Function" sheetId="10" r:id="rId7"/>
+    <sheet name="User Module" sheetId="9" r:id="rId5"/>
+    <sheet name="Mod Module" sheetId="12" r:id="rId6"/>
+    <sheet name="Admin Module" sheetId="10" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId8"/>
   </sheets>
   <externalReferences>
@@ -37,7 +42,7 @@
     <definedName name="Statistic" comment="fsfsdfs" localSheetId="5">#REF!</definedName>
     <definedName name="Statistic" comment="fsfsdfs">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -52,7 +57,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +131,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +175,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +219,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="371">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -414,37 +419,10 @@
     <t>Integrating all functions of admin together then execute test</t>
   </si>
   <si>
-    <t>User_login</t>
-  </si>
-  <si>
     <t>This test cases were created to test integration between login with all functions and all functions together</t>
   </si>
   <si>
     <t>Add new</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Test Login panel view</t>
-  </si>
-  <si>
-    <t>Test Forgot Password hyperlink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user login </t>
-  </si>
-  <si>
-    <t>When user login with Facebook</t>
-  </si>
-  <si>
-    <t>When user login with wrong user name</t>
-  </si>
-  <si>
-    <t>When user login with non-existence user name</t>
-  </si>
-  <si>
-    <t>When user login with wrong password</t>
   </si>
   <si>
     <t>Check "Login" button</t>
@@ -502,34 +480,10 @@
     <t>Check user logout when user logout with "Logout" link</t>
   </si>
   <si>
-    <t>[Account Management Module- 12]</t>
-  </si>
-  <si>
-    <t>[Account Management Module-15]</t>
-  </si>
-  <si>
     <t>Forgot Password</t>
   </si>
   <si>
-    <t>[Account Management Module-85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user register account </t>
-  </si>
-  <si>
-    <t>When user register account then login system</t>
-  </si>
-  <si>
-    <t>When user login with registered account</t>
-  </si>
-  <si>
     <t>When user login with new password</t>
-  </si>
-  <si>
-    <t>[User_login- 14]</t>
-  </si>
-  <si>
-    <t>Check "Edit profile" button</t>
   </si>
   <si>
     <t>Execute all Registered User unit test cases and passed</t>
@@ -545,21 +499,6 @@
     <t>Result Firefox version 30</t>
   </si>
   <si>
-    <t>1. Homepage is displayed
-2. Login page is displayed</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Login page is displayed
-3. Forgot Password page is displayed</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed
-2. Login page is displayed
-3. Redirect user to Facebook
-4. User logged in with facebook and redirect user to homepage</t>
-  </si>
-  <si>
     <t>Message Rules</t>
   </si>
   <si>
@@ -742,16 +681,6 @@
   </si>
   <si>
     <t>MS31</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. Register page is displayed with "Register" form</t>
-  </si>
-  <si>
-    <t>Check "Account" button</t>
-  </si>
-  <si>
-    <t>Integration Login with Account, Edit profile</t>
   </si>
   <si>
     <t>Integration Login with Message</t>
@@ -1026,14 +955,6 @@
     <t xml:space="preserve">Display Homepage with name and avatar of user </t>
   </si>
   <si>
-    <t>1. Homepage is displayed
-2. Login page is displayed
-3. 
-- "acctest00" is displayed in user name text box
-- "••••••••••" is displayed in password text box
-4. User is logged in</t>
-  </si>
-  <si>
     <t>[Admin_login-2]</t>
   </si>
   <si>
@@ -1049,59 +970,7 @@
     <t>VMN</t>
   </si>
   <si>
-    <t>1. Go to thuocnam.com
-2. Click on Login button in header</t>
-  </si>
-  <si>
-    <t>1. Go to thuocnam.com
-2. Click on Login button in header
-3. Click on Forgot Password hyperlink</t>
-  </si>
-  <si>
-    <t>1. Go to thuocnam.com
-2. Click on Login button in header
-3. Click on Login with Facebook button
-4. Click Accept</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Register button in header</t>
-  </si>
-  <si>
-    <t>1. Login the system with Member role.
-2. Click or mouse hover Avatar menu in header
-3. Click "Logout" button</t>
-  </si>
-  <si>
-    <t>1. The Homepage is displayed
-2. Avatar menu is showed
-3. Logout user and redirect to Login page</t>
-  </si>
-  <si>
-    <t>Integration Normal Register with Login</t>
-  </si>
-  <si>
     <t>When user forgot password</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on Login button
-5. Click on Avatar menu
-6. Click on Account button</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on Login button
-5. Click on Avatar menu
-6. Click on Edit profile button</t>
   </si>
   <si>
     <t xml:space="preserve">1. Log in Page is displayed
@@ -1224,99 +1093,6 @@
 + Remedy
 + Author
 + Posted date</t>
-  </si>
-  <si>
-    <t>Integration Login with medicinal plants</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The "medicinal plants" page is displayed</t>
-  </si>
-  <si>
-    <t>Integration Login with remedy</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The "remedy" page is displayed</t>
-  </si>
-  <si>
-    <t>Integration Login with HMS</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The "HMS" page is displayed</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "Medicinal plants" in menu bar</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "Remedy" in menu bar</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "HMS" in menu bar</t>
-  </si>
-  <si>
-    <t>1. Go to thuocnam.com
-2. Click on "Login" button in header
-3. Enter Email and Password:
- - admin
-- 123
-4. Click on "sign in" button of login page</t>
-  </si>
-  <si>
-    <t>1. Go to thuocnam.com
-2. Click on Login button in header
-3. Input:
-   - User name: "username@gmail.com"
-   - Password: "123456"
-4. Click "sign in" button of login page or press Enter</t>
-  </si>
-  <si>
-    <t>1. Go to thuocnam.com
-2. Click on Login button in header
-3. Input:
-   - User name: "email0@gmail.com"
-   - Password: "a"
-4. Click on "sign in" button of login page or press enter</t>
-  </si>
-  <si>
-    <t>1. Go to thuocnam.com
-2. Click on Login button in header
-3. Input "!@#$%^&amp;*()" to User name text box
-4. Click "Sign in" button of login page or press enter.</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on "Login" button in header
-3. Input information's account
-4. Click on "sign in" button of login page</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Register button in header
-3. Input correct information
-4. Click "Sign up" button of register page</t>
   </si>
   <si>
     <t>1. Enter the website: thuocnam.com
@@ -1518,58 +1294,6 @@
   <si>
     <t>1. Homepage is displayed 
 2. Reload homepage, homepage is displayed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Homepage is displayed
-2. Login panel is displayed
-3. Username and password textarea is displayed
-4. Display message: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Homepage is displayed
-2. Login page is displayed
-3. 
-  "username@gmail.com" is displayed in user name text box
-- "••••••" is displayed in password text box
-4. Display message: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>1. Enter the website
@@ -1684,63 +1408,10 @@
 3. Homepage is displayed </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Homepage is displayed
-2. Login page is displayed
-3. Username and password is displayed
-4. Display message: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>1. The Homepage is displayed 
-2. Login page is displayed
-3. Username and password textarea are displayed
-4. Logged in successfully</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. Register page is displayed with "Register" form
-3. Username, password, email, address, phone textarea are displayed
-4. New account registered sucessfully</t>
-  </si>
-  <si>
     <t>1.The Homepage is displayed 
 2. Login page is displayed
 3. Email and password textarea ara displayed
 4. Log in successfully</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Email, password text area are displayed
-4. Logged in successfully
-5. Avatar logo is displayed
-6. The Edit page is displayed</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Email, password text area are displayed
-4. Logged in successfully
-5. Avatar logo is displayed
-6. The Account page is displayed</t>
   </si>
   <si>
     <t>1.The Homepage is displayed 
@@ -1900,6 +1571,148 @@
   <si>
     <t>Mod_function</t>
   </si>
+  <si>
+    <t>User Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to vmn.com
+2. Click on "Login" hyperlink in Header
+3. Click on "Login with Facebook" button
+4. Click on "Accept" button
+</t>
+  </si>
+  <si>
+    <t>When Member login with Facebook</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "Login" Page is displayed
+3. Redirect Member to Facebook
+4. Member logged in with facebook successful and redirect to Homepage</t>
+  </si>
+  <si>
+    <t>Integration Login with Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Member or Mod role.
+2. Click on "Logout" hyperlink on Header
+</t>
+  </si>
+  <si>
+    <t>Integration Register with Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user register new account </t>
+  </si>
+  <si>
+    <t>When user click on "Logout" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to vmn.com
+2. Click on "Register" hyperlink in Header
+3. Enter personal information in "Register" Form
+4. Click on "Sign up" button
+</t>
+  </si>
+  <si>
+    <t>1.Homepage is displayed 
+2. "Register" Page is displayed
+3. Display user's information correctly
+4. VMN system will alert message:"Register success." and redirect to "Login" Page</t>
+  </si>
+  <si>
+    <t>[Authentication-18]
+[Authentication-2]</t>
+  </si>
+  <si>
+    <t>Integration Login with Personal Page</t>
+  </si>
+  <si>
+    <t>Check "Personal Name" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Member or Mod role.
+2. Click on "Personal Page" hyperlink on Header
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Member or Mod role.
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed with "Personal Name" hyperlink on Header</t>
+  </si>
+  <si>
+    <t>"Personal Name" hyperlink when user click on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed 
+2. "Personal Page" Page is displayed
+</t>
+  </si>
+  <si>
+    <t>[Personal Page-2]</t>
+  </si>
+  <si>
+    <t>Check "Logout" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed with "Logout" hyperlink on Header
+</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. Logout success and redirect to Homepage</t>
+  </si>
+  <si>
+    <t>Integration Login with Facebook</t>
+  </si>
+  <si>
+    <t>Integration Login with Medicinal plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Member or Mod role
+2. Click on "Medicinal plants" on Header
+</t>
+  </si>
+  <si>
+    <t>[Homepage-9]</t>
+  </si>
+  <si>
+    <t>Integration Login with Remedy</t>
+  </si>
+  <si>
+    <t>Check "Remedy" tab</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Member or Mod role
+2. Click on "Remedy" on Header</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. "Remedy" Page is displayed</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. "Medicinal plants" Page is displayed</t>
+  </si>
+  <si>
+    <t>[Homepage-11]</t>
+  </si>
+  <si>
+    <t>Integration Login with Herbal Medicine Store</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Member or Mod role
+2. Click on "HMS" tab on Header</t>
+  </si>
+  <si>
+    <t>[Herbal Medicine Store-6]</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. "HMS Searching" Page is displayed</t>
+  </si>
 </sst>
 </file>
 
@@ -1908,7 +1721,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2139,7 +1952,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2212,6 +2025,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="43">
     <border>
@@ -2538,17 +2363,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2776,14 +2590,23 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -2858,7 +2681,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3179,30 +3002,20 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3211,9 +3024,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3227,13 +3037,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3252,25 +3062,25 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3278,13 +3088,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3302,13 +3112,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3324,55 +3134,54 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3424,23 +3233,56 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -3517,6 +3359,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3570,14 +3415,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3595,7 +3440,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Search grammar"/>
@@ -3957,32 +3802,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -3993,44 +3838,44 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="201" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
+      <c r="C4" s="195" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="201" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
+      <c r="C5" s="195" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="202" t="s">
+      <c r="B6" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="203" t="str">
+      <c r="C6" s="197" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -4039,14 +3884,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="202"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="153" t="s">
+      <c r="G7" s="148" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4099,10 +3944,10 @@
         <v>46</v>
       </c>
       <c r="F12" s="116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
@@ -4181,22 +4026,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="1.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="29" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="30" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="8"/>
+    <col min="4" max="4" width="18.625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="25">
+    <row r="1" spans="2:6" ht="25.5">
       <c r="B1" s="31"/>
       <c r="D1" s="32" t="s">
         <v>14</v>
@@ -4209,39 +4054,39 @@
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="207" t="str">
+      <c r="C3" s="200"/>
+      <c r="D3" s="201" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="206"/>
-      <c r="D4" s="207" t="str">
+      <c r="C4" s="200"/>
+      <c r="D4" s="201" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
     </row>
     <row r="5" spans="2:6" s="35" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="204"/>
-      <c r="D5" s="205" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="199" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="36"/>
@@ -4274,65 +4119,65 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="26">
+    <row r="9" spans="2:6" ht="25.5">
       <c r="B9" s="46">
         <v>1</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" s="149" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="144" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="F9" s="113" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="26">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="25.5">
       <c r="B10" s="46">
         <v>2</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="199" t="s">
-        <v>388</v>
+        <v>332</v>
+      </c>
+      <c r="D10" s="193" t="s">
+        <v>333</v>
       </c>
       <c r="E10" s="114" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="26">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="25.5">
       <c r="B11" s="46">
         <v>3</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="149" t="s">
+      <c r="D11" s="144" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="114" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="113" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="13.5">
       <c r="B12" s="46"/>
       <c r="C12" s="47"/>
       <c r="D12" s="90"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
     </row>
-    <row r="13" spans="2:6" ht="17">
+    <row r="13" spans="2:6" ht="13.5">
       <c r="B13" s="46"/>
       <c r="C13" s="47"/>
       <c r="D13" s="110"/>
@@ -4424,26 +4269,26 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="8.875" style="8"/>
     <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="8" customWidth="1"/>
-    <col min="4" max="7" width="8.83203125" style="8"/>
-    <col min="8" max="9" width="33.1640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="8"/>
+    <col min="3" max="3" width="23.125" style="8" customWidth="1"/>
+    <col min="4" max="7" width="8.875" style="8"/>
+    <col min="8" max="9" width="33.125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="62"/>
@@ -4459,17 +4304,17 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="207" t="str">
+      <c r="C3" s="201" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208" t="s">
+      <c r="D3" s="201"/>
+      <c r="E3" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="208"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="10" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="H3" s="65"/>
     </row>
@@ -4477,17 +4322,17 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="207" t="str">
+      <c r="C4" s="201" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208" t="s">
+      <c r="D4" s="201"/>
+      <c r="E4" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="208"/>
+      <c r="F4" s="202"/>
       <c r="G4" s="10" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="H4" s="65"/>
     </row>
@@ -4495,15 +4340,15 @@
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="207" t="str">
+      <c r="C5" s="201" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="207"/>
-      <c r="E5" s="208" t="s">
+      <c r="D5" s="201"/>
+      <c r="E5" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="208"/>
+      <c r="F5" s="202"/>
       <c r="G5" s="115"/>
       <c r="H5" s="67"/>
     </row>
@@ -4512,12 +4357,12 @@
       <c r="B6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="62"/>
@@ -4550,7 +4395,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="71"/>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="145" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="72" t="s">
@@ -4574,94 +4419,94 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="71"/>
-      <c r="B11" s="151">
+      <c r="B11" s="146">
         <v>1</v>
       </c>
-      <c r="C11" s="149" t="s">
-        <v>323</v>
+      <c r="C11" s="144" t="s">
+        <v>275</v>
       </c>
       <c r="D11" s="76">
-        <f>User_Function!A6</f>
+        <f>'User Module'!A6</f>
         <v>0</v>
       </c>
       <c r="E11" s="76">
-        <f>User_Function!B6</f>
+        <f>'User Module'!B6</f>
         <v>0</v>
       </c>
       <c r="F11" s="76">
-        <f>User_Function!C6</f>
-        <v>122</v>
+        <f>'User Module'!C6</f>
+        <v>54</v>
       </c>
       <c r="G11" s="76">
-        <f>User_Function!D6</f>
+        <f>'User Module'!D6</f>
         <v>0</v>
       </c>
       <c r="H11" s="77">
-        <f>User_Function!E6</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17">
+        <f>'User Module'!E6</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
       <c r="A12" s="75"/>
-      <c r="B12" s="151">
+      <c r="B12" s="146">
         <v>2</v>
       </c>
-      <c r="C12" s="199" t="s">
-        <v>324</v>
+      <c r="C12" s="193" t="s">
+        <v>276</v>
       </c>
       <c r="D12" s="76">
-        <f>Mod_Function!A6</f>
+        <f>'Mod Module'!A6</f>
         <v>0</v>
       </c>
       <c r="E12" s="76">
-        <f>Mod_Function!B6</f>
+        <f>'Mod Module'!B6</f>
         <v>0</v>
       </c>
       <c r="F12" s="76">
-        <f>Mod_Function!C6</f>
+        <f>'Mod Module'!C6</f>
         <v>38</v>
       </c>
       <c r="G12" s="76">
-        <f>Mod_Function!D6</f>
+        <f>'Mod Module'!D6</f>
         <v>0</v>
       </c>
       <c r="H12" s="77">
-        <f>Mod_Function!E6</f>
+        <f>'Mod Module'!E6</f>
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="75"/>
-      <c r="B13" s="151">
+      <c r="B13" s="146">
         <v>3</v>
       </c>
-      <c r="C13" s="149" t="s">
-        <v>77</v>
+      <c r="C13" s="144" t="s">
+        <v>68</v>
       </c>
       <c r="D13" s="76">
-        <f>Admin_Function!A6</f>
+        <f>'Admin Module'!A6</f>
         <v>0</v>
       </c>
       <c r="E13" s="76">
-        <f>Admin_Function!B6</f>
+        <f>'Admin Module'!B6</f>
         <v>0</v>
       </c>
       <c r="F13" s="76">
-        <f>Admin_Function!C6</f>
+        <f>'Admin Module'!C6</f>
         <v>30</v>
       </c>
       <c r="G13" s="76">
-        <f>Admin_Function!D6</f>
+        <f>'Admin Module'!D6</f>
         <v>0</v>
       </c>
       <c r="H13" s="77">
-        <f>Admin_Function!E6</f>
+        <f>'Admin Module'!E6</f>
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="70"/>
-      <c r="B14" s="152"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="78" t="s">
         <v>41</v>
       </c>
@@ -4675,7 +4520,7 @@
       </c>
       <c r="F14" s="79">
         <f>SUM(F11:F13)</f>
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="G14" s="79">
         <f>SUM(G9:G13)</f>
@@ -4683,7 +4528,7 @@
       </c>
       <c r="H14" s="80">
         <f>SUM(H11:H13)</f>
-        <v>190</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4733,8 +4578,8 @@
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
     </row>
-    <row r="19" spans="2:8" ht="17">
-      <c r="C19" s="198"/>
+    <row r="19" spans="2:8" ht="14.25">
+      <c r="C19" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4770,307 +4615,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="154" customWidth="1"/>
-    <col min="2" max="2" width="52.83203125" style="154" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="154" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="154"/>
+    <col min="1" max="1" width="14.125" style="149" customWidth="1"/>
+    <col min="2" max="2" width="52.875" style="149" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="149" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="149"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="205" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="151" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="152" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="153" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="154"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="154" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="154"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="153" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="154" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="154"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="154" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="154"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="154"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="154"/>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="153" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="154"/>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="153" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="154" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="154"/>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="153" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:3" ht="13">
-      <c r="A3" s="155" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="156" t="s">
+      <c r="C12" s="154"/>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="157" t="s">
+      <c r="B13" s="154" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13">
-      <c r="A4" s="158" t="s">
+      <c r="C13" s="154"/>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B14" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="159"/>
-    </row>
-    <row r="5" spans="1:3" ht="13">
-      <c r="A5" s="158" t="s">
+      <c r="C14" s="154"/>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="159" t="s">
+      <c r="B15" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="159"/>
-    </row>
-    <row r="6" spans="1:3" ht="13">
-      <c r="A6" s="158" t="s">
+      <c r="C15" s="154"/>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="159" t="s">
+      <c r="B16" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="159"/>
-    </row>
-    <row r="7" spans="1:3" ht="13">
-      <c r="A7" s="158" t="s">
+      <c r="C16" s="154"/>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B17" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="159"/>
-    </row>
-    <row r="8" spans="1:3" ht="13">
-      <c r="A8" s="158" t="s">
+      <c r="C17" s="154"/>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="159" t="s">
+      <c r="B18" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="159"/>
-    </row>
-    <row r="9" spans="1:3" ht="13">
-      <c r="A9" s="158" t="s">
+      <c r="C18" s="154"/>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="159" t="s">
+      <c r="B19" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="159"/>
-    </row>
-    <row r="10" spans="1:3" ht="13">
-      <c r="A10" s="158" t="s">
+      <c r="C19" s="154"/>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="159" t="s">
+      <c r="B20" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="159"/>
-    </row>
-    <row r="11" spans="1:3" ht="13">
-      <c r="A11" s="158" t="s">
+      <c r="C20" s="154"/>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="159" t="s">
+      <c r="B21" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="159"/>
-    </row>
-    <row r="12" spans="1:3" ht="13">
-      <c r="A12" s="158" t="s">
+      <c r="C21" s="154"/>
+    </row>
+    <row r="22" spans="1:3" ht="60">
+      <c r="A22" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="159" t="s">
+      <c r="B22" s="156" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="159"/>
-    </row>
-    <row r="13" spans="1:3" ht="13">
-      <c r="A13" s="158" t="s">
+      <c r="C22" s="154"/>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="159" t="s">
+      <c r="B23" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="159"/>
-    </row>
-    <row r="14" spans="1:3" ht="13">
-      <c r="A14" s="158" t="s">
+      <c r="C23" s="154"/>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="160" t="s">
+      <c r="B24" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="159"/>
-    </row>
-    <row r="15" spans="1:3" ht="13">
-      <c r="A15" s="158" t="s">
+      <c r="C24" s="154"/>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="159" t="s">
+      <c r="B25" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="159"/>
-    </row>
-    <row r="16" spans="1:3" ht="13">
-      <c r="A16" s="158" t="s">
+      <c r="C25" s="154"/>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="159" t="s">
+      <c r="B26" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="159"/>
-    </row>
-    <row r="17" spans="1:3" ht="13">
-      <c r="A17" s="158" t="s">
+      <c r="C26" s="154"/>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="159" t="s">
+      <c r="B27" s="154" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="159"/>
-    </row>
-    <row r="18" spans="1:3" ht="13">
-      <c r="A18" s="158" t="s">
+      <c r="C27" s="154"/>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="157" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="159" t="s">
+      <c r="B28" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="159"/>
-    </row>
-    <row r="19" spans="1:3" ht="13">
-      <c r="A19" s="158" t="s">
+      <c r="C28" s="154"/>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="157" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="160" t="s">
+      <c r="B29" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="159"/>
-    </row>
-    <row r="20" spans="1:3" ht="13">
-      <c r="A20" s="158" t="s">
+      <c r="C29" s="154"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="160" t="s">
+      <c r="B30" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="159"/>
-    </row>
-    <row r="21" spans="1:3" ht="13">
-      <c r="A21" s="158" t="s">
+      <c r="C30" s="154"/>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="160" t="s">
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="157" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="159"/>
-    </row>
-    <row r="22" spans="1:3" ht="52">
-      <c r="A22" s="158" t="s">
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="157" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="157" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="159"/>
-    </row>
-    <row r="23" spans="1:3" ht="13">
-      <c r="A23" s="158" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="159" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="159"/>
-    </row>
-    <row r="24" spans="1:3" ht="13">
-      <c r="A24" s="158" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="159" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="159"/>
-    </row>
-    <row r="25" spans="1:3" ht="13">
-      <c r="A25" s="158" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="159" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="159"/>
-    </row>
-    <row r="26" spans="1:3" ht="13">
-      <c r="A26" s="162" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="159" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="159"/>
-    </row>
-    <row r="27" spans="1:3" ht="13">
-      <c r="A27" s="162" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="159" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="159"/>
-    </row>
-    <row r="28" spans="1:3" ht="13">
-      <c r="A28" s="162" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="159" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="159"/>
-    </row>
-    <row r="29" spans="1:3" ht="13">
-      <c r="A29" s="162" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="159" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="159"/>
-    </row>
-    <row r="30" spans="1:3" ht="13">
-      <c r="A30" s="162" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="159" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="159"/>
-    </row>
-    <row r="31" spans="1:3" ht="13">
-      <c r="A31" s="162" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="159"/>
-      <c r="C31" s="159"/>
-    </row>
-    <row r="32" spans="1:3" ht="13">
-      <c r="A32" s="162" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-    </row>
-    <row r="33" spans="1:3" ht="13">
-      <c r="A33" s="162" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-    </row>
-    <row r="34" spans="1:3" ht="13">
-      <c r="A34" s="162" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5088,27 +4933,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="135" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="105" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="130" customWidth="1"/>
+    <col min="2" max="2" width="39.875" style="105" customWidth="1"/>
     <col min="3" max="3" width="33" style="105" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="105" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="105" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="105" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="105" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="109" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="105" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="108" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="15.1640625" style="105"/>
+    <col min="4" max="4" width="27.75" style="105" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="105" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="105" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="105" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="109" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="105" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="108" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="15.125" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="122" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="92"/>
@@ -5122,18 +4969,18 @@
       <c r="J1" s="95"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="212" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="147" t="s">
+      <c r="B2" s="206" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="142" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="95"/>
@@ -5142,18 +4989,18 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="212" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="147" t="s">
+      <c r="B3" s="206" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="142" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="95"/>
@@ -5162,25 +5009,25 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="213" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="147" t="s">
+      <c r="B4" s="207" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="142" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="95"/>
       <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="125" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="97" t="s">
@@ -5192,12 +5039,12 @@
       <c r="D5" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="214" t="s">
+      <c r="E5" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="214"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="148" t="s">
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="143" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="95"/>
@@ -5206,28 +5053,28 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="130">
-        <f>COUNTIF(F11:G241,"Pass")</f>
+      <c r="A6" s="126">
+        <f>COUNTIF(F11:G234,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="101">
-        <f>COUNTIF(F11:G688,"Fail")</f>
+        <f>COUNTIF(F11:G681,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D6" s="102">
-        <f>COUNTIF(F11:G688,"N/A")</f>
+        <f>COUNTIF(F11:G681,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="215">
-        <f>COUNTA(A11:A245)*2</f>
-        <v>122</v>
-      </c>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
+      <c r="E6" s="209">
+        <f>COUNTA(A11:A238)</f>
+        <v>54</v>
+      </c>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
       <c r="H6" s="99"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95" t="s">
@@ -5235,31 +5082,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A7" s="181"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
       <c r="H7" s="99"/>
       <c r="I7" s="95"/>
       <c r="J7" s="95"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
       <c r="H8" s="99"/>
       <c r="I8" s="95"/>
       <c r="J8" s="95"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A9" s="131"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="95"/>
       <c r="C9" s="95"/>
       <c r="D9" s="103"/>
@@ -5271,7 +5118,7 @@
       <c r="J9" s="100"/>
     </row>
     <row r="10" spans="1:10" ht="48.75" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="128" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
@@ -5287,10 +5134,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H10" s="57" t="s">
         <v>35</v>
@@ -5301,9 +5148,9 @@
       <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A11" s="133"/>
+      <c r="A11" s="212"/>
       <c r="B11" s="58" t="s">
-        <v>56</v>
+        <v>357</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -5311,22 +5158,22 @@
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
-      <c r="I11" s="191"/>
+      <c r="I11" s="186"/>
       <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A12" s="134" t="str">
-        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-2]</v>
-      </c>
-      <c r="B12" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>94</v>
+      <c r="A12" s="213" t="str">
+        <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User Module-2]</v>
+      </c>
+      <c r="B12" s="121" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="121" t="s">
+        <v>337</v>
       </c>
       <c r="E12" s="118"/>
       <c r="F12" s="117"/>
@@ -5336,172 +5183,158 @@
       <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A13" s="134" t="str">
-        <f t="shared" ref="A13:A24" si="0">IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-3]</v>
-      </c>
-      <c r="B13" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="120"/>
+      <c r="A13" s="214"/>
+      <c r="B13" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="134" t="str">
+      <c r="A14" s="213" t="str">
         <f t="shared" si="0"/>
-        <v>[User_login-4]</v>
-      </c>
-      <c r="B14" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="117" t="s">
-        <v>292</v>
+        <v>[User Module-4]</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>349</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>239</v>
-      </c>
-      <c r="E14" s="122"/>
+        <v>355</v>
+      </c>
+      <c r="E14" s="91"/>
       <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="107"/>
       <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A15" s="134" t="str">
+      <c r="A15" s="213" t="str">
         <f t="shared" si="0"/>
-        <v>[User_login-5]</v>
-      </c>
-      <c r="B15" s="124" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="118"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
+        <v>[User Module-5]</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="215" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="219" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15" s="215"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="217"/>
       <c r="J15" s="95"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A16" s="134" t="str">
+      <c r="A16" s="214"/>
+      <c r="B16" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="95"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A17" s="213" t="str">
         <f t="shared" si="0"/>
-        <v>[User_login-6]</v>
-      </c>
-      <c r="B16" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>295</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>336</v>
-      </c>
-      <c r="E16" s="125"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="95"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="134" t="str">
-        <f t="shared" si="0"/>
-        <v>[User_login-7]</v>
-      </c>
-      <c r="B17" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="D17" s="124" t="s">
-        <v>337</v>
-      </c>
-      <c r="E17" s="125"/>
+        <v>[User Module-7]</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>345</v>
+      </c>
       <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="107"/>
       <c r="J17" s="95"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="134" t="str">
-        <f t="shared" si="0"/>
-        <v>[User_login-8]</v>
-      </c>
-      <c r="B18" s="124" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="124" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="124" t="s">
-        <v>351</v>
-      </c>
-      <c r="E18" s="125"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="192"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="95"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
+      <c r="A19" s="61" t="str">
+        <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User Module-9]</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="107"/>
       <c r="J19" s="95"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="134" t="str">
-        <f t="shared" si="0"/>
-        <v>[User_login-10]</v>
+      <c r="A20" s="61" t="str">
+        <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User Module-10]</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="117"/>
+        <v>301</v>
+      </c>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="91"/>
       <c r="H20" s="112"/>
       <c r="I20" s="107"/>
       <c r="J20" s="95"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="58"/>
+      <c r="A21" s="214"/>
       <c r="B21" s="58" t="s">
-        <v>251</v>
+        <v>346</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -5513,316 +5346,311 @@
       <c r="J21" s="95"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="134" t="str">
-        <f t="shared" si="0"/>
-        <v>[User_login-12]</v>
+      <c r="A22" s="220" t="str">
+        <f>IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User Module-12]</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="91" t="s">
-        <v>248</v>
+        <v>347</v>
+      </c>
+      <c r="C22" s="106" t="s">
+        <v>349</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="91" t="s">
-        <v>81</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="E22" s="104"/>
       <c r="F22" s="117"/>
       <c r="G22" s="91"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="107"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="162"/>
       <c r="J22" s="95"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="134" t="str">
-        <f t="shared" si="0"/>
-        <v>[User_login-13]</v>
+      <c r="A23" s="220" t="str">
+        <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User Module-13]</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="91" t="s">
-        <v>297</v>
-      </c>
-      <c r="D23" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="106" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>352</v>
+      </c>
+      <c r="E23" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="E23" s="91"/>
       <c r="F23" s="117"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="107"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="159"/>
       <c r="J23" s="95"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="134" t="str">
-        <f t="shared" si="0"/>
-        <v>[User_login-14]</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>296</v>
-      </c>
-      <c r="D24" s="91" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="117"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="95"/>
+      <c r="A24" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="105"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="95"/>
+      <c r="A25" s="61" t="str">
+        <f t="shared" ref="A25:A28" si="1">IF(OR(B25&lt;&gt;"",D25&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User Module-15]</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" s="104"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="105"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
       <c r="A26" s="61" t="str">
-        <f>IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-16]</v>
+        <f t="shared" si="1"/>
+        <v>[User Module-16]</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="D26" s="136" t="s">
-        <v>339</v>
-      </c>
-      <c r="E26" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="95"/>
+        <v>229</v>
+      </c>
+      <c r="C26" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="104"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="105"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="61" t="str">
-        <f>IF(OR(B27&lt;&gt;"",D27&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-17]</v>
-      </c>
-      <c r="B27" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="91" t="s">
-        <v>340</v>
-      </c>
-      <c r="D27" s="91" t="s">
-        <v>354</v>
-      </c>
-      <c r="E27" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="95"/>
+      <c r="A27" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="105"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="95"/>
+      <c r="A28" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>[User Module-18]</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="106" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="104"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="105"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A29" s="61" t="str">
-        <f>IF(OR(B29&lt;&gt;"",D29&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-19]</v>
-      </c>
-      <c r="B29" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="106" t="s">
-        <v>253</v>
-      </c>
-      <c r="D29" s="104" t="s">
-        <v>356</v>
-      </c>
-      <c r="E29" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="117"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="95"/>
+      <c r="A29" s="164"/>
+      <c r="B29" s="164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="105"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A30" s="61" t="str">
-        <f>IF(OR(B30&lt;&gt;"",D30&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-20]</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="106" t="s">
-        <v>254</v>
-      </c>
-      <c r="D30" s="104" t="s">
-        <v>355</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>88</v>
-      </c>
+      <c r="A30" s="158" t="str">
+        <f>IF(OR(B30&lt;&gt;"",D30&lt;E29&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User Module-20]</v>
+      </c>
+      <c r="B30" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="117" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="117" t="s">
+        <v>287</v>
+      </c>
+      <c r="E30" s="118"/>
       <c r="F30" s="117"/>
-      <c r="G30" s="165"/>
+      <c r="G30" s="117"/>
       <c r="H30" s="119"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="95"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="105"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+      <c r="A31" s="158" t="str">
+        <f>IF(OR(B31&lt;&gt;"",D31&lt;E30&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User Module-21]</v>
+      </c>
+      <c r="B31" s="117" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="117" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="E31" s="118"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="120"/>
       <c r="J31" s="105"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A32" s="61" t="str">
-        <f t="shared" ref="A32:A35" si="1">IF(OR(B32&lt;&gt;"",D32&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-22]</v>
-      </c>
-      <c r="B32" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="C32" s="106" t="s">
-        <v>331</v>
-      </c>
-      <c r="D32" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="E32" s="104"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="167"/>
+      <c r="A32" s="221" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="164" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="163"/>
       <c r="J32" s="105"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A33" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>[User_login-23]</v>
-      </c>
-      <c r="B33" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="C33" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="D33" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="E33" s="104"/>
+      <c r="A33" s="222" t="str">
+        <f t="shared" ref="A33:A51" si="2">IF(OR(B33&lt;&gt;"",D33&lt;E32&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User Module-23]</v>
+      </c>
+      <c r="B33" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="117" t="s">
+        <v>359</v>
+      </c>
+      <c r="D33" s="117" t="s">
+        <v>365</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>360</v>
+      </c>
       <c r="F33" s="117"/>
-      <c r="G33" s="165"/>
+      <c r="G33" s="117"/>
       <c r="H33" s="119"/>
-      <c r="I33" s="164"/>
+      <c r="I33" s="120"/>
       <c r="J33" s="105"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A34" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
+      <c r="A34" s="221" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="164" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="163"/>
       <c r="J34" s="105"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>[User_login-25]</v>
-      </c>
-      <c r="B35" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" s="106" t="s">
-        <v>342</v>
-      </c>
-      <c r="D35" s="104" t="s">
-        <v>359</v>
-      </c>
-      <c r="E35" s="104"/>
+      <c r="A35" s="222" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-25]</v>
+      </c>
+      <c r="B35" s="117" t="s">
+        <v>362</v>
+      </c>
+      <c r="C35" s="117" t="s">
+        <v>363</v>
+      </c>
+      <c r="D35" s="117" t="s">
+        <v>364</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>366</v>
+      </c>
       <c r="F35" s="117"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="167"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="120"/>
       <c r="J35" s="105"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A36" s="169"/>
-      <c r="B36" s="169" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="166"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="166"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="168"/>
+      <c r="A36" s="221" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" s="164" t="s">
+        <v>367</v>
+      </c>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="163"/>
       <c r="J36" s="105"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A37" s="163" t="str">
-        <f>IF(OR(B37&lt;&gt;"",D37&lt;E36&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-27]</v>
+      <c r="A37" s="222" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-27]</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="D37" s="117" t="s">
-        <v>335</v>
-      </c>
-      <c r="E37" s="118"/>
+        <v>370</v>
+      </c>
+      <c r="E37" s="118" t="s">
+        <v>369</v>
+      </c>
       <c r="F37" s="117"/>
       <c r="G37" s="117"/>
       <c r="H37" s="119"/>
@@ -5830,874 +5658,742 @@
       <c r="J37" s="105"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A38" s="163" t="str">
-        <f>IF(OR(B38&lt;&gt;"",D38&lt;E37&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-28]</v>
-      </c>
-      <c r="B38" s="117" t="s">
-        <v>304</v>
-      </c>
-      <c r="C38" s="117" t="s">
+      <c r="A38" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="164" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="105"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A39" s="158" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-29]</v>
+      </c>
+      <c r="B39" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="E39" s="118"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="105"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A40" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="164" t="s">
+        <v>280</v>
+      </c>
+      <c r="C40" s="161"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="105"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A41" s="158" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-31]</v>
+      </c>
+      <c r="B41" s="117" t="s">
+        <v>285</v>
+      </c>
+      <c r="C41" s="117" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="117" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="118"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="105"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A42" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="164" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="161"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="105"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A43" s="158" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-33]</v>
+      </c>
+      <c r="B43" s="117" t="s">
+        <v>282</v>
+      </c>
+      <c r="C43" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="117" t="s">
+        <v>297</v>
+      </c>
+      <c r="E43" s="118"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="105"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A44" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" s="164" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="161"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="161"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="105"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A45" s="158" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-35]</v>
+      </c>
+      <c r="B45" s="117" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="117" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" s="117" t="s">
+        <v>257</v>
+      </c>
+      <c r="E45" s="118"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="105"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A46" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="164" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="161"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="163"/>
+      <c r="J46" s="105"/>
+    </row>
+    <row r="47" spans="1:10" s="164" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A47" s="158" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-37]</v>
+      </c>
+      <c r="B47" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" s="117" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="117" t="s">
+        <v>294</v>
+      </c>
+      <c r="E47" s="118"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="120"/>
+    </row>
+    <row r="48" spans="1:10" s="179" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A48" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="164" t="s">
         <v>259</v>
       </c>
-      <c r="D38" s="117" t="s">
-        <v>350</v>
-      </c>
-      <c r="E38" s="118"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="105"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="B39" s="169" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" s="166"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="105"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A40" s="163" t="str">
-        <f t="shared" ref="A40:A58" si="2">IF(OR(B40&lt;&gt;"",D40&lt;E39&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User_login-30]</v>
-      </c>
-      <c r="B40" s="117" t="s">
-        <v>326</v>
-      </c>
-      <c r="C40" s="117" t="s">
-        <v>289</v>
-      </c>
-      <c r="D40" s="117" t="s">
-        <v>284</v>
-      </c>
-      <c r="E40" s="118"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="105"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A41" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="B41" s="169" t="s">
-        <v>285</v>
-      </c>
-      <c r="C41" s="166"/>
-      <c r="D41" s="166"/>
-      <c r="E41" s="166"/>
-      <c r="F41" s="166"/>
-      <c r="G41" s="166"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="105"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A42" s="163" t="str">
+      <c r="C48" s="161"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="161"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="163"/>
+    </row>
+    <row r="49" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A49" s="158" t="str">
         <f t="shared" si="2"/>
-        <v>[User_login-32]</v>
-      </c>
-      <c r="B42" s="117" t="s">
-        <v>326</v>
-      </c>
-      <c r="C42" s="117" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" s="117" t="s">
+        <v>[User Module-39]</v>
+      </c>
+      <c r="B49" s="117" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="117" t="s">
+        <v>293</v>
+      </c>
+      <c r="D49" s="117" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49" s="118"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="120"/>
+    </row>
+    <row r="50" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A50" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="161"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="161"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="163"/>
+    </row>
+    <row r="51" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A51" s="158" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-41]</v>
+      </c>
+      <c r="B51" s="117" t="s">
         <v>286</v>
       </c>
-      <c r="E42" s="118"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="105"/>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A43" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="B43" s="169" t="s">
-        <v>287</v>
-      </c>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="168"/>
-      <c r="J43" s="105"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A44" s="163" t="str">
-        <f t="shared" si="2"/>
-        <v>[User_login-34]</v>
-      </c>
-      <c r="B44" s="117" t="s">
-        <v>327</v>
-      </c>
-      <c r="C44" s="117" t="s">
-        <v>291</v>
-      </c>
-      <c r="D44" s="117" t="s">
-        <v>288</v>
-      </c>
-      <c r="E44" s="118"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="105"/>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A45" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="B45" s="169" t="s">
-        <v>329</v>
-      </c>
-      <c r="C45" s="166"/>
-      <c r="D45" s="166"/>
-      <c r="E45" s="166"/>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="166"/>
-      <c r="I45" s="168"/>
-      <c r="J45" s="105"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A46" s="163" t="str">
-        <f t="shared" si="2"/>
-        <v>[User_login-36]</v>
-      </c>
-      <c r="B46" s="117" t="s">
-        <v>326</v>
-      </c>
-      <c r="C46" s="117" t="s">
-        <v>301</v>
-      </c>
-      <c r="D46" s="117" t="s">
-        <v>349</v>
-      </c>
-      <c r="E46" s="118"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="105"/>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A47" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="B47" s="169" t="s">
-        <v>328</v>
-      </c>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="105"/>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A48" s="163" t="str">
-        <f t="shared" si="2"/>
-        <v>[User_login-38]</v>
-      </c>
-      <c r="B48" s="117" t="s">
-        <v>333</v>
-      </c>
-      <c r="C48" s="117" t="s">
-        <v>302</v>
-      </c>
-      <c r="D48" s="117" t="s">
-        <v>348</v>
-      </c>
-      <c r="E48" s="118"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="105"/>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A49" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="B49" s="169" t="s">
-        <v>299</v>
-      </c>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="105"/>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A50" s="163" t="str">
-        <f t="shared" si="2"/>
-        <v>[User_login-40]</v>
-      </c>
-      <c r="B50" s="117" t="s">
-        <v>330</v>
-      </c>
-      <c r="C50" s="117" t="s">
-        <v>309</v>
-      </c>
-      <c r="D50" s="117" t="s">
-        <v>347</v>
-      </c>
-      <c r="E50" s="118"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="105"/>
-    </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A51" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="B51" s="169" t="s">
-        <v>300</v>
-      </c>
-      <c r="C51" s="166"/>
-      <c r="D51" s="166"/>
-      <c r="E51" s="166"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="166"/>
-      <c r="H51" s="166"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="105"/>
-    </row>
-    <row r="52" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A52" s="163" t="str">
-        <f t="shared" si="2"/>
-        <v>[User_login-42]</v>
-      </c>
-      <c r="B52" s="117" t="s">
-        <v>332</v>
-      </c>
-      <c r="C52" s="117" t="s">
-        <v>303</v>
-      </c>
-      <c r="D52" s="117" t="s">
-        <v>305</v>
-      </c>
-      <c r="E52" s="118"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="105"/>
-    </row>
-    <row r="53" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A53" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="B53" s="169" t="s">
-        <v>306</v>
-      </c>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
-      <c r="E53" s="166"/>
-      <c r="F53" s="166"/>
-      <c r="G53" s="166"/>
-      <c r="H53" s="166"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="105"/>
-    </row>
-    <row r="54" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A54" s="163" t="str">
-        <f t="shared" si="2"/>
-        <v>[User_login-44]</v>
-      </c>
-      <c r="B54" s="117" t="s">
-        <v>334</v>
-      </c>
-      <c r="C54" s="117" t="s">
-        <v>310</v>
-      </c>
-      <c r="D54" s="117" t="s">
-        <v>344</v>
-      </c>
-      <c r="E54" s="118"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="120"/>
-    </row>
-    <row r="55" spans="1:10" s="184" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A55" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="B55" s="169" t="s">
-        <v>307</v>
-      </c>
-      <c r="C55" s="166"/>
-      <c r="D55" s="166"/>
-      <c r="E55" s="166"/>
-      <c r="F55" s="166"/>
-      <c r="G55" s="166"/>
-      <c r="H55" s="166"/>
-      <c r="I55" s="168"/>
-    </row>
-    <row r="56" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A56" s="163" t="str">
-        <f t="shared" si="2"/>
-        <v>[User_login-46]</v>
+      <c r="C51" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="E51" s="118"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="120"/>
+    </row>
+    <row r="52" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A52" s="187"/>
+      <c r="B52" s="188"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="189"/>
+      <c r="I52" s="190"/>
+    </row>
+    <row r="53" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A53" s="187"/>
+      <c r="B53" s="188"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="188"/>
+      <c r="H53" s="189"/>
+      <c r="I53" s="190"/>
+    </row>
+    <row r="54" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A54" s="164"/>
+      <c r="B54" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+    </row>
+    <row r="55" spans="1:9" s="164" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A55" s="180"/>
+      <c r="B55" s="181" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
+      <c r="E55" s="182"/>
+      <c r="F55" s="182"/>
+      <c r="G55" s="182"/>
+      <c r="H55" s="182"/>
+      <c r="I55" s="182"/>
+    </row>
+    <row r="56" spans="1:9" s="185" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A56" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A55)+1)</f>
+        <v>ID-37</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>327</v>
+        <v>171</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>343</v>
+        <v>172</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>345</v>
-      </c>
-      <c r="E56" s="118"/>
+        <v>173</v>
+      </c>
+      <c r="E56" s="117"/>
       <c r="F56" s="117"/>
       <c r="G56" s="117"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="120"/>
-    </row>
-    <row r="57" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A57" s="169" t="s">
-        <v>264</v>
-      </c>
-      <c r="B57" s="169" t="s">
-        <v>308</v>
-      </c>
-      <c r="C57" s="166"/>
-      <c r="D57" s="166"/>
-      <c r="E57" s="166"/>
-      <c r="F57" s="166"/>
-      <c r="G57" s="166"/>
-      <c r="H57" s="166"/>
-      <c r="I57" s="168"/>
-    </row>
-    <row r="58" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A58" s="163" t="str">
-        <f t="shared" si="2"/>
-        <v>[User_login-48]</v>
+      <c r="H56" s="117"/>
+      <c r="I56" s="183" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="185" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A57" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A56)+1)</f>
+        <v>ID-38</v>
+      </c>
+      <c r="B57" s="117" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="117" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="117"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="183" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="185" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A58" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A57)+1)</f>
+        <v>ID-39</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>346</v>
-      </c>
-      <c r="E58" s="118"/>
+        <v>173</v>
+      </c>
+      <c r="E58" s="117"/>
       <c r="F58" s="117"/>
       <c r="G58" s="117"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="120"/>
-    </row>
-    <row r="59" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A59" s="193"/>
-      <c r="B59" s="194"/>
-      <c r="C59" s="194"/>
-      <c r="D59" s="194"/>
-      <c r="E59" s="193"/>
-      <c r="F59" s="194"/>
-      <c r="G59" s="194"/>
-      <c r="H59" s="195"/>
-      <c r="I59" s="196"/>
-    </row>
-    <row r="60" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A60" s="193"/>
-      <c r="B60" s="194"/>
-      <c r="C60" s="194"/>
-      <c r="D60" s="194"/>
-      <c r="E60" s="193"/>
-      <c r="F60" s="194"/>
-      <c r="G60" s="194"/>
-      <c r="H60" s="195"/>
-      <c r="I60" s="196"/>
-    </row>
-    <row r="61" spans="1:10" s="189" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A61" s="169"/>
-      <c r="B61" s="169" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="169"/>
-      <c r="H61" s="169"/>
-      <c r="I61" s="169"/>
-    </row>
-    <row r="62" spans="1:10" s="169" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A62" s="185"/>
-      <c r="B62" s="186" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" s="187"/>
-      <c r="D62" s="187"/>
-      <c r="E62" s="187"/>
-      <c r="F62" s="187"/>
-      <c r="G62" s="187"/>
-      <c r="H62" s="187"/>
-      <c r="I62" s="187"/>
-    </row>
-    <row r="63" spans="1:10" s="190" customFormat="1" ht="14.25" customHeight="1">
+      <c r="H58" s="117"/>
+      <c r="I58" s="183" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A59" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A58)+1)</f>
+        <v>ID-40</v>
+      </c>
+      <c r="B59" s="117" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="117" t="s">
+        <v>270</v>
+      </c>
+      <c r="D59" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="183" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A60" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A59)+1)</f>
+        <v>ID-41</v>
+      </c>
+      <c r="B60" s="117" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="117" t="s">
+        <v>271</v>
+      </c>
+      <c r="D60" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="117"/>
+      <c r="I60" s="183" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A61" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A60)+1)</f>
+        <v>ID-42</v>
+      </c>
+      <c r="B61" s="117" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="117" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A62" s="164"/>
+      <c r="B62" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="164"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="164"/>
+      <c r="H62" s="164"/>
+      <c r="I62" s="164"/>
+    </row>
+    <row r="63" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
       <c r="A63" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A62)+1)</f>
-        <v>ID-44</v>
+        <v>ID-43</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C63" s="117" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="D63" s="117" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="E63" s="117"/>
       <c r="F63" s="117"/>
       <c r="G63" s="117"/>
       <c r="H63" s="117"/>
-      <c r="I63" s="188" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="190" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I63" s="117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
       <c r="A64" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A63)+1)</f>
-        <v>ID-45</v>
+        <v>ID-44</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>316</v>
+        <v>178</v>
       </c>
       <c r="D64" s="117" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E64" s="117"/>
       <c r="F64" s="117"/>
       <c r="G64" s="117"/>
       <c r="H64" s="117"/>
-      <c r="I64" s="188" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="190" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I64" s="117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
       <c r="A65" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A64)+1)</f>
-        <v>ID-46</v>
+        <v>ID-45</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="D65" s="117" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E65" s="117"/>
       <c r="F65" s="117"/>
       <c r="G65" s="117"/>
       <c r="H65" s="117"/>
-      <c r="I65" s="188" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="189" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I65" s="117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
       <c r="A66" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A65)+1)</f>
-        <v>ID-47</v>
+        <v>ID-46</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>315</v>
+        <v>182</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>318</v>
+        <v>183</v>
       </c>
       <c r="D66" s="117" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="E66" s="117"/>
       <c r="F66" s="117"/>
       <c r="G66" s="117"/>
       <c r="H66" s="117"/>
-      <c r="I66" s="188" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I66" s="117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
       <c r="A67" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A66)+1)</f>
-        <v>ID-48</v>
+        <v>ID-47</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>319</v>
+        <v>185</v>
       </c>
       <c r="D67" s="117" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E67" s="117"/>
       <c r="F67" s="117"/>
       <c r="G67" s="117"/>
       <c r="H67" s="117"/>
-      <c r="I67" s="188" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I67" s="117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
       <c r="A68" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A67)+1)</f>
-        <v>ID-49</v>
+        <v>ID-48</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="D68" s="117" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E68" s="117"/>
       <c r="F68" s="117"/>
       <c r="G68" s="117"/>
       <c r="H68" s="117"/>
       <c r="I68" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A69" s="169"/>
-      <c r="B69" s="169" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="169"/>
-      <c r="D69" s="169"/>
-      <c r="E69" s="169"/>
-      <c r="F69" s="169"/>
-      <c r="G69" s="169"/>
-      <c r="H69" s="169"/>
-      <c r="I69" s="169"/>
-    </row>
-    <row r="70" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A69" s="117" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A68)+1)</f>
+        <v>ID-49</v>
+      </c>
+      <c r="B69" s="117" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="117" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="117"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="117"/>
+      <c r="I69" s="117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1">
       <c r="A70" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A69)+1)</f>
         <v>ID-50</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D70" s="117" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="E70" s="117"/>
       <c r="F70" s="117"/>
       <c r="G70" s="117"/>
       <c r="H70" s="117"/>
       <c r="I70" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="13.5" customHeight="1">
       <c r="A71" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A70)+1)</f>
         <v>ID-51</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D71" s="117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E71" s="117"/>
       <c r="F71" s="117"/>
       <c r="G71" s="117"/>
       <c r="H71" s="117"/>
       <c r="I71" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" customHeight="1">
       <c r="A72" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A71)+1)</f>
         <v>ID-52</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C72" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="117" t="s">
         <v>201</v>
-      </c>
-      <c r="D72" s="117" t="s">
-        <v>204</v>
       </c>
       <c r="E72" s="117"/>
       <c r="F72" s="117"/>
       <c r="G72" s="117"/>
       <c r="H72" s="117"/>
       <c r="I72" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="13.5" customHeight="1">
       <c r="A73" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A72)+1)</f>
         <v>ID-53</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D73" s="117" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="E73" s="117"/>
       <c r="F73" s="117"/>
       <c r="G73" s="117"/>
       <c r="H73" s="117"/>
       <c r="I73" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="13.5" customHeight="1">
       <c r="A74" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A73)+1)</f>
         <v>ID-54</v>
       </c>
       <c r="B74" s="117" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="117" t="s">
         <v>207</v>
-      </c>
-      <c r="C74" s="117" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" s="117" t="s">
-        <v>209</v>
       </c>
       <c r="E74" s="117"/>
       <c r="F74" s="117"/>
       <c r="G74" s="117"/>
       <c r="H74" s="117"/>
       <c r="I74" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="13.5" customHeight="1">
       <c r="A75" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A74)+1)</f>
         <v>ID-55</v>
       </c>
       <c r="B75" s="117" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="117" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="117" t="s">
         <v>210</v>
-      </c>
-      <c r="C75" s="117" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" s="117" t="s">
-        <v>212</v>
       </c>
       <c r="E75" s="117"/>
       <c r="F75" s="117"/>
       <c r="G75" s="117"/>
       <c r="H75" s="117"/>
       <c r="I75" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A76" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A75)+1)</f>
-        <v>ID-56</v>
-      </c>
-      <c r="B76" s="117" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="117" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" s="117" t="s">
-        <v>215</v>
-      </c>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="117"/>
-      <c r="I76" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A77" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A76)+1)</f>
-        <v>ID-57</v>
-      </c>
-      <c r="B77" s="117" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="D77" s="117" t="s">
-        <v>218</v>
-      </c>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A78" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A77)+1)</f>
-        <v>ID-58</v>
-      </c>
-      <c r="B78" s="117" t="s">
-        <v>219</v>
-      </c>
-      <c r="C78" s="117" t="s">
-        <v>220</v>
-      </c>
-      <c r="D78" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="E78" s="117"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="117"/>
-      <c r="H78" s="117"/>
-      <c r="I78" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A79" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A78)+1)</f>
-        <v>ID-59</v>
-      </c>
-      <c r="B79" s="117" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" s="117" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" s="117" t="s">
-        <v>224</v>
-      </c>
-      <c r="E79" s="117"/>
-      <c r="F79" s="117"/>
-      <c r="G79" s="117"/>
-      <c r="H79" s="117"/>
-      <c r="I79" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A80" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A79)+1)</f>
-        <v>ID-60</v>
-      </c>
-      <c r="B80" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="C80" s="117" t="s">
-        <v>226</v>
-      </c>
-      <c r="D80" s="117" t="s">
-        <v>227</v>
-      </c>
-      <c r="E80" s="117"/>
-      <c r="F80" s="117"/>
-      <c r="G80" s="117"/>
-      <c r="H80" s="117"/>
-      <c r="I80" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A81" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A80)+1)</f>
-        <v>ID-61</v>
-      </c>
-      <c r="B81" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="C81" s="117" t="s">
-        <v>229</v>
-      </c>
-      <c r="D81" s="117" t="s">
-        <v>230</v>
-      </c>
-      <c r="E81" s="117"/>
-      <c r="F81" s="117"/>
-      <c r="G81" s="117"/>
-      <c r="H81" s="117"/>
-      <c r="I81" s="117" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A82" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A81)+1)</f>
-        <v>ID-62</v>
-      </c>
-      <c r="B82" s="117" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" s="117" t="s">
-        <v>232</v>
-      </c>
-      <c r="D82" s="117" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="117"/>
-      <c r="F82" s="117"/>
-      <c r="G82" s="117"/>
-      <c r="H82" s="117"/>
-      <c r="I82" s="117" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate>
     <dataRefs count="1">
-      <dataRef ref="K2:K6" sheet="User_Function"/>
+      <dataRef ref="K2:K6" sheet="User Module"/>
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="5">
@@ -6708,17 +6404,17 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G18 G1:G9 G83:G65313 F20 F22:F24 F12:F18 F29:F35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G76:G65306 F14:F15 F17 F22:F28 G11 F12:G12">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G20 G22:G24 G26:G27 G29:G35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G14:G15 G17 G19:G20 G22:G28">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E63:I68 GJ56:GQ61 QF56:QM61 AAB56:AAI61 AJX56:AKE61 ATT56:AUA61 BDP56:BDW61 BNL56:BNS61 BXH56:BXO61 CHD56:CHK61 CQZ56:CRG61 DAV56:DBC61 DKR56:DKY61 DUN56:DUU61 EEJ56:EEQ61 EOF56:EOM61 EYB56:EYI61 FHX56:FIE61 FRT56:FSA61 GBP56:GBW61 GLL56:GLS61 GVH56:GVO61 HFD56:HFK61 HOZ56:HPG61 HYV56:HZC61 IIR56:IIY61 ISN56:ISU61 JCJ56:JCQ61 JMF56:JMM61 JWB56:JWI61 KFX56:KGE61 KPT56:KQA61 KZP56:KZW61 LJL56:LJS61 LTH56:LTO61 MDD56:MDK61 MMZ56:MNG61 MWV56:MXC61 NGR56:NGY61 NQN56:NQU61 OAJ56:OAQ61 OKF56:OKM61 OUB56:OUI61 PDX56:PEE61 PNT56:POA61 PXP56:PXW61 QHL56:QHS61 QRH56:QRO61 RBD56:RBK61 RKZ56:RLG61 RUV56:RVC61 SER56:SEY61 SON56:SOU61 SYJ56:SYQ61 TIF56:TIM61 TSB56:TSI61 UBX56:UCE61 ULT56:UMA61 UVP56:UVW61 VFL56:VFS61 VPH56:VPO61 VZD56:VZK61 WIZ56:WJG61 GT54:GT75 QP54:QP75 AAL54:AAL75 AKH54:AKH75 AUD54:AUD75 BDZ54:BDZ75 BNV54:BNV75 BXR54:BXR75 CHN54:CHN75 CRJ54:CRJ75 DBF54:DBF75 DLB54:DLB75 DUX54:DUX75 EET54:EET75 EOP54:EOP75 EYL54:EYL75 FIH54:FIH75 FSD54:FSD75 GBZ54:GBZ75 GLV54:GLV75 GVR54:GVR75 HFN54:HFN75 HPJ54:HPJ75 HZF54:HZF75 IJB54:IJB75 ISX54:ISX75 JCT54:JCT75 JMP54:JMP75 JWL54:JWL75 KGH54:KGH75 KQD54:KQD75 KZZ54:KZZ75 LJV54:LJV75 LTR54:LTR75 MDN54:MDN75 MNJ54:MNJ75 MXF54:MXF75 NHB54:NHB75 NQX54:NQX75 OAT54:OAT75 OKP54:OKP75 OUL54:OUL75 PEH54:PEH75 POD54:POD75 PXZ54:PXZ75 QHV54:QHV75 QRR54:QRR75 RBN54:RBN75 RLJ54:RLJ75 RVF54:RVF75 SFB54:SFB75 SOX54:SOX75 SYT54:SYT75 TIP54:TIP75 TSL54:TSL75 UCH54:UCH75 UMD54:UMD75 UVZ54:UVZ75 VFV54:VFV75 VPR54:VPR75 VZN54:VZN75 WJJ54:WJJ75 VZD63:VZK75 VPH63:VPO75 VFL63:VFS75 UVP63:UVW75 ULT63:UMA75 UBX63:UCE75 TSB63:TSI75 TIF63:TIM75 SYJ63:SYQ75 SON63:SOU75 SER63:SEY75 RUV63:RVC75 RKZ63:RLG75 RBD63:RBK75 QRH63:QRO75 QHL63:QHS75 PXP63:PXW75 PNT63:POA75 PDX63:PEE75 OUB63:OUI75 OKF63:OKM75 OAJ63:OAQ75 NQN63:NQU75 NGR63:NGY75 MWV63:MXC75 MMZ63:MNG75 MDD63:MDK75 LTH63:LTO75 LJL63:LJS75 KZP63:KZW75 KPT63:KQA75 KFX63:KGE75 JWB63:JWI75 JMF63:JMM75 JCJ63:JCQ75 ISN63:ISU75 IIR63:IIY75 HYV63:HZC75 HOZ63:HPG75 HFD63:HFK75 GVH63:GVO75 GLL63:GLS75 GBP63:GBW75 FRT63:FSA75 FHX63:FIE75 EYB63:EYI75 EOF63:EOM75 EEJ63:EEQ75 DUN63:DUU75 DKR63:DKY75 DAV63:DBC75 CQZ63:CRG75 CHD63:CHK75 BXH63:BXO75 BNL63:BNS75 BDP63:BDW75 ATT63:AUA75 AJX63:AKE75 AAB63:AAI75 QF63:QM75 GJ63:GQ75 E70:I82 WIZ63:WJG75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E56:I61 GJ49:GQ54 QF49:QM54 AAB49:AAI54 AJX49:AKE54 ATT49:AUA54 BDP49:BDW54 BNL49:BNS54 BXH49:BXO54 CHD49:CHK54 CQZ49:CRG54 DAV49:DBC54 DKR49:DKY54 DUN49:DUU54 EEJ49:EEQ54 EOF49:EOM54 EYB49:EYI54 FHX49:FIE54 FRT49:FSA54 GBP49:GBW54 GLL49:GLS54 GVH49:GVO54 HFD49:HFK54 HOZ49:HPG54 HYV49:HZC54 IIR49:IIY54 ISN49:ISU54 JCJ49:JCQ54 JMF49:JMM54 JWB49:JWI54 KFX49:KGE54 KPT49:KQA54 KZP49:KZW54 LJL49:LJS54 LTH49:LTO54 MDD49:MDK54 MMZ49:MNG54 MWV49:MXC54 NGR49:NGY54 NQN49:NQU54 OAJ49:OAQ54 OKF49:OKM54 OUB49:OUI54 PDX49:PEE54 PNT49:POA54 PXP49:PXW54 QHL49:QHS54 QRH49:QRO54 RBD49:RBK54 RKZ49:RLG54 RUV49:RVC54 SER49:SEY54 SON49:SOU54 SYJ49:SYQ54 TIF49:TIM54 TSB49:TSI54 UBX49:UCE54 ULT49:UMA54 UVP49:UVW54 VFL49:VFS54 VPH49:VPO54 VZD49:VZK54 WIZ49:WJG54 GT47:GT68 QP47:QP68 AAL47:AAL68 AKH47:AKH68 AUD47:AUD68 BDZ47:BDZ68 BNV47:BNV68 BXR47:BXR68 CHN47:CHN68 CRJ47:CRJ68 DBF47:DBF68 DLB47:DLB68 DUX47:DUX68 EET47:EET68 EOP47:EOP68 EYL47:EYL68 FIH47:FIH68 FSD47:FSD68 GBZ47:GBZ68 GLV47:GLV68 GVR47:GVR68 HFN47:HFN68 HPJ47:HPJ68 HZF47:HZF68 IJB47:IJB68 ISX47:ISX68 JCT47:JCT68 JMP47:JMP68 JWL47:JWL68 KGH47:KGH68 KQD47:KQD68 KZZ47:KZZ68 LJV47:LJV68 LTR47:LTR68 MDN47:MDN68 MNJ47:MNJ68 MXF47:MXF68 NHB47:NHB68 NQX47:NQX68 OAT47:OAT68 OKP47:OKP68 OUL47:OUL68 PEH47:PEH68 POD47:POD68 PXZ47:PXZ68 QHV47:QHV68 QRR47:QRR68 RBN47:RBN68 RLJ47:RLJ68 RVF47:RVF68 SFB47:SFB68 SOX47:SOX68 SYT47:SYT68 TIP47:TIP68 TSL47:TSL68 UCH47:UCH68 UMD47:UMD68 UVZ47:UVZ68 VFV47:VFV68 VPR47:VPR68 VZN47:VZN68 WJJ47:WJJ68 VZD56:VZK68 VPH56:VPO68 VFL56:VFS68 UVP56:UVW68 ULT56:UMA68 UBX56:UCE68 TSB56:TSI68 TIF56:TIM68 SYJ56:SYQ68 SON56:SOU68 SER56:SEY68 RUV56:RVC68 RKZ56:RLG68 RBD56:RBK68 QRH56:QRO68 QHL56:QHS68 PXP56:PXW68 PNT56:POA68 PDX56:PEE68 OUB56:OUI68 OKF56:OKM68 OAJ56:OAQ68 NQN56:NQU68 NGR56:NGY68 MWV56:MXC68 MMZ56:MNG68 MDD56:MDK68 LTH56:LTO68 LJL56:LJS68 KZP56:KZW68 KPT56:KQA68 KFX56:KGE68 JWB56:JWI68 JMF56:JMM68 JCJ56:JCQ68 ISN56:ISU68 IIR56:IIY68 HYV56:HZC68 HOZ56:HPG68 HFD56:HFK68 GVH56:GVO68 GLL56:GLS68 GBP56:GBW68 FRT56:FSA68 FHX56:FIE68 EYB56:EYI68 EOF56:EOM68 EEJ56:EEQ68 DUN56:DUU68 DKR56:DKY68 DAV56:DBC68 CQZ56:CRG68 CHD56:CHK68 BXH56:BXO68 BNL56:BNS68 BDP56:BDW68 ATT56:AUA68 AJX56:AKE68 AAB56:AAI68 QF56:QM68 GJ56:GQ68 E63:I75 WIZ56:WJG68">
       <formula1>"OK,NG,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F37:G38 F40:G40 F42:G42 F44:G44 F46:G60">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F30:G31 F33:G33 F35:G35 F37:G37 F39:G53">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6740,107 +6436,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="135" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="105" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="130" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="105" customWidth="1"/>
     <col min="3" max="3" width="33" style="105" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="105" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="105" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="105" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="105" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="109" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="105" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="108" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="105" customWidth="1"/>
-    <col min="12" max="16" width="15.1640625" style="105"/>
+    <col min="4" max="4" width="30.625" style="105" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="105" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="105" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="105" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="109" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="105" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="108" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="105" customWidth="1"/>
+    <col min="12" max="16" width="15.125" style="105"/>
     <col min="17" max="17" width="0" style="105" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="15.1640625" style="105"/>
+    <col min="18" max="16384" width="15.125" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="137" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="138" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="140"/>
-    </row>
-    <row r="2" spans="1:10" s="137" customFormat="1" ht="17">
-      <c r="A2" s="141" t="s">
+    <row r="1" spans="1:10" s="132" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="133" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="135"/>
+    </row>
+    <row r="2" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A2" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="212" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
+      <c r="B2" s="206" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
       <c r="J2" s="95" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="137" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="142" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="212" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
+    <row r="3" spans="1:10" s="132" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="137" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="206" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
       <c r="J3" s="95" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="137" customFormat="1" ht="17">
-      <c r="A4" s="141" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="213" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
+    <row r="4" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A4" s="136" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="207" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
       <c r="J4" s="96"/>
     </row>
-    <row r="5" spans="1:10" s="137" customFormat="1" ht="17">
-      <c r="A5" s="143" t="s">
+    <row r="5" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A5" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="145" t="s">
+      <c r="C5" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="216" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
+      <c r="E5" s="210" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
       <c r="J5" s="95" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="137" customFormat="1" ht="18" thickBot="1">
-      <c r="A6" s="130">
+    <row r="6" spans="1:10" s="132" customFormat="1" ht="15" thickBot="1">
+      <c r="A6" s="126">
         <f>COUNTIF(F11:G258,"Pass")</f>
         <v>0</v>
       </c>
@@ -6856,70 +6552,70 @@
         <f>COUNTIF(F11:G705,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="215">
+      <c r="E6" s="209">
         <f>COUNTA(A11:A263)*2</f>
         <v>38</v>
       </c>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
       <c r="J6" s="95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="137" customFormat="1" ht="17">
-      <c r="A7" s="181"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
+    <row r="7" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
       <c r="J7" s="95"/>
     </row>
-    <row r="8" spans="1:10" s="137" customFormat="1" ht="17">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
+    <row r="8" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A8" s="176"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
       <c r="J8" s="95"/>
     </row>
-    <row r="9" spans="1:10" s="137" customFormat="1" ht="17"/>
-    <row r="10" spans="1:10" s="137" customFormat="1" ht="51.75" customHeight="1">
+    <row r="9" spans="1:10" s="132" customFormat="1"/>
+    <row r="10" spans="1:10" s="132" customFormat="1" ht="51.75" customHeight="1">
       <c r="A10" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="133"/>
+    <row r="11" spans="1:10" s="132" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="129"/>
       <c r="B11" s="58" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -6927,385 +6623,385 @@
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
-      <c r="I11" s="191"/>
+      <c r="I11" s="186"/>
     </row>
     <row r="12" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="165" t="str">
+      <c r="A12" s="160" t="str">
         <f t="shared" ref="A12:A20" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod_login-2]</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="171"/>
+        <v>235</v>
+      </c>
+      <c r="E12" s="166"/>
       <c r="F12" s="117"/>
       <c r="G12" s="117"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="172"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="167"/>
     </row>
     <row r="13" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="165" t="str">
+      <c r="A13" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-3]</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="197"/>
+        <v>236</v>
+      </c>
+      <c r="E13" s="191"/>
       <c r="F13" s="117"/>
       <c r="G13" s="117"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
     </row>
     <row r="14" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="165" t="str">
+      <c r="A14" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-4]</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="173"/>
+        <v>237</v>
+      </c>
+      <c r="E14" s="168"/>
       <c r="F14" s="117"/>
       <c r="G14" s="117"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
     </row>
     <row r="15" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="165" t="str">
+      <c r="A15" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" s="173"/>
+        <v>238</v>
+      </c>
+      <c r="E15" s="168"/>
       <c r="F15" s="117"/>
       <c r="G15" s="117"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
     </row>
     <row r="16" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="165" t="str">
+      <c r="A16" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-6]</v>
       </c>
       <c r="B16" s="117" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="173"/>
+        <v>239</v>
+      </c>
+      <c r="E16" s="168"/>
       <c r="F16" s="117"/>
       <c r="G16" s="117"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
     </row>
     <row r="17" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="165" t="str">
+      <c r="A17" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-7]</v>
       </c>
       <c r="B17" s="117" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="173"/>
+        <v>241</v>
+      </c>
+      <c r="E17" s="168"/>
       <c r="F17" s="117"/>
       <c r="G17" s="117"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
     </row>
     <row r="18" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="165" t="str">
+      <c r="A18" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-8]</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>273</v>
-      </c>
-      <c r="E18" s="173"/>
+        <v>240</v>
+      </c>
+      <c r="E18" s="168"/>
       <c r="F18" s="117"/>
       <c r="G18" s="117"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
     </row>
     <row r="19" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="165" t="str">
+      <c r="A19" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-9]</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>273</v>
-      </c>
-      <c r="E19" s="173"/>
+        <v>240</v>
+      </c>
+      <c r="E19" s="168"/>
       <c r="F19" s="117"/>
       <c r="G19" s="117"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="165" t="str">
+      <c r="A20" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-10]</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C20" s="117" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>273</v>
-      </c>
-      <c r="E20" s="173"/>
+        <v>240</v>
+      </c>
+      <c r="E20" s="168"/>
       <c r="F20" s="117"/>
       <c r="G20" s="117"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="175"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="170"/>
       <c r="J20" s="105"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="176"/>
-      <c r="B21" s="177" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="178"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="172" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="173"/>
       <c r="J21" s="105"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="165" t="str">
+      <c r="A22" s="160" t="str">
         <f t="shared" ref="A22:A31" si="1">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>325</v>
-      </c>
-      <c r="E22" s="179"/>
+        <v>277</v>
+      </c>
+      <c r="E22" s="174"/>
       <c r="F22" s="117"/>
       <c r="G22" s="117"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="175"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="170"/>
       <c r="J22" s="105"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="165" t="str">
+      <c r="A23" s="160" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>370</v>
-      </c>
-      <c r="D23" s="180" t="s">
-        <v>255</v>
-      </c>
-      <c r="E23" s="179"/>
+        <v>315</v>
+      </c>
+      <c r="D23" s="175" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="174"/>
       <c r="F23" s="117"/>
       <c r="G23" s="117"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="175"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="170"/>
       <c r="J23" s="105"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="176" t="s">
-        <v>264</v>
+      <c r="A24" s="171" t="s">
+        <v>231</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="178"/>
+        <v>69</v>
+      </c>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="173"/>
       <c r="J24" s="105"/>
     </row>
     <row r="25" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A25" s="165" t="str">
+      <c r="A25" s="160" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-15]</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>360</v>
-      </c>
-      <c r="E25" s="179"/>
+        <v>305</v>
+      </c>
+      <c r="E25" s="174"/>
       <c r="F25" s="117"/>
       <c r="G25" s="117"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="175"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="170"/>
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A26" s="176" t="s">
-        <v>264</v>
+      <c r="A26" s="171" t="s">
+        <v>231</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="178"/>
+        <v>244</v>
+      </c>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="173"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A27" s="165" t="str">
+      <c r="A27" s="160" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="D27" s="117" t="s">
-        <v>275</v>
-      </c>
-      <c r="E27" s="173"/>
+        <v>242</v>
+      </c>
+      <c r="E27" s="168"/>
       <c r="F27" s="117"/>
       <c r="G27" s="117"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="175"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="170"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A28" s="176" t="s">
-        <v>264</v>
+      <c r="A28" s="171" t="s">
+        <v>231</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="178"/>
+        <v>245</v>
+      </c>
+      <c r="C28" s="171"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="173"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="165" t="str">
+      <c r="A29" s="160" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="D29" s="117" t="s">
-        <v>276</v>
-      </c>
-      <c r="E29" s="173"/>
+        <v>243</v>
+      </c>
+      <c r="E29" s="168"/>
       <c r="F29" s="117"/>
       <c r="G29" s="117"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="175"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="170"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A30" s="176" t="s">
-        <v>264</v>
+      <c r="A30" s="171" t="s">
+        <v>231</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="178"/>
+        <v>246</v>
+      </c>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="173"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A31" s="165" t="str">
+      <c r="A31" s="160" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-21]</v>
       </c>
       <c r="B31" s="117" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="C31" s="117" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="D31" s="117" t="s">
-        <v>282</v>
-      </c>
-      <c r="E31" s="173"/>
+        <v>249</v>
+      </c>
+      <c r="E31" s="168"/>
       <c r="F31" s="117"/>
       <c r="G31" s="117"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="175"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7343,105 +7039,105 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="135" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="105" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="130" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="105" customWidth="1"/>
     <col min="3" max="3" width="33" style="105" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="105" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="105" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="105" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="105" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="109" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="105" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="108" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="105" customWidth="1"/>
-    <col min="12" max="16" width="15.1640625" style="105"/>
+    <col min="4" max="4" width="30.625" style="105" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="105" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="105" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="105" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="109" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="105" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="108" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="105" customWidth="1"/>
+    <col min="12" max="16" width="15.125" style="105"/>
     <col min="17" max="17" width="0" style="105" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="15.1640625" style="105"/>
+    <col min="18" max="16384" width="15.125" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="137" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="138" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="140"/>
-    </row>
-    <row r="2" spans="1:10" s="137" customFormat="1" ht="17">
-      <c r="A2" s="141" t="s">
+    <row r="1" spans="1:10" s="132" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="133" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="135"/>
+    </row>
+    <row r="2" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A2" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
       <c r="J2" s="95" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="137" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="142" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="212" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
+    <row r="3" spans="1:10" s="132" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="137" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="206" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
       <c r="J3" s="95" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="137" customFormat="1" ht="17">
-      <c r="A4" s="141" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="213" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
+    <row r="4" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A4" s="136" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="207" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
       <c r="J4" s="96"/>
     </row>
-    <row r="5" spans="1:10" s="137" customFormat="1" ht="17">
-      <c r="A5" s="143" t="s">
+    <row r="5" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A5" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="145" t="s">
+      <c r="C5" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="216" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
+      <c r="E5" s="210" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
       <c r="J5" s="95" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="137" customFormat="1" ht="18" thickBot="1">
-      <c r="A6" s="130">
+    <row r="6" spans="1:10" s="132" customFormat="1" ht="15" thickBot="1">
+      <c r="A6" s="126">
         <f>COUNTIF(F11:G261,"Pass")</f>
         <v>0</v>
       </c>
@@ -7457,442 +7153,442 @@
         <f>COUNTIF(F11:G708,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="215">
+      <c r="E6" s="209">
         <f>COUNTA(A11:A265)*2</f>
         <v>30</v>
       </c>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
       <c r="J6" s="95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="137" customFormat="1" ht="17">
-      <c r="A7" s="181"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
+    <row r="7" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
       <c r="J7" s="95"/>
     </row>
-    <row r="8" spans="1:10" s="137" customFormat="1" ht="17">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
+    <row r="8" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A8" s="176"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
       <c r="J8" s="95"/>
     </row>
-    <row r="9" spans="1:10" s="137" customFormat="1" ht="17"/>
-    <row r="10" spans="1:10" s="137" customFormat="1" ht="51.75" customHeight="1">
+    <row r="9" spans="1:10" s="132" customFormat="1"/>
+    <row r="10" spans="1:10" s="132" customFormat="1" ht="51.75" customHeight="1">
       <c r="A10" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="170"/>
-      <c r="B11" s="217" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
+    <row r="11" spans="1:10" s="132" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="165"/>
+      <c r="B11" s="211" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
     </row>
     <row r="12" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="165" t="str">
+      <c r="A12" s="160" t="str">
         <f t="shared" ref="A12:A20" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-2]</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" s="171"/>
+        <v>224</v>
+      </c>
+      <c r="E12" s="166"/>
       <c r="F12" s="117"/>
       <c r="G12" s="117"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="172"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="167"/>
     </row>
     <row r="13" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="165" t="str">
+      <c r="A13" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-3]</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="173" t="s">
-        <v>240</v>
+        <v>141</v>
+      </c>
+      <c r="E13" s="168" t="s">
+        <v>216</v>
       </c>
       <c r="F13" s="117"/>
       <c r="G13" s="117"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
     </row>
     <row r="14" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="165" t="str">
+      <c r="A14" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-4]</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="173" t="s">
-        <v>240</v>
+        <v>144</v>
+      </c>
+      <c r="E14" s="168" t="s">
+        <v>216</v>
       </c>
       <c r="F14" s="117"/>
       <c r="G14" s="117"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
     </row>
     <row r="15" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="165" t="str">
+      <c r="A15" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="173" t="s">
-        <v>240</v>
+        <v>147</v>
+      </c>
+      <c r="E15" s="168" t="s">
+        <v>216</v>
       </c>
       <c r="F15" s="117"/>
       <c r="G15" s="117"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
     </row>
     <row r="16" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="165" t="str">
+      <c r="A16" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-6]</v>
       </c>
       <c r="B16" s="117" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="173" t="s">
-        <v>240</v>
+        <v>67</v>
+      </c>
+      <c r="E16" s="168" t="s">
+        <v>216</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="117"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
     </row>
     <row r="17" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="165" t="str">
+      <c r="A17" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-7]</v>
       </c>
       <c r="B17" s="117" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="173" t="s">
-        <v>240</v>
+        <v>58</v>
+      </c>
+      <c r="E17" s="168" t="s">
+        <v>216</v>
       </c>
       <c r="F17" s="117"/>
       <c r="G17" s="117"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
     </row>
     <row r="18" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="165" t="str">
+      <c r="A18" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-8]</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="173" t="s">
-        <v>240</v>
+        <v>60</v>
+      </c>
+      <c r="E18" s="168" t="s">
+        <v>216</v>
       </c>
       <c r="F18" s="117"/>
       <c r="G18" s="117"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
     </row>
     <row r="19" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="165" t="str">
+      <c r="A19" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-9]</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="173" t="s">
-        <v>240</v>
+        <v>60</v>
+      </c>
+      <c r="E19" s="168" t="s">
+        <v>216</v>
       </c>
       <c r="F19" s="117"/>
       <c r="G19" s="117"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="165" t="str">
+      <c r="A20" s="160" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-10]</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C20" s="117" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="173" t="s">
-        <v>240</v>
+        <v>60</v>
+      </c>
+      <c r="E20" s="168" t="s">
+        <v>216</v>
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="117"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="175"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="170"/>
       <c r="J20" s="105"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="176"/>
-      <c r="B21" s="177" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="178"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="173"/>
       <c r="J21" s="105"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="165" t="str">
+      <c r="A22" s="160" t="str">
         <f t="shared" ref="A22:A23" si="1">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>374</v>
-      </c>
-      <c r="E22" s="179" t="s">
-        <v>241</v>
+        <v>319</v>
+      </c>
+      <c r="E22" s="174" t="s">
+        <v>217</v>
       </c>
       <c r="F22" s="117"/>
       <c r="G22" s="117"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="175"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="170"/>
       <c r="J22" s="105"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="165" t="str">
+      <c r="A23" s="160" t="str">
         <f t="shared" si="1"/>
         <v>[Admin_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>375</v>
-      </c>
-      <c r="D23" s="180" t="s">
-        <v>376</v>
-      </c>
-      <c r="E23" s="179" t="s">
-        <v>241</v>
+        <v>320</v>
+      </c>
+      <c r="D23" s="175" t="s">
+        <v>321</v>
+      </c>
+      <c r="E23" s="174" t="s">
+        <v>217</v>
       </c>
       <c r="F23" s="117"/>
       <c r="G23" s="117"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="175"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="170"/>
       <c r="J23" s="105"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="178"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="172" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="173"/>
       <c r="J24" s="105"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="165" t="str">
+      <c r="A25" s="160" t="str">
         <f t="shared" ref="A25" si="2">IF(OR(B25&lt;&gt;"",D25&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-15]</v>
       </c>
       <c r="B25" s="117" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="C25" s="117" t="s">
-        <v>377</v>
-      </c>
-      <c r="D25" s="180" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="179" t="s">
-        <v>241</v>
+        <v>322</v>
+      </c>
+      <c r="D25" s="175" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="174" t="s">
+        <v>217</v>
       </c>
       <c r="F25" s="117"/>
       <c r="G25" s="117"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="175"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="170"/>
       <c r="J25" s="105"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="176"/>
-      <c r="B26" s="177" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="178"/>
+      <c r="A26" s="171"/>
+      <c r="B26" s="172" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="173"/>
       <c r="J26" s="105"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="165" t="str">
+      <c r="A27" s="160" t="str">
         <f t="shared" ref="A27:A29" si="3">IF(OR(B27&lt;&gt;"",D27&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="D27" s="180" t="s">
-        <v>381</v>
-      </c>
-      <c r="E27" s="179"/>
+        <v>325</v>
+      </c>
+      <c r="D27" s="175" t="s">
+        <v>326</v>
+      </c>
+      <c r="E27" s="174"/>
       <c r="F27" s="117"/>
       <c r="G27" s="117"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="175"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="170"/>
       <c r="J27" s="105"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A28" s="176" t="s">
-        <v>264</v>
-      </c>
-      <c r="B28" s="177" t="s">
-        <v>384</v>
-      </c>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="178"/>
+      <c r="A28" s="171" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="172" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="171"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="173"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="165" t="str">
+      <c r="A29" s="160" t="str">
         <f t="shared" si="3"/>
         <v>[Admin_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>382</v>
-      </c>
-      <c r="D29" s="180" t="s">
-        <v>383</v>
-      </c>
-      <c r="E29" s="179"/>
+        <v>327</v>
+      </c>
+      <c r="D29" s="175" t="s">
+        <v>328</v>
+      </c>
+      <c r="E29" s="174"/>
       <c r="F29" s="117"/>
       <c r="G29" s="117"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="175"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7931,7 +7627,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="378">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -423,52 +423,6 @@
   </si>
   <si>
     <t>Add new</t>
-  </si>
-  <si>
-    <t>Check "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click on "Login" button</t>
-  </si>
-  <si>
-    <t>When user input correct username and password</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Logged in successfully, The "User management" page is displayed</t>
-  </si>
-  <si>
-    <t>When user input correct username and wrong password</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Display error message "Username or Password wrong"</t>
-  </si>
-  <si>
-    <t>When user input wrong username and correct password</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input username and password, then click "Login" button</t>
-  </si>
-  <si>
-    <t>When user input wrong username and wrong password</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input wrong username "fsdfsd" and password "123456789", then click "Login" button</t>
-  </si>
-  <si>
-    <t>Verify that password is encoded</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input data to "Password" field</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Data is encoded</t>
   </si>
   <si>
     <t>Admin_Function</t>
@@ -686,51 +640,9 @@
     <t>Integration Login with Message</t>
   </si>
   <si>
-    <t>Log in</t>
-  </si>
-  <si>
     <t>1. Enter the admin page</t>
   </si>
   <si>
-    <t>1.The admin page is displayed 
-2. Display error message
-"The Username field is required" below the Username textbox
-"The Password field is required" below the Password textbox</t>
-  </si>
-  <si>
-    <t>Check "Username" textbox</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click "Username" field</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Pointer is flickered in "Username" textbox</t>
-  </si>
-  <si>
-    <t>Check "Password" textbox</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click "Password" field</t>
-  </si>
-  <si>
-    <t>1.The admin page is displayed 
-2. Pointer is flickered in "Password" textbox</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input username "email0@gmail.com" password "123456", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input username "email0@gmail.com" and password "fsdfs", then click "Login" button</t>
-  </si>
-  <si>
-    <t>Admin Common module</t>
-  </si>
-  <si>
     <t>Admin Dashboard module</t>
   </si>
   <si>
@@ -765,12 +677,6 @@
   </si>
   <si>
     <t>Check date</t>
-  </si>
-  <si>
-    <t>Check viewing "Login" form</t>
-  </si>
-  <si>
-    <t>Check Admin view</t>
   </si>
   <si>
     <t>Check Logout button</t>
@@ -955,9 +861,6 @@
     <t xml:space="preserve">Display Homepage with name and avatar of user </t>
   </si>
   <si>
-    <t>[Admin_login-2]</t>
-  </si>
-  <si>
     <t>[Admin_login-7]</t>
   </si>
   <si>
@@ -978,13 +881,6 @@
   </si>
   <si>
     <t>Mod_login</t>
-  </si>
-  <si>
-    <t>1.The admin page view form is displayed with the following information:
-- "Username" field
-- "Password" field
-- Remember me button
-- "Login" button</t>
   </si>
   <si>
     <t>Check mod view</t>
@@ -1019,39 +915,6 @@
   </si>
   <si>
     <t>Check "Dashboard" tab</t>
-  </si>
-  <si>
-    <t>1.The login of mod page view form is displayed with the following information:
-- "Username" field
-- "Password" field
-- Remember me button
-- "Login" button</t>
-  </si>
-  <si>
-    <t>1.The login of mod page is displayed 
-2. Display error message
-"The Username field is required" below the Username textbox
-"The Password field is required" below the Password textbox</t>
-  </si>
-  <si>
-    <t>1.The login mod page is displayed 
-2. Pointer is flickered in "Username" textbox</t>
-  </si>
-  <si>
-    <t>1.The login of mod page is displayed 
-2. Pointer is flickered in "Password" textbox</t>
-  </si>
-  <si>
-    <t>1.The login of mod page is displayed 
-2. Data is encoded</t>
-  </si>
-  <si>
-    <t>1.The login of mod page is displayed 
-2. Display error message "Username or Password wrong"</t>
-  </si>
-  <si>
-    <t>1.The login of mod page is displayed 
-2. Logged in successfully, The "Mod" page is displayed</t>
   </si>
   <si>
     <t>1. The login of mod page is displayed 
@@ -1100,9 +963,6 @@
   </si>
   <si>
     <t>Integration Personal page with notification</t>
-  </si>
-  <si>
-    <t>Integration Medicinal plants with remedy</t>
   </si>
   <si>
     <t xml:space="preserve">1. Enter the website: thuocnam.com
@@ -1125,25 +985,7 @@
 6. Click on "remedy" link</t>
   </si>
   <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on "Medicinal Plants" in menu bar
-6. Click on a "medicinal plants" picture</t>
-  </si>
-  <si>
     <t>Check "log out"  when user login successfully</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Logged in successfully
-4. The "medicinal plants" page is displayed
-5. "Medicinal plants detail" page is displayed
-6. "Relational remedy" is displayed</t>
   </si>
   <si>
     <t>Integration Medicinal plants with author</t>
@@ -1281,9 +1123,6 @@
 5. Click on Avatar menu
 6. Click on Account button
 7. Show message tab</t>
-  </si>
-  <si>
-    <t>Check "related remedy" tab</t>
   </si>
   <si>
     <t>Check "remedy" tab</t>
@@ -1451,38 +1290,6 @@
   </si>
   <si>
     <t>1. Enter mod page
-2. Click on "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Click "Username" field</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Click "Password" field</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Input data to "Password" field</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Input username "email0@gmail.com" password "123456", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Input username "email0@gmail.com" and password "fsdfs", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Input username and password, then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Input wrong username "fsdfsd" and password "123456789", then click "Login" button</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
 2. Click logout button in Right Slide bar</t>
   </si>
   <si>
@@ -1713,6 +1520,233 @@
     <t>1. Homepage is displayed 
 2. "HMS Searching" Page is displayed</t>
   </si>
+  <si>
+    <t>Integration Medicinal plants with Remedy</t>
+  </si>
+  <si>
+    <t>Check "Related Remedy Article" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Member or Mod role
+2. Click on "Medicinal Plants" on Header
+3. Click on "Detail" hyperlink of any Medicinal Plants Article
+4. Click on "Related Remedy Article" tab
+5. Click on any Remedy Article hyperlink </t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. "Medicinal Plants" tab is displayed 
+3. "Medicinal Plants Article Detail" Page is displayed 
+4. The "medicinal plants" page is displayed
+5. "Medicinal plants detail" page is displayed
+6. "Relational remedy" is displayed</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. "Medicinal Plants" tab is displayed 
+3. "Medicinal Plants Article Detail" Page is displayed 
+4. "Related Remedy Article" tab is displayed by list of Remedy Article hyperlink
+5. "Remedy Article Detail" is displayed</t>
+  </si>
+  <si>
+    <t>[Remedy Article-37]</t>
+  </si>
+  <si>
+    <t>Integration Medicinal plants with Personal Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check "Author" hyperlink </t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Medicinal Plants Article Detail" hyperlink on "Medicinal Plants" tab or Homepage
+3. Click on "Author" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. "Medicinal Plants Article Detail" Page is displayed
+3. "Author" Page is displayed by following fields:
+- Header
+- Avatar
+- Profile hyperlink
+- Contributed Articles hyperlink
+- Profile frame
+- Footer</t>
+  </si>
+  <si>
+    <t>Check "Related HMS" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to vmn.com
+2. Click on "Medicinal Plants" on Header
+3. Click on "Detail" hyperlink of any Medicinal Plants Article
+4. Click on "Related Remedy Article" tab
+5. Click on any "Remedy Article" hyperlink </t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Member or Mod role
+2. Click on "Remedy Article Detail" hyperlink on "Remedy" tab
+3. Click on "Related HMS" tab
+4. Click on "HMS" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. "Remedy Article Detail" Page is displayed
+3. "Related HMS" tab is displayed by list of HMS hyperlink
+4. "HMS Profile" Page is displayed</t>
+  </si>
+  <si>
+    <t>[Herbal Medicine Store-13]</t>
+  </si>
+  <si>
+    <t>Integration Remedy with Personal Page</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. "Remedy Article Detail" Page is displayed
+3. "Author" Page is displayed by following fields:
+- Header
+- Avatar
+- Profile hyperlink
+- Contributed Articles hyperlink
+- Profile frame
+- Footer</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "Remedy Article Detail" hyperlink on "Remedy" tab
+3. Click on "Author" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check "Remedy" hyperlink on "Contributed Articles" in "Personal Page" Page </t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Member role
+2. Click on "Account" hyperlink on Header
+3. Click on "Contributed Articles" tab
+4. Click on "Remedy Article's Title" hyperlink</t>
+  </si>
+  <si>
+    <t>Integration Personal Page with "Remedy's change content" Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed 
+2. "Personal Page" Page is displayed
+3. "Contributed Article" Frame is displayed
+4. "Remedy change content" Page is displayed
+</t>
+  </si>
+  <si>
+    <t>[Remedy Article-21]</t>
+  </si>
+  <si>
+    <t>Integration Personal page with "Medicinal Plants change content" Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check "Medicinal Plants" hyperlink on "Contributed Articles" in "Personal Page" Page </t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Member role
+2. Click on "Account" hyperlink on Header
+3. Click on "Contributed Articles" tab
+4. Click on "Medicinal Plants Name" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed 
+2. "Personal Page" Page is displayed
+3. "Contributed Article" Frame is displayed
+4. "Medicinal Plants change content" Page is displayed</t>
+  </si>
+  <si>
+    <t>[Medicinal Plants Article-23]</t>
+  </si>
+  <si>
+    <t>Integration Slider on Homepage with Medicinal Plants tab</t>
+  </si>
+  <si>
+    <t>Check "View now" in Medicinal Plants Slider on Homepage</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on "View now" in Medicinal Plants Slider (Slider 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed 
+2. "Medicinal Plants" tab is displayed 
+</t>
+  </si>
+  <si>
+    <t>Check "View now" in Remedy Slider on Homepage</t>
+  </si>
+  <si>
+    <t>1. Go to vmn.com
+2. Click on  "View now" in Remedy Slider (Slider 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed 
+2. "Remedy" tab is displayed </t>
+  </si>
+  <si>
+    <t>Integration Slider on Homepage with Remedy tab</t>
+  </si>
+  <si>
+    <t>Integration Slider on Homepage with HMS tab</t>
+  </si>
+  <si>
+    <t>[Homepage-8]</t>
+  </si>
+  <si>
+    <t>[Homepage-10]</t>
+  </si>
+  <si>
+    <t>Check "View now" in HMS Slider on Homepage</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Member or Mod role.
+2. Click on  "View now" in HMS Slider (Slider 4)</t>
+  </si>
+  <si>
+    <t>1. Homepage is displayed
+2. "HMS Search" Page is displayed</t>
+  </si>
+  <si>
+    <t>[Herbal Medicine Store-2]</t>
+  </si>
+  <si>
+    <t>Personal Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration Log in with </t>
+  </si>
+  <si>
+    <t>Check Dashboard tab</t>
+  </si>
+  <si>
+    <t>1. Login Admin Page by Admin role
+2. Click on Dashboard tab</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed 
+2. Dashboard tab is displayed</t>
+  </si>
+  <si>
+    <t>Integration Login with Dashboard</t>
+  </si>
+  <si>
+    <t>Integration Login with Medicinal Plants Management</t>
+  </si>
+  <si>
+    <t>Integration Login with Remedy Management</t>
+  </si>
+  <si>
+    <t>Check Medicinal Plants Management tab</t>
+  </si>
+  <si>
+    <t>Check Remedy Management</t>
+  </si>
+  <si>
+    <t>Integration Medicinal Plants Management with Medicinal Plants Article Detail</t>
+  </si>
 </sst>
 </file>
 
@@ -1721,7 +1755,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1899,13 +1933,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Tahoma"/>
@@ -1952,7 +1979,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2003,18 +2030,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2027,18 +2042,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="41"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="43">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2612,6 +2621,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2622,66 +2705,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2849,9 +2932,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3026,9 +3106,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3055,10 +3132,10 @@
     <xf numFmtId="14" fontId="3" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
@@ -3074,31 +3151,28 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3116,9 +3190,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3158,25 +3229,25 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3199,6 +3270,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3230,7 +3316,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3248,40 +3334,45 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="48" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3415,14 +3506,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3821,13 +3912,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -3838,60 +3929,60 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="195" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
+      <c r="C4" s="196" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="195" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
+      <c r="C5" s="196" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="197" t="str">
+      <c r="C6" s="198" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="85">
         <v>42422</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="196"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="148" t="s">
+      <c r="G7" s="146" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3933,36 +4024,36 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1">
-      <c r="B12" s="87">
+      <c r="B12" s="86">
         <v>42422</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89" t="s">
+      <c r="D12" s="88"/>
+      <c r="E12" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="115" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="89"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="21"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="89"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="21"/>
       <c r="G14" s="24"/>
     </row>
@@ -4054,39 +4145,39 @@
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201" t="str">
+      <c r="C3" s="201"/>
+      <c r="D3" s="202" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="200"/>
-      <c r="D4" s="201" t="str">
+      <c r="C4" s="201"/>
+      <c r="D4" s="202" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
     </row>
     <row r="5" spans="2:6" s="35" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199" t="s">
-        <v>331</v>
-      </c>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="36"/>
@@ -4124,16 +4215,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="144" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="114" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="113" t="s">
-        <v>73</v>
+      <c r="E9" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="112" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="25.5">
@@ -4141,16 +4232,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="D10" s="193" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="114" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="189" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="113" t="s">
-        <v>74</v>
+      <c r="F10" s="112" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="25.5">
@@ -4160,27 +4251,27 @@
       <c r="C11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="113" t="s">
-        <v>74</v>
+      <c r="F11" s="112" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="13.5">
       <c r="B12" s="46"/>
       <c r="C12" s="47"/>
-      <c r="D12" s="90"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
     </row>
     <row r="13" spans="2:6" ht="13.5">
       <c r="B13" s="46"/>
       <c r="C13" s="47"/>
-      <c r="D13" s="110"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="50"/>
       <c r="F13" s="49"/>
     </row>
@@ -4280,306 +4371,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:8" ht="12" customHeight="1">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="201" t="str">
+      <c r="C3" s="202" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202" t="s">
+      <c r="D3" s="202"/>
+      <c r="E3" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="202"/>
+      <c r="F3" s="203"/>
       <c r="G3" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="65"/>
+        <v>191</v>
+      </c>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="201" t="str">
+      <c r="C4" s="202" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="201"/>
-      <c r="E4" s="202" t="s">
+      <c r="D4" s="202"/>
+      <c r="E4" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="202"/>
+      <c r="F4" s="203"/>
       <c r="G4" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" s="65"/>
+        <v>203</v>
+      </c>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="201" t="str">
+      <c r="C5" s="202" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="202" t="s">
+      <c r="D5" s="202"/>
+      <c r="E5" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="202"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="67"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="71"/>
-      <c r="B10" s="145" t="s">
+      <c r="A10" s="70"/>
+      <c r="B10" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="73" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="71"/>
-      <c r="B11" s="146">
+      <c r="A11" s="70"/>
+      <c r="B11" s="144">
         <v>1</v>
       </c>
-      <c r="C11" s="144" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="76">
+      <c r="C11" s="142" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="75">
         <f>'User Module'!A6</f>
         <v>0</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="75">
         <f>'User Module'!B6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="75">
         <f>'User Module'!C6</f>
-        <v>54</v>
-      </c>
-      <c r="G11" s="76">
+        <v>48</v>
+      </c>
+      <c r="G11" s="75">
         <f>'User Module'!D6</f>
         <v>0</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="76">
         <f>'User Module'!E6</f>
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="146">
+      <c r="A12" s="74"/>
+      <c r="B12" s="144">
         <v>2</v>
       </c>
-      <c r="C12" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="76">
+      <c r="C12" s="189" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="75">
         <f>'Mod Module'!A6</f>
         <v>0</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="75">
         <f>'Mod Module'!B6</f>
         <v>0</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="75">
         <f>'Mod Module'!C6</f>
         <v>38</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="75">
         <f>'Mod Module'!D6</f>
         <v>0</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="76">
         <f>'Mod Module'!E6</f>
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="75"/>
-      <c r="B13" s="146">
+      <c r="A13" s="74"/>
+      <c r="B13" s="144">
         <v>3</v>
       </c>
-      <c r="C13" s="144" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="76">
+      <c r="C13" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="75">
         <f>'Admin Module'!A6</f>
         <v>0</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="75">
         <f>'Admin Module'!B6</f>
         <v>0</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="75">
         <f>'Admin Module'!C6</f>
-        <v>30</v>
-      </c>
-      <c r="G13" s="76">
+        <v>12</v>
+      </c>
+      <c r="G13" s="75">
         <f>'Admin Module'!D6</f>
         <v>0</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="76">
         <f>'Admin Module'!E6</f>
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="70"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="78" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="78">
         <f>SUM(D11:D13)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="78">
         <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="78">
         <f>SUM(F11:F13)</f>
-        <v>122</v>
-      </c>
-      <c r="G14" s="79">
+        <v>98</v>
+      </c>
+      <c r="G14" s="78">
         <f>SUM(G9:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="79">
         <f>SUM(H11:H13)</f>
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="70"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="84" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="85">
+      <c r="D16" s="69"/>
+      <c r="E16" s="84">
         <f>(D14+E14)*100/(H14-G14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="70"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="55"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="70"/>
-      <c r="C17" s="84" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="85">
+      <c r="D17" s="69"/>
+      <c r="E17" s="84">
         <f>D14*100/(H14-G14)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="70"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="55"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
     </row>
     <row r="19" spans="2:8" ht="14.25">
-      <c r="C19" s="192"/>
+      <c r="C19" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4621,301 +4712,301 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="149" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="149" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="149" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="149"/>
+    <col min="1" max="1" width="14.125" style="147" customWidth="1"/>
+    <col min="2" max="2" width="52.875" style="147" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="147" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="147"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="205" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
+      <c r="A1" s="206" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="149" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="150" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="151" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="152" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="152"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="151" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="152"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="151" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="152"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="151" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="152"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="152"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="151" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C9" s="152"/>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="151" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="153" t="s">
+      <c r="B10" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="C10" s="152"/>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="154"/>
-    </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="153" t="s">
+      <c r="B11" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="C11" s="152"/>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="154"/>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="153" t="s">
+      <c r="B12" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="154" t="s">
+      <c r="C12" s="152"/>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="154"/>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="153" t="s">
+      <c r="B13" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="C13" s="152"/>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="154"/>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="153" t="s">
+      <c r="B14" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="C14" s="152"/>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="154"/>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="153" t="s">
+      <c r="B15" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="C15" s="152"/>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="154"/>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="153" t="s">
+      <c r="B16" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="C16" s="152"/>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="154"/>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="153" t="s">
+      <c r="B17" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="154" t="s">
+      <c r="C17" s="152"/>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="154"/>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="153" t="s">
+      <c r="B18" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="154" t="s">
+      <c r="C18" s="152"/>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="154"/>
-    </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="A13" s="153" t="s">
+      <c r="B19" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="154" t="s">
+      <c r="C19" s="152"/>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="154"/>
-    </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="A14" s="153" t="s">
+      <c r="B20" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="155" t="s">
+      <c r="C20" s="152"/>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="154"/>
-    </row>
-    <row r="15" spans="1:3" ht="15">
-      <c r="A15" s="153" t="s">
+      <c r="B21" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="154" t="s">
+      <c r="C21" s="152"/>
+    </row>
+    <row r="22" spans="1:3" ht="60">
+      <c r="A22" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="154"/>
-    </row>
-    <row r="16" spans="1:3" ht="15">
-      <c r="A16" s="153" t="s">
+      <c r="B22" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="C22" s="152"/>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="154"/>
-    </row>
-    <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="153" t="s">
+      <c r="B23" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="154" t="s">
+      <c r="C23" s="152"/>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="154"/>
-    </row>
-    <row r="18" spans="1:3" ht="15">
-      <c r="A18" s="153" t="s">
+      <c r="B24" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="154" t="s">
+      <c r="C24" s="152"/>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="154"/>
-    </row>
-    <row r="19" spans="1:3" ht="15">
-      <c r="A19" s="153" t="s">
+      <c r="B25" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="155" t="s">
+      <c r="C25" s="152"/>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="154"/>
-    </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="A20" s="153" t="s">
+      <c r="B26" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="155" t="s">
+      <c r="C26" s="152"/>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="154"/>
-    </row>
-    <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="153" t="s">
+      <c r="B27" s="152" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="155" t="s">
+      <c r="C27" s="152"/>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="154"/>
-    </row>
-    <row r="22" spans="1:3" ht="60">
-      <c r="A22" s="153" t="s">
+      <c r="B28" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="156" t="s">
+      <c r="C28" s="152"/>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="154"/>
-    </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="153" t="s">
+      <c r="B29" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="154" t="s">
+      <c r="C29" s="152"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="154"/>
-    </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="153" t="s">
+      <c r="B30" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="154" t="s">
+      <c r="C30" s="152"/>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="154"/>
-    </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="153" t="s">
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="154" t="s">
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="154"/>
-    </row>
-    <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="157" t="s">
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="154" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="154"/>
-    </row>
-    <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="157" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="154" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="154"/>
-    </row>
-    <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="157" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="154" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="154"/>
-    </row>
-    <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="157" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="154"/>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="157" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="154" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="154"/>
-    </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="157" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-    </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="157" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="154"/>
-      <c r="C32" s="154"/>
-    </row>
-    <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="157" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-    </row>
-    <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="157" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4933,192 +5024,192 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="130" customWidth="1"/>
-    <col min="2" max="2" width="39.875" style="105" customWidth="1"/>
-    <col min="3" max="3" width="33" style="105" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="105" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="105" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="105" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="105" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="109" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="105" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="108" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="15.125" style="105"/>
+    <col min="1" max="1" width="15.125" style="129" customWidth="1"/>
+    <col min="2" max="2" width="39.875" style="104" customWidth="1"/>
+    <col min="3" max="3" width="33" style="104" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="104" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="104" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="104" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="104" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="108" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="104" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="107" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="15.125" style="104"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="206" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="142" t="s">
+      <c r="B2" s="207" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="94" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="207" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="142" t="s">
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95" t="s">
+      <c r="I3" s="94"/>
+      <c r="J3" s="94" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="207" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="142" t="s">
+      <c r="B4" s="208" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="96"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="208" t="s">
+      <c r="E5" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="143" t="s">
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95" t="s">
+      <c r="I5" s="94"/>
+      <c r="J5" s="94" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="126">
-        <f>COUNTIF(F11:G234,"Pass")</f>
+      <c r="A6" s="125">
+        <f>COUNTIF(F11:G226,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="101">
-        <f>COUNTIF(F11:G681,"Fail")</f>
+      <c r="B6" s="100">
+        <f>COUNTIF(F11:G673,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="100">
         <f>E6-D6-B6-A6</f>
-        <v>54</v>
-      </c>
-      <c r="D6" s="102">
-        <f>COUNTIF(F11:G681,"N/A")</f>
+        <v>48</v>
+      </c>
+      <c r="D6" s="101">
+        <f>COUNTIF(F11:G673,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="209">
-        <f>COUNTA(A11:A238)</f>
-        <v>54</v>
-      </c>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95" t="s">
+      <c r="E6" s="210">
+        <f>COUNTA(A11:A230)</f>
+        <v>48</v>
+      </c>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A9" s="127"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="100"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="99"/>
     </row>
     <row r="10" spans="1:10" ht="48.75" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="127" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
@@ -5134,10 +5225,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H10" s="57" t="s">
         <v>35</v>
@@ -5145,12 +5236,12 @@
       <c r="I10" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="95"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A11" s="212"/>
+      <c r="A11" s="218"/>
       <c r="B11" s="58" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -5158,34 +5249,34 @@
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="95"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A12" s="213" t="str">
+      <c r="A12" s="219" t="str">
         <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-2]</v>
       </c>
-      <c r="B12" s="121" t="s">
-        <v>336</v>
-      </c>
-      <c r="C12" s="121" t="s">
-        <v>335</v>
-      </c>
-      <c r="D12" s="121" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="95"/>
+      <c r="B12" s="120" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="120" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="120" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="117"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A13" s="214"/>
+      <c r="A13" s="220"/>
       <c r="B13" s="58" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -5194,91 +5285,91 @@
       <c r="G13" s="59"/>
       <c r="H13" s="59"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="95"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="213" t="str">
+      <c r="A14" s="219" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-4]</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>354</v>
-      </c>
-      <c r="C14" s="91" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="121" t="s">
-        <v>355</v>
-      </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="95"/>
+      <c r="B14" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="120" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="90"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A15" s="213" t="str">
+      <c r="A15" s="219" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-5]</v>
       </c>
-      <c r="B15" s="91" t="s">
-        <v>342</v>
-      </c>
-      <c r="C15" s="215" t="s">
-        <v>339</v>
-      </c>
-      <c r="D15" s="219" t="s">
-        <v>356</v>
-      </c>
-      <c r="E15" s="215"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="95"/>
+      <c r="B15" s="90" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="190" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" s="194" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="190"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="94"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A16" s="214"/>
+      <c r="A16" s="220"/>
       <c r="B16" s="58" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="C16" s="59"/>
-      <c r="D16" s="218"/>
+      <c r="D16" s="193"/>
       <c r="E16" s="59"/>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
       <c r="I16" s="60"/>
-      <c r="J16" s="95"/>
+      <c r="J16" s="94"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="213" t="str">
+      <c r="A17" s="219" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-7]</v>
       </c>
-      <c r="B17" s="91" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="91" t="s">
-        <v>343</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>344</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>345</v>
-      </c>
-      <c r="F17" s="117"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="95"/>
+      <c r="B17" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="90" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="116"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="94"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="58"/>
+      <c r="A18" s="220"/>
       <c r="B18" s="58" t="s">
-        <v>71</v>
+        <v>299</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -5287,54 +5378,58 @@
       <c r="G18" s="59"/>
       <c r="H18" s="59"/>
       <c r="I18" s="60"/>
-      <c r="J18" s="95"/>
+      <c r="J18" s="94"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A19" s="61" t="str">
+      <c r="A19" s="90" t="str">
         <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-9]</v>
       </c>
-      <c r="B19" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="D19" s="131" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="95"/>
+      <c r="B19" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="90" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="103"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="94"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="61" t="str">
+      <c r="A20" s="90" t="str">
         <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-10]</v>
       </c>
-      <c r="B20" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="91" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" s="91" t="s">
+      <c r="B20" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="105" t="s">
         <v>301</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="95"/>
+      <c r="D20" s="103" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="116"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="214"/>
+      <c r="A21" s="220" t="s">
+        <v>203</v>
+      </c>
       <c r="B21" s="58" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -5343,1051 +5438,906 @@
       <c r="G21" s="59"/>
       <c r="H21" s="59"/>
       <c r="I21" s="60"/>
-      <c r="J21" s="95"/>
+      <c r="J21" s="104"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="220" t="str">
-        <f>IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A22" s="90" t="str">
+        <f t="shared" ref="A22:A26" si="1">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-12]</v>
       </c>
-      <c r="B22" s="91" t="s">
-        <v>347</v>
-      </c>
-      <c r="C22" s="106" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>350</v>
-      </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="95"/>
+      <c r="B22" s="90" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="116"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="104"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="220" t="str">
-        <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User Module-13]</v>
-      </c>
-      <c r="B23" s="91" t="s">
-        <v>351</v>
-      </c>
-      <c r="C23" s="106" t="s">
-        <v>348</v>
-      </c>
-      <c r="D23" s="104" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" s="104" t="s">
-        <v>353</v>
-      </c>
-      <c r="F23" s="117"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="95"/>
+      <c r="A23" s="220" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="104"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="105"/>
+      <c r="A24" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>[User Module-14]</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>357</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="F24" s="116"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="61" t="str">
-        <f t="shared" ref="A25:A28" si="1">IF(OR(B25&lt;&gt;"",D25&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User Module-15]</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="D25" s="104" t="s">
-        <v>302</v>
-      </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="105"/>
+      <c r="A25" s="220" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="61" t="str">
+      <c r="A26" s="90" t="str">
         <f t="shared" si="1"/>
         <v>[User Module-16]</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" s="105" t="s">
+        <v>364</v>
+      </c>
+      <c r="D26" s="212" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26" s="214" t="s">
+        <v>366</v>
+      </c>
+      <c r="F26" s="116"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="104"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A27" s="221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="161" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="104"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A28" s="116" t="str">
+        <f t="shared" ref="A28:A44" si="2">IF(OR(B28&lt;&gt;"",D28&lt;E27&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[User Module-18]</v>
+      </c>
+      <c r="B28" s="116" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="116" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="116" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="104"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A29" s="221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="161" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="104"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A30" s="116" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-20]</v>
+      </c>
+      <c r="B30" s="116" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="E30" s="117" t="s">
+        <v>319</v>
+      </c>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="104"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A31" s="221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="161" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="104"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A32" s="116" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-22]</v>
+      </c>
+      <c r="B32" s="116" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="116" t="s">
+        <v>321</v>
+      </c>
+      <c r="D32" s="116" t="s">
+        <v>323</v>
+      </c>
+      <c r="E32" s="117" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="104"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A33" s="221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="161" t="s">
+        <v>347</v>
+      </c>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="104"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A34" s="116" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-24]</v>
+      </c>
+      <c r="B34" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C34" s="116" t="s">
+        <v>349</v>
+      </c>
+      <c r="D34" s="116" t="s">
+        <v>350</v>
+      </c>
+      <c r="E34" s="117" t="s">
+        <v>351</v>
+      </c>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="104"/>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A35" s="221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="161" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="104"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A36" s="116" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-26]</v>
+      </c>
+      <c r="B36" s="116" t="s">
+        <v>342</v>
+      </c>
+      <c r="C36" s="116" t="s">
+        <v>343</v>
+      </c>
+      <c r="D36" s="116" t="s">
+        <v>345</v>
+      </c>
+      <c r="E36" s="117" t="s">
+        <v>346</v>
+      </c>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="104"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A37" s="221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="161" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="104"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A38" s="116" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-28]</v>
+      </c>
+      <c r="B38" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" s="116" t="s">
+        <v>335</v>
+      </c>
+      <c r="D38" s="116" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" s="117" t="s">
+        <v>329</v>
+      </c>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="104"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A39" s="221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="161" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="158"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="104"/>
+    </row>
+    <row r="40" spans="1:10" s="161" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A40" s="116" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-30]</v>
+      </c>
+      <c r="B40" s="116" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="116" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="116" t="s">
+        <v>333</v>
+      </c>
+      <c r="E40" s="117"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="119"/>
+    </row>
+    <row r="41" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A41" s="221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="161" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="160"/>
+    </row>
+    <row r="42" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A42" s="116" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-32]</v>
+      </c>
+      <c r="B42" s="116" t="s">
+        <v>334</v>
+      </c>
+      <c r="C42" s="116" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" s="116" t="s">
+        <v>337</v>
+      </c>
+      <c r="E42" s="117" t="s">
+        <v>338</v>
+      </c>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="119"/>
+    </row>
+    <row r="43" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A43" s="221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="161" t="s">
+        <v>339</v>
+      </c>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="158"/>
+      <c r="I43" s="160"/>
+    </row>
+    <row r="44" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A44" s="116" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-34]</v>
+      </c>
+      <c r="B44" s="116" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" s="116" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" s="116" t="s">
+        <v>340</v>
+      </c>
+      <c r="E44" s="117"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="119"/>
+    </row>
+    <row r="45" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A45" s="183"/>
+      <c r="B45" s="184"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="186"/>
+    </row>
+    <row r="46" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A46" s="183"/>
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="184"/>
+      <c r="H46" s="185"/>
+      <c r="I46" s="186"/>
+    </row>
+    <row r="47" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A47" s="161"/>
+      <c r="B47" s="161" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="161"/>
+      <c r="D47" s="161"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="161"/>
+    </row>
+    <row r="48" spans="1:10" s="161" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A48" s="176"/>
+      <c r="B48" s="177" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="178"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="178"/>
+      <c r="I48" s="178"/>
+    </row>
+    <row r="49" spans="1:9" s="181" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A49" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A48)+1)</f>
+        <v>ID-32</v>
+      </c>
+      <c r="B49" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="179" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="181" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A50" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A49)+1)</f>
+        <v>ID-33</v>
+      </c>
+      <c r="B50" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="179" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="181" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A51" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A50)+1)</f>
+        <v>ID-34</v>
+      </c>
+      <c r="B51" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="179" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="180" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A52" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A51)+1)</f>
+        <v>ID-35</v>
+      </c>
+      <c r="B52" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="106" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="104" t="s">
-        <v>303</v>
-      </c>
-      <c r="E26" s="104"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="105"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="105"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A28" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>[User Module-18]</v>
-      </c>
-      <c r="B28" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="106" t="s">
-        <v>292</v>
-      </c>
-      <c r="D28" s="104" t="s">
-        <v>304</v>
-      </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="105"/>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A29" s="164"/>
-      <c r="B29" s="164" t="s">
+      <c r="C52" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="179" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A53" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A52)+1)</f>
+        <v>ID-36</v>
+      </c>
+      <c r="B53" s="116" t="s">
+        <v>367</v>
+      </c>
+      <c r="C53" s="116" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="179" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A54" s="161"/>
+      <c r="B54" s="161" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="161"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+    </row>
+    <row r="55" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A55" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A54)+1)</f>
+        <v>ID-37</v>
+      </c>
+      <c r="B55" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="116" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A56" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A55)+1)</f>
+        <v>ID-38</v>
+      </c>
+      <c r="B56" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A57" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A56)+1)</f>
+        <v>ID-39</v>
+      </c>
+      <c r="B57" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A58" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A57)+1)</f>
+        <v>ID-40</v>
+      </c>
+      <c r="B58" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A59" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A58)+1)</f>
+        <v>ID-41</v>
+      </c>
+      <c r="B59" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="116" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="116" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A60" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A59)+1)</f>
+        <v>ID-42</v>
+      </c>
+      <c r="B60" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="116" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A61" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A60)+1)</f>
+        <v>ID-43</v>
+      </c>
+      <c r="B61" s="116" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A62" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A61)+1)</f>
+        <v>ID-44</v>
+      </c>
+      <c r="B62" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="105"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A30" s="158" t="str">
-        <f>IF(OR(B30&lt;&gt;"",D30&lt;E29&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User Module-20]</v>
-      </c>
-      <c r="B30" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="117" t="s">
-        <v>250</v>
-      </c>
-      <c r="D30" s="117" t="s">
-        <v>287</v>
-      </c>
-      <c r="E30" s="118"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="105"/>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="158" t="str">
-        <f>IF(OR(B31&lt;&gt;"",D31&lt;E30&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User Module-21]</v>
-      </c>
-      <c r="B31" s="117" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="117" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="117" t="s">
-        <v>300</v>
-      </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="105"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A32" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="B32" s="164" t="s">
-        <v>358</v>
-      </c>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="105"/>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A33" s="222" t="str">
-        <f t="shared" ref="A33:A51" si="2">IF(OR(B33&lt;&gt;"",D33&lt;E32&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[User Module-23]</v>
-      </c>
-      <c r="B33" s="117" t="s">
-        <v>278</v>
-      </c>
-      <c r="C33" s="117" t="s">
-        <v>359</v>
-      </c>
-      <c r="D33" s="117" t="s">
-        <v>365</v>
-      </c>
-      <c r="E33" s="118" t="s">
-        <v>360</v>
-      </c>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="105"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A34" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="B34" s="164" t="s">
-        <v>361</v>
-      </c>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="105"/>
-    </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="222" t="str">
-        <f t="shared" si="2"/>
-        <v>[User Module-25]</v>
-      </c>
-      <c r="B35" s="117" t="s">
-        <v>362</v>
-      </c>
-      <c r="C35" s="117" t="s">
-        <v>363</v>
-      </c>
-      <c r="D35" s="117" t="s">
-        <v>364</v>
-      </c>
-      <c r="E35" s="118" t="s">
-        <v>366</v>
-      </c>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="105"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A36" s="221" t="s">
-        <v>231</v>
-      </c>
-      <c r="B36" s="164" t="s">
-        <v>367</v>
-      </c>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="105"/>
-    </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A37" s="222" t="str">
-        <f t="shared" si="2"/>
-        <v>[User Module-27]</v>
-      </c>
-      <c r="B37" s="117" t="s">
-        <v>279</v>
-      </c>
-      <c r="C37" s="117" t="s">
-        <v>368</v>
-      </c>
-      <c r="D37" s="117" t="s">
-        <v>370</v>
-      </c>
-      <c r="E37" s="118" t="s">
-        <v>369</v>
-      </c>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="105"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A38" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" s="164" t="s">
-        <v>281</v>
-      </c>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="105"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="158" t="str">
-        <f t="shared" si="2"/>
-        <v>[User Module-29]</v>
-      </c>
-      <c r="B39" s="117" t="s">
-        <v>278</v>
-      </c>
-      <c r="C39" s="117" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="117" t="s">
-        <v>299</v>
-      </c>
-      <c r="E39" s="118"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="105"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A40" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="B40" s="164" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="105"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A41" s="158" t="str">
-        <f t="shared" si="2"/>
-        <v>[User Module-31]</v>
-      </c>
-      <c r="B41" s="117" t="s">
-        <v>285</v>
-      </c>
-      <c r="C41" s="117" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="117" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="118"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="105"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A42" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" s="164" t="s">
-        <v>251</v>
-      </c>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="105"/>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A43" s="158" t="str">
-        <f t="shared" si="2"/>
-        <v>[User Module-33]</v>
-      </c>
-      <c r="B43" s="117" t="s">
-        <v>282</v>
-      </c>
-      <c r="C43" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="D43" s="117" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" s="118"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="105"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A44" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="B44" s="164" t="s">
-        <v>252</v>
-      </c>
-      <c r="C44" s="161"/>
-      <c r="D44" s="161"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="105"/>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A45" s="158" t="str">
-        <f t="shared" si="2"/>
-        <v>[User Module-35]</v>
-      </c>
-      <c r="B45" s="117" t="s">
-        <v>284</v>
-      </c>
-      <c r="C45" s="117" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45" s="117" t="s">
-        <v>257</v>
-      </c>
-      <c r="E45" s="118"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="105"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A46" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="B46" s="164" t="s">
-        <v>258</v>
-      </c>
-      <c r="C46" s="161"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="163"/>
-      <c r="J46" s="105"/>
-    </row>
-    <row r="47" spans="1:10" s="164" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="158" t="str">
-        <f t="shared" si="2"/>
-        <v>[User Module-37]</v>
-      </c>
-      <c r="B47" s="117" t="s">
-        <v>286</v>
-      </c>
-      <c r="C47" s="117" t="s">
-        <v>262</v>
-      </c>
-      <c r="D47" s="117" t="s">
-        <v>294</v>
-      </c>
-      <c r="E47" s="118"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="120"/>
-    </row>
-    <row r="48" spans="1:10" s="179" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A48" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="B48" s="164" t="s">
-        <v>259</v>
-      </c>
-      <c r="C48" s="161"/>
-      <c r="D48" s="161"/>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="163"/>
-    </row>
-    <row r="49" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A49" s="158" t="str">
-        <f t="shared" si="2"/>
-        <v>[User Module-39]</v>
-      </c>
-      <c r="B49" s="117" t="s">
-        <v>279</v>
-      </c>
-      <c r="C49" s="117" t="s">
-        <v>293</v>
-      </c>
-      <c r="D49" s="117" t="s">
-        <v>295</v>
-      </c>
-      <c r="E49" s="118"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="120"/>
-    </row>
-    <row r="50" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A50" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="B50" s="164" t="s">
-        <v>260</v>
-      </c>
-      <c r="C50" s="161"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="163"/>
-    </row>
-    <row r="51" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A51" s="158" t="str">
-        <f t="shared" si="2"/>
-        <v>[User Module-41]</v>
-      </c>
-      <c r="B51" s="117" t="s">
-        <v>286</v>
-      </c>
-      <c r="C51" s="117" t="s">
-        <v>263</v>
-      </c>
-      <c r="D51" s="117" t="s">
-        <v>296</v>
-      </c>
-      <c r="E51" s="118"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="120"/>
-    </row>
-    <row r="52" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A52" s="187"/>
-      <c r="B52" s="188"/>
-      <c r="C52" s="188"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="187"/>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188"/>
-      <c r="H52" s="189"/>
-      <c r="I52" s="190"/>
-    </row>
-    <row r="53" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A53" s="187"/>
-      <c r="B53" s="188"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="187"/>
-      <c r="F53" s="188"/>
-      <c r="G53" s="188"/>
-      <c r="H53" s="189"/>
-      <c r="I53" s="190"/>
-    </row>
-    <row r="54" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A54" s="164"/>
-      <c r="B54" s="164" t="s">
+      <c r="D62" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="164"/>
-      <c r="D54" s="164"/>
-      <c r="E54" s="164"/>
-      <c r="F54" s="164"/>
-      <c r="G54" s="164"/>
-      <c r="H54" s="164"/>
-      <c r="I54" s="164"/>
-    </row>
-    <row r="55" spans="1:9" s="164" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A55" s="180"/>
-      <c r="B55" s="181" t="s">
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A63" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A62)+1)</f>
+        <v>ID-45</v>
+      </c>
+      <c r="B63" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="182"/>
-      <c r="D55" s="182"/>
-      <c r="E55" s="182"/>
-      <c r="F55" s="182"/>
-      <c r="G55" s="182"/>
-      <c r="H55" s="182"/>
-      <c r="I55" s="182"/>
-    </row>
-    <row r="56" spans="1:9" s="185" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A56" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A55)+1)</f>
-        <v>ID-37</v>
-      </c>
-      <c r="B56" s="117" t="s">
+      <c r="C63" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="117" t="s">
+      <c r="D63" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="117" t="s">
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A64" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A63)+1)</f>
+        <v>ID-46</v>
+      </c>
+      <c r="B64" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="183" t="s">
+      <c r="C64" s="116" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="185" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A57" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A56)+1)</f>
-        <v>ID-38</v>
-      </c>
-      <c r="B57" s="117" t="s">
-        <v>265</v>
-      </c>
-      <c r="C57" s="117" t="s">
-        <v>268</v>
-      </c>
-      <c r="D57" s="117" t="s">
-        <v>173</v>
-      </c>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="183" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="185" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A58" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A57)+1)</f>
-        <v>ID-39</v>
-      </c>
-      <c r="B58" s="117" t="s">
-        <v>266</v>
-      </c>
-      <c r="C58" s="117" t="s">
-        <v>269</v>
-      </c>
-      <c r="D58" s="117" t="s">
-        <v>173</v>
-      </c>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="183" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="184" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A59" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A58)+1)</f>
-        <v>ID-40</v>
-      </c>
-      <c r="B59" s="117" t="s">
-        <v>267</v>
-      </c>
-      <c r="C59" s="117" t="s">
-        <v>270</v>
-      </c>
-      <c r="D59" s="117" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="183" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A60" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A59)+1)</f>
-        <v>ID-41</v>
-      </c>
-      <c r="B60" s="117" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60" s="117" t="s">
-        <v>271</v>
-      </c>
-      <c r="D60" s="117" t="s">
-        <v>173</v>
-      </c>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="183" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A61" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A60)+1)</f>
-        <v>ID-42</v>
-      </c>
-      <c r="B61" s="117" t="s">
-        <v>212</v>
-      </c>
-      <c r="C61" s="117" t="s">
-        <v>272</v>
-      </c>
-      <c r="D61" s="117" t="s">
-        <v>173</v>
-      </c>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A62" s="164"/>
-      <c r="B62" s="164" t="s">
+      <c r="D64" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="C62" s="164"/>
-      <c r="D62" s="164"/>
-      <c r="E62" s="164"/>
-      <c r="F62" s="164"/>
-      <c r="G62" s="164"/>
-      <c r="H62" s="164"/>
-      <c r="I62" s="164"/>
-    </row>
-    <row r="63" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A63" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A62)+1)</f>
-        <v>ID-43</v>
-      </c>
-      <c r="B63" s="117" t="s">
+      <c r="E64" s="116"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A65" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A64)+1)</f>
+        <v>ID-47</v>
+      </c>
+      <c r="B65" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C63" s="117" t="s">
-        <v>213</v>
-      </c>
-      <c r="D63" s="117" t="s">
-        <v>214</v>
-      </c>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="117"/>
-      <c r="H63" s="117"/>
-      <c r="I63" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A64" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A63)+1)</f>
-        <v>ID-44</v>
-      </c>
-      <c r="B64" s="117" t="s">
+      <c r="C65" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="C64" s="117" t="s">
+      <c r="D65" s="116" t="s">
         <v>178</v>
       </c>
-      <c r="D64" s="117" t="s">
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A66" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A65)+1)</f>
+        <v>ID-48</v>
+      </c>
+      <c r="B66" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A65" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A64)+1)</f>
-        <v>ID-45</v>
-      </c>
-      <c r="B65" s="117" t="s">
+      <c r="C66" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="C65" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="117" t="s">
+      <c r="D66" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="117"/>
-      <c r="I65" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A66" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A65)+1)</f>
-        <v>ID-46</v>
-      </c>
-      <c r="B66" s="117" t="s">
+      <c r="E66" s="116"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="116"/>
+      <c r="H66" s="116"/>
+      <c r="I66" s="116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A67" s="116" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A66)+1)</f>
+        <v>ID-49</v>
+      </c>
+      <c r="B67" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="C66" s="117" t="s">
+      <c r="C67" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="D66" s="117" t="s">
-        <v>215</v>
-      </c>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A67" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A66)+1)</f>
-        <v>ID-47</v>
-      </c>
-      <c r="B67" s="117" t="s">
+      <c r="D67" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="117" t="s">
-        <v>185</v>
-      </c>
-      <c r="D67" s="117" t="s">
-        <v>186</v>
-      </c>
-      <c r="E67" s="117"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="179" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A68" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A67)+1)</f>
-        <v>ID-48</v>
-      </c>
-      <c r="B68" s="117" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" s="117" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="117" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A69" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A68)+1)</f>
-        <v>ID-49</v>
-      </c>
-      <c r="B69" s="117" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="117" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="117" t="s">
-        <v>192</v>
-      </c>
-      <c r="E69" s="117"/>
-      <c r="F69" s="117"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="117"/>
-      <c r="I69" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A70" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A69)+1)</f>
-        <v>ID-50</v>
-      </c>
-      <c r="B70" s="117" t="s">
-        <v>193</v>
-      </c>
-      <c r="C70" s="117" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="117" t="s">
-        <v>195</v>
-      </c>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="117"/>
-      <c r="I70" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A71" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A70)+1)</f>
-        <v>ID-51</v>
-      </c>
-      <c r="B71" s="117" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="D71" s="117" t="s">
-        <v>198</v>
-      </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="117"/>
-      <c r="I71" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A72" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A71)+1)</f>
-        <v>ID-52</v>
-      </c>
-      <c r="B72" s="117" t="s">
-        <v>199</v>
-      </c>
-      <c r="C72" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="D72" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="117"/>
-      <c r="F72" s="117"/>
-      <c r="G72" s="117"/>
-      <c r="H72" s="117"/>
-      <c r="I72" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A73" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A72)+1)</f>
-        <v>ID-53</v>
-      </c>
-      <c r="B73" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A74" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A73)+1)</f>
-        <v>ID-54</v>
-      </c>
-      <c r="B74" s="117" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="117" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74" s="117" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74" s="117"/>
-      <c r="F74" s="117"/>
-      <c r="G74" s="117"/>
-      <c r="H74" s="117"/>
-      <c r="I74" s="117" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A75" s="117" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A74)+1)</f>
-        <v>ID-55</v>
-      </c>
-      <c r="B75" s="117" t="s">
-        <v>208</v>
-      </c>
-      <c r="C75" s="117" t="s">
-        <v>209</v>
-      </c>
-      <c r="D75" s="117" t="s">
-        <v>210</v>
-      </c>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="117"/>
-      <c r="I75" s="117" t="s">
-        <v>174</v>
+      <c r="E67" s="116"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="116"/>
+      <c r="H67" s="116"/>
+      <c r="I67" s="116" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6404,17 +6354,17 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G76:G65306 F14:F15 F17 F22:F28 G11 F12:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G68:G65298 F14:F15 F17 F12:G12 G11 F19:F26">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G14:G15 G17 G19:G20 G22:G28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G14:G15 G17 G19:G26">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E56:I61 GJ49:GQ54 QF49:QM54 AAB49:AAI54 AJX49:AKE54 ATT49:AUA54 BDP49:BDW54 BNL49:BNS54 BXH49:BXO54 CHD49:CHK54 CQZ49:CRG54 DAV49:DBC54 DKR49:DKY54 DUN49:DUU54 EEJ49:EEQ54 EOF49:EOM54 EYB49:EYI54 FHX49:FIE54 FRT49:FSA54 GBP49:GBW54 GLL49:GLS54 GVH49:GVO54 HFD49:HFK54 HOZ49:HPG54 HYV49:HZC54 IIR49:IIY54 ISN49:ISU54 JCJ49:JCQ54 JMF49:JMM54 JWB49:JWI54 KFX49:KGE54 KPT49:KQA54 KZP49:KZW54 LJL49:LJS54 LTH49:LTO54 MDD49:MDK54 MMZ49:MNG54 MWV49:MXC54 NGR49:NGY54 NQN49:NQU54 OAJ49:OAQ54 OKF49:OKM54 OUB49:OUI54 PDX49:PEE54 PNT49:POA54 PXP49:PXW54 QHL49:QHS54 QRH49:QRO54 RBD49:RBK54 RKZ49:RLG54 RUV49:RVC54 SER49:SEY54 SON49:SOU54 SYJ49:SYQ54 TIF49:TIM54 TSB49:TSI54 UBX49:UCE54 ULT49:UMA54 UVP49:UVW54 VFL49:VFS54 VPH49:VPO54 VZD49:VZK54 WIZ49:WJG54 GT47:GT68 QP47:QP68 AAL47:AAL68 AKH47:AKH68 AUD47:AUD68 BDZ47:BDZ68 BNV47:BNV68 BXR47:BXR68 CHN47:CHN68 CRJ47:CRJ68 DBF47:DBF68 DLB47:DLB68 DUX47:DUX68 EET47:EET68 EOP47:EOP68 EYL47:EYL68 FIH47:FIH68 FSD47:FSD68 GBZ47:GBZ68 GLV47:GLV68 GVR47:GVR68 HFN47:HFN68 HPJ47:HPJ68 HZF47:HZF68 IJB47:IJB68 ISX47:ISX68 JCT47:JCT68 JMP47:JMP68 JWL47:JWL68 KGH47:KGH68 KQD47:KQD68 KZZ47:KZZ68 LJV47:LJV68 LTR47:LTR68 MDN47:MDN68 MNJ47:MNJ68 MXF47:MXF68 NHB47:NHB68 NQX47:NQX68 OAT47:OAT68 OKP47:OKP68 OUL47:OUL68 PEH47:PEH68 POD47:POD68 PXZ47:PXZ68 QHV47:QHV68 QRR47:QRR68 RBN47:RBN68 RLJ47:RLJ68 RVF47:RVF68 SFB47:SFB68 SOX47:SOX68 SYT47:SYT68 TIP47:TIP68 TSL47:TSL68 UCH47:UCH68 UMD47:UMD68 UVZ47:UVZ68 VFV47:VFV68 VPR47:VPR68 VZN47:VZN68 WJJ47:WJJ68 VZD56:VZK68 VPH56:VPO68 VFL56:VFS68 UVP56:UVW68 ULT56:UMA68 UBX56:UCE68 TSB56:TSI68 TIF56:TIM68 SYJ56:SYQ68 SON56:SOU68 SER56:SEY68 RUV56:RVC68 RKZ56:RLG68 RBD56:RBK68 QRH56:QRO68 QHL56:QHS68 PXP56:PXW68 PNT56:POA68 PDX56:PEE68 OUB56:OUI68 OKF56:OKM68 OAJ56:OAQ68 NQN56:NQU68 NGR56:NGY68 MWV56:MXC68 MMZ56:MNG68 MDD56:MDK68 LTH56:LTO68 LJL56:LJS68 KZP56:KZW68 KPT56:KQA68 KFX56:KGE68 JWB56:JWI68 JMF56:JMM68 JCJ56:JCQ68 ISN56:ISU68 IIR56:IIY68 HYV56:HZC68 HOZ56:HPG68 HFD56:HFK68 GVH56:GVO68 GLL56:GLS68 GBP56:GBW68 FRT56:FSA68 FHX56:FIE68 EYB56:EYI68 EOF56:EOM68 EEJ56:EEQ68 DUN56:DUU68 DKR56:DKY68 DAV56:DBC68 CQZ56:CRG68 CHD56:CHK68 BXH56:BXO68 BNL56:BNS68 BDP56:BDW68 ATT56:AUA68 AJX56:AKE68 AAB56:AAI68 QF56:QM68 GJ56:GQ68 E63:I75 WIZ56:WJG68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49:I53 GJ42:GQ47 QF42:QM47 AAB42:AAI47 AJX42:AKE47 ATT42:AUA47 BDP42:BDW47 BNL42:BNS47 BXH42:BXO47 CHD42:CHK47 CQZ42:CRG47 DAV42:DBC47 DKR42:DKY47 DUN42:DUU47 EEJ42:EEQ47 EOF42:EOM47 EYB42:EYI47 FHX42:FIE47 FRT42:FSA47 GBP42:GBW47 GLL42:GLS47 GVH42:GVO47 HFD42:HFK47 HOZ42:HPG47 HYV42:HZC47 IIR42:IIY47 ISN42:ISU47 JCJ42:JCQ47 JMF42:JMM47 JWB42:JWI47 KFX42:KGE47 KPT42:KQA47 KZP42:KZW47 LJL42:LJS47 LTH42:LTO47 MDD42:MDK47 MMZ42:MNG47 MWV42:MXC47 NGR42:NGY47 NQN42:NQU47 OAJ42:OAQ47 OKF42:OKM47 OUB42:OUI47 PDX42:PEE47 PNT42:POA47 PXP42:PXW47 QHL42:QHS47 QRH42:QRO47 RBD42:RBK47 RKZ42:RLG47 RUV42:RVC47 SER42:SEY47 SON42:SOU47 SYJ42:SYQ47 TIF42:TIM47 TSB42:TSI47 UBX42:UCE47 ULT42:UMA47 UVP42:UVW47 VFL42:VFS47 VPH42:VPO47 VZD42:VZK47 WIZ42:WJG47 E55:I67 WIZ49:WJG60 GJ49:GQ60 QF49:QM60 AAB49:AAI60 AJX49:AKE60 ATT49:AUA60 BDP49:BDW60 BNL49:BNS60 BXH49:BXO60 CHD49:CHK60 CQZ49:CRG60 DAV49:DBC60 DKR49:DKY60 DUN49:DUU60 EEJ49:EEQ60 EOF49:EOM60 EYB49:EYI60 FHX49:FIE60 FRT49:FSA60 GBP49:GBW60 GLL49:GLS60 GVH49:GVO60 HFD49:HFK60 HOZ49:HPG60 HYV49:HZC60 IIR49:IIY60 ISN49:ISU60 JCJ49:JCQ60 JMF49:JMM60 JWB49:JWI60 KFX49:KGE60 KPT49:KQA60 KZP49:KZW60 LJL49:LJS60 LTH49:LTO60 MDD49:MDK60 MMZ49:MNG60 MWV49:MXC60 NGR49:NGY60 NQN49:NQU60 OAJ49:OAQ60 OKF49:OKM60 OUB49:OUI60 PDX49:PEE60 PNT49:POA60 PXP49:PXW60 QHL49:QHS60 QRH49:QRO60 RBD49:RBK60 RKZ49:RLG60 RUV49:RVC60 SER49:SEY60 SON49:SOU60 SYJ49:SYQ60 TIF49:TIM60 TSB49:TSI60 UBX49:UCE60 ULT49:UMA60 UVP49:UVW60 VFL49:VFS60 VPH49:VPO60 VZD49:VZK60 WJJ40:WJJ60 VZN40:VZN60 VPR40:VPR60 VFV40:VFV60 UVZ40:UVZ60 UMD40:UMD60 UCH40:UCH60 TSL40:TSL60 TIP40:TIP60 SYT40:SYT60 SOX40:SOX60 SFB40:SFB60 RVF40:RVF60 RLJ40:RLJ60 RBN40:RBN60 QRR40:QRR60 QHV40:QHV60 PXZ40:PXZ60 POD40:POD60 PEH40:PEH60 OUL40:OUL60 OKP40:OKP60 OAT40:OAT60 NQX40:NQX60 NHB40:NHB60 MXF40:MXF60 MNJ40:MNJ60 MDN40:MDN60 LTR40:LTR60 LJV40:LJV60 KZZ40:KZZ60 KQD40:KQD60 KGH40:KGH60 JWL40:JWL60 JMP40:JMP60 JCT40:JCT60 ISX40:ISX60 IJB40:IJB60 HZF40:HZF60 HPJ40:HPJ60 HFN40:HFN60 GVR40:GVR60 GLV40:GLV60 GBZ40:GBZ60 FSD40:FSD60 FIH40:FIH60 EYL40:EYL60 EOP40:EOP60 EET40:EET60 DUX40:DUX60 DLB40:DLB60 DBF40:DBF60 CRJ40:CRJ60 CHN40:CHN60 BXR40:BXR60 BNV40:BNV60 BDZ40:BDZ60 AUD40:AUD60 AKH40:AKH60 AAL40:AAL60 QP40:QP60 GT40:GT60">
       <formula1>"OK,NG,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F30:G31 F33:G33 F35:G35 F37:G37 F39:G53">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28:G28 F30:G30 F32:G46">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6436,186 +6386,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="130" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="105" customWidth="1"/>
-    <col min="3" max="3" width="33" style="105" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="105" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="105" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="105" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="105" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="109" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="105" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="108" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="105" customWidth="1"/>
-    <col min="12" max="16" width="15.125" style="105"/>
-    <col min="17" max="17" width="0" style="105" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="15.125" style="105"/>
+    <col min="1" max="1" width="18.125" style="129" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="104" customWidth="1"/>
+    <col min="3" max="3" width="33" style="104" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="104" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="104" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="104" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="104" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="108" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="104" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="107" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="104" customWidth="1"/>
+    <col min="12" max="16" width="15.125" style="104"/>
+    <col min="17" max="17" width="0" style="104" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="15.125" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="132" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="133" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="135"/>
-    </row>
-    <row r="2" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A2" s="136" t="s">
+    <row r="1" spans="1:10" s="130" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="133"/>
+    </row>
+    <row r="2" spans="1:10" s="130" customFormat="1" ht="14.25">
+      <c r="A2" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="206" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="J2" s="95" t="s">
+      <c r="B2" s="207" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="J2" s="94" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="132" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="137" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="206" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="J3" s="95" t="s">
+    <row r="3" spans="1:10" s="130" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="135" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="207" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="J3" s="94" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A4" s="136" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="207" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="J4" s="96"/>
-    </row>
-    <row r="5" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A5" s="138" t="s">
+    <row r="4" spans="1:10" s="130" customFormat="1" ht="14.25">
+      <c r="A4" s="134" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="208" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="J4" s="95"/>
+    </row>
+    <row r="5" spans="1:10" s="130" customFormat="1" ht="14.25">
+      <c r="A5" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="139" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="140" t="s">
+      <c r="C5" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="210" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="J5" s="95" t="s">
+      <c r="E5" s="211" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="J5" s="94" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="132" customFormat="1" ht="15" thickBot="1">
-      <c r="A6" s="126">
+    <row r="6" spans="1:10" s="130" customFormat="1" ht="15" thickBot="1">
+      <c r="A6" s="125">
         <f>COUNTIF(F11:G258,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="100">
         <f>COUNTIF(F11:G705,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="100">
         <f>E6-D6-B6-A6</f>
         <v>38</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="101">
         <f>COUNTIF(F11:G705,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="209">
+      <c r="E6" s="210">
         <f>COUNTA(A11:A263)*2</f>
         <v>38</v>
       </c>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="J6" s="95" t="s">
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="J6" s="94" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="J7" s="95"/>
-    </row>
-    <row r="8" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="J8" s="95"/>
-    </row>
-    <row r="9" spans="1:10" s="132" customFormat="1"/>
-    <row r="10" spans="1:10" s="132" customFormat="1" ht="51.75" customHeight="1">
+    <row r="7" spans="1:10" s="130" customFormat="1" ht="14.25">
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="J7" s="94"/>
+    </row>
+    <row r="8" spans="1:10" s="130" customFormat="1" ht="14.25">
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="J8" s="94"/>
+    </row>
+    <row r="9" spans="1:10" s="130" customFormat="1"/>
+    <row r="10" spans="1:10" s="130" customFormat="1" ht="51.75" customHeight="1">
       <c r="A10" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="132" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="129"/>
+    <row r="11" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="128"/>
       <c r="B11" s="58" t="s">
-        <v>139</v>
+        <v>368</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -6623,385 +6575,331 @@
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
-      <c r="I11" s="186"/>
-    </row>
-    <row r="12" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="160" t="str">
+      <c r="I11" s="182"/>
+    </row>
+    <row r="12" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="157" t="str">
         <f t="shared" ref="A12:A20" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Mod_login-2]</v>
-      </c>
-      <c r="B12" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="166"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="167"/>
-    </row>
-    <row r="13" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="160" t="str">
+        <v/>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="163"/>
+    </row>
+    <row r="13" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A13" s="157" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-3]</v>
-      </c>
-      <c r="B13" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="191"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-    </row>
-    <row r="14" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="160" t="str">
+        <v/>
+      </c>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+    </row>
+    <row r="14" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A14" s="157" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-4]</v>
-      </c>
-      <c r="B14" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="117" t="s">
-        <v>308</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="168"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-    </row>
-    <row r="15" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="160" t="str">
+        <v/>
+      </c>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+    </row>
+    <row r="15" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="157" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-5]</v>
-      </c>
-      <c r="B15" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="117" t="s">
-        <v>309</v>
-      </c>
-      <c r="D15" s="117" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="168"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-    </row>
-    <row r="16" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="160" t="str">
+        <v/>
+      </c>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+    </row>
+    <row r="16" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A16" s="157" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-6]</v>
-      </c>
-      <c r="B16" s="117" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="117" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" s="117" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="168"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-    </row>
-    <row r="17" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="160" t="str">
+        <v/>
+      </c>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+    </row>
+    <row r="17" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="157" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-7]</v>
-      </c>
-      <c r="B17" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="117" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="117" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" s="168"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-    </row>
-    <row r="18" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="160" t="str">
+        <v/>
+      </c>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+    </row>
+    <row r="18" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="157" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-8]</v>
-      </c>
-      <c r="B18" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="117" t="s">
-        <v>312</v>
-      </c>
-      <c r="D18" s="117" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-    </row>
-    <row r="19" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="160" t="str">
+        <v/>
+      </c>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+    </row>
+    <row r="19" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="157" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-9]</v>
-      </c>
-      <c r="B19" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="117" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" s="117" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" s="168"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
+        <v/>
+      </c>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="160" t="str">
+      <c r="A20" s="157" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-10]</v>
-      </c>
-      <c r="B20" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="117" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="117" t="s">
-        <v>240</v>
-      </c>
-      <c r="E20" s="168"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="105"/>
+        <v/>
+      </c>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="104"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="171"/>
-      <c r="B21" s="172" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="105"/>
+      <c r="A21" s="167"/>
+      <c r="B21" s="168" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="104"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="160" t="str">
+      <c r="A22" s="157" t="str">
         <f t="shared" ref="A22:A31" si="1">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod_login-12]</v>
       </c>
-      <c r="B22" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="117" t="s">
-        <v>306</v>
-      </c>
-      <c r="D22" s="117" t="s">
-        <v>277</v>
-      </c>
-      <c r="E22" s="174"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="105"/>
+      <c r="B22" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="116" t="s">
+        <v>267</v>
+      </c>
+      <c r="D22" s="116" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="170"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="104"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="160" t="str">
+      <c r="A23" s="157" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-13]</v>
       </c>
-      <c r="B23" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="117" t="s">
-        <v>315</v>
-      </c>
-      <c r="D23" s="175" t="s">
-        <v>222</v>
-      </c>
-      <c r="E23" s="174"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="105"/>
+      <c r="B23" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="116" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="171" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="170"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="104"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="171" t="s">
-        <v>231</v>
+      <c r="A24" s="167" t="s">
+        <v>203</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="105"/>
+        <v>56</v>
+      </c>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A25" s="160" t="str">
+      <c r="A25" s="157" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-15]</v>
       </c>
-      <c r="B25" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="91" t="s">
-        <v>305</v>
-      </c>
-      <c r="E25" s="174"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="170"/>
+      <c r="B25" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="90" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" s="170"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="166"/>
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A26" s="171" t="s">
-        <v>231</v>
+      <c r="A26" s="167" t="s">
+        <v>203</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="173"/>
+        <v>209</v>
+      </c>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="169"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A27" s="160" t="str">
+      <c r="A27" s="157" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-17]</v>
       </c>
-      <c r="B27" s="117" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="117" t="s">
-        <v>316</v>
-      </c>
-      <c r="D27" s="117" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" s="168"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="170"/>
+      <c r="B27" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="116" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="164"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="166"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A28" s="171" t="s">
-        <v>231</v>
+      <c r="A28" s="167" t="s">
+        <v>203</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="173"/>
+        <v>210</v>
+      </c>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="169"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="160" t="str">
+      <c r="A29" s="157" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-19]</v>
       </c>
-      <c r="B29" s="117" t="s">
-        <v>248</v>
-      </c>
-      <c r="C29" s="117" t="s">
-        <v>317</v>
-      </c>
-      <c r="D29" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="168"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
+      <c r="B29" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="116" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="164"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="166"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A30" s="171" t="s">
-        <v>231</v>
+      <c r="A30" s="167" t="s">
+        <v>203</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="173"/>
+        <v>211</v>
+      </c>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="169"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A31" s="160" t="str">
+      <c r="A31" s="157" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-21]</v>
       </c>
-      <c r="B31" s="117" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="117" t="s">
-        <v>318</v>
-      </c>
-      <c r="D31" s="117" t="s">
-        <v>249</v>
-      </c>
-      <c r="E31" s="168"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
+      <c r="B31" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="116" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="164"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7037,562 +6935,476 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="130" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="105" customWidth="1"/>
-    <col min="3" max="3" width="33" style="105" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="105" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="105" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="105" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="105" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="109" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="105" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="108" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="105" customWidth="1"/>
-    <col min="12" max="16" width="15.125" style="105"/>
-    <col min="17" max="17" width="0" style="105" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="15.125" style="105"/>
+    <col min="1" max="1" width="18.125" style="129" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="104" customWidth="1"/>
+    <col min="3" max="3" width="33" style="104" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="104" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="104" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="104" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="104" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="108" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="104" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="107" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="104" customWidth="1"/>
+    <col min="12" max="16" width="15.125" style="104"/>
+    <col min="17" max="17" width="0" style="104" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="15.125" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="132" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="133" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="135"/>
-    </row>
-    <row r="2" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A2" s="136" t="s">
+    <row r="1" spans="1:10" s="130" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="133"/>
+    </row>
+    <row r="2" spans="1:10" s="130" customFormat="1" ht="14.25">
+      <c r="A2" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="207" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="J2" s="95" t="s">
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="J2" s="94" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="132" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="137" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="206" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="J3" s="95" t="s">
+    <row r="3" spans="1:10" s="130" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="135" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="207" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="J3" s="94" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A4" s="136" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="207" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="J4" s="96"/>
-    </row>
-    <row r="5" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A5" s="138" t="s">
+    <row r="4" spans="1:10" s="130" customFormat="1" ht="14.25">
+      <c r="A4" s="134" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="208" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="J4" s="95"/>
+    </row>
+    <row r="5" spans="1:10" s="130" customFormat="1" ht="14.25">
+      <c r="A5" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="139" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="140" t="s">
+      <c r="C5" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="210" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="J5" s="95" t="s">
+      <c r="E5" s="211" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="J5" s="94" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="132" customFormat="1" ht="15" thickBot="1">
-      <c r="A6" s="126">
+    <row r="6" spans="1:10" s="130" customFormat="1" ht="15" thickBot="1">
+      <c r="A6" s="125">
         <f>COUNTIF(F11:G261,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="100">
         <f>COUNTIF(F11:G708,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="100">
         <f>E6-D6-B6-A6</f>
-        <v>30</v>
-      </c>
-      <c r="D6" s="102">
+        <v>12</v>
+      </c>
+      <c r="D6" s="101">
         <f>COUNTIF(F11:G708,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="209">
+      <c r="E6" s="210">
         <f>COUNTA(A11:A265)*2</f>
+        <v>12</v>
+      </c>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="J6" s="94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="130" customFormat="1" ht="14.25">
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="J7" s="94"/>
+    </row>
+    <row r="8" spans="1:10" s="130" customFormat="1" ht="14.25">
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="J8" s="94"/>
+    </row>
+    <row r="9" spans="1:10" s="130" customFormat="1"/>
+    <row r="10" spans="1:10" s="130" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="J6" s="95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="J7" s="95"/>
-    </row>
-    <row r="8" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="J8" s="95"/>
-    </row>
-    <row r="9" spans="1:10" s="132" customFormat="1"/>
-    <row r="10" spans="1:10" s="132" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="56" t="s">
+      <c r="B10" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="57" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="57" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="132" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="211" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-    </row>
-    <row r="12" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="160" t="str">
-        <f t="shared" ref="A12:A20" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin_login-2]</v>
-      </c>
-      <c r="B12" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="117" t="s">
+    <row r="11" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="167"/>
+      <c r="B11" s="168" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="169"/>
+    </row>
+    <row r="12" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="222"/>
+      <c r="B12" s="223" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="223" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="223" t="s">
+        <v>371</v>
+      </c>
+      <c r="E12" s="224"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="223"/>
+      <c r="H12" s="225"/>
+      <c r="I12" s="226"/>
+    </row>
+    <row r="13" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A13" s="167"/>
+      <c r="B13" s="168" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="169"/>
+    </row>
+    <row r="14" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A14" s="157"/>
+      <c r="B14" s="116" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+    </row>
+    <row r="15" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="167"/>
+      <c r="B15" s="168" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="169"/>
+    </row>
+    <row r="16" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A16" s="157"/>
+      <c r="B16" s="116" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+    </row>
+    <row r="17" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="167"/>
+      <c r="B17" s="168" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="169"/>
+    </row>
+    <row r="18" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="157"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+    </row>
+    <row r="19" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="157"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A20" s="157"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="104"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A21" s="167"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="104"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A22" s="157" t="str">
+        <f t="shared" ref="A22:A23" si="0">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Admin_login-12]</v>
+      </c>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="116" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="104"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A23" s="157" t="str">
+        <f t="shared" si="0"/>
+        <v>[Admin_login-13]</v>
+      </c>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="171" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="104"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A24" s="167"/>
+      <c r="B24" s="168" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="104"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A25" s="157" t="str">
+        <f t="shared" ref="A25" si="1">IF(OR(B25&lt;&gt;"",D25&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Admin_login-15]</v>
+      </c>
+      <c r="B25" s="116" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="117" t="s">
-        <v>224</v>
-      </c>
-      <c r="E12" s="166"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="167"/>
-    </row>
-    <row r="13" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="160" t="str">
-        <f t="shared" si="0"/>
-        <v>[Admin_login-3]</v>
-      </c>
-      <c r="B13" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="168" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-    </row>
-    <row r="14" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="160" t="str">
-        <f t="shared" si="0"/>
-        <v>[Admin_login-4]</v>
-      </c>
-      <c r="B14" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="117" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="168" t="s">
-        <v>216</v>
-      </c>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-    </row>
-    <row r="15" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="160" t="str">
-        <f t="shared" si="0"/>
-        <v>[Admin_login-5]</v>
-      </c>
-      <c r="B15" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="168" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-    </row>
-    <row r="16" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="160" t="str">
-        <f t="shared" si="0"/>
-        <v>[Admin_login-6]</v>
-      </c>
-      <c r="B16" s="117" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="117" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="168" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-    </row>
-    <row r="17" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="160" t="str">
-        <f t="shared" si="0"/>
-        <v>[Admin_login-7]</v>
-      </c>
-      <c r="B17" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="117" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="168" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-    </row>
-    <row r="18" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="160" t="str">
-        <f t="shared" si="0"/>
-        <v>[Admin_login-8]</v>
-      </c>
-      <c r="B18" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="117" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="168" t="s">
-        <v>216</v>
-      </c>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-    </row>
-    <row r="19" spans="1:10" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="160" t="str">
-        <f t="shared" si="0"/>
-        <v>[Admin_login-9]</v>
-      </c>
-      <c r="B19" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="117" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="168" t="s">
-        <v>216</v>
-      </c>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="160" t="str">
-        <f t="shared" si="0"/>
-        <v>[Admin_login-10]</v>
-      </c>
-      <c r="B20" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="117" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="168" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="105"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="171"/>
-      <c r="B21" s="172" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="105"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="160" t="str">
-        <f t="shared" ref="A22:A23" si="1">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin_login-12]</v>
-      </c>
-      <c r="B22" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="117" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="117" t="s">
-        <v>319</v>
-      </c>
-      <c r="E22" s="174" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="105"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="160" t="str">
-        <f t="shared" si="1"/>
-        <v>[Admin_login-13]</v>
-      </c>
-      <c r="B23" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" s="175" t="s">
-        <v>321</v>
-      </c>
-      <c r="E23" s="174" t="s">
-        <v>217</v>
-      </c>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="105"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="171"/>
-      <c r="B24" s="172" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="105"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="160" t="str">
-        <f t="shared" ref="A25" si="2">IF(OR(B25&lt;&gt;"",D25&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin_login-15]</v>
-      </c>
-      <c r="B25" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="117" t="s">
-        <v>322</v>
-      </c>
-      <c r="D25" s="175" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="174" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="105"/>
+      <c r="E25" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="171"/>
-      <c r="B26" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="105"/>
+      <c r="A26" s="167"/>
+      <c r="B26" s="168" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="160" t="str">
-        <f t="shared" ref="A27:A29" si="3">IF(OR(B27&lt;&gt;"",D27&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A27" s="157" t="str">
+        <f t="shared" ref="A27:A29" si="2">IF(OR(B27&lt;&gt;"",D27&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-17]</v>
       </c>
-      <c r="B27" s="117" t="s">
-        <v>324</v>
-      </c>
-      <c r="C27" s="117" t="s">
-        <v>325</v>
-      </c>
-      <c r="D27" s="175" t="s">
-        <v>326</v>
-      </c>
-      <c r="E27" s="174"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="105"/>
+      <c r="B27" s="116" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="116" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" s="171" t="s">
+        <v>279</v>
+      </c>
+      <c r="E27" s="170"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="104"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A28" s="171" t="s">
-        <v>231</v>
-      </c>
-      <c r="B28" s="172" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="173"/>
+      <c r="A28" s="167" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="168" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="169"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="160" t="str">
-        <f t="shared" si="3"/>
+      <c r="A29" s="157" t="str">
+        <f t="shared" si="2"/>
         <v>[Admin_login-19]</v>
       </c>
-      <c r="B29" s="117" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" s="117" t="s">
-        <v>327</v>
-      </c>
-      <c r="D29" s="175" t="s">
-        <v>328</v>
-      </c>
-      <c r="E29" s="174"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
+      <c r="B29" s="116" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="171" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="170"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="166"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B11:I11"/>
+  <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -7603,7 +7415,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G8">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F27:G27 F25:G25 F12:G20 F22:G23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F27:G27 F25:G25 F22:G23 F12:G12 F14:G14 F16:G16 F18:G20">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="315">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -432,12 +432,6 @@
   </si>
   <si>
     <t>Check user logout when user logout with "Logout" link</t>
-  </si>
-  <si>
-    <t>Forgot Password</t>
-  </si>
-  <si>
-    <t>When user login with new password</t>
   </si>
   <si>
     <t>Execute all Registered User unit test cases and passed</t>
@@ -637,18 +631,6 @@
     <t>MS31</t>
   </si>
   <si>
-    <t>Integration Login with Message</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page</t>
-  </si>
-  <si>
-    <t>Admin Dashboard module</t>
-  </si>
-  <si>
-    <t>User Management module</t>
-  </si>
-  <si>
     <t>Back to Check Report</t>
   </si>
   <si>
@@ -677,19 +659,6 @@
   </si>
   <si>
     <t>Check date</t>
-  </si>
-  <si>
-    <t>Check Logout button</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. Content about dashboard is displayed</t>
-  </si>
-  <si>
-    <t>Check clicking on link on Home page screen</t>
-  </si>
-  <si>
-    <t>Common</t>
   </si>
   <si>
     <t>Security</t>
@@ -844,12 +813,6 @@
     <t>Color of all tabs selection is the same</t>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>1. Set language of Browser isVietnamese
 2. Start system from browser
 3. Confirm displaying language of system</t>
@@ -861,9 +824,6 @@
     <t xml:space="preserve">Display Homepage with name and avatar of user </t>
   </si>
   <si>
-    <t>[Admin_login-7]</t>
-  </si>
-  <si>
     <t>DangNHSE02992</t>
   </si>
   <si>
@@ -873,40 +833,10 @@
     <t>VMN</t>
   </si>
   <si>
-    <t>When user forgot password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log in Page is displayed
-</t>
-  </si>
-  <si>
     <t>Mod_login</t>
   </si>
   <si>
-    <t>Check mod view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login successfully
-2. Click on avatar at right side screen
-3. Click on Logout button </t>
-  </si>
-  <si>
-    <t>Integration Login with Posted Article</t>
-  </si>
-  <si>
-    <t>Test "Message list"</t>
-  </si>
-  <si>
-    <t>Test "Message detail"</t>
-  </si>
-  <si>
-    <t>Check "Image" of posted article</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Mod Common module</t>
   </si>
   <si>
     <t>1. Login the system with Mod role.
@@ -958,75 +888,7 @@
 + Posted date</t>
   </si>
   <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Home button</t>
-  </si>
-  <si>
-    <t>Integration Personal page with notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on "Avatar" in menu bar
-6. Click on "medicinal plants" link </t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on "Avatar" in menu bar
-6. Click on "remedy" link</t>
-  </si>
-  <si>
-    <t>Check "log out"  when user login successfully</t>
-  </si>
-  <si>
-    <t>Integration Medicinal plants with author</t>
-  </si>
-  <si>
     <t>Integration Remedy with HMS</t>
-  </si>
-  <si>
-    <t>Integration Remedy with author</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on "Avatar" in menu bar
-6. Click "Notification" list in personal page</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on "Medicinal Plants" in menu bar
-6. Click on a "medicinal plants" picture of medicinal plants page
-7. Click on "author" link of "medicinal plants detail" page</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on "Remedy" in menu bar
-6. Click on a "Remedy" picture of remedy page
-7. Click on "author" of remedy detail page</t>
   </si>
   <si>
     <t>Vietnamese Medicinal Plants Network</t>
@@ -1069,13 +931,6 @@
 5. Paste link and press Enter</t>
   </si>
   <si>
-    <t>1. Login on one browser
-2. Click Account
-3. Copy link
-4. Change to other browser
-5. Paste link and press Enter</t>
-  </si>
-  <si>
     <t>User function</t>
   </si>
   <si>
@@ -1088,209 +943,15 @@
     <t>Mod_Function</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Mod Page is displayed with the following list:
-- Header
-- Right Side bar:
-+ Logout button
-- Content details left
-+ Dashboard (default)
-+ Medicinal plant management
-+ Remedy management 
-</t>
-  </si>
-  <si>
     <t>Check "Medicinal plants" tab</t>
   </si>
   <si>
     <t>Check "HMS" tab</t>
-  </si>
-  <si>
-    <t>Integration Personal page with related remedy</t>
-  </si>
-  <si>
-    <t>Integration Personal page with related medicinal plants</t>
-  </si>
-  <si>
-    <t>Check "Notification" tab</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on Avatar menu
-6. Click on Account button
-7. Show message tab</t>
-  </si>
-  <si>
-    <t>Check "remedy" tab</t>
-  </si>
-  <si>
-    <t>Check "Author" tab</t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed 
-2. Reload homepage, homepage is displayed</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click on Login button in header
-3. Click on "Forgot password" link
-4. Input "dangnh@fpt.edu.vn"
-5. Click "send" button</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. Login page is displayed
-3. Forgot password form is displayed
-4. Email textarea is displayed
-5. Change password page is sent to email "dangnh@fpt.edu.vn"</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button in header
-3. Input: 
-Email: "dangnhse02992@fpt.edu.vn"
-Password: Enter new password (which has been changed in change password page)
-4. Click "Sign in" button of login page</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on Avatar menu
-6. Click on Account button
-7. Click message tab
-8. Click a message of message tab</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on Avatar menu
-6. Click on Account button
-7. Click on Image of posted article tab</t>
-  </si>
-  <si>
-    <t>1. Enter the website: thuocnam.com
-2. Click on Login button
-3. Input:
-+ Email: "dangnhse02992@fpt.edu.vn"
-+ Password: "123456789"
-4. Click on "sign in" button of login page or press enter
-5. Click on "Remedy" in menu bar
-6. Click on a "Remedy" picture of remedy page
-7. Click on "related HMS" of remedy detail page</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Email and password textarea are displayed
-4. Logged in successfully
-5. The "medicinal plants" page is displayed
-6. "Medicinal plants detail" page is displayed
-7. "Author" is displayed</t>
-  </si>
-  <si>
-    <t>1. The Homepage is displayed 
-2. The log in page is displayed
-3. Email and password textarea are displayed
-4. Logged in successfully
-5. The "remedy" page is displayed
-6. "Remedy detail" page is displayed
-7. "Related HMS" is displayed</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Email and password textarea are displayed
-4. Logged in successfully
-5. The "remedy" page is displayed
-6. "Remedy detail" page is displayed
-7. "Author" is displayed</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Email and password textarea are displayed
-4. Logged in successfully
-5. The "personal" page is displayed
-6. "Notification" list is displayed</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Email and password textarea are displayed
-4. Logged in successfully
-5. The "personal" page is displayed
-6. "Remedy detail" page is displayed</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Email and password textarea are displayed
-4. Logged in successfully
-5. The "personal" page is displayed
-6. "Medicinal plants detail" page is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Homepage and avatar is displayed 
-2. Log out successfully
-3. Homepage is displayed </t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. Login page is displayed
-3. Email and password textarea ara displayed
-4. Log in successfully</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Email, password text area are displayed
-4. Logged in successfully
-5. Avatar logo is displayed
-6. The Account page is displayed
-7. Message is displayed</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Email, password text area are displayed
-4. Logged in successfully
-5. Avatar logo is displayed
-6. The Account page is displayed
-7. Message is displayed
-8. Message detail is displayed</t>
-  </si>
-  <si>
-    <t>1.The Homepage is displayed 
-2. The log in page is displayed
-3. Email, password text area are displayed
-4. Logged in successfully
-5. Avatar logo is displayed
-6. The Account page is displayed
-7. Posted article is displayed</t>
   </si>
   <si>
     <t>1. The Homepage is displayed
 2. Avatar menu is showed
 3. Logout user and redirect to homepage as guest rule</t>
-  </si>
-  <si>
-    <t>1. Enter mod page</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Click logout button in Right Slide bar</t>
   </si>
   <si>
     <t>1. Enter mod page
@@ -1308,62 +969,6 @@
 2. Input username "email0@gmail.com" password "123456"
 3. Click "Login" button
 4. Click remedy management tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Admin Page is displayed with the following list:
-- Header
-- Right Side bar:
-+ Logout button
-- Content details left
-+ Dashboard (default)
-+ User management
-+ New herb medicine store resgister 
-</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input correct account and password as admin rule
-3. Click logout button in Right Slide bar</t>
-  </si>
-  <si>
-    <t>1. Log in Page is displayed
-2. Login successful as admin rule
-3. Login page is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter the admin page
-2. Click Dashboard tab in Left Slide bar
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Dashboard tab </t>
-  </si>
-  <si>
-    <t>Check User Management tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter the admin page
-2. Click User Management tab in Left Slide bar
-</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. User Information Management page is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter the admin page
-2. Click New Herb Medicine Store tab in Left Slide bar
-</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. New register of herb medicine store information page is displayed</t>
-  </si>
-  <si>
-    <t>New register of herb medicine store</t>
-  </si>
-  <si>
-    <t>Check New register of Herb Medicine Store tap</t>
   </si>
   <si>
     <t>List enviroment requires in this system
@@ -1525,21 +1130,6 @@
   </si>
   <si>
     <t>Check "Related Remedy Article" hyperlink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login VMN system by Member or Mod role
-2. Click on "Medicinal Plants" on Header
-3. Click on "Detail" hyperlink of any Medicinal Plants Article
-4. Click on "Related Remedy Article" tab
-5. Click on any Remedy Article hyperlink </t>
-  </si>
-  <si>
-    <t>1. Homepage is displayed 
-2. "Medicinal Plants" tab is displayed 
-3. "Medicinal Plants Article Detail" Page is displayed 
-4. The "medicinal plants" page is displayed
-5. "Medicinal plants detail" page is displayed
-6. "Relational remedy" is displayed</t>
   </si>
   <si>
     <t>1. Homepage is displayed 
@@ -1716,36 +1306,77 @@
     <t>Personal Page</t>
   </si>
   <si>
-    <t xml:space="preserve">Integration Log in with </t>
-  </si>
-  <si>
-    <t>Check Dashboard tab</t>
-  </si>
-  <si>
-    <t>1. Login Admin Page by Admin role
-2. Click on Dashboard tab</t>
+    <t>Integration Login with Dashboard</t>
+  </si>
+  <si>
+    <t>Integration Login with Medicinal Plants Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role.
+</t>
+  </si>
+  <si>
+    <t>When Mod click on "Logout" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "Dashboard" hyperlink</t>
   </si>
   <si>
     <t>1. Admin Page is displayed 
-2. Dashboard tab is displayed</t>
-  </si>
-  <si>
-    <t>Integration Login with Dashboard</t>
-  </si>
-  <si>
-    <t>Integration Login with Medicinal Plants Management</t>
-  </si>
-  <si>
-    <t>Integration Login with Remedy Management</t>
-  </si>
-  <si>
-    <t>Check Medicinal Plants Management tab</t>
-  </si>
-  <si>
-    <t>Check Remedy Management</t>
-  </si>
-  <si>
-    <t>Integration Medicinal Plants Management with Medicinal Plants Article Detail</t>
+2. "Dashboard" Page is displayed</t>
+  </si>
+  <si>
+    <t>[Admin module-20]</t>
+  </si>
+  <si>
+    <t>Integration Login with User Management</t>
+  </si>
+  <si>
+    <t>Check "User Management" Page</t>
+  </si>
+  <si>
+    <t>Check "Dashboard" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "User Management" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed 
+2. "User Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>[Admin module-27]</t>
+  </si>
+  <si>
+    <t>Integration Login with Waiting HMS Approval</t>
+  </si>
+  <si>
+    <t>Check "Waiting HMS Approval" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "Waiting HMS Approval" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "Waiting HMS Approval" Page is displayed</t>
+  </si>
+  <si>
+    <t>[Admin module-35]</t>
+  </si>
+  <si>
+    <t>When Admin click on "Logout" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Admin role.
+2. Click on "Logout" hyperlink on Header
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Admin role.
+</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +1678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2673,13 +2304,26 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2689,10 +2333,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2764,7 +2408,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3285,6 +2929,41 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="47" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3334,46 +3013,37 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="48" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -3506,14 +3176,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3912,13 +3582,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -3929,44 +3599,44 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="196" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
+      <c r="C4" s="209" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="196" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
+      <c r="C5" s="209" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="198" t="str">
+      <c r="C6" s="211" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -3975,10 +3645,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="197"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -4038,7 +3708,7 @@
         <v>54</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
@@ -4145,39 +3815,39 @@
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="202" t="str">
+      <c r="C3" s="214"/>
+      <c r="D3" s="215" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="201" t="s">
+      <c r="B4" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="201"/>
-      <c r="D4" s="202" t="str">
+      <c r="C4" s="214"/>
+      <c r="D4" s="215" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
     </row>
     <row r="5" spans="2:6" s="35" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="200" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="213" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="36"/>
@@ -4215,16 +3885,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="D9" s="142" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="113" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="F9" s="112" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="25.5">
@@ -4232,16 +3902,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="D10" s="189" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="E10" s="113" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="112" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="25.5">
@@ -4258,7 +3928,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="112" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="13.5">
@@ -4371,15 +4041,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="61"/>
@@ -4395,17 +4065,17 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="202" t="str">
+      <c r="C3" s="215" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="202"/>
-      <c r="E3" s="203" t="s">
+      <c r="D3" s="215"/>
+      <c r="E3" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="203"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H3" s="64"/>
     </row>
@@ -4413,17 +4083,17 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="202" t="str">
+      <c r="C4" s="215" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="202"/>
-      <c r="E4" s="203" t="s">
+      <c r="D4" s="215"/>
+      <c r="E4" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="203"/>
+      <c r="F4" s="216"/>
       <c r="G4" s="10" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="H4" s="64"/>
     </row>
@@ -4431,15 +4101,15 @@
       <c r="B5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="202" t="str">
+      <c r="C5" s="215" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="202"/>
-      <c r="E5" s="203" t="s">
+      <c r="D5" s="215"/>
+      <c r="E5" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="203"/>
+      <c r="F5" s="216"/>
       <c r="G5" s="114"/>
       <c r="H5" s="66"/>
     </row>
@@ -4448,12 +4118,12 @@
       <c r="B6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="61"/>
@@ -4514,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="D11" s="75">
         <f>'User Module'!A6</f>
@@ -4543,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="189" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="D12" s="75">
         <f>'Mod Module'!A6</f>
@@ -4555,7 +4225,7 @@
       </c>
       <c r="F12" s="75">
         <f>'Mod Module'!C6</f>
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G12" s="75">
         <f>'Mod Module'!D6</f>
@@ -4563,7 +4233,7 @@
       </c>
       <c r="H12" s="76">
         <f>'Mod Module'!E6</f>
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4584,7 +4254,7 @@
       </c>
       <c r="F13" s="75">
         <f>'Admin Module'!C6</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G13" s="75">
         <f>'Admin Module'!D6</f>
@@ -4592,7 +4262,7 @@
       </c>
       <c r="H13" s="76">
         <f>'Admin Module'!E6</f>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4611,7 +4281,7 @@
       </c>
       <c r="F14" s="78">
         <f>SUM(F11:F13)</f>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G14" s="78">
         <f>SUM(G9:G13)</f>
@@ -4619,7 +4289,7 @@
       </c>
       <c r="H14" s="79">
         <f>SUM(H11:H13)</f>
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4706,7 +4376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4719,11 +4389,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="206" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
+      <c r="A1" s="219" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -4731,279 +4401,279 @@
         <v>16</v>
       </c>
       <c r="B3" s="149" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="150" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="151" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="152" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="152"/>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="151" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="152"/>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="151" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="152" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="152"/>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="151" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="152" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="152"/>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="151" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="152" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="152"/>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="151" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="152" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="152"/>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="152" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="152"/>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="151" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="152" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="152"/>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="151" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="152" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="152"/>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="151" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="152" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="152"/>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="151" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="153" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="152"/>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="151" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" s="152" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="152"/>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="151" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="152" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="152"/>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="151" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="152" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" s="152"/>
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="A18" s="151" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" s="152" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="152"/>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="151" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="153" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="152"/>
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" s="151" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" s="153" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="152"/>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" s="151" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="153" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="152"/>
     </row>
     <row r="22" spans="1:3" ht="60">
       <c r="A22" s="151" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="154" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="152"/>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="151" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" s="152" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="152"/>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="151" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="152" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="152"/>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="151" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="152" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="152"/>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="155" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" s="152" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" s="152"/>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="155" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27" s="152" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C27" s="152"/>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="155" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B28" s="152" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" s="152"/>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="155" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B29" s="152" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" s="152"/>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="155" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" s="152" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="152"/>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="155" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B31" s="152"/>
       <c r="C31" s="152"/>
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="155" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B32" s="152"/>
       <c r="C32" s="152"/>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" s="155" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B33" s="152"/>
       <c r="C33" s="152"/>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="155" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B34" s="152"/>
       <c r="C34" s="152"/>
@@ -5026,8 +4696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
@@ -5063,14 +4733,14 @@
       <c r="A2" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="207" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
+      <c r="B2" s="220" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
       <c r="H2" s="140" t="s">
         <v>22</v>
       </c>
@@ -5083,14 +4753,14 @@
       <c r="A3" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
       <c r="H3" s="140" t="s">
         <v>24</v>
       </c>
@@ -5103,14 +4773,14 @@
       <c r="A4" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="208" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
+      <c r="B4" s="221" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
       <c r="H4" s="140" t="s">
         <v>27</v>
       </c>
@@ -5130,11 +4800,11 @@
       <c r="D5" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
       <c r="H5" s="141" t="s">
         <v>26</v>
       </c>
@@ -5160,12 +4830,12 @@
         <f>COUNTIF(F11:G673,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="210">
+      <c r="E6" s="223">
         <f>COUNTA(A11:A230)</f>
         <v>48</v>
       </c>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
       <c r="H6" s="98"/>
       <c r="I6" s="94"/>
       <c r="J6" s="94" t="s">
@@ -5225,10 +4895,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="57" t="s">
         <v>35</v>
@@ -5239,9 +4909,9 @@
       <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A11" s="218"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="58" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -5253,18 +4923,18 @@
       <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A12" s="219" t="str">
+      <c r="A12" s="202" t="str">
         <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-2]</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="D12" s="120" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="E12" s="117"/>
       <c r="F12" s="116"/>
@@ -5274,9 +4944,9 @@
       <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A13" s="220"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="58" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -5288,18 +4958,18 @@
       <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="219" t="str">
+      <c r="A14" s="202" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-4]</v>
       </c>
       <c r="B14" s="90" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="D14" s="120" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="E14" s="90"/>
       <c r="F14" s="116"/>
@@ -5309,18 +4979,18 @@
       <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A15" s="219" t="str">
+      <c r="A15" s="202" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-5]</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="C15" s="190" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="D15" s="194" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="E15" s="190"/>
       <c r="F15" s="184"/>
@@ -5330,9 +5000,9 @@
       <c r="J15" s="94"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A16" s="220"/>
+      <c r="A16" s="203"/>
       <c r="B16" s="58" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="193"/>
@@ -5344,21 +5014,21 @@
       <c r="J16" s="94"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="219" t="str">
+      <c r="A17" s="202" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-7]</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="D17" s="90" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="E17" s="90" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="F17" s="116"/>
       <c r="G17" s="90"/>
@@ -5367,9 +5037,9 @@
       <c r="J17" s="94"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="220"/>
+      <c r="A18" s="203"/>
       <c r="B18" s="58" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -5386,13 +5056,13 @@
         <v>[User Module-9]</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="C19" s="105" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="D19" s="90" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="E19" s="103"/>
       <c r="F19" s="116"/>
@@ -5407,16 +5077,16 @@
         <v>[User Module-10]</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="C20" s="105" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="D20" s="103" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="E20" s="103" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="F20" s="116"/>
       <c r="G20" s="157"/>
@@ -5425,11 +5095,11 @@
       <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="220" t="s">
-        <v>203</v>
+      <c r="A21" s="203" t="s">
+        <v>182</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -5446,16 +5116,16 @@
         <v>[User Module-12]</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="C22" s="105" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="D22" s="103" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="F22" s="116"/>
       <c r="G22" s="90"/>
@@ -5464,11 +5134,11 @@
       <c r="J22" s="104"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="220" t="s">
-        <v>203</v>
+      <c r="A23" s="203" t="s">
+        <v>182</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>359</v>
+        <v>285</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -5485,16 +5155,16 @@
         <v>[User Module-14]</v>
       </c>
       <c r="B24" s="90" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="F24" s="116"/>
       <c r="G24" s="157"/>
@@ -5503,19 +5173,19 @@
       <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="220" t="s">
-        <v>203</v>
+      <c r="A25" s="203" t="s">
+        <v>182</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>360</v>
+        <v>286</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
-      <c r="E25" s="213"/>
+      <c r="E25" s="196"/>
       <c r="F25" s="59"/>
       <c r="G25" s="59"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="215"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="198"/>
       <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
@@ -5524,29 +5194,29 @@
         <v>[User Module-16]</v>
       </c>
       <c r="B26" s="90" t="s">
-        <v>363</v>
+        <v>289</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>364</v>
-      </c>
-      <c r="D26" s="212" t="s">
-        <v>365</v>
-      </c>
-      <c r="E26" s="214" t="s">
-        <v>366</v>
+        <v>290</v>
+      </c>
+      <c r="D26" s="195" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="197" t="s">
+        <v>292</v>
       </c>
       <c r="F26" s="116"/>
       <c r="G26" s="157"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="217"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="200"/>
       <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="221" t="s">
-        <v>203</v>
+      <c r="A27" s="204" t="s">
+        <v>182</v>
       </c>
       <c r="B27" s="161" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="C27" s="158"/>
       <c r="D27" s="158"/>
@@ -5563,16 +5233,16 @@
         <v>[User Module-18]</v>
       </c>
       <c r="B28" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="116" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="116" t="s">
-        <v>312</v>
-      </c>
       <c r="D28" s="116" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="E28" s="117" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="F28" s="116"/>
       <c r="G28" s="116"/>
@@ -5581,11 +5251,11 @@
       <c r="J28" s="104"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A29" s="221" t="s">
-        <v>203</v>
+      <c r="A29" s="204" t="s">
+        <v>182</v>
       </c>
       <c r="B29" s="161" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="C29" s="158"/>
       <c r="D29" s="158"/>
@@ -5602,16 +5272,16 @@
         <v>[User Module-20]</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="C30" s="116" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="D30" s="116" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="E30" s="117" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="F30" s="116"/>
       <c r="G30" s="116"/>
@@ -5620,11 +5290,11 @@
       <c r="J30" s="104"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="221" t="s">
-        <v>203</v>
+      <c r="A31" s="204" t="s">
+        <v>182</v>
       </c>
       <c r="B31" s="161" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="C31" s="158"/>
       <c r="D31" s="158"/>
@@ -5641,16 +5311,16 @@
         <v>[User Module-22]</v>
       </c>
       <c r="B32" s="116" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C32" s="116" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="D32" s="116" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="E32" s="117" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="F32" s="116"/>
       <c r="G32" s="116"/>
@@ -5659,11 +5329,11 @@
       <c r="J32" s="104"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A33" s="221" t="s">
-        <v>203</v>
+      <c r="A33" s="204" t="s">
+        <v>182</v>
       </c>
       <c r="B33" s="161" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
       <c r="C33" s="158"/>
       <c r="D33" s="158"/>
@@ -5680,16 +5350,16 @@
         <v>[User Module-24]</v>
       </c>
       <c r="B34" s="116" t="s">
-        <v>348</v>
+        <v>274</v>
       </c>
       <c r="C34" s="116" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="D34" s="116" t="s">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="E34" s="117" t="s">
-        <v>351</v>
+        <v>277</v>
       </c>
       <c r="F34" s="116"/>
       <c r="G34" s="116"/>
@@ -5698,11 +5368,11 @@
       <c r="J34" s="104"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="221" t="s">
-        <v>203</v>
+      <c r="A35" s="204" t="s">
+        <v>182</v>
       </c>
       <c r="B35" s="161" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="C35" s="158"/>
       <c r="D35" s="158"/>
@@ -5719,16 +5389,16 @@
         <v>[User Module-26]</v>
       </c>
       <c r="B36" s="116" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="C36" s="116" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="D36" s="116" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="E36" s="117" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="F36" s="116"/>
       <c r="G36" s="116"/>
@@ -5737,11 +5407,11 @@
       <c r="J36" s="104"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A37" s="221" t="s">
-        <v>203</v>
+      <c r="A37" s="204" t="s">
+        <v>182</v>
       </c>
       <c r="B37" s="161" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="C37" s="158"/>
       <c r="D37" s="158"/>
@@ -5758,16 +5428,16 @@
         <v>[User Module-28]</v>
       </c>
       <c r="B38" s="116" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="C38" s="116" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="D38" s="116" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="E38" s="117" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="F38" s="116"/>
       <c r="G38" s="116"/>
@@ -5776,11 +5446,11 @@
       <c r="J38" s="104"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="221" t="s">
-        <v>203</v>
+      <c r="A39" s="204" t="s">
+        <v>182</v>
       </c>
       <c r="B39" s="161" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="C39" s="158"/>
       <c r="D39" s="158"/>
@@ -5797,13 +5467,13 @@
         <v>[User Module-30]</v>
       </c>
       <c r="B40" s="116" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="C40" s="116" t="s">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="D40" s="116" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="E40" s="117"/>
       <c r="F40" s="116"/>
@@ -5812,11 +5482,11 @@
       <c r="I40" s="119"/>
     </row>
     <row r="41" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A41" s="221" t="s">
-        <v>203</v>
+      <c r="A41" s="204" t="s">
+        <v>182</v>
       </c>
       <c r="B41" s="161" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="C41" s="158"/>
       <c r="D41" s="158"/>
@@ -5832,16 +5502,16 @@
         <v>[User Module-32]</v>
       </c>
       <c r="B42" s="116" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="C42" s="116" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="E42" s="117" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="F42" s="116"/>
       <c r="G42" s="116"/>
@@ -5849,11 +5519,11 @@
       <c r="I42" s="119"/>
     </row>
     <row r="43" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="221" t="s">
-        <v>203</v>
+      <c r="A43" s="204" t="s">
+        <v>182</v>
       </c>
       <c r="B43" s="161" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="C43" s="158"/>
       <c r="D43" s="158"/>
@@ -5869,13 +5539,13 @@
         <v>[User Module-34]</v>
       </c>
       <c r="B44" s="116" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="C44" s="116" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="D44" s="116" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="E44" s="117"/>
       <c r="F44" s="116"/>
@@ -5908,7 +5578,7 @@
     <row r="47" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
       <c r="A47" s="161"/>
       <c r="B47" s="161" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C47" s="161"/>
       <c r="D47" s="161"/>
@@ -5921,7 +5591,7 @@
     <row r="48" spans="1:10" s="161" customFormat="1" ht="14.25" customHeight="1">
       <c r="A48" s="176"/>
       <c r="B48" s="177" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C48" s="178"/>
       <c r="D48" s="178"/>
@@ -5937,20 +5607,20 @@
         <v>ID-32</v>
       </c>
       <c r="B49" s="116" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C49" s="116" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D49" s="116" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E49" s="116"/>
       <c r="F49" s="116"/>
       <c r="G49" s="116"/>
       <c r="H49" s="116"/>
       <c r="I49" s="179" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="181" customFormat="1" ht="14.25" customHeight="1">
@@ -5959,20 +5629,20 @@
         <v>ID-33</v>
       </c>
       <c r="B50" s="116" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="C50" s="116" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="D50" s="116" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E50" s="116"/>
       <c r="F50" s="116"/>
       <c r="G50" s="116"/>
       <c r="H50" s="116"/>
       <c r="I50" s="179" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="181" customFormat="1" ht="14.25" customHeight="1">
@@ -5981,20 +5651,20 @@
         <v>ID-34</v>
       </c>
       <c r="B51" s="116" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="C51" s="116" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="D51" s="116" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E51" s="116"/>
       <c r="F51" s="116"/>
       <c r="G51" s="116"/>
       <c r="H51" s="116"/>
       <c r="I51" s="179" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="180" customFormat="1" ht="14.25" customHeight="1">
@@ -6003,20 +5673,20 @@
         <v>ID-35</v>
       </c>
       <c r="B52" s="116" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="C52" s="116" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="D52" s="116" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E52" s="116"/>
       <c r="F52" s="116"/>
       <c r="G52" s="116"/>
       <c r="H52" s="116"/>
       <c r="I52" s="179" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
@@ -6025,26 +5695,26 @@
         <v>ID-36</v>
       </c>
       <c r="B53" s="116" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="C53" s="116" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="D53" s="116" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E53" s="116"/>
       <c r="F53" s="116"/>
       <c r="G53" s="116"/>
       <c r="H53" s="116"/>
       <c r="I53" s="179" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
       <c r="A54" s="161"/>
       <c r="B54" s="161" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C54" s="161"/>
       <c r="D54" s="161"/>
@@ -6060,20 +5730,20 @@
         <v>ID-37</v>
       </c>
       <c r="B55" s="116" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C55" s="116" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D55" s="116" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E55" s="116"/>
       <c r="F55" s="116"/>
       <c r="G55" s="116"/>
       <c r="H55" s="116"/>
       <c r="I55" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
@@ -6082,20 +5752,20 @@
         <v>ID-38</v>
       </c>
       <c r="B56" s="116" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C56" s="116" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D56" s="116" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E56" s="116"/>
       <c r="F56" s="116"/>
       <c r="G56" s="116"/>
       <c r="H56" s="116"/>
       <c r="I56" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
@@ -6104,20 +5774,20 @@
         <v>ID-39</v>
       </c>
       <c r="B57" s="116" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C57" s="116" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D57" s="116" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E57" s="116"/>
       <c r="F57" s="116"/>
       <c r="G57" s="116"/>
       <c r="H57" s="116"/>
       <c r="I57" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
@@ -6126,20 +5796,20 @@
         <v>ID-40</v>
       </c>
       <c r="B58" s="116" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C58" s="116" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D58" s="116" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E58" s="116"/>
       <c r="F58" s="116"/>
       <c r="G58" s="116"/>
       <c r="H58" s="116"/>
       <c r="I58" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
@@ -6148,20 +5818,20 @@
         <v>ID-41</v>
       </c>
       <c r="B59" s="116" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C59" s="116" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D59" s="116" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E59" s="116"/>
       <c r="F59" s="116"/>
       <c r="G59" s="116"/>
       <c r="H59" s="116"/>
       <c r="I59" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
@@ -6170,20 +5840,20 @@
         <v>ID-42</v>
       </c>
       <c r="B60" s="116" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C60" s="116" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D60" s="116" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E60" s="116"/>
       <c r="F60" s="116"/>
       <c r="G60" s="116"/>
       <c r="H60" s="116"/>
       <c r="I60" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="13.5" customHeight="1">
@@ -6192,20 +5862,20 @@
         <v>ID-43</v>
       </c>
       <c r="B61" s="116" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C61" s="116" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D61" s="116" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E61" s="116"/>
       <c r="F61" s="116"/>
       <c r="G61" s="116"/>
       <c r="H61" s="116"/>
       <c r="I61" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="13.5" customHeight="1">
@@ -6214,20 +5884,20 @@
         <v>ID-44</v>
       </c>
       <c r="B62" s="116" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C62" s="116" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D62" s="116" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E62" s="116"/>
       <c r="F62" s="116"/>
       <c r="G62" s="116"/>
       <c r="H62" s="116"/>
       <c r="I62" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.5" customHeight="1">
@@ -6236,20 +5906,20 @@
         <v>ID-45</v>
       </c>
       <c r="B63" s="116" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C63" s="116" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D63" s="116" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E63" s="116"/>
       <c r="F63" s="116"/>
       <c r="G63" s="116"/>
       <c r="H63" s="116"/>
       <c r="I63" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.5" customHeight="1">
@@ -6258,20 +5928,20 @@
         <v>ID-46</v>
       </c>
       <c r="B64" s="116" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C64" s="116" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D64" s="116" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E64" s="116"/>
       <c r="F64" s="116"/>
       <c r="G64" s="116"/>
       <c r="H64" s="116"/>
       <c r="I64" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13.5" customHeight="1">
@@ -6280,20 +5950,20 @@
         <v>ID-47</v>
       </c>
       <c r="B65" s="116" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C65" s="116" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D65" s="116" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E65" s="116"/>
       <c r="F65" s="116"/>
       <c r="G65" s="116"/>
       <c r="H65" s="116"/>
       <c r="I65" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="13.5" customHeight="1">
@@ -6302,20 +5972,20 @@
         <v>ID-48</v>
       </c>
       <c r="B66" s="116" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C66" s="116" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D66" s="116" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
       <c r="H66" s="116"/>
       <c r="I66" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="13.5" customHeight="1">
@@ -6324,20 +5994,20 @@
         <v>ID-49</v>
       </c>
       <c r="B67" s="116" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C67" s="116" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D67" s="116" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
       <c r="H67" s="116"/>
       <c r="I67" s="116" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6384,10 +6054,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D20"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
@@ -6410,7 +6080,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="130" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="131" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -6423,46 +6093,46 @@
       <c r="A2" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="207" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
+      <c r="B2" s="220" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
       <c r="J2" s="94" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="130" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="135" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="207" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
+        <v>124</v>
+      </c>
+      <c r="B3" s="220" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
       <c r="J3" s="94" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="130" customFormat="1" ht="14.25">
       <c r="A4" s="134" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="208" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
+        <v>126</v>
+      </c>
+      <c r="B4" s="221" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:10" s="130" customFormat="1" ht="14.25">
@@ -6473,43 +6143,43 @@
         <v>24</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D5" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="211" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
+      <c r="E5" s="224" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
       <c r="J5" s="94" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="130" customFormat="1" ht="15" thickBot="1">
       <c r="A6" s="125">
-        <f>COUNTIF(F11:G258,"Pass")</f>
+        <f>COUNTIF(F11:G251,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="100">
-        <f>COUNTIF(F11:G705,"Fail")</f>
+        <f>COUNTIF(F11:G698,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="100">
         <f>E6-D6-B6-A6</f>
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D6" s="101">
-        <f>COUNTIF(F11:G705,"N/A")</f>
+        <f>COUNTIF(F11:G698,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="210">
-        <f>COUNTA(A11:A263)*2</f>
-        <v>38</v>
-      </c>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
+      <c r="E6" s="223">
+        <f>COUNTA(A11:A256)*2</f>
+        <v>20</v>
+      </c>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
       <c r="J6" s="94" t="s">
         <v>27</v>
       </c>
@@ -6540,25 +6210,25 @@
         <v>30</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>36</v>
@@ -6567,7 +6237,7 @@
     <row r="11" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="128"/>
       <c r="B11" s="58" t="s">
-        <v>368</v>
+        <v>219</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -6579,12 +6249,18 @@
     </row>
     <row r="12" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="157" t="str">
-        <f t="shared" ref="A12:A20" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v/>
-      </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
+        <f t="shared" ref="A12:A13" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Mod_login-2]</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="120" t="s">
+        <v>236</v>
+      </c>
       <c r="E12" s="162"/>
       <c r="F12" s="116"/>
       <c r="G12" s="116"/>
@@ -6594,120 +6270,138 @@
     <row r="13" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="157" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
+        <v>[Mod_login-3]</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="190" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="194" t="s">
+        <v>237</v>
+      </c>
       <c r="E13" s="187"/>
       <c r="F13" s="116"/>
       <c r="G13" s="116"/>
       <c r="H13" s="165"/>
       <c r="I13" s="165"/>
     </row>
-    <row r="14" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="157" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-    </row>
-    <row r="15" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="157" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A14" s="167"/>
+      <c r="B14" s="168" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="104"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A15" s="157"/>
       <c r="B15" s="116"/>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
-      <c r="E15" s="164"/>
+      <c r="E15" s="170"/>
       <c r="F15" s="116"/>
       <c r="G15" s="116"/>
       <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-    </row>
-    <row r="16" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="157" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="I15" s="166"/>
+      <c r="J15" s="104"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A16" s="157"/>
       <c r="B16" s="116"/>
       <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="164"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="170"/>
       <c r="F16" s="116"/>
       <c r="G16" s="116"/>
       <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-    </row>
-    <row r="17" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="157" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-    </row>
-    <row r="18" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I16" s="166"/>
+      <c r="J16" s="104"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A17" s="167" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="104"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" customHeight="1">
       <c r="A18" s="157" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="164"/>
+        <f t="shared" ref="A18:A24" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Mod_login-8]</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="170"/>
       <c r="F18" s="116"/>
       <c r="G18" s="116"/>
       <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-    </row>
-    <row r="19" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="157" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1">
+      <c r="I18" s="166"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A19" s="167" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="169"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1">
       <c r="A20" s="157" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
+        <f t="shared" si="1"/>
+        <v>[Mod_login-10]</v>
+      </c>
+      <c r="B20" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="116" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="116" t="s">
+        <v>185</v>
+      </c>
       <c r="E20" s="164"/>
       <c r="F20" s="116"/>
       <c r="G20" s="116"/>
       <c r="H20" s="165"/>
       <c r="I20" s="166"/>
-      <c r="J20" s="104"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168" t="s">
-        <v>204</v>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A21" s="167" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>188</v>
       </c>
       <c r="C21" s="167"/>
       <c r="D21" s="167"/>
@@ -6716,190 +6410,61 @@
       <c r="G21" s="167"/>
       <c r="H21" s="167"/>
       <c r="I21" s="169"/>
-      <c r="J21" s="104"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1">
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1">
       <c r="A22" s="157" t="str">
-        <f t="shared" ref="A22:A31" si="1">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="1"/>
         <v>[Mod_login-12]</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="D22" s="116" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" s="170"/>
+        <v>186</v>
+      </c>
+      <c r="E22" s="164"/>
       <c r="F22" s="116"/>
       <c r="G22" s="116"/>
       <c r="H22" s="165"/>
       <c r="I22" s="166"/>
-      <c r="J22" s="104"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="157" t="str">
+    </row>
+    <row r="23" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A23" s="167" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="169"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A24" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>[Mod_login-13]</v>
-      </c>
-      <c r="B23" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="116" t="s">
-        <v>268</v>
-      </c>
-      <c r="D23" s="171" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" s="170"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="104"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="167" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="104"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A25" s="157" t="str">
-        <f t="shared" si="1"/>
-        <v>[Mod_login-15]</v>
-      </c>
-      <c r="B25" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="90" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="E25" s="170"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="166"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A26" s="167" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="169"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A27" s="157" t="str">
-        <f t="shared" si="1"/>
-        <v>[Mod_login-17]</v>
-      </c>
-      <c r="B27" s="116" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="116" t="s">
-        <v>269</v>
-      </c>
-      <c r="D27" s="116" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" s="164"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="166"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A28" s="167" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="169"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="157" t="str">
-        <f t="shared" si="1"/>
-        <v>[Mod_login-19]</v>
-      </c>
-      <c r="B29" s="116" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="116" t="s">
-        <v>270</v>
-      </c>
-      <c r="D29" s="116" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="164"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="166"/>
-    </row>
-    <row r="30" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A30" s="167" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="58" t="s">
+        <v>[Mod_login-14]</v>
+      </c>
+      <c r="B24" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="169"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A31" s="157" t="str">
-        <f t="shared" si="1"/>
-        <v>[Mod_login-21]</v>
-      </c>
-      <c r="B31" s="116" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="116" t="s">
-        <v>271</v>
-      </c>
-      <c r="D31" s="116" t="s">
-        <v>214</v>
-      </c>
-      <c r="E31" s="164"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="166"/>
+      <c r="D24" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="164"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6910,7 +6475,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F12:G20 F22:G24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F12:G13 F15:G17">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G8">
@@ -6935,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
@@ -6944,8 +6509,8 @@
     <col min="1" max="1" width="18.125" style="129" customWidth="1"/>
     <col min="2" max="2" width="42.125" style="104" customWidth="1"/>
     <col min="3" max="3" width="33" style="104" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="104" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="104" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="104" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="104" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="104" customWidth="1"/>
     <col min="7" max="7" width="7.375" style="104" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="108" customWidth="1"/>
@@ -6959,7 +6524,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="130" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="131" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -6972,46 +6537,46 @@
       <c r="A2" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
       <c r="J2" s="94" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="130" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="135" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="207" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
+        <v>124</v>
+      </c>
+      <c r="B3" s="220" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
       <c r="J3" s="94" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="130" customFormat="1" ht="14.25">
       <c r="A4" s="134" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="208" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
+        <v>126</v>
+      </c>
+      <c r="B4" s="221" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:10" s="130" customFormat="1" ht="14.25">
@@ -7022,16 +6587,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D5" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="211" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
+      <c r="E5" s="224" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
       <c r="J5" s="94" t="s">
         <v>29</v>
       </c>
@@ -7047,18 +6612,18 @@
       </c>
       <c r="C6" s="100">
         <f>E6-D6-B6-A6</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6" s="101">
         <f>COUNTIF(F11:G708,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="210">
-        <f>COUNTA(A11:A265)*2</f>
-        <v>12</v>
-      </c>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
+      <c r="E6" s="223">
+        <f>COUNTA(A11:A265)</f>
+        <v>5</v>
+      </c>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
       <c r="J6" s="94" t="s">
         <v>27</v>
       </c>
@@ -7089,25 +6654,25 @@
         <v>30</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D10" s="57" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I10" s="57" t="s">
         <v>36</v>
@@ -7116,7 +6681,7 @@
     <row r="11" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="167"/>
       <c r="B11" s="168" t="s">
-        <v>372</v>
+        <v>294</v>
       </c>
       <c r="C11" s="167"/>
       <c r="D11" s="167"/>
@@ -7127,26 +6692,31 @@
       <c r="I11" s="169"/>
     </row>
     <row r="12" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="222"/>
-      <c r="B12" s="223" t="s">
-        <v>369</v>
-      </c>
-      <c r="C12" s="223" t="s">
-        <v>370</v>
-      </c>
-      <c r="D12" s="223" t="s">
-        <v>371</v>
-      </c>
-      <c r="E12" s="224"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="225"/>
-      <c r="I12" s="226"/>
+      <c r="A12" s="157" t="str">
+        <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Admin_login-2]</v>
+      </c>
+      <c r="B12" s="205" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="205" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="205" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="170" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="207"/>
     </row>
     <row r="13" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="167"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="168" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="C13" s="167"/>
       <c r="D13" s="167"/>
@@ -7157,22 +6727,31 @@
       <c r="I13" s="169"/>
     </row>
     <row r="14" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="157"/>
+      <c r="A14" s="157" t="str">
+        <f t="shared" si="0"/>
+        <v>[Admin_login-4]</v>
+      </c>
       <c r="B14" s="116" t="s">
-        <v>375</v>
-      </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="164"/>
+        <v>302</v>
+      </c>
+      <c r="C14" s="116" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="116" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="164" t="s">
+        <v>306</v>
+      </c>
       <c r="F14" s="116"/>
       <c r="G14" s="116"/>
       <c r="H14" s="165"/>
       <c r="I14" s="165"/>
     </row>
     <row r="15" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="167"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="168" t="s">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="C15" s="167"/>
       <c r="D15" s="167"/>
@@ -7183,25 +6762,34 @@
       <c r="I15" s="169"/>
     </row>
     <row r="16" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="157"/>
+      <c r="A16" s="157" t="str">
+        <f t="shared" si="0"/>
+        <v>[Admin_login-6]</v>
+      </c>
       <c r="B16" s="116" t="s">
-        <v>376</v>
-      </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="164"/>
+        <v>308</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="116" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="164" t="s">
+        <v>311</v>
+      </c>
       <c r="F16" s="116"/>
       <c r="G16" s="116"/>
       <c r="H16" s="165"/>
       <c r="I16" s="165"/>
     </row>
     <row r="17" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="167"/>
-      <c r="B17" s="168" t="s">
-        <v>377</v>
-      </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="167"/>
       <c r="F17" s="167"/>
       <c r="G17" s="167"/>
@@ -7209,10 +6797,19 @@
       <c r="I17" s="169"/>
     </row>
     <row r="18" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="157"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
+      <c r="A18" s="157" t="str">
+        <f t="shared" ref="A18:A19" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Admin_login-8]</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="120" t="s">
+        <v>236</v>
+      </c>
       <c r="E18" s="164"/>
       <c r="F18" s="116"/>
       <c r="G18" s="116"/>
@@ -7220,10 +6817,19 @@
       <c r="I18" s="165"/>
     </row>
     <row r="19" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="157"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
+      <c r="A19" s="157" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-9]</v>
+      </c>
+      <c r="B19" s="90" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="190" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="194" t="s">
+        <v>237</v>
+      </c>
       <c r="E19" s="164"/>
       <c r="F19" s="116"/>
       <c r="G19" s="116"/>
@@ -7231,177 +6837,122 @@
       <c r="I19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="157"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="166"/>
+      <c r="A20" s="225"/>
+      <c r="B20" s="226"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="229"/>
       <c r="J20" s="104"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="169"/>
+      <c r="A21" s="230"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="230"/>
+      <c r="I21" s="230"/>
       <c r="J21" s="104"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="157" t="str">
-        <f t="shared" ref="A22:A23" si="0">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin_login-12]</v>
-      </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="116" t="s">
-        <v>272</v>
-      </c>
-      <c r="E22" s="170" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="166"/>
+      <c r="A22" s="194"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="231"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="232"/>
+      <c r="I22" s="233"/>
       <c r="J22" s="104"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="157" t="str">
-        <f t="shared" si="0"/>
-        <v>[Admin_login-13]</v>
-      </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116" t="s">
-        <v>273</v>
-      </c>
-      <c r="D23" s="171" t="s">
-        <v>274</v>
-      </c>
-      <c r="E23" s="170" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="166"/>
+      <c r="A23" s="194"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="233"/>
       <c r="J23" s="104"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="169"/>
+      <c r="A24" s="230"/>
+      <c r="B24" s="230"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="230"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="230"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="230"/>
       <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="157" t="str">
-        <f t="shared" ref="A25" si="1">IF(OR(B25&lt;&gt;"",D25&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin_login-15]</v>
-      </c>
-      <c r="B25" s="116" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" s="116" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="171" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="170" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="166"/>
+      <c r="A25" s="194"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="233"/>
       <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="167"/>
-      <c r="B26" s="168" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="169"/>
+      <c r="A26" s="230"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="230"/>
       <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="157" t="str">
-        <f t="shared" ref="A27:A29" si="2">IF(OR(B27&lt;&gt;"",D27&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin_login-17]</v>
-      </c>
-      <c r="B27" s="116" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="116" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" s="171" t="s">
-        <v>279</v>
-      </c>
-      <c r="E27" s="170"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="166"/>
+      <c r="A27" s="194"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="234"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="232"/>
+      <c r="I27" s="233"/>
       <c r="J27" s="104"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A28" s="167" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="168" t="s">
-        <v>282</v>
-      </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="169"/>
+      <c r="A28" s="230"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="230"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="157" t="str">
-        <f t="shared" si="2"/>
-        <v>[Admin_login-19]</v>
-      </c>
-      <c r="B29" s="116" t="s">
-        <v>283</v>
-      </c>
-      <c r="C29" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="D29" s="171" t="s">
-        <v>281</v>
-      </c>
-      <c r="E29" s="170"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="166"/>
+      <c r="A29" s="194"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="236"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="232"/>
+      <c r="I29" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7423,8 +6974,8 @@
     <hyperlink ref="A1" location="'Test Report'!A1" display="Back to Test Report"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover" sheetId="1" r:id="rId1"/>
-    <sheet name="Test case List" sheetId="2" r:id="rId2"/>
+    <sheet name="表紙" sheetId="1" r:id="rId1"/>
+    <sheet name="テスト報告" sheetId="2" r:id="rId2"/>
     <sheet name="Test Report" sheetId="5" r:id="rId3"/>
     <sheet name="Message Rules" sheetId="11" r:id="rId4"/>
     <sheet name="User Module" sheetId="9" r:id="rId5"/>
     <sheet name="Mod Module" sheetId="12" r:id="rId6"/>
     <sheet name="Admin Module" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACTION" localSheetId="3">#REF!</definedName>
@@ -76,7 +75,26 @@
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
-          <t xml:space="preserve">: Add
+          <t xml:space="preserve">: Add </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐ明朝"/>
+            <family val="1"/>
+            <charset val="128"/>
+          </rPr>
+          <t>（追加）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">
   </t>
         </r>
         <r>
@@ -96,7 +114,26 @@
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
-          <t xml:space="preserve">: Modify
+          <t xml:space="preserve">: Modify </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐ明朝"/>
+            <family val="1"/>
+            <charset val="128"/>
+          </rPr>
+          <t>（修正）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">
   </t>
         </r>
         <r>
@@ -116,7 +153,26 @@
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
-          <t xml:space="preserve">: Delete
+          <t xml:space="preserve">: Delete </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐ明朝"/>
+            <family val="1"/>
+            <charset val="128"/>
+          </rPr>
+          <t>（削除）</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -258,10 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="315">
-  <si>
-    <t>TEST CASE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="322">
   <si>
     <t>Project Name</t>
   </si>
@@ -279,27 +332,6 @@
   </si>
   <si>
     <t>Issue Date</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Record of change</t>
-  </si>
-  <si>
-    <t>Effective Date</t>
-  </si>
-  <si>
-    <t>Change Item</t>
-  </si>
-  <si>
-    <t>*A,D,M</t>
-  </si>
-  <si>
-    <t>Change description</t>
-  </si>
-  <si>
-    <t>Reference</t>
   </si>
   <si>
     <t>TEST CASE LIST</t>
@@ -1378,6 +1410,156 @@
     <t xml:space="preserve">1. Login VMN system by Admin role.
 </t>
   </si>
+  <si>
+    <t>変更履歴</t>
+  </si>
+  <si>
+    <t>発効日</t>
+    <rPh sb="0" eb="2">
+      <t>はっこう</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ﾆﾁ</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>版数</t>
+    <rPh sb="0" eb="2">
+      <t>はんすう</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>変更項目</t>
+    <rPh sb="0" eb="2">
+      <t>へんこう</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>こうもく</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>M</t>
+    </r>
+  </si>
+  <si>
+    <t>変更内容</t>
+    <rPh sb="0" eb="2">
+      <t>へんこう</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ないよう</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照資料</t>
+    <rPh sb="0" eb="2">
+      <t>さんしょう</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>しりょう</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト項目書</t>
+  </si>
+  <si>
+    <t>プロジェクト名</t>
+    <rPh sb="6" eb="7">
+      <t>めい</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>プロジェクトコード</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ドキュメントコード</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>作成者</t>
+  </si>
+  <si>
+    <r>
+      <t>レビュー者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="60"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="60"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>承認者</t>
+    </r>
+  </si>
+  <si>
+    <t>発行日</t>
+  </si>
+  <si>
+    <t>QuynhHTSE02639</t>
+  </si>
 </sst>
 </file>
 
@@ -1386,7 +1568,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1609,8 +1791,38 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="60"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1675,6 +1887,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080"/>
+        <bgColor indexed="32"/>
       </patternFill>
     </fill>
   </fills>
@@ -2408,7 +2626,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2430,9 +2648,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2441,20 +2656,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2964,14 +3167,43 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="47" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3013,37 +3245,27 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="36" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -3176,14 +3398,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3563,8 +3785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -3582,13 +3804,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="208" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
+      <c r="C2" s="215" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -3596,168 +3818,168 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="209" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>178</v>
+      <c r="B4" s="236" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="216" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="236" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="209" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>182</v>
+      <c r="B5" s="236" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="216" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="236" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="211" t="str">
+      <c r="B6" s="237" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="217" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="85">
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="236" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" s="80">
         <v>42422</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="210"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="146" t="s">
-        <v>45</v>
+      <c r="B7" s="238"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="236" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="141" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="15" customFormat="1">
-      <c r="B11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="19" customFormat="1">
-      <c r="B12" s="86">
+      <c r="B10" s="231" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1">
+      <c r="B11" s="232" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="233" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="233" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="234" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="233" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="235" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1">
+      <c r="B12" s="81">
         <v>42422</v>
       </c>
-      <c r="C12" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88" t="s">
+      <c r="C12" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B16" s="23"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="2:7" s="19" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B17" s="23"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="2:7" s="19" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="G12" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B15" s="18"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.75" customHeight="1">
+      <c r="B17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3787,212 +4009,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="28.125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="25" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="25.5">
-      <c r="B1" s="31"/>
-      <c r="D1" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="33"/>
+      <c r="B1" s="26"/>
+      <c r="D1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B2" s="31"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="26"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="220" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="220"/>
+      <c r="D3" s="221" t="str">
+        <f>表紙!C4</f>
+        <v>Vietnamese Medicinal Plants Network</v>
+      </c>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="220" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="220"/>
+      <c r="D4" s="221" t="str">
+        <f>表紙!C5</f>
+        <v>VMN</v>
+      </c>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+    </row>
+    <row r="5" spans="2:6" s="30" customFormat="1" ht="72" customHeight="1">
+      <c r="B5" s="218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="218"/>
+      <c r="D5" s="219" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="2:6" s="33" customFormat="1">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="2:6" s="36" customFormat="1" ht="21" customHeight="1">
+      <c r="B8" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="25.5">
+      <c r="B9" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="215" t="str">
-        <f>Cover!C4</f>
-        <v>Vietnamese Medicinal Plants Network</v>
-      </c>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="214" t="s">
+      <c r="C9" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="25.5">
+      <c r="B10" s="41">
+        <v>2</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="184" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="25.5">
+      <c r="B11" s="41">
         <v>3</v>
       </c>
-      <c r="C4" s="214"/>
-      <c r="D4" s="215" t="str">
-        <f>Cover!C5</f>
-        <v>VMN</v>
-      </c>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-    </row>
-    <row r="5" spans="2:6" s="35" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="212" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="212"/>
-      <c r="D5" s="213" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-    </row>
-    <row r="7" spans="2:6" s="38" customFormat="1">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="2:6" s="41" customFormat="1" ht="21" customHeight="1">
-      <c r="B8" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="25.5">
-      <c r="B9" s="46">
-        <v>1</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="142" t="s">
+      <c r="C11" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="25.5">
-      <c r="B10" s="46">
-        <v>2</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="189" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="112" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="25.5">
-      <c r="B11" s="46">
-        <v>3</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="142" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="112" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="12" spans="2:6" ht="13.5">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="2:6" ht="13.5">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="49"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4041,306 +4263,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="218" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
+      <c r="B1" s="224" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8" ht="12" customHeight="1">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="221" t="str">
+        <f>表紙!C4</f>
+        <v>Vietnamese Medicinal Plants Network</v>
+      </c>
+      <c r="D3" s="221"/>
+      <c r="E3" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="215" t="str">
-        <f>Cover!C4</f>
-        <v>Vietnamese Medicinal Plants Network</v>
-      </c>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216" t="s">
+      <c r="F3" s="222"/>
+      <c r="G3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8" ht="12" customHeight="1">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="216"/>
-      <c r="G3" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="64"/>
-    </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1">
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="221" t="str">
+        <f>表紙!C5</f>
+        <v>VMN</v>
+      </c>
+      <c r="D4" s="221"/>
+      <c r="E4" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="215" t="str">
-        <f>Cover!C5</f>
-        <v>VMN</v>
-      </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216" t="s">
+      <c r="F4" s="222"/>
+      <c r="G4" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="1:8" ht="12" customHeight="1">
+      <c r="B5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="216"/>
-      <c r="G4" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" s="64"/>
-    </row>
-    <row r="5" spans="1:8" ht="12" customHeight="1">
-      <c r="B5" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="215" t="str">
+      <c r="C5" s="221" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="216"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="66"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="222" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="222"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="70"/>
-      <c r="B10" s="143" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>40</v>
+      <c r="F10" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="70"/>
-      <c r="B11" s="144">
+      <c r="A11" s="65"/>
+      <c r="B11" s="139">
         <v>1</v>
       </c>
-      <c r="C11" s="142" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="75">
+      <c r="C11" s="137" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="70">
         <f>'User Module'!A6</f>
         <v>0</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="70">
         <f>'User Module'!B6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="75">
+      <c r="F11" s="70">
         <f>'User Module'!C6</f>
         <v>48</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="70">
         <f>'User Module'!D6</f>
         <v>0</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="71">
         <f>'User Module'!E6</f>
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="144">
+      <c r="A12" s="69"/>
+      <c r="B12" s="139">
         <v>2</v>
       </c>
-      <c r="C12" s="189" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="75">
+      <c r="C12" s="184" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="70">
         <f>'Mod Module'!A6</f>
         <v>0</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="70">
         <f>'Mod Module'!B6</f>
         <v>0</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="70">
         <f>'Mod Module'!C6</f>
         <v>20</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="70">
         <f>'Mod Module'!D6</f>
         <v>0</v>
       </c>
-      <c r="H12" s="76">
+      <c r="H12" s="71">
         <f>'Mod Module'!E6</f>
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="74"/>
-      <c r="B13" s="144">
+      <c r="A13" s="69"/>
+      <c r="B13" s="139">
         <v>3</v>
       </c>
-      <c r="C13" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="75">
+      <c r="C13" s="137" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="70">
         <f>'Admin Module'!A6</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E13" s="70">
         <f>'Admin Module'!B6</f>
         <v>0</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="70">
         <f>'Admin Module'!C6</f>
         <v>5</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="70">
         <f>'Admin Module'!D6</f>
         <v>0</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="71">
         <f>'Admin Module'!E6</f>
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="69"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="78">
+      <c r="A14" s="64"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="73">
         <f>SUM(D11:D13)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="73">
         <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="73">
         <f>SUM(F11:F13)</f>
         <v>73</v>
       </c>
-      <c r="G14" s="78">
+      <c r="G14" s="73">
         <f>SUM(G9:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="74">
         <f>SUM(H11:H13)</f>
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="69"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="84">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="79">
         <f>(D14+E14)*100/(H14-G14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="55"/>
+      <c r="F16" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="69"/>
-      <c r="C17" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="84">
+      <c r="B17" s="64"/>
+      <c r="C17" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="79">
         <f>D14*100/(H14-G14)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="55"/>
+      <c r="F17" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
     </row>
     <row r="19" spans="2:8" ht="14.25">
-      <c r="C19" s="188"/>
+      <c r="C19" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4382,301 +4604,301 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="147" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="147" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="147" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="147"/>
+    <col min="1" max="1" width="14.125" style="142" customWidth="1"/>
+    <col min="2" max="2" width="52.875" style="142" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="142" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="142"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="219" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
+      <c r="A1" s="225" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="148" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="149" t="s">
+      <c r="A3" s="143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="145" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="146" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="147" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="147"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="147"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="146" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="147" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="147"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="B7" s="147" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="151" t="s">
+      <c r="C7" s="147"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B8" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="152"/>
-    </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="151" t="s">
+      <c r="C8" s="147"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B9" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="152"/>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="151" t="s">
+      <c r="C9" s="147"/>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="152" t="s">
+      <c r="B10" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="152"/>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="151" t="s">
+      <c r="C10" s="147"/>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="152" t="s">
+      <c r="B11" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="152"/>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="151" t="s">
+      <c r="C11" s="147"/>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B12" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="152"/>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="151" t="s">
+      <c r="C12" s="147"/>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="152" t="s">
+      <c r="B13" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="152"/>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="151" t="s">
+      <c r="C13" s="147"/>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="152" t="s">
+      <c r="B14" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="152"/>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="151" t="s">
+      <c r="C14" s="147"/>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="152" t="s">
+      <c r="B15" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="152"/>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="151" t="s">
+      <c r="C15" s="147"/>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="152" t="s">
+      <c r="B16" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="152"/>
-    </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="A13" s="151" t="s">
+      <c r="C16" s="147"/>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="152" t="s">
+      <c r="B17" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="152"/>
-    </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="A14" s="151" t="s">
+      <c r="C17" s="147"/>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="153" t="s">
+      <c r="B18" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="152"/>
-    </row>
-    <row r="15" spans="1:3" ht="15">
-      <c r="A15" s="151" t="s">
+      <c r="C18" s="147"/>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B19" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="152"/>
-    </row>
-    <row r="16" spans="1:3" ht="15">
-      <c r="A16" s="151" t="s">
+      <c r="C19" s="147"/>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="152" t="s">
+      <c r="B20" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="152"/>
-    </row>
-    <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="151" t="s">
+      <c r="C20" s="147"/>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="152" t="s">
+      <c r="B21" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="152"/>
-    </row>
-    <row r="18" spans="1:3" ht="15">
-      <c r="A18" s="151" t="s">
+      <c r="C21" s="147"/>
+    </row>
+    <row r="22" spans="1:3" ht="60">
+      <c r="A22" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="152" t="s">
+      <c r="B22" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="152"/>
-    </row>
-    <row r="19" spans="1:3" ht="15">
-      <c r="A19" s="151" t="s">
+      <c r="C22" s="147"/>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="153" t="s">
+      <c r="B23" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="152"/>
-    </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="A20" s="151" t="s">
+      <c r="C23" s="147"/>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="153" t="s">
+      <c r="B24" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="152"/>
-    </row>
-    <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="151" t="s">
+      <c r="C24" s="147"/>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="153" t="s">
+      <c r="B25" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="152"/>
-    </row>
-    <row r="22" spans="1:3" ht="60">
-      <c r="A22" s="151" t="s">
+      <c r="C25" s="147"/>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="154" t="s">
+      <c r="B26" s="147" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="152"/>
-    </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="151" t="s">
+      <c r="C26" s="147"/>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="152" t="s">
+      <c r="B27" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="152"/>
-    </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="151" t="s">
+      <c r="C27" s="147"/>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B28" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="152"/>
-    </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="151" t="s">
+      <c r="C28" s="147"/>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="152" t="s">
+      <c r="B29" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="152"/>
-    </row>
-    <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="155" t="s">
+      <c r="C29" s="147"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="152" t="s">
+      <c r="B30" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="152"/>
-    </row>
-    <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="155" t="s">
+      <c r="C30" s="147"/>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="150" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="152"/>
-    </row>
-    <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="155" t="s">
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="150" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="152" t="s">
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="152"/>
-    </row>
-    <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="155" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="152" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="152"/>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="155" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="152" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="152"/>
-    </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="155" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="152"/>
-      <c r="C31" s="152"/>
-    </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="155" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="152"/>
-      <c r="C32" s="152"/>
-    </row>
-    <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="155" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-    </row>
-    <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="155" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4702,1312 +4924,1312 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="129" customWidth="1"/>
-    <col min="2" max="2" width="39.875" style="104" customWidth="1"/>
-    <col min="3" max="3" width="33" style="104" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="104" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="104" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="104" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="104" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="108" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="104" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="107" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="15.125" style="104"/>
+    <col min="1" max="1" width="15.125" style="124" customWidth="1"/>
+    <col min="2" max="2" width="39.875" style="99" customWidth="1"/>
+    <col min="3" max="3" width="33" style="99" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="99" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="99" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="99" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="99" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="103" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="99" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="102" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="15.125" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="A1" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="226" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A3" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="226" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A4" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="227" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="89"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A5" s="119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="228" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="220" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A3" s="123" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="220" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="122" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="221" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="222" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="125">
+      <c r="A6" s="120">
         <f>COUNTIF(F11:G226,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="95">
         <f>COUNTIF(F11:G673,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="95">
         <f>E6-D6-B6-A6</f>
         <v>48</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="96">
         <f>COUNTIF(F11:G673,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="223">
+      <c r="E6" s="229">
         <f>COUNTA(A11:A230)</f>
         <v>48</v>
       </c>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94" t="s">
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A9" s="121"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="94"/>
+    </row>
+    <row r="10" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A10" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A9" s="126"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="99"/>
-    </row>
-    <row r="10" spans="1:10" ht="48.75" customHeight="1">
-      <c r="A10" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="94"/>
+      <c r="I10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A11" s="201"/>
-      <c r="B11" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="94"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A12" s="202" t="str">
+      <c r="A12" s="197" t="str">
         <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-2]</v>
       </c>
-      <c r="B12" s="120" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="120" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="120" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="94"/>
+      <c r="B12" s="115" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="112"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A13" s="203"/>
-      <c r="B13" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="94"/>
+      <c r="A13" s="198"/>
+      <c r="B13" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="89"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="202" t="str">
+      <c r="A14" s="197" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-4]</v>
       </c>
-      <c r="B14" s="90" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="120" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="94"/>
+      <c r="B14" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="115" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A15" s="202" t="str">
+      <c r="A15" s="197" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-5]</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="190" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="194" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="190"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="191"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="94"/>
+      <c r="B15" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="185" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="189" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="185"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A16" s="203"/>
-      <c r="B16" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="94"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="89"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="202" t="str">
+      <c r="A17" s="197" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-7]</v>
       </c>
-      <c r="B17" s="90" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="90" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="90" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="90" t="s">
-        <v>226</v>
-      </c>
-      <c r="F17" s="116"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="94"/>
+      <c r="B17" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="111"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="89"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="203"/>
-      <c r="B18" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="94"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="89"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A19" s="90" t="str">
+      <c r="A19" s="85" t="str">
         <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-9]</v>
       </c>
-      <c r="B19" s="90" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="105" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="94"/>
+      <c r="B19" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="98"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="90" t="str">
+      <c r="A20" s="85" t="str">
         <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-10]</v>
       </c>
-      <c r="B20" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="103" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="94"/>
+      <c r="B20" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="111"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="203" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="104"/>
+      <c r="A21" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="90" t="str">
+      <c r="A22" s="85" t="str">
         <f t="shared" ref="A22:A26" si="1">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-12]</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="98" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="105" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" s="103" t="s">
-        <v>281</v>
-      </c>
-      <c r="E22" s="103" t="s">
-        <v>287</v>
-      </c>
-      <c r="F22" s="116"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="104"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="203" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="104"/>
+      <c r="A23" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="90" t="str">
+      <c r="A24" s="85" t="str">
         <f t="shared" si="1"/>
         <v>[User Module-14]</v>
       </c>
-      <c r="B24" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="C24" s="105" t="s">
-        <v>283</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>284</v>
-      </c>
-      <c r="E24" s="103" t="s">
-        <v>288</v>
-      </c>
-      <c r="F24" s="116"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="104"/>
+      <c r="B24" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="111"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="99"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="203" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="196"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="104"/>
+      <c r="A25" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="99"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="90" t="str">
+      <c r="A26" s="85" t="str">
         <f t="shared" si="1"/>
         <v>[User Module-16]</v>
       </c>
-      <c r="B26" s="90" t="s">
-        <v>289</v>
-      </c>
-      <c r="C26" s="105" t="s">
-        <v>290</v>
-      </c>
-      <c r="D26" s="195" t="s">
-        <v>291</v>
-      </c>
-      <c r="E26" s="197" t="s">
-        <v>292</v>
-      </c>
-      <c r="F26" s="116"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="104"/>
+      <c r="B26" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="190" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26" s="192" t="s">
+        <v>284</v>
+      </c>
+      <c r="F26" s="111"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="204" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="161" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="104"/>
+      <c r="A27" s="199" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="156" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="99"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A28" s="116" t="str">
+      <c r="A28" s="111" t="str">
         <f t="shared" ref="A28:A44" si="2">IF(OR(B28&lt;&gt;"",D28&lt;E27&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-18]</v>
       </c>
-      <c r="B28" s="116" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="116" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28" s="116" t="s">
-        <v>246</v>
-      </c>
-      <c r="E28" s="117" t="s">
-        <v>241</v>
-      </c>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="104"/>
+      <c r="B28" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="111" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="111" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="99"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A29" s="204" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="161" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="104"/>
+      <c r="A29" s="199" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="156" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A30" s="116" t="str">
+      <c r="A30" s="111" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-20]</v>
       </c>
-      <c r="B30" s="116" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" s="116" t="s">
-        <v>244</v>
-      </c>
-      <c r="D30" s="116" t="s">
-        <v>245</v>
-      </c>
-      <c r="E30" s="117" t="s">
-        <v>247</v>
-      </c>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="104"/>
+      <c r="B30" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="111" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="99"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="204" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="161" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="104"/>
+      <c r="A31" s="199" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="156" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="99"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A32" s="116" t="str">
+      <c r="A32" s="111" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-22]</v>
       </c>
-      <c r="B32" s="116" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" s="116" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" s="116" t="s">
-        <v>251</v>
-      </c>
-      <c r="E32" s="117" t="s">
-        <v>250</v>
-      </c>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="104"/>
+      <c r="B32" s="111" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="111" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="111" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="99"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A33" s="204" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" s="161" t="s">
-        <v>273</v>
-      </c>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="104"/>
+      <c r="A33" s="199" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="156" t="s">
+        <v>265</v>
+      </c>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="99"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A34" s="116" t="str">
+      <c r="A34" s="111" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-24]</v>
       </c>
-      <c r="B34" s="116" t="s">
-        <v>274</v>
-      </c>
-      <c r="C34" s="116" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="116" t="s">
-        <v>276</v>
-      </c>
-      <c r="E34" s="117" t="s">
-        <v>277</v>
-      </c>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="104"/>
+      <c r="B34" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="111" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="112" t="s">
+        <v>269</v>
+      </c>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="99"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="204" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" s="161" t="s">
-        <v>270</v>
-      </c>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="104"/>
+      <c r="A35" s="199" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="156" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="99"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A36" s="116" t="str">
+      <c r="A36" s="111" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-26]</v>
       </c>
-      <c r="B36" s="116" t="s">
-        <v>268</v>
-      </c>
-      <c r="C36" s="116" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="116" t="s">
-        <v>271</v>
-      </c>
-      <c r="E36" s="117" t="s">
-        <v>272</v>
-      </c>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="104"/>
+      <c r="B36" s="111" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="99"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A37" s="204" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" s="161" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="104"/>
+      <c r="A37" s="199" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="156" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="99"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A38" s="116" t="str">
+      <c r="A38" s="111" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-28]</v>
       </c>
-      <c r="B38" s="116" t="s">
+      <c r="B38" s="111" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="C38" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D38" s="116" t="s">
-        <v>254</v>
-      </c>
-      <c r="E38" s="117" t="s">
-        <v>255</v>
-      </c>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="104"/>
+      <c r="D38" s="111" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="99"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="204" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="161" t="s">
-        <v>256</v>
-      </c>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="104"/>
-    </row>
-    <row r="40" spans="1:10" s="161" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A40" s="116" t="str">
+      <c r="A39" s="199" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="156" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="99"/>
+    </row>
+    <row r="40" spans="1:10" s="156" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A40" s="111" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-30]</v>
       </c>
-      <c r="B40" s="116" t="s">
-        <v>257</v>
-      </c>
-      <c r="C40" s="116" t="s">
-        <v>258</v>
-      </c>
-      <c r="D40" s="116" t="s">
-        <v>259</v>
-      </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="119"/>
-    </row>
-    <row r="41" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A41" s="204" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="160"/>
-    </row>
-    <row r="42" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A42" s="116" t="str">
+      <c r="B40" s="111" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="111" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="111" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" s="112"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="114"/>
+    </row>
+    <row r="41" spans="1:10" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A41" s="199" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="156" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="155"/>
+    </row>
+    <row r="42" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A42" s="111" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-32]</v>
       </c>
-      <c r="B42" s="116" t="s">
-        <v>260</v>
-      </c>
-      <c r="C42" s="116" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" s="116" t="s">
-        <v>263</v>
-      </c>
-      <c r="E42" s="117" t="s">
-        <v>264</v>
-      </c>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="119"/>
-    </row>
-    <row r="43" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="204" t="s">
-        <v>182</v>
-      </c>
-      <c r="B43" s="161" t="s">
-        <v>265</v>
-      </c>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="160"/>
-    </row>
-    <row r="44" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A44" s="116" t="str">
+      <c r="B42" s="111" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="111" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="114"/>
+    </row>
+    <row r="43" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A43" s="199" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="156" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="155"/>
+    </row>
+    <row r="44" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A44" s="111" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-34]</v>
       </c>
-      <c r="B44" s="116" t="s">
-        <v>257</v>
-      </c>
-      <c r="C44" s="116" t="s">
-        <v>267</v>
-      </c>
-      <c r="D44" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="E44" s="117"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="119"/>
-    </row>
-    <row r="45" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A45" s="183"/>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="184"/>
-      <c r="H45" s="185"/>
-      <c r="I45" s="186"/>
-    </row>
-    <row r="46" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A46" s="183"/>
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="184"/>
-      <c r="H46" s="185"/>
-      <c r="I46" s="186"/>
-    </row>
-    <row r="47" spans="1:10" s="180" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="161"/>
-      <c r="B47" s="161" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="161"/>
-      <c r="D47" s="161"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="161"/>
-    </row>
-    <row r="48" spans="1:10" s="161" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A48" s="176"/>
-      <c r="B48" s="177" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="178"/>
-    </row>
-    <row r="49" spans="1:9" s="181" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A49" s="116" t="str">
+      <c r="B44" s="111" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="111" t="s">
+        <v>259</v>
+      </c>
+      <c r="D44" s="111" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" s="112"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="114"/>
+    </row>
+    <row r="45" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A45" s="178"/>
+      <c r="B45" s="179"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="179"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="180"/>
+      <c r="I45" s="181"/>
+    </row>
+    <row r="46" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A46" s="178"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="181"/>
+    </row>
+    <row r="47" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A47" s="156"/>
+      <c r="B47" s="156" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="156"/>
+    </row>
+    <row r="48" spans="1:10" s="156" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A48" s="171"/>
+      <c r="B48" s="172" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="173"/>
+      <c r="D48" s="173"/>
+      <c r="E48" s="173"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="173"/>
+      <c r="H48" s="173"/>
+      <c r="I48" s="173"/>
+    </row>
+    <row r="49" spans="1:9" s="176" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A49" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A48)+1)</f>
         <v>ID-32</v>
       </c>
-      <c r="B49" s="116" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="116" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="179" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="181" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A50" s="116" t="str">
+      <c r="B49" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="174" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="176" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A50" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A49)+1)</f>
         <v>ID-33</v>
       </c>
-      <c r="B50" s="116" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="116"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="179" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="181" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A51" s="116" t="str">
+      <c r="B50" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="111" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="174" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="176" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A51" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A50)+1)</f>
         <v>ID-34</v>
       </c>
-      <c r="B51" s="116" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="116" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="116"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="179" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="180" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A52" s="116" t="str">
+      <c r="B51" s="111" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="111" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="174" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A52" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A51)+1)</f>
         <v>ID-35</v>
       </c>
-      <c r="B52" s="116" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="116" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="E52" s="116"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="179" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A53" s="116" t="str">
+      <c r="B52" s="111" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="174" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A53" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A52)+1)</f>
         <v>ID-36</v>
       </c>
-      <c r="B53" s="116" t="s">
-        <v>293</v>
-      </c>
-      <c r="C53" s="116" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="179" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A54" s="161"/>
-      <c r="B54" s="161" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="161"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-    </row>
-    <row r="55" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A55" s="116" t="str">
+      <c r="B53" s="111" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" s="111" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="174" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A54" s="156"/>
+      <c r="B54" s="156" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+    </row>
+    <row r="55" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A55" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A54)+1)</f>
         <v>ID-37</v>
       </c>
-      <c r="B55" s="116" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="116" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="116" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A56" s="116" t="str">
+      <c r="B55" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A56" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A55)+1)</f>
         <v>ID-38</v>
       </c>
-      <c r="B56" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="116" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="116" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A57" s="116" t="str">
+      <c r="B56" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A57" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A56)+1)</f>
         <v>ID-39</v>
       </c>
-      <c r="B57" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="116" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A58" s="116" t="str">
+      <c r="B57" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A58" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A57)+1)</f>
         <v>ID-40</v>
       </c>
-      <c r="B58" s="116" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="116" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" s="116" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116" t="s">
+      <c r="B58" s="111" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A59" s="116" t="str">
+      <c r="C58" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A59" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A58)+1)</f>
         <v>ID-41</v>
       </c>
-      <c r="B59" s="116" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A60" s="116" t="str">
+      <c r="B59" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A60" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A59)+1)</f>
         <v>ID-42</v>
       </c>
-      <c r="B60" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116" t="s">
-        <v>138</v>
+      <c r="B60" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="111"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="111" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A61" s="116" t="str">
+      <c r="A61" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A60)+1)</f>
         <v>ID-43</v>
       </c>
-      <c r="B61" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="116" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="116" t="s">
-        <v>156</v>
-      </c>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116" t="s">
-        <v>138</v>
+      <c r="B61" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A62" s="116" t="str">
+      <c r="A62" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A61)+1)</f>
         <v>ID-44</v>
       </c>
-      <c r="B62" s="116" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="D62" s="116" t="s">
-        <v>159</v>
-      </c>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116" t="s">
-        <v>138</v>
+      <c r="B62" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="111"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="111"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="111" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A63" s="116" t="str">
+      <c r="A63" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A62)+1)</f>
         <v>ID-45</v>
       </c>
-      <c r="B63" s="116" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="116" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="116" t="s">
-        <v>162</v>
-      </c>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116" t="s">
-        <v>138</v>
+      <c r="B63" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="111"/>
+      <c r="I63" s="111" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A64" s="116" t="str">
+      <c r="A64" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A63)+1)</f>
         <v>ID-46</v>
       </c>
-      <c r="B64" s="116" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" s="116" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" s="116" t="s">
-        <v>165</v>
-      </c>
-      <c r="E64" s="116"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116" t="s">
-        <v>138</v>
+      <c r="B64" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="111"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="111" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A65" s="116" t="str">
+      <c r="A65" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A64)+1)</f>
         <v>ID-47</v>
       </c>
-      <c r="B65" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="116" t="s">
-        <v>168</v>
-      </c>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116" t="s">
-        <v>138</v>
+      <c r="B65" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="111" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="111" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A66" s="116" t="str">
+      <c r="A66" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A65)+1)</f>
         <v>ID-48</v>
       </c>
-      <c r="B66" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="C66" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="D66" s="116" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66" s="116"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="116"/>
-      <c r="H66" s="116"/>
-      <c r="I66" s="116" t="s">
-        <v>138</v>
+      <c r="B66" s="111" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="111" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A67" s="116" t="str">
+      <c r="A67" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A66)+1)</f>
         <v>ID-49</v>
       </c>
-      <c r="B67" s="116" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="116" t="s">
-        <v>173</v>
-      </c>
-      <c r="D67" s="116" t="s">
-        <v>174</v>
-      </c>
-      <c r="E67" s="116"/>
-      <c r="F67" s="116"/>
-      <c r="G67" s="116"/>
-      <c r="H67" s="116"/>
-      <c r="I67" s="116" t="s">
-        <v>138</v>
+      <c r="B67" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="111"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6062,409 +6284,409 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="129" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="104" customWidth="1"/>
-    <col min="3" max="3" width="33" style="104" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="104" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="104" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="104" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="104" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="108" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="104" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="107" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="104" customWidth="1"/>
-    <col min="12" max="16" width="15.125" style="104"/>
-    <col min="17" max="17" width="0" style="104" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="15.125" style="104"/>
+    <col min="1" max="1" width="18.125" style="124" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="99" customWidth="1"/>
+    <col min="3" max="3" width="33" style="99" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="99" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="99" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="99" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="99" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="103" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="99" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="102" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="99" customWidth="1"/>
+    <col min="12" max="16" width="15.125" style="99"/>
+    <col min="17" max="17" width="0" style="99" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="15.125" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="130" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="131" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="133"/>
-    </row>
-    <row r="2" spans="1:10" s="130" customFormat="1" ht="14.25">
-      <c r="A2" s="134" t="s">
+    <row r="1" spans="1:10" s="125" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
+    </row>
+    <row r="2" spans="1:10" s="125" customFormat="1" ht="14.25">
+      <c r="A2" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="226" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="J2" s="89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="125" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="226" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="J3" s="89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="125" customFormat="1" ht="14.25">
+      <c r="A4" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="227" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="1:10" s="125" customFormat="1" ht="14.25">
+      <c r="A5" s="131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="132" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="230" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="J5" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="220" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="J2" s="94" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="135" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="220" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="J3" s="94" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="130" customFormat="1" ht="14.25">
-      <c r="A4" s="134" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="221" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="J4" s="95"/>
-    </row>
-    <row r="5" spans="1:10" s="130" customFormat="1" ht="14.25">
-      <c r="A5" s="136" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="137" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="137" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="224" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="J5" s="94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="130" customFormat="1" ht="15" thickBot="1">
-      <c r="A6" s="125">
+    </row>
+    <row r="6" spans="1:10" s="125" customFormat="1" ht="15" thickBot="1">
+      <c r="A6" s="120">
         <f>COUNTIF(F11:G251,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="95">
         <f>COUNTIF(F11:G698,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="95">
         <f>E6-D6-B6-A6</f>
         <v>20</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="96">
         <f>COUNTIF(F11:G698,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="223">
+      <c r="E6" s="229">
         <f>COUNTA(A11:A256)*2</f>
         <v>20</v>
       </c>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="J6" s="94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="130" customFormat="1" ht="14.25">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="J7" s="94"/>
-    </row>
-    <row r="8" spans="1:10" s="130" customFormat="1" ht="14.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="J8" s="94"/>
-    </row>
-    <row r="9" spans="1:10" s="130" customFormat="1"/>
-    <row r="10" spans="1:10" s="130" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="128"/>
-      <c r="B11" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="182"/>
-    </row>
-    <row r="12" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="157" t="str">
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="J6" s="89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="125" customFormat="1" ht="14.25">
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="J7" s="89"/>
+    </row>
+    <row r="8" spans="1:10" s="125" customFormat="1" ht="14.25">
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="J8" s="89"/>
+    </row>
+    <row r="9" spans="1:10" s="125" customFormat="1"/>
+    <row r="10" spans="1:10" s="125" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A10" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="125" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="123"/>
+      <c r="B11" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="177"/>
+    </row>
+    <row r="12" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="152" t="str">
         <f t="shared" ref="A12:A13" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod_login-2]</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="120" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="162"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="163"/>
-    </row>
-    <row r="13" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="157" t="str">
+      <c r="B12" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="157"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="158"/>
+    </row>
+    <row r="13" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A13" s="152" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-3]</v>
       </c>
-      <c r="B13" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="190" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" s="194" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="187"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
+      <c r="B13" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="185" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="189" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="182"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="167"/>
-      <c r="B14" s="168" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="104"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="163" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A15" s="157"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="104"/>
+      <c r="A15" s="152"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="99"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="104"/>
+      <c r="A16" s="152"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="99"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="167" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="104"/>
+      <c r="A17" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="99"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A18" s="157" t="str">
+      <c r="A18" s="152" t="str">
         <f t="shared" ref="A18:A24" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod_login-8]</v>
       </c>
-      <c r="B18" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="90" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="166"/>
+      <c r="B18" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="165"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A19" s="167" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="169"/>
+      <c r="A19" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="164"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A20" s="157" t="str">
+      <c r="A20" s="152" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-10]</v>
       </c>
-      <c r="B20" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="116" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="116" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="164"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="166"/>
+      <c r="B20" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="159"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="161"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="167" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="167"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="169"/>
+      <c r="A21" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="164"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A22" s="157" t="str">
+      <c r="A22" s="152" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-12]</v>
       </c>
-      <c r="B22" s="116" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="116" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="116" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="164"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="166"/>
+      <c r="B22" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="111" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="159"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="161"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A23" s="167" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="169"/>
+      <c r="A23" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="164"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A24" s="157" t="str">
+      <c r="A24" s="152" t="str">
         <f t="shared" si="1"/>
         <v>[Mod_login-14]</v>
       </c>
-      <c r="B24" s="116" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="116" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="164"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="166"/>
+      <c r="B24" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="159"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6500,459 +6722,459 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="129" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="104" customWidth="1"/>
-    <col min="3" max="3" width="33" style="104" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="104" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="104" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="104" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="104" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="108" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="104" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="107" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="104" customWidth="1"/>
-    <col min="12" max="16" width="15.125" style="104"/>
-    <col min="17" max="17" width="0" style="104" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="15.125" style="104"/>
+    <col min="1" max="1" width="18.125" style="124" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="99" customWidth="1"/>
+    <col min="3" max="3" width="33" style="99" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="99" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="99" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="99" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="99" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="103" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="99" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="102" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="99" customWidth="1"/>
+    <col min="12" max="16" width="15.125" style="99"/>
+    <col min="17" max="17" width="0" style="99" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="15.125" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="130" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="131" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="133"/>
-    </row>
-    <row r="2" spans="1:10" s="130" customFormat="1" ht="14.25">
-      <c r="A2" s="134" t="s">
+    <row r="1" spans="1:10" s="125" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
+    </row>
+    <row r="2" spans="1:10" s="125" customFormat="1" ht="14.25">
+      <c r="A2" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="226" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="J2" s="89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="125" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="226" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="J3" s="89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="125" customFormat="1" ht="14.25">
+      <c r="A4" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="227" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="1:10" s="125" customFormat="1" ht="14.25">
+      <c r="A5" s="131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="132" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="230" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="J5" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="220" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="J2" s="94" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="135" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="220" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="J3" s="94" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="130" customFormat="1" ht="14.25">
-      <c r="A4" s="134" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="221" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="J4" s="95"/>
-    </row>
-    <row r="5" spans="1:10" s="130" customFormat="1" ht="14.25">
-      <c r="A5" s="136" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="137" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="137" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="138" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="224" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="J5" s="94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="130" customFormat="1" ht="15" thickBot="1">
-      <c r="A6" s="125">
+    </row>
+    <row r="6" spans="1:10" s="125" customFormat="1" ht="15" thickBot="1">
+      <c r="A6" s="120">
         <f>COUNTIF(F11:G261,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="95">
         <f>COUNTIF(F11:G708,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="95">
         <f>E6-D6-B6-A6</f>
         <v>5</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="96">
         <f>COUNTIF(F11:G708,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="223">
+      <c r="E6" s="229">
         <f>COUNTA(A11:A265)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="J6" s="94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="130" customFormat="1" ht="14.25">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="J7" s="94"/>
-    </row>
-    <row r="8" spans="1:10" s="130" customFormat="1" ht="14.25">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="J8" s="94"/>
-    </row>
-    <row r="9" spans="1:10" s="130" customFormat="1"/>
-    <row r="10" spans="1:10" s="130" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="130" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="169"/>
-    </row>
-    <row r="12" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="157" t="str">
-        <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="J6" s="89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="125" customFormat="1" ht="14.25">
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="J7" s="89"/>
+    </row>
+    <row r="8" spans="1:10" s="125" customFormat="1" ht="14.25">
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="J8" s="89"/>
+    </row>
+    <row r="9" spans="1:10" s="125" customFormat="1"/>
+    <row r="10" spans="1:10" s="125" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A10" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="125" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="162"/>
+      <c r="B11" s="163" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="164"/>
+    </row>
+    <row r="12" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" s="152" t="str">
+        <f t="shared" ref="A12:A16" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-2]</v>
       </c>
-      <c r="B12" s="205" t="s">
-        <v>303</v>
-      </c>
-      <c r="C12" s="205" t="s">
-        <v>298</v>
-      </c>
-      <c r="D12" s="205" t="s">
-        <v>299</v>
-      </c>
-      <c r="E12" s="170" t="s">
-        <v>300</v>
-      </c>
-      <c r="F12" s="205"/>
-      <c r="G12" s="205"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="207"/>
-    </row>
-    <row r="13" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="168" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="169"/>
-    </row>
-    <row r="14" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="157" t="str">
+      <c r="B12" s="200" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="200" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="200" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="165" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="200"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+    </row>
+    <row r="13" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A13" s="53"/>
+      <c r="B13" s="163" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="164"/>
+    </row>
+    <row r="14" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A14" s="152" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-4]</v>
       </c>
-      <c r="B14" s="116" t="s">
-        <v>302</v>
-      </c>
-      <c r="C14" s="116" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="116" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="164" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-    </row>
-    <row r="15" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="168" t="s">
-        <v>307</v>
-      </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="169"/>
-    </row>
-    <row r="16" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="157" t="str">
+      <c r="B14" s="111" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" s="159" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+    </row>
+    <row r="15" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="53"/>
+      <c r="B15" s="163" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="164"/>
+    </row>
+    <row r="16" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A16" s="152" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-6]</v>
       </c>
-      <c r="B16" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="C16" s="116" t="s">
-        <v>309</v>
-      </c>
-      <c r="D16" s="116" t="s">
-        <v>310</v>
-      </c>
-      <c r="E16" s="164" t="s">
-        <v>311</v>
-      </c>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-    </row>
-    <row r="17" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="169"/>
-    </row>
-    <row r="18" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="157" t="str">
+      <c r="B16" s="111" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="111" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="159" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+    </row>
+    <row r="17" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="164"/>
+    </row>
+    <row r="18" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="152" t="str">
         <f t="shared" ref="A18:A19" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-8]</v>
       </c>
-      <c r="B18" s="90" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" s="90" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="120" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="164"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-    </row>
-    <row r="19" spans="1:10" s="110" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="157" t="str">
+      <c r="B18" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="115" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="159"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+    </row>
+    <row r="19" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="152" t="str">
         <f t="shared" si="1"/>
         <v>[Admin_login-9]</v>
       </c>
-      <c r="B19" s="90" t="s">
-        <v>312</v>
-      </c>
-      <c r="C19" s="190" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" s="194" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="164"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
+      <c r="B19" s="85" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19" s="185" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="189" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="159"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="225"/>
-      <c r="B20" s="226"/>
-      <c r="C20" s="226"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="229"/>
-      <c r="J20" s="104"/>
+      <c r="A20" s="203"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="99"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="230"/>
-      <c r="B21" s="230"/>
-      <c r="C21" s="230"/>
-      <c r="D21" s="230"/>
-      <c r="E21" s="230"/>
-      <c r="F21" s="230"/>
-      <c r="G21" s="230"/>
-      <c r="H21" s="230"/>
-      <c r="I21" s="230"/>
-      <c r="J21" s="104"/>
+      <c r="A21" s="208"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="194"/>
-      <c r="B22" s="194"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="231"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="232"/>
-      <c r="I22" s="233"/>
-      <c r="J22" s="104"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="194"/>
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="234"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="232"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="104"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="230"/>
-      <c r="B24" s="230"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="230"/>
-      <c r="G24" s="230"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="230"/>
-      <c r="J24" s="104"/>
+      <c r="A24" s="208"/>
+      <c r="B24" s="208"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="99"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="194"/>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="234"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="232"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="104"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="99"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="230"/>
-      <c r="B26" s="230"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="230"/>
-      <c r="I26" s="230"/>
-      <c r="J26" s="104"/>
+      <c r="A26" s="208"/>
+      <c r="B26" s="208"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="208"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="194"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="234"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="232"/>
-      <c r="I27" s="233"/>
-      <c r="J27" s="104"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="99"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A28" s="230"/>
-      <c r="B28" s="230"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
-      <c r="E28" s="230"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="230"/>
-      <c r="H28" s="230"/>
-      <c r="I28" s="230"/>
+      <c r="A28" s="208"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="208"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="208"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="194"/>
-      <c r="B29" s="194"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="235"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="232"/>
-      <c r="I29" s="233"/>
+      <c r="A29" s="189"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6982,21 +7204,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -9,36 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743"/>
   </bookViews>
   <sheets>
-    <sheet name="表紙" sheetId="1" r:id="rId1"/>
-    <sheet name="テスト報告" sheetId="2" r:id="rId2"/>
+    <sheet name="Cover" sheetId="1" r:id="rId1"/>
+    <sheet name="Test case List" sheetId="2" r:id="rId2"/>
     <sheet name="Test Report" sheetId="5" r:id="rId3"/>
-    <sheet name="Message Rules" sheetId="11" r:id="rId4"/>
-    <sheet name="User Module" sheetId="9" r:id="rId5"/>
-    <sheet name="Mod Module" sheetId="12" r:id="rId6"/>
-    <sheet name="Admin Module" sheetId="10" r:id="rId7"/>
+    <sheet name="User Module" sheetId="9" r:id="rId4"/>
+    <sheet name="Mod Module" sheetId="12" r:id="rId5"/>
+    <sheet name="Admin Module" sheetId="10" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="ACTION" localSheetId="3">#REF!</definedName>
-    <definedName name="ACTION" localSheetId="5">#REF!</definedName>
+    <definedName name="ACTION" localSheetId="4">#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
     <definedName name="d">'[1]Search grammar'!$C$45</definedName>
-    <definedName name="Defect" comment="fsfsdfs" localSheetId="5">#REF!</definedName>
+    <definedName name="Defect" comment="fsfsdfs" localSheetId="4">#REF!</definedName>
     <definedName name="Defect" comment="fsfsdfs">#REF!</definedName>
-    <definedName name="dfsf" localSheetId="5">#REF!</definedName>
+    <definedName name="dfsf" localSheetId="4">#REF!</definedName>
     <definedName name="dfsf">#REF!</definedName>
-    <definedName name="Discover" localSheetId="5">#REF!</definedName>
+    <definedName name="Discover" localSheetId="4">#REF!</definedName>
     <definedName name="Discover">#REF!</definedName>
-    <definedName name="Lỗi" localSheetId="5">#REF!</definedName>
+    <definedName name="Lỗi" localSheetId="4">#REF!</definedName>
     <definedName name="Lỗi">#REF!</definedName>
-    <definedName name="Pass" localSheetId="5">#REF!</definedName>
+    <definedName name="Pass" localSheetId="4">#REF!</definedName>
     <definedName name="Pass">#REF!</definedName>
-    <definedName name="Statistic" comment="fsfsdfs" localSheetId="5">#REF!</definedName>
+    <definedName name="Statistic" comment="fsfsdfs" localSheetId="4">#REF!</definedName>
     <definedName name="Statistic" comment="fsfsdfs">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
@@ -75,26 +73,7 @@
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
-          <t xml:space="preserve">: Add </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ Ｐ明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>（追加）</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="8"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">: Add
   </t>
         </r>
         <r>
@@ -114,26 +93,7 @@
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
-          <t xml:space="preserve">: Modify </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ Ｐ明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>（修正）</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="8"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">: Modify
   </t>
         </r>
         <r>
@@ -153,26 +113,7 @@
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
-          <t xml:space="preserve">: Delete </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ Ｐ明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>（削除）</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="8"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">: Delete
 </t>
         </r>
       </text>
@@ -314,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="349">
   <si>
     <t>Project Name</t>
   </si>
@@ -458,12 +399,6 @@
   </si>
   <si>
     <t>Admin_Function</t>
-  </si>
-  <si>
-    <t>Integration Logout with Login</t>
-  </si>
-  <si>
-    <t>Check user logout when user logout with "Logout" link</t>
   </si>
   <si>
     <t>Execute all Registered User unit test cases and passed</t>
@@ -477,190 +412,6 @@
   </si>
   <si>
     <t>Result Firefox version 30</t>
-  </si>
-  <si>
-    <t>Message Rules</t>
-  </si>
-  <si>
-    <t>Description Vietnam</t>
-  </si>
-  <si>
-    <t>Description English</t>
-  </si>
-  <si>
-    <t>MS01</t>
-  </si>
-  <si>
-    <t>Bạn chưa nhập Email</t>
-  </si>
-  <si>
-    <t>MS02</t>
-  </si>
-  <si>
-    <t>Email sai định dạng</t>
-  </si>
-  <si>
-    <t>MS03</t>
-  </si>
-  <si>
-    <t>Bạn chưa nhập tài khoản hoặc email</t>
-  </si>
-  <si>
-    <t>MS04</t>
-  </si>
-  <si>
-    <t>Bạn chưa nhập mật khẩu</t>
-  </si>
-  <si>
-    <t>MS05</t>
-  </si>
-  <si>
-    <t>Mật khẩu không giống nhau</t>
-  </si>
-  <si>
-    <t>MS06</t>
-  </si>
-  <si>
-    <t>Sai mật khẩu hoặc tài khoản không tồn tại</t>
-  </si>
-  <si>
-    <t>MS07</t>
-  </si>
-  <si>
-    <t>Tên tài khoản tối thiểu 8 kí tự</t>
-  </si>
-  <si>
-    <t>MS08</t>
-  </si>
-  <si>
-    <t>Tên tài khoản tối đa 20 kí tự</t>
-  </si>
-  <si>
-    <t>MS09</t>
-  </si>
-  <si>
-    <t>Tên tài khoản chỉ gồm chữ và số</t>
-  </si>
-  <si>
-    <t>MS10</t>
-  </si>
-  <si>
-    <t>Bạn chưa nhập tên</t>
-  </si>
-  <si>
-    <t>MS11</t>
-  </si>
-  <si>
-    <t>Tài khoản bị khóa hoặc chưa xác nhận Email!</t>
-  </si>
-  <si>
-    <t>MS12</t>
-  </si>
-  <si>
-    <t>Mật khẩu phải từ 5 đến 50 kí tự</t>
-  </si>
-  <si>
-    <t>MS13</t>
-  </si>
-  <si>
-    <t>Tên đầy đủ phải từ 6 đến 20 kí tự</t>
-  </si>
-  <si>
-    <t>MS14</t>
-  </si>
-  <si>
-    <t>Tên dự án tối thiểu 10 kí tự</t>
-  </si>
-  <si>
-    <t>MS15</t>
-  </si>
-  <si>
-    <t>Tên dự án tối đa 60 kí tự</t>
-  </si>
-  <si>
-    <t>MS16</t>
-  </si>
-  <si>
-    <t>Bạn chưa nhập tên dự án</t>
-  </si>
-  <si>
-    <t>MS17</t>
-  </si>
-  <si>
-    <t>Phải là chữ số và lớn hơn 1,000,000</t>
-  </si>
-  <si>
-    <t>MS18</t>
-  </si>
-  <si>
-    <t>Bạn chưa nhập số tiền gây quỹ</t>
-  </si>
-  <si>
-    <t>MS19</t>
-  </si>
-  <si>
-    <t>Xin hãy xem lại trang thông tin cơ bản, các trường (kể cả ảnh dự án) PHẢI được điền đầy đủ và hợp lệ
-Xin hãy xem lại trang câu chuyện! Các trường PHẢI được nhập đầy đủ (trừ video)</t>
-  </si>
-  <si>
-    <t>MS20</t>
-  </si>
-  <si>
-    <t>Mô tả ngắn phải từ 30 đến 135 kí tự</t>
-  </si>
-  <si>
-    <t>MS21</t>
-  </si>
-  <si>
-    <t>Bạn chưa nhập mô tả ngắn</t>
-  </si>
-  <si>
-    <t>MS22</t>
-  </si>
-  <si>
-    <t>Mô tả ít nhất 135 kí tự</t>
-  </si>
-  <si>
-    <t>MS23</t>
-  </si>
-  <si>
-    <t>Tiêu đề ít nhất 10 ký tự</t>
-  </si>
-  <si>
-    <t>MS24</t>
-  </si>
-  <si>
-    <t>Mô tả ít nhất 30 kí tự</t>
-  </si>
-  <si>
-    <t>MS25</t>
-  </si>
-  <si>
-    <t>Câu hỏi ít nhất 10 ký tự</t>
-  </si>
-  <si>
-    <t>MS26</t>
-  </si>
-  <si>
-    <t>Câu trả lời hỏi ít nhất 10 ký tự</t>
-  </si>
-  <si>
-    <t>MS27</t>
-  </si>
-  <si>
-    <t>Bình luận tối thiểu từ 10 đến 500 kí tự.</t>
-  </si>
-  <si>
-    <t>MS28</t>
-  </si>
-  <si>
-    <t>MS29</t>
-  </si>
-  <si>
-    <t>MS30</t>
-  </si>
-  <si>
-    <t>MS31</t>
   </si>
   <si>
     <t>Back to Check Report</t>
@@ -871,55 +622,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>1. Login the system with Mod role.
-2. Click or mouse hover Avatar menu in header
-3. Click "Logout" button</t>
-  </si>
-  <si>
-    <t>Check "Dashboard" tab</t>
-  </si>
-  <si>
-    <t>1. The login of mod page is displayed 
-2. Logged in successfully, The "Mod" page is displayed
-3. Show Dashboard content 
-+ Total medicinal plant article
-+ Total remedy article
-+ Pending approved article</t>
-  </si>
-  <si>
-    <t>1. The login of mod page is displayed 
-2. Logged in successfully, The "Mod" page is displayed
-3. Show medicinal plant management content 
-4. Show new medicinal plant list:
-+ Medicinal plant 
-+ Author
-+ Posted date</t>
-  </si>
-  <si>
-    <t>Integration Login with "Dashboard" tab</t>
-  </si>
-  <si>
-    <t>Integration Login with "Medicinal plant management" tab</t>
-  </si>
-  <si>
-    <t>Integration Login with "Remedy management" tab</t>
-  </si>
-  <si>
-    <t>Check "remedy management" tab</t>
-  </si>
-  <si>
-    <t>Check "medicinal plant" management</t>
-  </si>
-  <si>
-    <t>1. The login of mod page is displayed 
-2. Logged in successfully, The "Mod" page is displayed
-3. Show remedy management content 
-4. Show new remedy list by default:
-+ Remedy
-+ Author
-+ Posted date</t>
-  </si>
-  <si>
     <t>Integration Remedy with HMS</t>
   </si>
   <si>
@@ -979,35 +681,6 @@
   </si>
   <si>
     <t>Check "HMS" tab</t>
-  </si>
-  <si>
-    <t>1. The Homepage is displayed
-2. Avatar menu is showed
-3. Logout user and redirect to homepage as guest rule</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Input username "email0@gmail.com" password "123456", then click "Login" button
-3. Click Dashboard tap</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Input username "email0@gmail.com" password "123456"
-3. Click "Login" button
-4. Click Medicinal plant management tab</t>
-  </si>
-  <si>
-    <t>1. Enter mod page
-2. Input username "email0@gmail.com" password "123456"
-3. Click "Login" button
-4. Click remedy management tab</t>
-  </si>
-  <si>
-    <t>List enviroment requires in this system
-1. Server: Ubuntu 14.03
-2. Database server: MySQL server
-3. Browser: Google Chrome 40, Mozzila Firefox 30
-4. Operation System: Mac OS X</t>
   </si>
   <si>
     <t>Mod function</t>
@@ -1341,13 +1014,6 @@
     <t>Integration Login with Dashboard</t>
   </si>
   <si>
-    <t>Integration Login with Medicinal Plants Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login VMN system by Mod role.
-</t>
-  </si>
-  <si>
     <t>When Mod click on "Logout" hyperlink</t>
   </si>
   <si>
@@ -1359,9 +1025,6 @@
 2. "Dashboard" Page is displayed</t>
   </si>
   <si>
-    <t>[Admin module-20]</t>
-  </si>
-  <si>
     <t>Integration Login with User Management</t>
   </si>
   <si>
@@ -1377,26 +1040,6 @@
   <si>
     <t>1. Admin Page is displayed 
 2. "User Management" Page is displayed</t>
-  </si>
-  <si>
-    <t>[Admin module-27]</t>
-  </si>
-  <si>
-    <t>Integration Login with Waiting HMS Approval</t>
-  </si>
-  <si>
-    <t>Check "Waiting HMS Approval" Page</t>
-  </si>
-  <si>
-    <t>1. Login VMN system by Admin role
-2. Click on "Waiting HMS Approval" hyperlink</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. "Waiting HMS Approval" Page is displayed</t>
-  </si>
-  <si>
-    <t>[Admin module-35]</t>
   </si>
   <si>
     <t>When Admin click on "Logout" hyperlink</t>
@@ -1407,158 +1050,552 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Login VMN system by Admin role.
+    <t>QuynhHTSE02639</t>
+  </si>
+  <si>
+    <t>Integration Advance Search with Medicinal Plants Detail</t>
+  </si>
+  <si>
+    <t>Integration Advance Search with Remedy Detail</t>
+  </si>
+  <si>
+    <t>Check "Medicinal Plants Article" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in VMN system by Member role
+2. Click on "Medicinal Plants" tab
+3. Click on "Advance Search" button
+4. Enter searching information then click "Search" button
+5. Click on "Medicinal Plants Article" hyperlink
 </t>
   </si>
   <si>
-    <t>変更履歴</t>
-  </si>
-  <si>
-    <t>発効日</t>
-    <rPh sb="0" eb="2">
-      <t>はっこう</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ﾆﾁ</t>
-    </rPh>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>版数</t>
-    <rPh sb="0" eb="2">
-      <t>はんすう</t>
-    </rPh>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>変更項目</t>
-    <rPh sb="0" eb="2">
-      <t>へんこう</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>こうもく</t>
-    </rPh>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>*A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>M</t>
-    </r>
-  </si>
-  <si>
-    <t>変更内容</t>
-    <rPh sb="0" eb="2">
-      <t>へんこう</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ないよう</t>
-    </rPh>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照資料</t>
-    <rPh sb="0" eb="2">
-      <t>さんしょう</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>しりょう</t>
-    </rPh>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>テスト項目書</t>
-  </si>
-  <si>
-    <t>プロジェクト名</t>
-    <rPh sb="6" eb="7">
-      <t>めい</t>
-    </rPh>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>プロジェクトコード</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ドキュメントコード</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>作成者</t>
-  </si>
-  <si>
-    <r>
-      <t>レビュー者</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="60"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="60"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>承認者</t>
-    </r>
-  </si>
-  <si>
-    <t>発行日</t>
-  </si>
-  <si>
-    <t>QuynhHTSE02639</t>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Medicinal Plants" tab is displayed
+3. "Advance Search" Page is displayed
+4. Search result is displayed in "Searching Result" Frame
+5. "Medicinal Plants Article Detail" Page is displayed </t>
+  </si>
+  <si>
+    <t>Check "Remedy Article" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Log in VMN system by Member role
+2. Click on "Remedy" tab
+3. Click on "Advance Search" button
+4. Enter searching information then click "Search" button
+5. Click on "Remedy Article" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Homepage is displayed
+2. "Remedy" tab is displayed
+3. "Advance Search" Page is displayed
+4. Search result is displayed in "Searching Result" Frame
+5. "Remedy Article Detail" Page is displayed </t>
+  </si>
+  <si>
+    <t>[Medicinal Plants Article- 62]</t>
+  </si>
+  <si>
+    <t>[Remedy Article- 60]</t>
+  </si>
+  <si>
+    <t>When Admin click on "Detail" button on "User Management" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of any user in "User Management" Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. Logout success and redirect to Login Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "User Management" Page is displayed
+3. "User Detail" Page is displayed</t>
+  </si>
+  <si>
+    <t>When Admin click on "Detail" button on "HMS Pending" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "HMS Pending" hyperlink
+3. Click on "Detail" button of any user in "HMS Pending" Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "HMS Pending" Page is displayed
+3. "HMS Detail" Page is displayed</t>
+  </si>
+  <si>
+    <t>Integration User Management with User Detail</t>
+  </si>
+  <si>
+    <t>Integration HMS Pending with HMS Detail</t>
+  </si>
+  <si>
+    <t>When Admin click on "Save" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of any user in "User Management" Page
+4. Click on "Save" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "User Management" Page is displayed
+3. "User Detail" Page is displayed
+4. "User Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>When Admin click on "Accept" button on "HMS Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "HMS Pending" hyperlink
+3. Click on "Detail" button of any user in "HMS Pending" Page
+4. Click on "Accept" button on "HMS Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "HMS Pending" Page is displayed
+3. "HMS Detail" Page is displayed
+4. "HMS Pending" Page is displayed</t>
+  </si>
+  <si>
+    <t>When Admin click on "Deny" button on "HMS Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "HMS Pending" hyperlink
+3. Click on "Detail" button of any user in "HMS Pending" Page
+4. Click on "Deny" button on "HMS Detail" Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration Login with HMS Pending </t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "HMS Pending" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. "HMS Pending" Page is displayed</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. Log out success and redirect to "Login" Page</t>
+  </si>
+  <si>
+    <t>Check "HMS Pending" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Dashboard" Page is displayed</t>
+  </si>
+  <si>
+    <t>Integration Login with Medicinal Plants Article Management</t>
+  </si>
+  <si>
+    <t>Check "Medicinal Plants Article Management" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Logout" hyperlink on Header</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Dashboard" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>Integration Login with Remedy Article Management</t>
+  </si>
+  <si>
+    <t>Check "Remedy Article Management" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>[Mod Module- 50]</t>
+  </si>
+  <si>
+    <t>Integration Medicinal Plants Articles Management with Medicinal Plants Article Detail</t>
+  </si>
+  <si>
+    <t>[Mod Module- 40]</t>
+  </si>
+  <si>
+    <t>When Mod click on "Accept" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed
+3. "Medicinal Plants Article Detail" Page is displayed
+4. "Medicinal Plants Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>[Mod Module- 41]</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Change content's Medicinal Plants Article" tab of "Medicinal Plants Article Management" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Reported Medicinal Plants Article" tab of "Medicinal Plants Article Management" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Deny" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed
+3. "Medicinal Plants Article Detail" Page is displayed
+</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed
+3. "Change content's Medicinal Plants Article" tab is displayed
+4. "Medicinal Plants Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Change content's Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Change content's Medicinal Plants Article" tab
+5. Click on "Deny" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Change content's Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Change content's Medicinal Plants Article" tab
+5. Click on "Accept" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed
+3. "Change content's Medicinal Plants Article" tab is displayed
+4. "Medicinal Plants Article Detail" Page is displayed
+5. "Change content's Medicinal Plants Article" tab is displayed</t>
+  </si>
+  <si>
+    <t>[Mod Module- 42]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 43]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 44]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 45]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 46]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 47]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Change content's Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Change content's Medicinal Plants Article" tab
+</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Reported Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Reported Medicinal Plants Article" tab</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Reported Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Reported Medicinal Plants Article" tab
+5. Click on "Accept" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Reported Medicinal Plants Article" tab
+4. Click on "Detail" button of any article on "Reported Medicinal Plants Article" tab
+5. Click on "Deny" button on "Medicinal Plants Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Medicinal Plants Article Management" Page is displayed
+3. "Reported Medicinal Plants Article" tab is displayed
+4. "Medicinal Plants Article Detail" Page is displayed
+5. "Reported Medicinal Plants Article" tab is displayed</t>
+  </si>
+  <si>
+    <t>Integration Remedy Articles Management with Remedy Article Detail</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Medicinal Plants Article Pending" tab of "Medicinal Plants Article Management" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Accept" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Deny" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Remedy Article Pending" tab of "Remedy Article Management" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Change content's Remedy Article" tab of "Remedy Article Management" Page</t>
+  </si>
+  <si>
+    <t>When Mod click on "Detail" button on "Reported Remedy Article" tab of "Remedy Article Management" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Detail" button of any article on "Medicinal Plants Article Pending" tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Detail" button of any article on "Pending Medicinal Plants Article" tab
+4. Click on "Accept" button on "Medicinal Plants Article Detail" Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Medicinal Plants Article Management" hyperlink
+3. Click on "Detail" button of any article on "Pending Medicinal Plants Article" tab
+4. Click on "Deny" button on "Medicinal Plants Article Detail" Page </t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Detail" button of any article on "Remedy Article Pending" tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed
+3. "Remedy Article Detail" Page is displayed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Detail" button of any article on "Pending Remedy Article" tab
+4. Click on "Accept" button on "Remedy Article Detail" Page </t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed
+3. "Remedy Article Detail" Page is displayed
+4. "Remedy Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Detail" button of any article on "Pending Remedy Article" tab
+4. Click on "Deny" button on "Remedy Article Detail" Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Change content's Remedy Article" tab
+4. Click on "Detail" button of any article on "Change content's Remedy Article" tab
+</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed
+3. "Change content's Remedy Article" tab is displayed
+4. "Remedy Article Management" Page is displayed</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Change content's Remedy Article" tab
+4. Click on "Detail" button of any article on "Change content's Remedy Article" tab
+5. Click on "Accept" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed
+3. "Change content's Remedy Article" tab is displayed
+4. "Remedy Article Detail" Page is displayed
+5. "Change content's Remedy Article" tab is displayed</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Change content's Remedy Article" tab
+4. Click on "Detail" button of any article on "Change content's Remedy Article" tab
+5. Click on "Deny" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Reported Remedy Article" tab
+4. Click on "Detail" button of any article on "Reported Remedy Article" tab</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Reported Remedy Article" tab
+4. Click on "Detail" button of any article on "Reported Remedy Article" tab
+5. Click on "Accept" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Mod Page is displayed
+2. "Remedy Article Management" Page is displayed
+3. "Reported Remedy Article" tab is displayed
+4. "Remedy Article Detail" Page is displayed
+5. "Reported Remedy Article" tab is displayed</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Mod role
+2. Click on "Remedy Article Management" hyperlink
+3. Click on "Reported Remedy Article" tab
+4. Click on "Detail" button of any article on "Reported Remedy Article" tab
+5. Click on "Deny" button on "Remedy Article Detail" Page</t>
+  </si>
+  <si>
+    <t>[Mod Module- 54]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 55]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 56]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 57]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 58]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 59]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 60]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 61]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 62]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 18]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 20]</t>
+  </si>
+  <si>
+    <t>[Mod Module- 36]</t>
+  </si>
+  <si>
+    <t>When Admin click on "Lock" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of any user in "User Management" Page
+4. Click on "Lock" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>When Admin click on "UnLock" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>1. Login VMN system by Admin role
+2. Click on "User Management" hyperlink
+3. Click on "Detail" button of any user in "User Management" Page
+4. Click on "UnLock" button on "User Detail" Page</t>
+  </si>
+  <si>
+    <t>[Admin Module- 30]</t>
+  </si>
+  <si>
+    <t>[Admin Module- 29]</t>
+  </si>
+  <si>
+    <t>[Admin Module- 33]</t>
+  </si>
+  <si>
+    <t>[Admin Module- 32]</t>
+  </si>
+  <si>
+    <t>[Admin Module- 37]</t>
+  </si>
+  <si>
+    <t>[Admin module- 38]</t>
+  </si>
+  <si>
+    <t>[Admin module- 39]</t>
+  </si>
+  <si>
+    <t>[Admin module- 20]</t>
+  </si>
+  <si>
+    <t>[Admin module- 27]</t>
+  </si>
+  <si>
+    <t>[Admin module- 35]</t>
+  </si>
+  <si>
+    <t>TEST CASE</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Record of change</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Change Item</t>
+  </si>
+  <si>
+    <t>*A,D,M</t>
+  </si>
+  <si>
+    <t>Change description</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Execute all Mod unit test cases
+ and passed</t>
+  </si>
+  <si>
+    <t>List enviroment requires in this system
+1. Server: Localhost
+2. Database server: MySQL server
+3. Browser: Google Chrome 40, Mozzila Firefox 30
+4. Operation System: Mac OS X</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1605,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1752,23 +1789,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1791,38 +1811,8 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="MS PGothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="60"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1867,12 +1857,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAEEF3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1889,14 +1873,8 @@
         <bgColor indexed="41"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000080"/>
-        <bgColor indexed="32"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="50">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2352,28 +2330,6 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2546,6 +2502,82 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -2554,7 +2586,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2567,66 +2601,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2949,9 +2983,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2998,29 +3029,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3033,17 +3041,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3052,54 +3054,51 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3111,9 +3110,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
@@ -3126,78 +3122,83 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="45" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="50" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="51" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="47" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3227,8 +3228,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3245,27 +3252,52 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="36" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="52" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="52" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="53" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -3785,8 +3817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -3804,13 +3836,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="215" t="s">
-        <v>314</v>
-      </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="202" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -3818,63 +3850,63 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B4" s="236" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="216" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="236" t="s">
-        <v>318</v>
+      <c r="B4" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="203" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="190" t="s">
+        <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B5" s="236" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="216" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="236" t="s">
-        <v>319</v>
+      <c r="B5" s="190" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="203" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="190" t="s">
+        <v>3</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>321</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="237" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="217" t="str">
+      <c r="B6" s="231" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="204" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="236" t="s">
-        <v>320</v>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="190" t="s">
+        <v>5</v>
       </c>
       <c r="G6" s="80">
         <v>42422</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="238"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="236" t="s">
-        <v>309</v>
-      </c>
-      <c r="G7" s="141" t="s">
+      <c r="B7" s="231"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="190" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" s="140" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3891,28 +3923,28 @@
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="231" t="s">
-        <v>307</v>
+      <c r="B10" s="232" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1">
-      <c r="B11" s="232" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="233" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="233" t="s">
-        <v>310</v>
+      <c r="B11" s="233" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="234" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="234" t="s">
+        <v>343</v>
       </c>
       <c r="E11" s="234" t="s">
-        <v>311</v>
-      </c>
-      <c r="F11" s="233" t="s">
-        <v>312</v>
+        <v>344</v>
+      </c>
+      <c r="F11" s="234" t="s">
+        <v>345</v>
       </c>
       <c r="G11" s="235" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="14" customFormat="1">
@@ -3930,7 +3962,7 @@
         <v>46</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="14" customFormat="1" ht="21.75" customHeight="1">
@@ -4009,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -4037,39 +4069,39 @@
       <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="221" t="str">
-        <f>表紙!C4</f>
+      <c r="C3" s="207"/>
+      <c r="D3" s="208" t="str">
+        <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="221" t="str">
-        <f>表紙!C5</f>
+      <c r="C4" s="207"/>
+      <c r="D4" s="208" t="str">
+        <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="218"/>
-      <c r="D5" s="219" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="206" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="31"/>
@@ -4107,16 +4139,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="137" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="136" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="108" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="F9" s="107" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="25.5">
@@ -4124,16 +4156,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="184" t="s">
-        <v>206</v>
+        <v>127</v>
+      </c>
+      <c r="D10" s="170" t="s">
+        <v>128</v>
       </c>
       <c r="E10" s="108" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="107" t="s">
-        <v>51</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="25.5">
@@ -4143,14 +4175,14 @@
       <c r="C11" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="108" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="13.5">
@@ -4263,15 +4295,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="56"/>
@@ -4287,17 +4319,17 @@
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="221" t="str">
-        <f>表紙!C4</f>
+      <c r="C3" s="208" t="str">
+        <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="222"/>
+      <c r="F3" s="209"/>
       <c r="G3" s="9" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="H3" s="59"/>
     </row>
@@ -4305,17 +4337,17 @@
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="221" t="str">
-        <f>表紙!C5</f>
+      <c r="C4" s="208" t="str">
+        <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="221"/>
-      <c r="E4" s="222" t="s">
+      <c r="D4" s="208"/>
+      <c r="E4" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="222"/>
+      <c r="F4" s="209"/>
       <c r="G4" s="9" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="H4" s="59"/>
     </row>
@@ -4323,15 +4355,15 @@
       <c r="B5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="221" t="str">
+      <c r="C5" s="208" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="221"/>
-      <c r="E5" s="222" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="222"/>
+      <c r="F5" s="209"/>
       <c r="G5" s="109"/>
       <c r="H5" s="61"/>
     </row>
@@ -4340,12 +4372,12 @@
       <c r="B6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="56"/>
@@ -4378,7 +4410,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="65"/>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="137" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="66" t="s">
@@ -4402,11 +4434,11 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="65"/>
-      <c r="B11" s="139">
+      <c r="B11" s="138">
         <v>1</v>
       </c>
-      <c r="C11" s="137" t="s">
-        <v>196</v>
+      <c r="C11" s="136" t="s">
+        <v>123</v>
       </c>
       <c r="D11" s="70">
         <f>'User Module'!A6</f>
@@ -4418,7 +4450,7 @@
       </c>
       <c r="F11" s="70">
         <f>'User Module'!C6</f>
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="G11" s="70">
         <f>'User Module'!D6</f>
@@ -4426,16 +4458,16 @@
       </c>
       <c r="H11" s="71">
         <f>'User Module'!E6</f>
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25">
       <c r="A12" s="69"/>
-      <c r="B12" s="139">
+      <c r="B12" s="138">
         <v>2</v>
       </c>
-      <c r="C12" s="184" t="s">
-        <v>197</v>
+      <c r="C12" s="170" t="s">
+        <v>124</v>
       </c>
       <c r="D12" s="70">
         <f>'Mod Module'!A6</f>
@@ -4447,7 +4479,7 @@
       </c>
       <c r="F12" s="70">
         <f>'Mod Module'!C6</f>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G12" s="70">
         <f>'Mod Module'!D6</f>
@@ -4455,15 +4487,15 @@
       </c>
       <c r="H12" s="71">
         <f>'Mod Module'!E6</f>
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="69"/>
-      <c r="B13" s="139">
+      <c r="B13" s="138">
         <v>3</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="136" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="70">
@@ -4476,7 +4508,7 @@
       </c>
       <c r="F13" s="70">
         <f>'Admin Module'!C6</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G13" s="70">
         <f>'Admin Module'!D6</f>
@@ -4484,12 +4516,12 @@
       </c>
       <c r="H13" s="71">
         <f>'Admin Module'!E6</f>
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="64"/>
-      <c r="B14" s="140"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="72" t="s">
         <v>33</v>
       </c>
@@ -4503,7 +4535,7 @@
       </c>
       <c r="F14" s="73">
         <f>SUM(F11:F13)</f>
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="G14" s="73">
         <f>SUM(G9:G13)</f>
@@ -4511,7 +4543,7 @@
       </c>
       <c r="H14" s="74">
         <f>SUM(H11:H13)</f>
-        <v>73</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4562,7 +4594,7 @@
       <c r="D18" s="64"/>
     </row>
     <row r="19" spans="2:8" ht="14.25">
-      <c r="C19" s="183"/>
+      <c r="C19" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4595,336 +4627,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.125" style="142" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="142" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="142" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="142"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="225" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="143" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="145" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="146" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="147"/>
-    </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="147"/>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="147" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="147"/>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="146" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="147" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="147"/>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="147" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="147"/>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="147" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="147"/>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="146" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="147" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="147"/>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="146" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="147" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="147"/>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="146" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="147" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="147"/>
-    </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="A13" s="146" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="147" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="147"/>
-    </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="A14" s="146" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="148" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="147"/>
-    </row>
-    <row r="15" spans="1:3" ht="15">
-      <c r="A15" s="146" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="147" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="147"/>
-    </row>
-    <row r="16" spans="1:3" ht="15">
-      <c r="A16" s="146" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="147" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="147"/>
-    </row>
-    <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="146" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="147"/>
-    </row>
-    <row r="18" spans="1:3" ht="15">
-      <c r="A18" s="146" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="147" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="147"/>
-    </row>
-    <row r="19" spans="1:3" ht="15">
-      <c r="A19" s="146" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="148" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="147"/>
-    </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="A20" s="146" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="148" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="147"/>
-    </row>
-    <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="146" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="147"/>
-    </row>
-    <row r="22" spans="1:3" ht="60">
-      <c r="A22" s="146" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="147"/>
-    </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="146" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="147"/>
-    </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="146" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="147" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="147"/>
-    </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="146" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="147" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="147"/>
-    </row>
-    <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="147" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="147"/>
-    </row>
-    <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="147" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="147"/>
-    </row>
-    <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="150" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="147" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="147"/>
-    </row>
-    <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="147" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="147"/>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="150" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="147" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="147"/>
-    </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="150" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-    </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="150" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-    </row>
-    <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="150" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-    </row>
-    <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="150" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="124" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="123" customWidth="1"/>
     <col min="2" max="2" width="39.875" style="99" customWidth="1"/>
     <col min="3" max="3" width="33" style="99" customWidth="1"/>
     <col min="4" max="4" width="27.75" style="99" customWidth="1"/>
@@ -4955,15 +4667,15 @@
       <c r="A2" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="226" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="135" t="s">
+      <c r="B2" s="215" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="134" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="89"/>
@@ -4975,15 +4687,15 @@
       <c r="A3" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="135" t="s">
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="134" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="89"/>
@@ -4995,15 +4707,15 @@
       <c r="A4" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="227" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="135" t="s">
+      <c r="B4" s="216" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="134" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="89"/>
@@ -5022,12 +4734,12 @@
       <c r="D5" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="228" t="s">
+      <c r="E5" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="136" t="s">
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="135" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="89"/>
@@ -5037,27 +4749,27 @@
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="120">
-        <f>COUNTIF(F11:G226,"Pass")</f>
+        <f>COUNTIF(F11:G232,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="95">
-        <f>COUNTIF(F11:G673,"Fail")</f>
+        <f>COUNTIF(F11:G679,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="95">
         <f>E6-D6-B6-A6</f>
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D6" s="96">
-        <f>COUNTIF(F11:G673,"N/A")</f>
+        <f>COUNTIF(F11:G679,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="229">
-        <f>COUNTA(A11:A230)</f>
-        <v>48</v>
-      </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
+      <c r="E6" s="218">
+        <f>COUNTA(A11:A236)*2</f>
+        <v>104</v>
+      </c>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
       <c r="H6" s="93"/>
       <c r="I6" s="89"/>
       <c r="J6" s="89" t="s">
@@ -5065,25 +4777,25 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="H7" s="93"/>
       <c r="I7" s="89"/>
       <c r="J7" s="89"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
       <c r="H8" s="93"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
@@ -5117,10 +4829,10 @@
         <v>26</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" s="52" t="s">
         <v>27</v>
@@ -5131,9 +4843,9 @@
       <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A11" s="196"/>
+      <c r="A11" s="182"/>
       <c r="B11" s="53" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -5141,22 +4853,22 @@
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
       <c r="H11" s="53"/>
-      <c r="I11" s="177"/>
+      <c r="I11" s="164"/>
       <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A12" s="197" t="str">
+      <c r="A12" s="183" t="str">
         <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-2]</v>
       </c>
       <c r="B12" s="115" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="E12" s="112"/>
       <c r="F12" s="111"/>
@@ -5166,9 +4878,9 @@
       <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A13" s="198"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="53" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -5180,18 +4892,18 @@
       <c r="J13" s="89"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="197" t="str">
+      <c r="A14" s="183" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-4]</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="D14" s="115" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="E14" s="85"/>
       <c r="F14" s="111"/>
@@ -5201,33 +4913,33 @@
       <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A15" s="197" t="str">
+      <c r="A15" s="183" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-5]</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="185" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="189" t="s">
-        <v>229</v>
-      </c>
-      <c r="E15" s="185"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="187"/>
+        <v>137</v>
+      </c>
+      <c r="C15" s="171" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="175" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="171"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="173"/>
       <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A16" s="198"/>
+      <c r="A16" s="184"/>
       <c r="B16" s="53" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C16" s="54"/>
-      <c r="D16" s="188"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -5236,21 +4948,21 @@
       <c r="J16" s="89"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="197" t="str">
+      <c r="A17" s="183" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-7]</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="F17" s="111"/>
       <c r="G17" s="85"/>
@@ -5259,9 +4971,9 @@
       <c r="J17" s="89"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="198"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="53" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="54"/>
@@ -5278,19 +4990,19 @@
         <v>[User Module-9]</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="D19" s="85" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="E19" s="98"/>
       <c r="F19" s="111"/>
       <c r="G19" s="85"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="154"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="144"/>
       <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
@@ -5299,29 +5011,29 @@
         <v>[User Module-10]</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="D20" s="98" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="E20" s="98" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="F20" s="111"/>
-      <c r="G20" s="152"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="113"/>
-      <c r="I20" s="151"/>
+      <c r="I20" s="141"/>
       <c r="J20" s="89"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="198" t="s">
-        <v>174</v>
+      <c r="A21" s="184" t="s">
+        <v>111</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
@@ -5338,29 +5050,29 @@
         <v>[User Module-12]</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="E22" s="98" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="F22" s="111"/>
       <c r="G22" s="85"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="154"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="144"/>
       <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="198" t="s">
-        <v>174</v>
+      <c r="A23" s="184" t="s">
+        <v>111</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
@@ -5377,37 +5089,37 @@
         <v>[User Module-14]</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="D24" s="98" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="E24" s="98" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="F24" s="111"/>
-      <c r="G24" s="152"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="113"/>
-      <c r="I24" s="151"/>
+      <c r="I24" s="141"/>
       <c r="J24" s="99"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="198" t="s">
-        <v>174</v>
+      <c r="A25" s="184" t="s">
+        <v>111</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
-      <c r="E25" s="191"/>
+      <c r="E25" s="177"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
-      <c r="H25" s="191"/>
-      <c r="I25" s="193"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="179"/>
       <c r="J25" s="99"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
@@ -5416,55 +5128,55 @@
         <v>[User Module-16]</v>
       </c>
       <c r="B26" s="85" t="s">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="190" t="s">
-        <v>283</v>
-      </c>
-      <c r="E26" s="192" t="s">
-        <v>284</v>
+        <v>204</v>
+      </c>
+      <c r="D26" s="176" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="178" t="s">
+        <v>206</v>
       </c>
       <c r="F26" s="111"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="195"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="181"/>
       <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="199" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="156" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="155"/>
+      <c r="A27" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="146" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="145"/>
       <c r="J27" s="99"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1">
       <c r="A28" s="111" t="str">
-        <f t="shared" ref="A28:A44" si="2">IF(OR(B28&lt;&gt;"",D28&lt;E27&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A28:A48" si="2">IF(OR(B28&lt;&gt;"",D28&lt;E27&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-18]</v>
       </c>
       <c r="B28" s="111" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="C28" s="111" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="D28" s="111" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="E28" s="112" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="F28" s="111"/>
       <c r="G28" s="111"/>
@@ -5473,19 +5185,19 @@
       <c r="J28" s="99"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A29" s="199" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="156" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="155"/>
+      <c r="A29" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="146" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="145"/>
       <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1">
@@ -5494,16 +5206,16 @@
         <v>[User Module-20]</v>
       </c>
       <c r="B30" s="111" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="C30" s="111" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="D30" s="111" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="E30" s="112" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="F30" s="111"/>
       <c r="G30" s="111"/>
@@ -5512,19 +5224,19 @@
       <c r="J30" s="99"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="199" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="155"/>
+      <c r="A31" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="146" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="145"/>
       <c r="J31" s="99"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1">
@@ -5533,16 +5245,16 @@
         <v>[User Module-22]</v>
       </c>
       <c r="B32" s="111" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="C32" s="111" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="D32" s="111" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="E32" s="112" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="F32" s="111"/>
       <c r="G32" s="111"/>
@@ -5551,19 +5263,19 @@
       <c r="J32" s="99"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A33" s="199" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="156" t="s">
-        <v>265</v>
-      </c>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="155"/>
+      <c r="A33" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="145"/>
       <c r="J33" s="99"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1">
@@ -5572,16 +5284,16 @@
         <v>[User Module-24]</v>
       </c>
       <c r="B34" s="111" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="D34" s="111" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="E34" s="112" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="F34" s="111"/>
       <c r="G34" s="111"/>
@@ -5590,19 +5302,19 @@
       <c r="J34" s="99"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="199" t="s">
-        <v>174</v>
-      </c>
-      <c r="B35" s="156" t="s">
-        <v>262</v>
-      </c>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="155"/>
+      <c r="A35" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="145"/>
       <c r="J35" s="99"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
@@ -5611,16 +5323,16 @@
         <v>[User Module-26]</v>
       </c>
       <c r="B36" s="111" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="C36" s="111" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="D36" s="111" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="E36" s="112" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="F36" s="111"/>
       <c r="G36" s="111"/>
@@ -5629,19 +5341,19 @@
       <c r="J36" s="99"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A37" s="199" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" s="156" t="s">
-        <v>244</v>
-      </c>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="155"/>
+      <c r="A37" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="145"/>
       <c r="J37" s="99"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1">
@@ -5650,16 +5362,16 @@
         <v>[User Module-28]</v>
       </c>
       <c r="B38" s="111" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="C38" s="111" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="D38" s="111" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="F38" s="111"/>
       <c r="G38" s="111"/>
@@ -5668,34 +5380,34 @@
       <c r="J38" s="99"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="199" t="s">
-        <v>174</v>
-      </c>
-      <c r="B39" s="156" t="s">
-        <v>248</v>
-      </c>
-      <c r="C39" s="153"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="155"/>
+      <c r="A39" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="146" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="145"/>
       <c r="J39" s="99"/>
     </row>
-    <row r="40" spans="1:10" s="156" customFormat="1" ht="14.25" customHeight="1">
+    <row r="40" spans="1:10" s="146" customFormat="1" ht="14.25" customHeight="1">
       <c r="A40" s="111" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-30]</v>
       </c>
       <c r="B40" s="111" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="C40" s="111" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="D40" s="111" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="E40" s="112"/>
       <c r="F40" s="111"/>
@@ -5703,71 +5415,71 @@
       <c r="H40" s="113"/>
       <c r="I40" s="114"/>
     </row>
-    <row r="41" spans="1:10" s="170" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A41" s="199" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="156" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="155"/>
-    </row>
-    <row r="42" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
+    <row r="41" spans="1:10" s="157" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A41" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="146" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="145"/>
+    </row>
+    <row r="42" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
       <c r="A42" s="111" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-32]</v>
       </c>
       <c r="B42" s="111" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="C42" s="111" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="D42" s="111" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="E42" s="112" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
       <c r="H42" s="113"/>
       <c r="I42" s="114"/>
     </row>
-    <row r="43" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="199" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="156" t="s">
-        <v>257</v>
-      </c>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="155"/>
-    </row>
-    <row r="44" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
+    <row r="43" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A43" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="145"/>
+    </row>
+    <row r="44" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
       <c r="A44" s="111" t="str">
         <f t="shared" si="2"/>
         <v>[User Module-34]</v>
       </c>
       <c r="B44" s="111" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="C44" s="111" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="D44" s="111" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="E44" s="112"/>
       <c r="F44" s="111"/>
@@ -5775,461 +5487,557 @@
       <c r="H44" s="113"/>
       <c r="I44" s="114"/>
     </row>
-    <row r="45" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A45" s="178"/>
-      <c r="B45" s="179"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="179"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="181"/>
-    </row>
-    <row r="46" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A46" s="178"/>
-      <c r="B46" s="179"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="179"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="179"/>
-      <c r="G46" s="179"/>
-      <c r="H46" s="180"/>
-      <c r="I46" s="181"/>
-    </row>
-    <row r="47" spans="1:10" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="156"/>
-      <c r="B47" s="156" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
-      <c r="E47" s="156"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="156"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="156"/>
-    </row>
-    <row r="48" spans="1:10" s="156" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A48" s="171"/>
-      <c r="B48" s="172" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="173"/>
-      <c r="D48" s="173"/>
-      <c r="E48" s="173"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="173"/>
-      <c r="H48" s="173"/>
-      <c r="I48" s="173"/>
-    </row>
-    <row r="49" spans="1:9" s="176" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A49" s="111" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A48)+1)</f>
-        <v>ID-32</v>
-      </c>
-      <c r="B49" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="174" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="176" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A50" s="111" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A49)+1)</f>
-        <v>ID-33</v>
-      </c>
-      <c r="B50" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="111" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="174" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="176" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A51" s="111" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A50)+1)</f>
-        <v>ID-34</v>
-      </c>
-      <c r="B51" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="174" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A52" s="111" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A51)+1)</f>
-        <v>ID-35</v>
-      </c>
-      <c r="B52" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="111" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="174" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A53" s="111" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A52)+1)</f>
-        <v>ID-36</v>
-      </c>
-      <c r="B53" s="111" t="s">
-        <v>285</v>
-      </c>
-      <c r="C53" s="111" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" s="111"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="174" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A54" s="156"/>
-      <c r="B54" s="156" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="156"/>
-    </row>
-    <row r="55" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+    <row r="45" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A45" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="146" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="145"/>
+    </row>
+    <row r="46" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A46" s="111" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-36]</v>
+      </c>
+      <c r="B46" s="175" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="175" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="191" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="193"/>
+    </row>
+    <row r="47" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A47" s="185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="145"/>
+    </row>
+    <row r="48" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A48" s="175" t="str">
+        <f t="shared" si="2"/>
+        <v>[User Module-38]</v>
+      </c>
+      <c r="B48" s="175" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="175" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="175" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="175"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="192"/>
+      <c r="I48" s="193"/>
+    </row>
+    <row r="49" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A49" s="175"/>
+      <c r="B49" s="175"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="192"/>
+      <c r="I49" s="193"/>
+    </row>
+    <row r="50" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A50" s="175"/>
+      <c r="B50" s="175"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="175"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="192"/>
+      <c r="I50" s="193"/>
+    </row>
+    <row r="51" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A51" s="165"/>
+      <c r="B51" s="166"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="166"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="166"/>
+      <c r="G51" s="166"/>
+      <c r="H51" s="167"/>
+      <c r="I51" s="168"/>
+    </row>
+    <row r="52" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A52" s="165"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
+      <c r="E52" s="165"/>
+      <c r="F52" s="166"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="167"/>
+      <c r="I52" s="168"/>
+    </row>
+    <row r="53" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A53" s="194"/>
+      <c r="B53" s="194" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="212"/>
+      <c r="D53" s="213"/>
+      <c r="E53" s="213"/>
+      <c r="F53" s="213"/>
+      <c r="G53" s="213"/>
+      <c r="H53" s="213"/>
+      <c r="I53" s="214"/>
+    </row>
+    <row r="54" spans="1:9" s="146" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A54" s="158"/>
+      <c r="B54" s="159" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="160"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+    </row>
+    <row r="55" spans="1:9" s="163" customFormat="1" ht="14.25" customHeight="1">
       <c r="A55" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A54)+1)</f>
-        <v>ID-37</v>
+        <v>ID-36</v>
       </c>
       <c r="B55" s="111" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C55" s="111" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="D55" s="111" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="E55" s="111"/>
       <c r="F55" s="111"/>
       <c r="G55" s="111"/>
       <c r="H55" s="111"/>
-      <c r="I55" s="111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I55" s="161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="163" customFormat="1" ht="14.25" customHeight="1">
       <c r="A56" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A55)+1)</f>
-        <v>ID-38</v>
+        <v>ID-37</v>
       </c>
       <c r="B56" s="111" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C56" s="111" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D56" s="111" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="E56" s="111"/>
       <c r="F56" s="111"/>
       <c r="G56" s="111"/>
       <c r="H56" s="111"/>
-      <c r="I56" s="111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I56" s="161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="163" customFormat="1" ht="14.25" customHeight="1">
       <c r="A57" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A56)+1)</f>
-        <v>ID-39</v>
+        <v>ID-38</v>
       </c>
       <c r="B57" s="111" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C57" s="111" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D57" s="111" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="E57" s="111"/>
       <c r="F57" s="111"/>
       <c r="G57" s="111"/>
       <c r="H57" s="111"/>
-      <c r="I57" s="111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I57" s="161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
       <c r="A58" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A57)+1)</f>
-        <v>ID-40</v>
+        <v>ID-39</v>
       </c>
       <c r="B58" s="111" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C58" s="111" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D58" s="111" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="E58" s="111"/>
       <c r="F58" s="111"/>
       <c r="G58" s="111"/>
       <c r="H58" s="111"/>
-      <c r="I58" s="111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I58" s="161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
       <c r="A59" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A58)+1)</f>
-        <v>ID-41</v>
+        <v>ID-40</v>
       </c>
       <c r="B59" s="111" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="C59" s="111" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D59" s="111" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="E59" s="111"/>
       <c r="F59" s="111"/>
       <c r="G59" s="111"/>
       <c r="H59" s="111"/>
-      <c r="I59" s="111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="170" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A60" s="111" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A59)+1)</f>
-        <v>ID-42</v>
-      </c>
-      <c r="B60" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" s="111"/>
-      <c r="F60" s="111"/>
-      <c r="G60" s="111"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.5" customHeight="1">
+      <c r="I59" s="161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A60" s="146"/>
+      <c r="B60" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="146"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146"/>
+    </row>
+    <row r="61" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
       <c r="A61" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A60)+1)</f>
-        <v>ID-43</v>
+        <v>ID-41</v>
       </c>
       <c r="B61" s="111" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="C61" s="111" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="D61" s="111" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="E61" s="111"/>
       <c r="F61" s="111"/>
       <c r="G61" s="111"/>
       <c r="H61" s="111"/>
       <c r="I61" s="111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="13.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
       <c r="A62" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A61)+1)</f>
-        <v>ID-44</v>
+        <v>ID-42</v>
       </c>
       <c r="B62" s="111" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="C62" s="111" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="D62" s="111" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="E62" s="111"/>
       <c r="F62" s="111"/>
       <c r="G62" s="111"/>
       <c r="H62" s="111"/>
       <c r="I62" s="111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="13.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
       <c r="A63" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A62)+1)</f>
-        <v>ID-45</v>
+        <v>ID-43</v>
       </c>
       <c r="B63" s="111" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="C63" s="111" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="D63" s="111" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="E63" s="111"/>
       <c r="F63" s="111"/>
       <c r="G63" s="111"/>
       <c r="H63" s="111"/>
       <c r="I63" s="111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
       <c r="A64" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A63)+1)</f>
-        <v>ID-46</v>
+        <v>ID-44</v>
       </c>
       <c r="B64" s="111" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="C64" s="111" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="D64" s="111" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E64" s="111"/>
       <c r="F64" s="111"/>
       <c r="G64" s="111"/>
       <c r="H64" s="111"/>
       <c r="I64" s="111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
       <c r="A65" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A64)+1)</f>
-        <v>ID-47</v>
+        <v>ID-45</v>
       </c>
       <c r="B65" s="111" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="C65" s="111" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="D65" s="111" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="E65" s="111"/>
       <c r="F65" s="111"/>
       <c r="G65" s="111"/>
       <c r="H65" s="111"/>
       <c r="I65" s="111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
       <c r="A66" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A65)+1)</f>
-        <v>ID-48</v>
+        <v>ID-46</v>
       </c>
       <c r="B66" s="111" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C66" s="111" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="D66" s="111" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="E66" s="111"/>
       <c r="F66" s="111"/>
       <c r="G66" s="111"/>
       <c r="H66" s="111"/>
       <c r="I66" s="111" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="13.5" customHeight="1">
       <c r="A67" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A66)+1)</f>
-        <v>ID-49</v>
+        <v>ID-47</v>
       </c>
       <c r="B67" s="111" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="C67" s="111" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="D67" s="111" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="E67" s="111"/>
       <c r="F67" s="111"/>
       <c r="G67" s="111"/>
       <c r="H67" s="111"/>
       <c r="I67" s="111" t="s">
-        <v>130</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A68" s="111" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A67)+1)</f>
+        <v>ID-48</v>
+      </c>
+      <c r="B68" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="111"/>
+      <c r="F68" s="111"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A69" s="111" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A68)+1)</f>
+        <v>ID-49</v>
+      </c>
+      <c r="B69" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A70" s="111" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A69)+1)</f>
+        <v>ID-50</v>
+      </c>
+      <c r="B70" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="111"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="111"/>
+      <c r="I70" s="111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A71" s="111" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A70)+1)</f>
+        <v>ID-51</v>
+      </c>
+      <c r="B71" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="111"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A72" s="111" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A71)+1)</f>
+        <v>ID-52</v>
+      </c>
+      <c r="B72" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="111"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A73" s="111" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A72)+1)</f>
+        <v>ID-53</v>
+      </c>
+      <c r="B73" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="111"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="111" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6238,7 +6046,8 @@
       <dataRef ref="K2:K6" sheet="User Module"/>
     </dataRefs>
   </dataConsolidate>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C53:I53"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -6246,17 +6055,17 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G68:G65298 F14:F15 F17 F12:G12 G11 F19:F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G74:G65304 F14:F15 F17 F12:G12 G11 F19:F26">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G14:G15 G17 G19:G26">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49:I53 GJ42:GQ47 QF42:QM47 AAB42:AAI47 AJX42:AKE47 ATT42:AUA47 BDP42:BDW47 BNL42:BNS47 BXH42:BXO47 CHD42:CHK47 CQZ42:CRG47 DAV42:DBC47 DKR42:DKY47 DUN42:DUU47 EEJ42:EEQ47 EOF42:EOM47 EYB42:EYI47 FHX42:FIE47 FRT42:FSA47 GBP42:GBW47 GLL42:GLS47 GVH42:GVO47 HFD42:HFK47 HOZ42:HPG47 HYV42:HZC47 IIR42:IIY47 ISN42:ISU47 JCJ42:JCQ47 JMF42:JMM47 JWB42:JWI47 KFX42:KGE47 KPT42:KQA47 KZP42:KZW47 LJL42:LJS47 LTH42:LTO47 MDD42:MDK47 MMZ42:MNG47 MWV42:MXC47 NGR42:NGY47 NQN42:NQU47 OAJ42:OAQ47 OKF42:OKM47 OUB42:OUI47 PDX42:PEE47 PNT42:POA47 PXP42:PXW47 QHL42:QHS47 QRH42:QRO47 RBD42:RBK47 RKZ42:RLG47 RUV42:RVC47 SER42:SEY47 SON42:SOU47 SYJ42:SYQ47 TIF42:TIM47 TSB42:TSI47 UBX42:UCE47 ULT42:UMA47 UVP42:UVW47 VFL42:VFS47 VPH42:VPO47 VZD42:VZK47 WIZ42:WJG47 E55:I67 WIZ49:WJG60 GJ49:GQ60 QF49:QM60 AAB49:AAI60 AJX49:AKE60 ATT49:AUA60 BDP49:BDW60 BNL49:BNS60 BXH49:BXO60 CHD49:CHK60 CQZ49:CRG60 DAV49:DBC60 DKR49:DKY60 DUN49:DUU60 EEJ49:EEQ60 EOF49:EOM60 EYB49:EYI60 FHX49:FIE60 FRT49:FSA60 GBP49:GBW60 GLL49:GLS60 GVH49:GVO60 HFD49:HFK60 HOZ49:HPG60 HYV49:HZC60 IIR49:IIY60 ISN49:ISU60 JCJ49:JCQ60 JMF49:JMM60 JWB49:JWI60 KFX49:KGE60 KPT49:KQA60 KZP49:KZW60 LJL49:LJS60 LTH49:LTO60 MDD49:MDK60 MMZ49:MNG60 MWV49:MXC60 NGR49:NGY60 NQN49:NQU60 OAJ49:OAQ60 OKF49:OKM60 OUB49:OUI60 PDX49:PEE60 PNT49:POA60 PXP49:PXW60 QHL49:QHS60 QRH49:QRO60 RBD49:RBK60 RKZ49:RLG60 RUV49:RVC60 SER49:SEY60 SON49:SOU60 SYJ49:SYQ60 TIF49:TIM60 TSB49:TSI60 UBX49:UCE60 ULT49:UMA60 UVP49:UVW60 VFL49:VFS60 VPH49:VPO60 VZD49:VZK60 WJJ40:WJJ60 VZN40:VZN60 VPR40:VPR60 VFV40:VFV60 UVZ40:UVZ60 UMD40:UMD60 UCH40:UCH60 TSL40:TSL60 TIP40:TIP60 SYT40:SYT60 SOX40:SOX60 SFB40:SFB60 RVF40:RVF60 RLJ40:RLJ60 RBN40:RBN60 QRR40:QRR60 QHV40:QHV60 PXZ40:PXZ60 POD40:POD60 PEH40:PEH60 OUL40:OUL60 OKP40:OKP60 OAT40:OAT60 NQX40:NQX60 NHB40:NHB60 MXF40:MXF60 MNJ40:MNJ60 MDN40:MDN60 LTR40:LTR60 LJV40:LJV60 KZZ40:KZZ60 KQD40:KQD60 KGH40:KGH60 JWL40:JWL60 JMP40:JMP60 JCT40:JCT60 ISX40:ISX60 IJB40:IJB60 HZF40:HZF60 HPJ40:HPJ60 HFN40:HFN60 GVR40:GVR60 GLV40:GLV60 GBZ40:GBZ60 FSD40:FSD60 FIH40:FIH60 EYL40:EYL60 EOP40:EOP60 EET40:EET60 DUX40:DUX60 DLB40:DLB60 DBF40:DBF60 CRJ40:CRJ60 CHN40:CHN60 BXR40:BXR60 BNV40:BNV60 BDZ40:BDZ60 AUD40:AUD60 AKH40:AKH60 AAL40:AAL60 QP40:QP60 GT40:GT60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E55:I59 GJ42:GQ53 QF42:QM53 AAB42:AAI53 AJX42:AKE53 ATT42:AUA53 BDP42:BDW53 BNL42:BNS53 BXH42:BXO53 CHD42:CHK53 CQZ42:CRG53 DAV42:DBC53 DKR42:DKY53 DUN42:DUU53 EEJ42:EEQ53 EOF42:EOM53 EYB42:EYI53 FHX42:FIE53 FRT42:FSA53 GBP42:GBW53 GLL42:GLS53 GVH42:GVO53 HFD42:HFK53 HOZ42:HPG53 HYV42:HZC53 IIR42:IIY53 ISN42:ISU53 JCJ42:JCQ53 JMF42:JMM53 JWB42:JWI53 KFX42:KGE53 KPT42:KQA53 KZP42:KZW53 LJL42:LJS53 LTH42:LTO53 MDD42:MDK53 MMZ42:MNG53 MWV42:MXC53 NGR42:NGY53 NQN42:NQU53 OAJ42:OAQ53 OKF42:OKM53 OUB42:OUI53 PDX42:PEE53 PNT42:POA53 PXP42:PXW53 QHL42:QHS53 QRH42:QRO53 RBD42:RBK53 RKZ42:RLG53 RUV42:RVC53 SER42:SEY53 SON42:SOU53 SYJ42:SYQ53 TIF42:TIM53 TSB42:TSI53 UBX42:UCE53 ULT42:UMA53 UVP42:UVW53 VFL42:VFS53 VPH42:VPO53 VZD42:VZK53 WIZ42:WJG53 E61:I73 WIZ55:WJG66 GJ55:GQ66 QF55:QM66 AAB55:AAI66 AJX55:AKE66 ATT55:AUA66 BDP55:BDW66 BNL55:BNS66 BXH55:BXO66 CHD55:CHK66 CQZ55:CRG66 DAV55:DBC66 DKR55:DKY66 DUN55:DUU66 EEJ55:EEQ66 EOF55:EOM66 EYB55:EYI66 FHX55:FIE66 FRT55:FSA66 GBP55:GBW66 GLL55:GLS66 GVH55:GVO66 HFD55:HFK66 HOZ55:HPG66 HYV55:HZC66 IIR55:IIY66 ISN55:ISU66 JCJ55:JCQ66 JMF55:JMM66 JWB55:JWI66 KFX55:KGE66 KPT55:KQA66 KZP55:KZW66 LJL55:LJS66 LTH55:LTO66 MDD55:MDK66 MMZ55:MNG66 MWV55:MXC66 NGR55:NGY66 NQN55:NQU66 OAJ55:OAQ66 OKF55:OKM66 OUB55:OUI66 PDX55:PEE66 PNT55:POA66 PXP55:PXW66 QHL55:QHS66 QRH55:QRO66 RBD55:RBK66 RKZ55:RLG66 RUV55:RVC66 SER55:SEY66 SON55:SOU66 SYJ55:SYQ66 TIF55:TIM66 TSB55:TSI66 UBX55:UCE66 ULT55:UMA66 UVP55:UVW66 VFL55:VFS66 VPH55:VPO66 VZD55:VZK66 WJJ40:WJJ66 VZN40:VZN66 VPR40:VPR66 VFV40:VFV66 UVZ40:UVZ66 UMD40:UMD66 UCH40:UCH66 TSL40:TSL66 TIP40:TIP66 SYT40:SYT66 SOX40:SOX66 SFB40:SFB66 RVF40:RVF66 RLJ40:RLJ66 RBN40:RBN66 QRR40:QRR66 QHV40:QHV66 PXZ40:PXZ66 POD40:POD66 PEH40:PEH66 OUL40:OUL66 OKP40:OKP66 OAT40:OAT66 NQX40:NQX66 NHB40:NHB66 MXF40:MXF66 MNJ40:MNJ66 MDN40:MDN66 LTR40:LTR66 LJV40:LJV66 KZZ40:KZZ66 KQD40:KQD66 KGH40:KGH66 JWL40:JWL66 JMP40:JMP66 JCT40:JCT66 ISX40:ISX66 IJB40:IJB66 HZF40:HZF66 HPJ40:HPJ66 HFN40:HFN66 GVR40:GVR66 GLV40:GLV66 GBZ40:GBZ66 FSD40:FSD66 FIH40:FIH66 EYL40:EYL66 EOP40:EOP66 EET40:EET66 DUX40:DUX66 DLB40:DLB66 DBF40:DBF66 CRJ40:CRJ66 CHN40:CHN66 BXR40:BXR66 BNV40:BNV66 BDZ40:BDZ66 AUD40:AUD66 AKH40:AKH66 AAL40:AAL66 QP40:QP66 GT40:GT66">
       <formula1>"OK,NG,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28:G28 F30:G30 F32:G46">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28:G28 F30:G30 F32:G52">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6274,23 +6083,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="124" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="123" customWidth="1"/>
     <col min="2" max="2" width="42.125" style="99" customWidth="1"/>
-    <col min="3" max="3" width="33" style="99" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="99" customWidth="1"/>
     <col min="4" max="4" width="30.625" style="99" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="99" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="99" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="99" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="99" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="99" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="103" customWidth="1"/>
     <col min="9" max="9" width="15.125" style="99" customWidth="1"/>
     <col min="10" max="10" width="15.125" style="102" hidden="1" customWidth="1"/>
@@ -6300,393 +6109,732 @@
     <col min="18" max="16384" width="15.125" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="125" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="126" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="128"/>
-    </row>
-    <row r="2" spans="1:10" s="125" customFormat="1" ht="14.25">
-      <c r="A2" s="129" t="s">
+    <row r="1" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="127"/>
+    </row>
+    <row r="2" spans="1:10" s="124" customFormat="1" ht="14.25">
+      <c r="A2" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="226" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
+      <c r="B2" s="215" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
       <c r="J2" s="89" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="125" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="226" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
+    <row r="3" spans="1:10" s="124" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="215" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
       <c r="J3" s="89" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="125" customFormat="1" ht="14.25">
-      <c r="A4" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="227" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
+    <row r="4" spans="1:10" s="124" customFormat="1" ht="14.25">
+      <c r="A4" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="216" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:10" s="125" customFormat="1" ht="14.25">
-      <c r="A5" s="131" t="s">
+    <row r="5" spans="1:10" s="124" customFormat="1" ht="14.25">
+      <c r="A5" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="133" t="s">
+      <c r="C5" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="230" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
+      <c r="E5" s="219" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
       <c r="J5" s="89" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="125" customFormat="1" ht="15" thickBot="1">
+    <row r="6" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1">
       <c r="A6" s="120">
-        <f>COUNTIF(F11:G251,"Pass")</f>
+        <f>COUNTIF(F11:G247,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="95">
-        <f>COUNTIF(F11:G698,"Fail")</f>
+        <f>COUNTIF(F11:G694,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="95">
         <f>E6-D6-B6-A6</f>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D6" s="96">
-        <f>COUNTIF(F11:G698,"N/A")</f>
+        <f>COUNTIF(F11:G694,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="229">
-        <f>COUNTA(A11:A256)*2</f>
-        <v>20</v>
-      </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
+      <c r="E6" s="218">
+        <f>COUNTA(A11:A252)*2</f>
+        <v>52</v>
+      </c>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
       <c r="J6" s="89" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="125" customFormat="1" ht="14.25">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
+    <row r="7" spans="1:10" s="124" customFormat="1" ht="14.25">
+      <c r="A7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="J7" s="89"/>
     </row>
-    <row r="8" spans="1:10" s="125" customFormat="1" ht="14.25">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
+    <row r="8" spans="1:10" s="124" customFormat="1" ht="14.25">
+      <c r="A8" s="154"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" s="125" customFormat="1"/>
-    <row r="10" spans="1:10" s="125" customFormat="1" ht="51.75" customHeight="1">
+    <row r="9" spans="1:10" s="124" customFormat="1"/>
+    <row r="10" spans="1:10" s="124" customFormat="1" ht="51.75" customHeight="1">
       <c r="A10" s="51" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="I10" s="51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="125" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="123"/>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A11" s="150" t="s">
+        <v>111</v>
+      </c>
       <c r="B11" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="177"/>
-    </row>
-    <row r="12" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="152" t="str">
-        <f t="shared" ref="A12:A13" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>133</v>
+      </c>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="99"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A12" s="142" t="str">
+        <f t="shared" ref="A12:A38" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod_login-2]</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="D12" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="157"/>
+        <v>255</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="153" t="s">
+        <v>322</v>
+      </c>
       <c r="F12" s="111"/>
       <c r="G12" s="111"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="158"/>
-    </row>
-    <row r="13" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="152" t="str">
+      <c r="H12" s="148"/>
+      <c r="I12" s="149"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A13" s="150" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="152"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A14" s="142" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-3]</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="185" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="189" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="182"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="162"/>
-      <c r="B14" s="163" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="99"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A15" s="152"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="99"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A16" s="152"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="165"/>
+        <v>[Mod_login-4]</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="147" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="149"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A15" s="150" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="152"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A16" s="142" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-6]</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="147" t="s">
+        <v>324</v>
+      </c>
       <c r="F16" s="111"/>
       <c r="G16" s="111"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="99"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="162" t="s">
-        <v>174</v>
+      <c r="H16" s="148"/>
+      <c r="I16" s="149"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A17" s="150" t="s">
+        <v>111</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="99"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A18" s="152" t="str">
-        <f t="shared" ref="A18:A24" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>259</v>
+      </c>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="152"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A18" s="111" t="str">
+        <f t="shared" si="0"/>
         <v>[Mod_login-8]</v>
       </c>
-      <c r="B18" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="E18" s="165"/>
+      <c r="B18" s="111" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="111" t="s">
+        <v>263</v>
+      </c>
       <c r="F18" s="111"/>
       <c r="G18" s="111"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="161"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A19" s="162" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="164"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A20" s="152" t="str">
-        <f t="shared" si="1"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A19" s="222"/>
+      <c r="B19" s="150" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="220"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A20" s="111" t="str">
+        <f t="shared" si="0"/>
         <v>[Mod_login-10]</v>
       </c>
       <c r="B20" s="111" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="C20" s="111" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="D20" s="111" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="159"/>
+        <v>272</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>265</v>
+      </c>
       <c r="F20" s="111"/>
       <c r="G20" s="111"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="161"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="162" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="164"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A22" s="152" t="str">
-        <f t="shared" si="1"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A21" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-11]</v>
+      </c>
+      <c r="B21" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="111" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A22" s="111" t="str">
+        <f t="shared" si="0"/>
         <v>[Mod_login-12]</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="D22" s="111" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="161"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A23" s="162" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="164"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A24" s="152" t="str">
-        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="E22" s="226" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="226"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A23" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-13]</v>
+      </c>
+      <c r="B23" s="111" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="111" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="111" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="226" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A24" s="111" t="str">
+        <f t="shared" si="0"/>
         <v>[Mod_login-14]</v>
       </c>
       <c r="B24" s="111" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="C24" s="111" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="D24" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="159"/>
+        <v>276</v>
+      </c>
+      <c r="E24" s="226" t="s">
+        <v>279</v>
+      </c>
       <c r="F24" s="111"/>
       <c r="G24" s="111"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="161"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A25" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-15]</v>
+      </c>
+      <c r="B25" s="111" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="111" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="226" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="226"/>
+      <c r="G25" s="226"/>
+      <c r="H25" s="226"/>
+      <c r="I25" s="226"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A26" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-16]</v>
+      </c>
+      <c r="B26" s="111" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="111" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="226" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A27" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-17]</v>
+      </c>
+      <c r="B27" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="111" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="226" t="s">
+        <v>282</v>
+      </c>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A28" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-18]</v>
+      </c>
+      <c r="B28" s="111" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="111" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="226" t="s">
+        <v>283</v>
+      </c>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A29" s="222"/>
+      <c r="B29" s="150" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="220"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A30" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-20]</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="111" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" s="226" t="s">
+        <v>313</v>
+      </c>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="226"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A31" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-21]</v>
+      </c>
+      <c r="B31" s="111" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="111" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31" s="226" t="s">
+        <v>314</v>
+      </c>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="226"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A32" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-22]</v>
+      </c>
+      <c r="B32" s="111" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" s="111" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="226" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="226"/>
+      <c r="I32" s="226"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A33" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-23]</v>
+      </c>
+      <c r="B33" s="111" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="111" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" s="111" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" s="226" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" s="227"/>
+      <c r="G33" s="227"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="227"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A34" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-24]</v>
+      </c>
+      <c r="B34" s="111" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="111" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="111" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" s="226" t="s">
+        <v>317</v>
+      </c>
+      <c r="F34" s="227"/>
+      <c r="G34" s="227"/>
+      <c r="H34" s="228"/>
+      <c r="I34" s="227"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A35" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-25]</v>
+      </c>
+      <c r="B35" s="111" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="111" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35" s="111" t="s">
+        <v>307</v>
+      </c>
+      <c r="E35" s="226" t="s">
+        <v>318</v>
+      </c>
+      <c r="F35" s="227"/>
+      <c r="G35" s="227"/>
+      <c r="H35" s="228"/>
+      <c r="I35" s="227"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A36" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-26]</v>
+      </c>
+      <c r="B36" s="111" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="111" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="E36" s="226" t="s">
+        <v>319</v>
+      </c>
+      <c r="F36" s="227"/>
+      <c r="G36" s="227"/>
+      <c r="H36" s="228"/>
+      <c r="I36" s="227"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A37" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-27]</v>
+      </c>
+      <c r="B37" s="111" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="D37" s="111" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37" s="226" t="s">
+        <v>320</v>
+      </c>
+      <c r="F37" s="227"/>
+      <c r="G37" s="227"/>
+      <c r="H37" s="228"/>
+      <c r="I37" s="227"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A38" s="111" t="str">
+        <f t="shared" si="0"/>
+        <v>[Mod_login-28]</v>
+      </c>
+      <c r="B38" s="111" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="111" t="s">
+        <v>312</v>
+      </c>
+      <c r="D38" s="111" t="s">
+        <v>311</v>
+      </c>
+      <c r="E38" s="226" t="s">
+        <v>321</v>
+      </c>
+      <c r="F38" s="227"/>
+      <c r="G38" s="227"/>
+      <c r="H38" s="228"/>
+      <c r="I38" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6696,8 +6844,8 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F12:G13 F15:G17">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F11:G11">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G8">
@@ -6718,17 +6866,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="124" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="123" customWidth="1"/>
     <col min="2" max="2" width="42.125" style="99" customWidth="1"/>
     <col min="3" max="3" width="33" style="99" customWidth="1"/>
     <col min="4" max="4" width="28.875" style="99" customWidth="1"/>
@@ -6744,440 +6892,503 @@
     <col min="18" max="16384" width="15.125" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="125" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="126" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="128"/>
-    </row>
-    <row r="2" spans="1:10" s="125" customFormat="1" ht="14.25">
-      <c r="A2" s="129" t="s">
+    <row r="1" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="127"/>
+    </row>
+    <row r="2" spans="1:10" s="124" customFormat="1" ht="14.25">
+      <c r="A2" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
       <c r="J2" s="89" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="125" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="226" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
+    <row r="3" spans="1:10" s="124" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="215" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
       <c r="J3" s="89" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="125" customFormat="1" ht="14.25">
-      <c r="A4" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="227" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
+    <row r="4" spans="1:10" s="124" customFormat="1" ht="14.25">
+      <c r="A4" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="216" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:10" s="125" customFormat="1" ht="14.25">
-      <c r="A5" s="131" t="s">
+    <row r="5" spans="1:10" s="124" customFormat="1" ht="14.25">
+      <c r="A5" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="133" t="s">
+      <c r="C5" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="230" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
+      <c r="E5" s="219" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
       <c r="J5" s="89" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="125" customFormat="1" ht="15" thickBot="1">
+    <row r="6" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1">
       <c r="A6" s="120">
-        <f>COUNTIF(F11:G261,"Pass")</f>
+        <f>COUNTIF(F11:G260,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="95">
-        <f>COUNTIF(F11:G708,"Fail")</f>
+        <f>COUNTIF(F11:G707,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="95">
         <f>E6-D6-B6-A6</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D6" s="96">
-        <f>COUNTIF(F11:G708,"N/A")</f>
+        <f>COUNTIF(F11:G707,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="229">
-        <f>COUNTA(A11:A265)</f>
-        <v>5</v>
-      </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
+      <c r="E6" s="218">
+        <f>COUNTA(A11:A264)*2</f>
+        <v>22</v>
+      </c>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
       <c r="J6" s="89" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="125" customFormat="1" ht="14.25">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
+    <row r="7" spans="1:10" s="124" customFormat="1" ht="14.25">
+      <c r="A7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
       <c r="J7" s="89"/>
     </row>
-    <row r="8" spans="1:10" s="125" customFormat="1" ht="14.25">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
+    <row r="8" spans="1:10" s="124" customFormat="1" ht="14.25">
+      <c r="A8" s="154"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" s="125" customFormat="1"/>
-    <row r="10" spans="1:10" s="125" customFormat="1" ht="51.75" customHeight="1">
+    <row r="9" spans="1:10" s="124" customFormat="1"/>
+    <row r="10" spans="1:10" s="124" customFormat="1" ht="51.75" customHeight="1">
       <c r="A10" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="I10" s="52" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="125" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="162"/>
-      <c r="B11" s="163" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="164"/>
+    <row r="11" spans="1:10" s="124" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="150"/>
+      <c r="B11" s="151" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="152"/>
     </row>
     <row r="12" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="152" t="str">
+      <c r="A12" s="142" t="str">
         <f t="shared" ref="A12:A16" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-2]</v>
       </c>
-      <c r="B12" s="200" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="200" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="200" t="s">
-        <v>291</v>
-      </c>
-      <c r="E12" s="165" t="s">
-        <v>292</v>
-      </c>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
+      <c r="B12" s="186" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="186" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="186" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="153" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="188"/>
     </row>
     <row r="13" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="53"/>
-      <c r="B13" s="163" t="s">
-        <v>293</v>
-      </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="164"/>
+      <c r="B13" s="151" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="152"/>
     </row>
     <row r="14" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="152" t="str">
+      <c r="A14" s="142" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-4]</v>
       </c>
       <c r="B14" s="111" t="s">
-        <v>294</v>
+        <v>213</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>296</v>
+        <v>215</v>
       </c>
       <c r="D14" s="111" t="s">
-        <v>297</v>
-      </c>
-      <c r="E14" s="159" t="s">
-        <v>298</v>
+        <v>216</v>
+      </c>
+      <c r="E14" s="147" t="s">
+        <v>337</v>
       </c>
       <c r="F14" s="111"/>
       <c r="G14" s="111"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
     </row>
     <row r="15" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="53"/>
-      <c r="B15" s="163" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="164"/>
+      <c r="B15" s="151" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="152"/>
     </row>
     <row r="16" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="152" t="str">
+      <c r="A16" s="142" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-6]</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" s="159" t="s">
-        <v>303</v>
+        <v>249</v>
+      </c>
+      <c r="E16" s="147" t="s">
+        <v>338</v>
       </c>
       <c r="F16" s="111"/>
       <c r="G16" s="111"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="53"/>
       <c r="B17" s="53" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="164"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="152"/>
     </row>
     <row r="18" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="152" t="str">
-        <f t="shared" ref="A18:A19" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A18" s="189" t="str">
+        <f t="shared" ref="A18:A27" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-8]</v>
       </c>
-      <c r="B18" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>306</v>
-      </c>
-      <c r="D18" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="159"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-    </row>
-    <row r="19" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="152" t="str">
+      <c r="B18" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="195" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="196" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="197"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A19" s="199"/>
+      <c r="B19" s="200" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="99"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A20" s="111" t="str">
         <f t="shared" si="1"/>
-        <v>[Admin_login-9]</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>304</v>
-      </c>
-      <c r="C19" s="185" t="s">
-        <v>305</v>
-      </c>
-      <c r="D19" s="189" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" s="159"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="203"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="207"/>
+        <v>[Admin_login-10]</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="226" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="226" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="226" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="230"/>
       <c r="J20" s="99"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="208"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="208"/>
+      <c r="A21" s="111" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-11]</v>
+      </c>
+      <c r="B21" s="175" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="226" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="226" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="226" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21" s="226"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="226"/>
+      <c r="I21" s="230"/>
       <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="189"/>
-      <c r="B22" s="189"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="211"/>
+      <c r="A22" s="111" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-12]</v>
+      </c>
+      <c r="B22" s="175" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="226" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="226" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="226" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="230"/>
       <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="189"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="211"/>
+      <c r="A23" s="111" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-13]</v>
+      </c>
+      <c r="B23" s="175" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="226" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="226" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="221" t="s">
+        <v>332</v>
+      </c>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="229"/>
       <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="208"/>
-      <c r="B24" s="208"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="223" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="224"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="225"/>
       <c r="J24" s="99"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="189"/>
-      <c r="B25" s="189"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="211"/>
+      <c r="A25" s="111" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-15]</v>
+      </c>
+      <c r="B25" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="111" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="111" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" s="226"/>
+      <c r="G25" s="226"/>
+      <c r="H25" s="226"/>
+      <c r="I25" s="236"/>
       <c r="J25" s="99"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="208"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="208"/>
+      <c r="A26" s="111" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-16]</v>
+      </c>
+      <c r="B26" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="111" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="111" t="s">
+        <v>334</v>
+      </c>
+      <c r="F26" s="226"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="226"/>
+      <c r="I26" s="236"/>
       <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="189"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="210"/>
-      <c r="I27" s="211"/>
+      <c r="A27" s="111" t="str">
+        <f t="shared" si="1"/>
+        <v>[Admin_login-17]</v>
+      </c>
+      <c r="B27" s="111" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="111" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" s="111" t="s">
+        <v>335</v>
+      </c>
+      <c r="F27" s="226"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="226"/>
+      <c r="I27" s="236"/>
       <c r="J27" s="99"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A28" s="208"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="208"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="189"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="210"/>
-      <c r="I29" s="211"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="226"/>
+      <c r="G28" s="226"/>
+      <c r="H28" s="226"/>
+      <c r="I28" s="236"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B24:I24"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -7188,7 +7399,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G8">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F27:G27 F25:G25 F22:G23 F12:G12 F14:G14 F16:G16 F18:G20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1:G3 F18:G19 F12:G12 F14:G14 F16:G16 F25:G27">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="Statistic" comment="fsfsdfs" localSheetId="4">#REF!</definedName>
     <definedName name="Statistic" comment="fsfsdfs">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="349">
   <si>
     <t>Project Name</t>
   </si>
@@ -1601,7 +1601,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -3200,58 +3200,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3259,15 +3207,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="52" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="52" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3281,23 +3220,84 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="53" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="48" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="52" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="49" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -3430,14 +3430,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3817,7 +3817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:G11"/>
     </sheetView>
   </sheetViews>
@@ -3836,13 +3836,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="215" t="s">
         <v>339</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -3853,11 +3853,11 @@
       <c r="B4" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="216" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="190" t="s">
         <v>1</v>
       </c>
@@ -3869,11 +3869,11 @@
       <c r="B5" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="203" t="s">
+      <c r="C5" s="216" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="190" t="s">
         <v>3</v>
       </c>
@@ -3882,15 +3882,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="204" t="str">
+      <c r="C6" s="218" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
       <c r="F6" s="190" t="s">
         <v>5</v>
       </c>
@@ -3899,10 +3899,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="231"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
+      <c r="B7" s="217"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
       <c r="F7" s="190" t="s">
         <v>340</v>
       </c>
@@ -3923,27 +3923,27 @@
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="232" t="s">
+      <c r="B10" s="210" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="211" t="s">
         <v>342</v>
       </c>
-      <c r="C11" s="234" t="s">
+      <c r="C11" s="212" t="s">
         <v>340</v>
       </c>
-      <c r="D11" s="234" t="s">
+      <c r="D11" s="212" t="s">
         <v>343</v>
       </c>
-      <c r="E11" s="234" t="s">
+      <c r="E11" s="212" t="s">
         <v>344</v>
       </c>
-      <c r="F11" s="234" t="s">
+      <c r="F11" s="212" t="s">
         <v>345</v>
       </c>
-      <c r="G11" s="235" t="s">
+      <c r="G11" s="213" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4069,39 +4069,39 @@
       <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="208" t="str">
+      <c r="C3" s="221"/>
+      <c r="D3" s="222" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="208" t="str">
+      <c r="C4" s="221"/>
+      <c r="D4" s="222" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="206" t="s">
+      <c r="C5" s="219"/>
+      <c r="D5" s="220" t="s">
         <v>348</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="31"/>
@@ -4295,15 +4295,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="56"/>
@@ -4319,15 +4319,15 @@
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="208" t="str">
+      <c r="C3" s="222" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209" t="s">
+      <c r="D3" s="222"/>
+      <c r="E3" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="209"/>
+      <c r="F3" s="223"/>
       <c r="G3" s="9" t="s">
         <v>107</v>
       </c>
@@ -4337,15 +4337,15 @@
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="208" t="str">
+      <c r="C4" s="222" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209" t="s">
+      <c r="D4" s="222"/>
+      <c r="E4" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="209"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="9" t="s">
         <v>111</v>
       </c>
@@ -4355,15 +4355,15 @@
       <c r="B5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="208" t="str">
+      <c r="C5" s="222" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="208"/>
-      <c r="E5" s="209" t="s">
+      <c r="D5" s="222"/>
+      <c r="E5" s="223" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="209"/>
+      <c r="F5" s="223"/>
       <c r="G5" s="109"/>
       <c r="H5" s="61"/>
     </row>
@@ -4372,12 +4372,12 @@
       <c r="B6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="56"/>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="F12" s="70">
         <f>'Mod Module'!C6</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G12" s="70">
         <f>'Mod Module'!D6</f>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="H12" s="71">
         <f>'Mod Module'!E6</f>
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="F14" s="73">
         <f>SUM(F11:F13)</f>
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G14" s="73">
         <f>SUM(G9:G13)</f>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="H14" s="74">
         <f>SUM(H11:H13)</f>
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4667,14 +4667,14 @@
       <c r="A2" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="229" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
       <c r="H2" s="134" t="s">
         <v>14</v>
       </c>
@@ -4687,14 +4687,14 @@
       <c r="A3" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
       <c r="H3" s="134" t="s">
         <v>16</v>
       </c>
@@ -4707,14 +4707,14 @@
       <c r="A4" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="230" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
       <c r="H4" s="134" t="s">
         <v>19</v>
       </c>
@@ -4734,11 +4734,11 @@
       <c r="D5" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
       <c r="H5" s="135" t="s">
         <v>18</v>
       </c>
@@ -4764,12 +4764,12 @@
         <f>COUNTIF(F11:G679,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="218">
+      <c r="E6" s="232">
         <f>COUNTA(A11:A236)*2</f>
         <v>104</v>
       </c>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
+      <c r="F6" s="232"/>
+      <c r="G6" s="232"/>
       <c r="H6" s="93"/>
       <c r="I6" s="89"/>
       <c r="J6" s="89" t="s">
@@ -5610,13 +5610,13 @@
       <c r="B53" s="194" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="212"/>
-      <c r="D53" s="213"/>
-      <c r="E53" s="213"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="213"/>
-      <c r="H53" s="213"/>
-      <c r="I53" s="214"/>
+      <c r="C53" s="226"/>
+      <c r="D53" s="227"/>
+      <c r="E53" s="227"/>
+      <c r="F53" s="227"/>
+      <c r="G53" s="227"/>
+      <c r="H53" s="227"/>
+      <c r="I53" s="228"/>
     </row>
     <row r="54" spans="1:9" s="146" customFormat="1" ht="14.25" customHeight="1">
       <c r="A54" s="158"/>
@@ -6087,8 +6087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
@@ -6124,14 +6124,14 @@
       <c r="A2" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="229" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
       <c r="J2" s="89" t="s">
         <v>14</v>
       </c>
@@ -6140,14 +6140,14 @@
       <c r="A3" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="229" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
       <c r="J3" s="89" t="s">
         <v>16</v>
       </c>
@@ -6156,14 +6156,14 @@
       <c r="A4" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="230" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" s="124" customFormat="1" ht="14.25">
@@ -6179,11 +6179,11 @@
       <c r="D5" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
       <c r="J5" s="89" t="s">
         <v>21</v>
       </c>
@@ -6199,18 +6199,18 @@
       </c>
       <c r="C6" s="95">
         <f>E6-D6-B6-A6</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D6" s="96">
         <f>COUNTIF(F11:G694,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="218">
+      <c r="E6" s="232">
         <f>COUNTA(A11:A252)*2</f>
-        <v>52</v>
-      </c>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
+        <v>44</v>
+      </c>
+      <c r="F6" s="232"/>
+      <c r="G6" s="232"/>
       <c r="J6" s="89" t="s">
         <v>19</v>
       </c>
@@ -6266,9 +6266,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A11" s="150" t="s">
-        <v>111</v>
-      </c>
+      <c r="A11" s="150"/>
       <c r="B11" s="53" t="s">
         <v>133</v>
       </c>
@@ -6304,9 +6302,7 @@
       <c r="I12" s="149"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A13" s="150" t="s">
-        <v>111</v>
-      </c>
+      <c r="A13" s="150"/>
       <c r="B13" s="53" t="s">
         <v>208</v>
       </c>
@@ -6341,9 +6337,7 @@
       <c r="I14" s="149"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A15" s="150" t="s">
-        <v>111</v>
-      </c>
+      <c r="A15" s="150"/>
       <c r="B15" s="53" t="s">
         <v>253</v>
       </c>
@@ -6378,9 +6372,7 @@
       <c r="I16" s="149"/>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A17" s="150" t="s">
-        <v>111</v>
-      </c>
+      <c r="A17" s="150"/>
       <c r="B17" s="53" t="s">
         <v>259</v>
       </c>
@@ -6415,7 +6407,7 @@
       <c r="I18" s="111"/>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A19" s="222"/>
+      <c r="A19" s="204"/>
       <c r="B19" s="150" t="s">
         <v>264</v>
       </c>
@@ -6425,11 +6417,11 @@
       <c r="F19" s="150"/>
       <c r="G19" s="150"/>
       <c r="H19" s="150"/>
-      <c r="I19" s="220"/>
+      <c r="I19" s="202"/>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1">
       <c r="A20" s="111" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod_login-10]</v>
       </c>
       <c r="B20" s="111" t="s">
@@ -6485,13 +6477,13 @@
       <c r="D22" s="111" t="s">
         <v>267</v>
       </c>
-      <c r="E22" s="226" t="s">
+      <c r="E22" s="205" t="s">
         <v>277</v>
       </c>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="226"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="205"/>
     </row>
     <row r="23" spans="1:9" ht="13.5" customHeight="1">
       <c r="A23" s="111" t="str">
@@ -6507,7 +6499,7 @@
       <c r="D23" s="111" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="226" t="s">
+      <c r="E23" s="205" t="s">
         <v>278</v>
       </c>
       <c r="F23" s="111"/>
@@ -6529,7 +6521,7 @@
       <c r="D24" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="E24" s="226" t="s">
+      <c r="E24" s="205" t="s">
         <v>279</v>
       </c>
       <c r="F24" s="111"/>
@@ -6551,13 +6543,13 @@
       <c r="D25" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="E25" s="226" t="s">
+      <c r="E25" s="205" t="s">
         <v>280</v>
       </c>
-      <c r="F25" s="226"/>
-      <c r="G25" s="226"/>
-      <c r="H25" s="226"/>
-      <c r="I25" s="226"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1">
       <c r="A26" s="111" t="str">
@@ -6573,7 +6565,7 @@
       <c r="D26" s="111" t="s">
         <v>267</v>
       </c>
-      <c r="E26" s="226" t="s">
+      <c r="E26" s="205" t="s">
         <v>281</v>
       </c>
       <c r="F26" s="111"/>
@@ -6595,7 +6587,7 @@
       <c r="D27" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="E27" s="226" t="s">
+      <c r="E27" s="205" t="s">
         <v>282</v>
       </c>
       <c r="F27" s="111"/>
@@ -6617,7 +6609,7 @@
       <c r="D28" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="E28" s="226" t="s">
+      <c r="E28" s="205" t="s">
         <v>283</v>
       </c>
       <c r="F28" s="111"/>
@@ -6626,7 +6618,7 @@
       <c r="I28" s="111"/>
     </row>
     <row r="29" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A29" s="222"/>
+      <c r="A29" s="204"/>
       <c r="B29" s="150" t="s">
         <v>289</v>
       </c>
@@ -6636,7 +6628,7 @@
       <c r="F29" s="150"/>
       <c r="G29" s="150"/>
       <c r="H29" s="150"/>
-      <c r="I29" s="220"/>
+      <c r="I29" s="202"/>
     </row>
     <row r="30" spans="1:9" ht="13.5" customHeight="1">
       <c r="A30" s="111" t="str">
@@ -6652,13 +6644,13 @@
       <c r="D30" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="E30" s="226" t="s">
+      <c r="E30" s="205" t="s">
         <v>313</v>
       </c>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="226"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="205"/>
     </row>
     <row r="31" spans="1:9" ht="13.5" customHeight="1">
       <c r="A31" s="111" t="str">
@@ -6674,13 +6666,13 @@
       <c r="D31" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="E31" s="226" t="s">
+      <c r="E31" s="205" t="s">
         <v>314</v>
       </c>
-      <c r="F31" s="226"/>
-      <c r="G31" s="226"/>
-      <c r="H31" s="226"/>
-      <c r="I31" s="226"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="205"/>
     </row>
     <row r="32" spans="1:9" ht="13.5" customHeight="1">
       <c r="A32" s="111" t="str">
@@ -6696,13 +6688,13 @@
       <c r="D32" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="E32" s="226" t="s">
+      <c r="E32" s="205" t="s">
         <v>315</v>
       </c>
-      <c r="F32" s="226"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="226"/>
-      <c r="I32" s="226"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="205"/>
     </row>
     <row r="33" spans="1:9" ht="13.5" customHeight="1">
       <c r="A33" s="111" t="str">
@@ -6718,13 +6710,13 @@
       <c r="D33" s="111" t="s">
         <v>305</v>
       </c>
-      <c r="E33" s="226" t="s">
+      <c r="E33" s="205" t="s">
         <v>316</v>
       </c>
-      <c r="F33" s="227"/>
-      <c r="G33" s="227"/>
-      <c r="H33" s="228"/>
-      <c r="I33" s="227"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="206"/>
     </row>
     <row r="34" spans="1:9" ht="13.5" customHeight="1">
       <c r="A34" s="111" t="str">
@@ -6740,13 +6732,13 @@
       <c r="D34" s="111" t="s">
         <v>307</v>
       </c>
-      <c r="E34" s="226" t="s">
+      <c r="E34" s="205" t="s">
         <v>317</v>
       </c>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="228"/>
-      <c r="I34" s="227"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="206"/>
     </row>
     <row r="35" spans="1:9" ht="13.5" customHeight="1">
       <c r="A35" s="111" t="str">
@@ -6762,13 +6754,13 @@
       <c r="D35" s="111" t="s">
         <v>307</v>
       </c>
-      <c r="E35" s="226" t="s">
+      <c r="E35" s="205" t="s">
         <v>318</v>
       </c>
-      <c r="F35" s="227"/>
-      <c r="G35" s="227"/>
-      <c r="H35" s="228"/>
-      <c r="I35" s="227"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="207"/>
+      <c r="I35" s="206"/>
     </row>
     <row r="36" spans="1:9" ht="13.5" customHeight="1">
       <c r="A36" s="111" t="str">
@@ -6784,13 +6776,13 @@
       <c r="D36" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="E36" s="226" t="s">
+      <c r="E36" s="205" t="s">
         <v>319</v>
       </c>
-      <c r="F36" s="227"/>
-      <c r="G36" s="227"/>
-      <c r="H36" s="228"/>
-      <c r="I36" s="227"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="206"/>
     </row>
     <row r="37" spans="1:9" ht="13.5" customHeight="1">
       <c r="A37" s="111" t="str">
@@ -6806,13 +6798,13 @@
       <c r="D37" s="111" t="s">
         <v>311</v>
       </c>
-      <c r="E37" s="226" t="s">
+      <c r="E37" s="205" t="s">
         <v>320</v>
       </c>
-      <c r="F37" s="227"/>
-      <c r="G37" s="227"/>
-      <c r="H37" s="228"/>
-      <c r="I37" s="227"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="206"/>
     </row>
     <row r="38" spans="1:9" ht="13.5" customHeight="1">
       <c r="A38" s="111" t="str">
@@ -6828,13 +6820,13 @@
       <c r="D38" s="111" t="s">
         <v>311</v>
       </c>
-      <c r="E38" s="226" t="s">
+      <c r="E38" s="205" t="s">
         <v>321</v>
       </c>
-      <c r="F38" s="227"/>
-      <c r="G38" s="227"/>
-      <c r="H38" s="228"/>
-      <c r="I38" s="227"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6870,8 +6862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
@@ -6907,14 +6899,14 @@
       <c r="A2" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
       <c r="J2" s="89" t="s">
         <v>14</v>
       </c>
@@ -6923,14 +6915,14 @@
       <c r="A3" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="229" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
       <c r="J3" s="89" t="s">
         <v>16</v>
       </c>
@@ -6939,14 +6931,14 @@
       <c r="A4" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="230" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" s="124" customFormat="1" ht="14.25">
@@ -6962,11 +6954,11 @@
       <c r="D5" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
       <c r="J5" s="89" t="s">
         <v>21</v>
       </c>
@@ -6988,12 +6980,12 @@
         <f>COUNTIF(F11:G707,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="218">
+      <c r="E6" s="232">
         <f>COUNTA(A11:A264)*2</f>
         <v>22</v>
       </c>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
+      <c r="F6" s="232"/>
+      <c r="G6" s="232"/>
       <c r="J6" s="89" t="s">
         <v>19</v>
       </c>
@@ -7208,19 +7200,19 @@
       <c r="B20" s="111" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="226" t="s">
+      <c r="C20" s="205" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="226" t="s">
+      <c r="D20" s="205" t="s">
         <v>233</v>
       </c>
-      <c r="E20" s="226" t="s">
+      <c r="E20" s="205" t="s">
         <v>330</v>
       </c>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="230"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="209"/>
       <c r="J20" s="99"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
@@ -7231,19 +7223,19 @@
       <c r="B21" s="175" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="226" t="s">
+      <c r="C21" s="205" t="s">
         <v>240</v>
       </c>
-      <c r="D21" s="226" t="s">
+      <c r="D21" s="205" t="s">
         <v>241</v>
       </c>
-      <c r="E21" s="226" t="s">
+      <c r="E21" s="205" t="s">
         <v>329</v>
       </c>
-      <c r="F21" s="226"/>
-      <c r="G21" s="226"/>
-      <c r="H21" s="226"/>
-      <c r="I21" s="230"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="209"/>
       <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1">
@@ -7254,19 +7246,19 @@
       <c r="B22" s="175" t="s">
         <v>325</v>
       </c>
-      <c r="C22" s="226" t="s">
+      <c r="C22" s="205" t="s">
         <v>326</v>
       </c>
-      <c r="D22" s="226" t="s">
+      <c r="D22" s="205" t="s">
         <v>241</v>
       </c>
-      <c r="E22" s="226" t="s">
+      <c r="E22" s="205" t="s">
         <v>331</v>
       </c>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="230"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="209"/>
       <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
@@ -7277,33 +7269,33 @@
       <c r="B23" s="175" t="s">
         <v>327</v>
       </c>
-      <c r="C23" s="226" t="s">
+      <c r="C23" s="205" t="s">
         <v>328</v>
       </c>
-      <c r="D23" s="226" t="s">
+      <c r="D23" s="205" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="221" t="s">
+      <c r="E23" s="203" t="s">
         <v>332</v>
       </c>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="221"/>
-      <c r="I23" s="229"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="203"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="208"/>
       <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="53"/>
-      <c r="B24" s="223" t="s">
+      <c r="B24" s="234" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="224"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="224"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="224"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="225"/>
+      <c r="C24" s="235"/>
+      <c r="D24" s="235"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="236"/>
       <c r="J24" s="99"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
@@ -7323,10 +7315,10 @@
       <c r="E25" s="111" t="s">
         <v>333</v>
       </c>
-      <c r="F25" s="226"/>
-      <c r="G25" s="226"/>
-      <c r="H25" s="226"/>
-      <c r="I25" s="236"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="214"/>
       <c r="J25" s="99"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1">
@@ -7346,10 +7338,10 @@
       <c r="E26" s="111" t="s">
         <v>334</v>
       </c>
-      <c r="F26" s="226"/>
-      <c r="G26" s="226"/>
-      <c r="H26" s="226"/>
-      <c r="I26" s="236"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="214"/>
       <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1">
@@ -7369,10 +7361,10 @@
       <c r="E27" s="111" t="s">
         <v>335</v>
       </c>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="226"/>
-      <c r="I27" s="236"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="214"/>
       <c r="J27" s="99"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
@@ -7381,10 +7373,10 @@
       <c r="C28" s="111"/>
       <c r="D28" s="111"/>
       <c r="E28" s="111"/>
-      <c r="F28" s="226"/>
-      <c r="G28" s="226"/>
-      <c r="H28" s="226"/>
-      <c r="I28" s="236"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report3/VMN_Integration Test Case_v1.0_EN.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\201601JS01\WIP\Deliverable\Report3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Romeo/Documents/201601JS01/WIP/Deliverable/Report3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="743" activeTab="5"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="743" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="Statistic" comment="fsfsdfs" localSheetId="4">#REF!</definedName>
     <definedName name="Statistic" comment="fsfsdfs">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -54,7 +54,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +172,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="349">
   <si>
     <t>Project Name</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>Admin_login</t>
   </si>
   <si>
     <t>Admin_function</t>
@@ -616,9 +613,6 @@
     <t>VMN</t>
   </si>
   <si>
-    <t>Mod_login</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1597,15 +1591,21 @@
 3. Browser: Google Chrome 40, Mozzila Firefox 30
 4. Operation System: Mac OS X</t>
   </si>
+  <si>
+    <t>Mod Module</t>
+  </si>
+  <si>
+    <t>Admin Module</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2404,16 +2404,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2448,16 +2448,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2466,13 +2466,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2502,14 +2502,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2517,35 +2517,35 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2556,10 +2556,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3153,9 +3153,6 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3265,6 +3262,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3817,100 +3817,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="215" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="C2" s="214" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B4" s="190" t="s">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="216" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="190" t="s">
+      <c r="C4" s="215" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="189" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B5" s="190" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="216" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="190" t="s">
+      <c r="C5" s="215" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="189" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="217" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="218" t="str">
+      <c r="C6" s="217" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="190" t="s">
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="189" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="80">
         <v>42422</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="217"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="190" t="s">
-        <v>340</v>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="216"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="189" t="s">
+        <v>338</v>
       </c>
       <c r="G7" s="140" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -3919,35 +3919,35 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="210" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="209" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="210" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="211" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="211" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="13" customFormat="1">
-      <c r="B11" s="211" t="s">
+      <c r="E11" s="211" t="s">
         <v>342</v>
       </c>
-      <c r="C11" s="212" t="s">
-        <v>340</v>
-      </c>
-      <c r="D11" s="212" t="s">
+      <c r="F11" s="211" t="s">
         <v>343</v>
       </c>
-      <c r="E11" s="212" t="s">
+      <c r="G11" s="212" t="s">
         <v>344</v>
       </c>
-      <c r="F11" s="212" t="s">
-        <v>345</v>
-      </c>
-      <c r="G11" s="213" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="14" customFormat="1">
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="81">
         <v>42422</v>
       </c>
@@ -3959,13 +3959,13 @@
         <v>38</v>
       </c>
       <c r="F12" s="110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="21.75" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="81"/>
       <c r="C13" s="82"/>
       <c r="D13" s="16"/>
@@ -3973,7 +3973,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1">
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
       <c r="D14" s="16"/>
@@ -3981,7 +3981,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" ht="21.75" customHeight="1">
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -3989,7 +3989,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -3997,7 +3997,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.75" customHeight="1">
+    <row r="17" spans="2:7" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -4005,7 +4005,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="2:7" s="14" customFormat="1" ht="19.5" customHeight="1">
+    <row r="18" spans="2:7" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
@@ -4029,11 +4029,6 @@
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4041,83 +4036,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="24" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="25" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="28.125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="8"/>
+    <col min="4" max="4" width="18.6640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="25.5">
+    <row r="1" spans="2:6" ht="25" x14ac:dyDescent="0.25">
       <c r="B1" s="26"/>
       <c r="D1" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="2:6" ht="13.5" customHeight="1">
+    <row r="2" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="26"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="221" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="222" t="str">
+      <c r="C3" s="220"/>
+      <c r="D3" s="221" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="221" t="s">
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222" t="str">
+      <c r="C4" s="220"/>
+      <c r="D4" s="221" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-    </row>
-    <row r="5" spans="2:6" s="30" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="219" t="s">
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+    </row>
+    <row r="5" spans="2:6" s="30" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="220" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="C5" s="218"/>
+      <c r="D5" s="219" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="2:6" s="33" customFormat="1">
+    <row r="7" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="2:6" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="8" spans="2:6" s="36" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>8</v>
       </c>
@@ -4134,114 +4129,114 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="25.5">
+    <row r="9" spans="2:6" ht="26" x14ac:dyDescent="0.15">
       <c r="B9" s="41">
         <v>1</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F9" s="107" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="25.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="26" x14ac:dyDescent="0.15">
       <c r="B10" s="41">
         <v>2</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="170" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="107" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="25.5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="26" x14ac:dyDescent="0.15">
       <c r="B11" s="41">
         <v>3</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="13.5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
       <c r="D12" s="84"/>
       <c r="E12" s="43"/>
       <c r="F12" s="44"/>
     </row>
-    <row r="13" spans="2:6" ht="13.5">
+    <row r="13" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
       <c r="D13" s="104"/>
       <c r="E13" s="45"/>
       <c r="F13" s="44"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="44"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
       <c r="F15" s="44"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
       <c r="F16" s="44"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="44"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="44"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="44"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="46"/>
       <c r="C20" s="47"/>
       <c r="D20" s="48"/>
@@ -4268,11 +4263,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"tahoma,Regular"&amp;8Internal use&amp;R&amp;"tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4284,28 +4274,28 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="8"/>
+    <col min="1" max="1" width="8.83203125" style="8"/>
     <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="8" customWidth="1"/>
-    <col min="4" max="7" width="8.875" style="8"/>
-    <col min="8" max="9" width="33.125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="8"/>
+    <col min="3" max="3" width="23.1640625" style="8" customWidth="1"/>
+    <col min="4" max="7" width="8.83203125" style="8"/>
+    <col min="8" max="9" width="33.1640625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="225" t="s">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="57"/>
@@ -4315,71 +4305,71 @@
       <c r="G2" s="57"/>
       <c r="H2" s="58"/>
     </row>
-    <row r="3" spans="1:8" ht="12" customHeight="1">
+    <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="222" t="str">
+      <c r="C3" s="221" t="str">
         <f>Cover!C4</f>
         <v>Vietnamese Medicinal Plants Network</v>
       </c>
-      <c r="D3" s="222"/>
-      <c r="E3" s="223" t="s">
+      <c r="D3" s="221"/>
+      <c r="E3" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="223"/>
+      <c r="F3" s="222"/>
       <c r="G3" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" s="59"/>
     </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1">
+    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="222" t="str">
+      <c r="C4" s="221" t="str">
         <f>Cover!C5</f>
         <v>VMN</v>
       </c>
-      <c r="D4" s="222"/>
-      <c r="E4" s="223" t="s">
+      <c r="D4" s="221"/>
+      <c r="E4" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="223"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="1:8" ht="12" customHeight="1">
+    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="222" t="str">
+      <c r="C5" s="221" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>VMN_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="222"/>
-      <c r="E5" s="223" t="s">
+      <c r="D5" s="221"/>
+      <c r="E5" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="223"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="109"/>
       <c r="H5" s="61"/>
     </row>
-    <row r="6" spans="1:8" ht="21.75" customHeight="1">
+    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="56"/>
       <c r="B6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="56"/>
       <c r="B7" s="62"/>
       <c r="C7" s="63"/>
@@ -4389,7 +4379,7 @@
       <c r="G7" s="57"/>
       <c r="H7" s="58"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="57"/>
@@ -4398,7 +4388,7 @@
       <c r="G8" s="57"/>
       <c r="H8" s="58"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="64"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -4408,7 +4398,7 @@
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="65"/>
       <c r="B10" s="137" t="s">
         <v>8</v>
@@ -4432,13 +4422,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="65"/>
       <c r="B11" s="138">
         <v>1</v>
       </c>
       <c r="C11" s="136" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D11" s="70">
         <f>'User Module'!A6</f>
@@ -4450,7 +4440,7 @@
       </c>
       <c r="F11" s="70">
         <f>'User Module'!C6</f>
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G11" s="70">
         <f>'User Module'!D6</f>
@@ -4458,16 +4448,16 @@
       </c>
       <c r="H11" s="71">
         <f>'User Module'!E6</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="69"/>
       <c r="B12" s="138">
         <v>2</v>
       </c>
       <c r="C12" s="170" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D12" s="70">
         <f>'Mod Module'!A6</f>
@@ -4490,13 +4480,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="69"/>
       <c r="B13" s="138">
         <v>3</v>
       </c>
       <c r="C13" s="136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="70">
         <f>'Admin Module'!A6</f>
@@ -4519,7 +4509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="64"/>
       <c r="B14" s="139"/>
       <c r="C14" s="72" t="s">
@@ -4535,7 +4525,7 @@
       </c>
       <c r="F14" s="73">
         <f>SUM(F11:F13)</f>
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="G14" s="73">
         <f>SUM(G9:G13)</f>
@@ -4543,10 +4533,10 @@
       </c>
       <c r="H14" s="74">
         <f>SUM(H11:H13)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="64"/>
       <c r="B15" s="75"/>
       <c r="C15" s="64"/>
@@ -4556,7 +4546,7 @@
       <c r="G15" s="77"/>
       <c r="H15" s="77"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="64"/>
       <c r="B16" s="64"/>
       <c r="C16" s="78" t="s">
@@ -4573,7 +4563,7 @@
       <c r="G16" s="64"/>
       <c r="H16" s="50"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="78" t="s">
         <v>36</v>
@@ -4589,11 +4579,11 @@
       <c r="G17" s="64"/>
       <c r="H17" s="50"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
     </row>
-    <row r="19" spans="2:8" ht="14.25">
+    <row r="19" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="C19" s="169"/>
     </row>
   </sheetData>
@@ -4618,40 +4608,35 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"tahoma,Regular"&amp;8Internal use&amp;R&amp;"Tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="123" customWidth="1"/>
-    <col min="2" max="2" width="39.875" style="99" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="123" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" style="99" customWidth="1"/>
     <col min="3" max="3" width="33" style="99" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="99" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="99" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="99" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="99" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="103" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="99" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="102" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="15.125" style="99"/>
+    <col min="4" max="4" width="27.6640625" style="99" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="99" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="99" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="103" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="99" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="102" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="15.1640625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -4663,12 +4648,12 @@
       <c r="I1" s="89"/>
       <c r="J1" s="89"/>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="117" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="229" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="229"/>
       <c r="D2" s="229"/>
@@ -4683,12 +4668,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="118" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="229" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="229"/>
       <c r="D3" s="229"/>
@@ -4703,12 +4688,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="117" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="230" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="230"/>
       <c r="D4" s="230"/>
@@ -4721,7 +4706,7 @@
       <c r="I4" s="89"/>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="119" t="s">
         <v>14</v>
       </c>
@@ -4747,26 +4732,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="120">
-        <f>COUNTIF(F11:G232,"Pass")</f>
+        <f>COUNTIF(F11:G230,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="95">
-        <f>COUNTIF(F11:G679,"Fail")</f>
+        <f>COUNTIF(F11:G677,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="95">
         <f>E6-D6-B6-A6</f>
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D6" s="96">
-        <f>COUNTIF(F11:G679,"N/A")</f>
+        <f>COUNTIF(F11:G677,"N/A")</f>
         <v>0</v>
       </c>
       <c r="E6" s="232">
-        <f>COUNTA(A11:A236)*2</f>
-        <v>104</v>
+        <f>COUNTA(A11:A234)*2</f>
+        <v>76</v>
       </c>
       <c r="F6" s="232"/>
       <c r="G6" s="232"/>
@@ -4776,7 +4761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="154"/>
       <c r="B7" s="155"/>
       <c r="C7" s="155"/>
@@ -4788,7 +4773,7 @@
       <c r="I7" s="89"/>
       <c r="J7" s="89"/>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="154"/>
       <c r="B8" s="155"/>
       <c r="C8" s="155"/>
@@ -4800,7 +4785,7 @@
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="121"/>
       <c r="B9" s="89"/>
       <c r="C9" s="89"/>
@@ -4812,7 +4797,7 @@
       <c r="I9" s="93"/>
       <c r="J9" s="94"/>
     </row>
-    <row r="10" spans="1:10" ht="48.75" customHeight="1">
+    <row r="10" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
         <v>22</v>
       </c>
@@ -4829,10 +4814,10 @@
         <v>26</v>
       </c>
       <c r="F10" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="52" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="52" t="s">
         <v>27</v>
@@ -4842,10 +4827,10 @@
       </c>
       <c r="J10" s="89"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="182"/>
       <c r="B11" s="53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -4856,19 +4841,19 @@
       <c r="I11" s="164"/>
       <c r="J11" s="89"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="183" t="str">
-        <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A12:A48" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-2]</v>
       </c>
       <c r="B12" s="115" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="115" t="s">
         <v>130</v>
-      </c>
-      <c r="D12" s="115" t="s">
-        <v>132</v>
       </c>
       <c r="E12" s="112"/>
       <c r="F12" s="111"/>
@@ -4877,10 +4862,10 @@
       <c r="I12" s="114"/>
       <c r="J12" s="89"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="184"/>
       <c r="B13" s="53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -4891,19 +4876,19 @@
       <c r="I13" s="55"/>
       <c r="J13" s="89"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="183" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-4]</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="115" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="85"/>
       <c r="F14" s="111"/>
@@ -4912,19 +4897,19 @@
       <c r="I14" s="101"/>
       <c r="J14" s="89"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1">
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="183" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-5]</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="171" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" s="175" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E15" s="171"/>
       <c r="F15" s="166"/>
@@ -4933,10 +4918,10 @@
       <c r="I15" s="173"/>
       <c r="J15" s="89"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1">
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="184"/>
       <c r="B16" s="53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="174"/>
@@ -4947,22 +4932,22 @@
       <c r="I16" s="55"/>
       <c r="J16" s="89"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1">
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="183" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-7]</v>
       </c>
       <c r="B17" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="D17" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="85" t="s">
         <v>138</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="85" t="s">
-        <v>140</v>
       </c>
       <c r="F17" s="111"/>
       <c r="G17" s="85"/>
@@ -4970,10 +4955,10 @@
       <c r="I17" s="101"/>
       <c r="J17" s="89"/>
     </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="184"/>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="183"/>
       <c r="B18" s="53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="54"/>
@@ -4984,19 +4969,19 @@
       <c r="I18" s="55"/>
       <c r="J18" s="89"/>
     </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A19" s="85" t="str">
-        <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-9]</v>
       </c>
       <c r="B19" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="100" t="s">
-        <v>144</v>
-      </c>
       <c r="D19" s="85" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" s="98"/>
       <c r="F19" s="111"/>
@@ -5005,22 +4990,22 @@
       <c r="I19" s="144"/>
       <c r="J19" s="89"/>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="85" t="str">
-        <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-10]</v>
       </c>
       <c r="B20" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="98" t="s">
         <v>146</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>148</v>
       </c>
       <c r="F20" s="111"/>
       <c r="G20" s="142"/>
@@ -5028,12 +5013,10 @@
       <c r="I20" s="141"/>
       <c r="J20" s="89"/>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="184" t="s">
-        <v>111</v>
-      </c>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="183"/>
       <c r="B21" s="53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
@@ -5044,22 +5027,22 @@
       <c r="I21" s="55"/>
       <c r="J21" s="99"/>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A22" s="85" t="str">
-        <f t="shared" ref="A22:A26" si="1">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-12]</v>
       </c>
       <c r="B22" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="100" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="98" t="s">
-        <v>195</v>
-      </c>
       <c r="E22" s="98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F22" s="111"/>
       <c r="G22" s="85"/>
@@ -5067,12 +5050,10 @@
       <c r="I22" s="144"/>
       <c r="J22" s="99"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="184" t="s">
-        <v>111</v>
-      </c>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="183"/>
       <c r="B23" s="53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
@@ -5083,22 +5064,22 @@
       <c r="I23" s="55"/>
       <c r="J23" s="99"/>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="85" t="str">
-        <f t="shared" si="1"/>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-14]</v>
       </c>
       <c r="B24" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="98" t="s">
-        <v>198</v>
-      </c>
       <c r="E24" s="98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F24" s="111"/>
       <c r="G24" s="142"/>
@@ -5106,12 +5087,10 @@
       <c r="I24" s="141"/>
       <c r="J24" s="99"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="184" t="s">
-        <v>111</v>
-      </c>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="183"/>
       <c r="B25" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
@@ -5122,22 +5101,22 @@
       <c r="I25" s="179"/>
       <c r="J25" s="99"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A26" s="85" t="str">
-        <f t="shared" si="1"/>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-16]</v>
       </c>
       <c r="B26" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="176" t="s">
         <v>203</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="E26" s="178" t="s">
         <v>204</v>
-      </c>
-      <c r="D26" s="176" t="s">
-        <v>205</v>
-      </c>
-      <c r="E26" s="178" t="s">
-        <v>206</v>
       </c>
       <c r="F26" s="111"/>
       <c r="G26" s="142"/>
@@ -5145,12 +5124,10 @@
       <c r="I26" s="181"/>
       <c r="J26" s="99"/>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="185" t="s">
-        <v>111</v>
-      </c>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="183"/>
       <c r="B27" s="146" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="143"/>
       <c r="D27" s="143"/>
@@ -5161,22 +5138,22 @@
       <c r="I27" s="145"/>
       <c r="J27" s="99"/>
     </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A28" s="111" t="str">
-        <f t="shared" ref="A28:A48" si="2">IF(OR(B28&lt;&gt;"",D28&lt;E27&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-18]</v>
       </c>
       <c r="B28" s="111" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="111" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D28" s="111" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E28" s="112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F28" s="111"/>
       <c r="G28" s="111"/>
@@ -5184,12 +5161,10 @@
       <c r="I28" s="114"/>
       <c r="J28" s="99"/>
     </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A29" s="185" t="s">
-        <v>111</v>
-      </c>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="183"/>
       <c r="B29" s="146" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" s="143"/>
       <c r="D29" s="143"/>
@@ -5200,22 +5175,22 @@
       <c r="I29" s="145"/>
       <c r="J29" s="99"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A30" s="111" t="str">
-        <f t="shared" si="2"/>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-20]</v>
       </c>
       <c r="B30" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="111" t="s">
+      <c r="E30" s="112" t="s">
         <v>159</v>
-      </c>
-      <c r="E30" s="112" t="s">
-        <v>161</v>
       </c>
       <c r="F30" s="111"/>
       <c r="G30" s="111"/>
@@ -5223,12 +5198,10 @@
       <c r="I30" s="114"/>
       <c r="J30" s="99"/>
     </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="185" t="s">
-        <v>111</v>
-      </c>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="183"/>
       <c r="B31" s="146" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C31" s="143"/>
       <c r="D31" s="143"/>
@@ -5239,22 +5212,22 @@
       <c r="I31" s="145"/>
       <c r="J31" s="99"/>
     </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A32" s="111" t="str">
-        <f t="shared" si="2"/>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-22]</v>
       </c>
       <c r="B32" s="111" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="111" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="111" t="s">
-        <v>165</v>
-      </c>
       <c r="E32" s="112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F32" s="111"/>
       <c r="G32" s="111"/>
@@ -5262,12 +5235,10 @@
       <c r="I32" s="114"/>
       <c r="J32" s="99"/>
     </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A33" s="185" t="s">
-        <v>111</v>
-      </c>
+    <row r="33" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="183"/>
       <c r="B33" s="146" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C33" s="143"/>
       <c r="D33" s="143"/>
@@ -5278,22 +5249,22 @@
       <c r="I33" s="145"/>
       <c r="J33" s="99"/>
     </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A34" s="111" t="str">
-        <f t="shared" si="2"/>
+    <row r="34" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-24]</v>
       </c>
       <c r="B34" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="C34" s="111" t="s">
+      <c r="E34" s="112" t="s">
         <v>189</v>
-      </c>
-      <c r="D34" s="111" t="s">
-        <v>190</v>
-      </c>
-      <c r="E34" s="112" t="s">
-        <v>191</v>
       </c>
       <c r="F34" s="111"/>
       <c r="G34" s="111"/>
@@ -5301,12 +5272,10 @@
       <c r="I34" s="114"/>
       <c r="J34" s="99"/>
     </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="185" t="s">
-        <v>111</v>
-      </c>
+    <row r="35" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="183"/>
       <c r="B35" s="146" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C35" s="143"/>
       <c r="D35" s="143"/>
@@ -5317,22 +5286,22 @@
       <c r="I35" s="145"/>
       <c r="J35" s="99"/>
     </row>
-    <row r="36" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A36" s="111" t="str">
-        <f t="shared" si="2"/>
+    <row r="36" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-26]</v>
       </c>
       <c r="B36" s="111" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C36" s="111" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="111" t="s">
-        <v>185</v>
-      </c>
       <c r="E36" s="112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F36" s="111"/>
       <c r="G36" s="111"/>
@@ -5340,12 +5309,10 @@
       <c r="I36" s="114"/>
       <c r="J36" s="99"/>
     </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A37" s="185" t="s">
-        <v>111</v>
-      </c>
+    <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="183"/>
       <c r="B37" s="146" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C37" s="143"/>
       <c r="D37" s="143"/>
@@ -5356,22 +5323,22 @@
       <c r="I37" s="145"/>
       <c r="J37" s="99"/>
     </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A38" s="111" t="str">
-        <f t="shared" si="2"/>
+    <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-28]</v>
       </c>
       <c r="B38" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="112" t="s">
         <v>167</v>
-      </c>
-      <c r="C38" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" s="112" t="s">
-        <v>169</v>
       </c>
       <c r="F38" s="111"/>
       <c r="G38" s="111"/>
@@ -5379,12 +5346,10 @@
       <c r="I38" s="114"/>
       <c r="J38" s="99"/>
     </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="185" t="s">
-        <v>111</v>
-      </c>
+    <row r="39" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="183"/>
       <c r="B39" s="146" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C39" s="143"/>
       <c r="D39" s="143"/>
@@ -5395,32 +5360,41 @@
       <c r="I39" s="145"/>
       <c r="J39" s="99"/>
     </row>
-    <row r="40" spans="1:10" s="146" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A40" s="111" t="str">
-        <f t="shared" si="2"/>
+    <row r="40" spans="1:21" s="146" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-30]</v>
       </c>
       <c r="B40" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="111" t="s">
         <v>171</v>
-      </c>
-      <c r="C40" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="111" t="s">
-        <v>173</v>
       </c>
       <c r="E40" s="112"/>
       <c r="F40" s="111"/>
       <c r="G40" s="111"/>
       <c r="H40" s="113"/>
       <c r="I40" s="114"/>
-    </row>
-    <row r="41" spans="1:10" s="157" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A41" s="185" t="s">
-        <v>111</v>
-      </c>
+      <c r="K40" s="225"/>
+      <c r="L40" s="225"/>
+      <c r="M40" s="225"/>
+      <c r="N40" s="225"/>
+      <c r="O40" s="225"/>
+      <c r="P40" s="225"/>
+      <c r="Q40" s="225"/>
+      <c r="R40" s="225"/>
+      <c r="S40" s="225"/>
+      <c r="T40" s="225"/>
+      <c r="U40" s="143"/>
+    </row>
+    <row r="41" spans="1:21" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="183"/>
       <c r="B41" s="146" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -5429,35 +5403,53 @@
       <c r="G41" s="143"/>
       <c r="H41" s="143"/>
       <c r="I41" s="145"/>
-    </row>
-    <row r="42" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A42" s="111" t="str">
-        <f t="shared" si="2"/>
+      <c r="K41" s="225"/>
+      <c r="L41" s="225"/>
+      <c r="M41" s="225"/>
+      <c r="N41" s="225"/>
+      <c r="O41" s="225"/>
+      <c r="P41" s="225"/>
+      <c r="Q41" s="225"/>
+      <c r="R41" s="225"/>
+      <c r="S41" s="225"/>
+      <c r="T41" s="225"/>
+    </row>
+    <row r="42" spans="1:21" s="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-32]</v>
       </c>
       <c r="B42" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="111" t="s">
+      <c r="D42" s="111" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="112" t="s">
         <v>176</v>
-      </c>
-      <c r="D42" s="111" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="112" t="s">
-        <v>178</v>
       </c>
       <c r="F42" s="111"/>
       <c r="G42" s="111"/>
       <c r="H42" s="113"/>
       <c r="I42" s="114"/>
-    </row>
-    <row r="43" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="185" t="s">
-        <v>111</v>
-      </c>
+      <c r="K42" s="225"/>
+      <c r="L42" s="225"/>
+      <c r="M42" s="225"/>
+      <c r="N42" s="225"/>
+      <c r="O42" s="225"/>
+      <c r="P42" s="225"/>
+      <c r="Q42" s="225"/>
+      <c r="R42" s="225"/>
+      <c r="S42" s="225"/>
+      <c r="T42" s="225"/>
+    </row>
+    <row r="43" spans="1:21" s="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="183"/>
       <c r="B43" s="146" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C43" s="143"/>
       <c r="D43" s="143"/>
@@ -5466,33 +5458,51 @@
       <c r="G43" s="143"/>
       <c r="H43" s="143"/>
       <c r="I43" s="145"/>
-    </row>
-    <row r="44" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A44" s="111" t="str">
-        <f t="shared" si="2"/>
+      <c r="K43" s="225"/>
+      <c r="L43" s="225"/>
+      <c r="M43" s="225"/>
+      <c r="N43" s="225"/>
+      <c r="O43" s="225"/>
+      <c r="P43" s="225"/>
+      <c r="Q43" s="225"/>
+      <c r="R43" s="225"/>
+      <c r="S43" s="225"/>
+      <c r="T43" s="225"/>
+    </row>
+    <row r="44" spans="1:21" s="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-34]</v>
       </c>
       <c r="B44" s="111" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C44" s="111" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D44" s="111" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E44" s="112"/>
       <c r="F44" s="111"/>
       <c r="G44" s="111"/>
       <c r="H44" s="113"/>
       <c r="I44" s="114"/>
-    </row>
-    <row r="45" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A45" s="185" t="s">
-        <v>111</v>
-      </c>
+      <c r="K44" s="225"/>
+      <c r="L44" s="225"/>
+      <c r="M44" s="225"/>
+      <c r="N44" s="225"/>
+      <c r="O44" s="225"/>
+      <c r="P44" s="225"/>
+      <c r="Q44" s="225"/>
+      <c r="R44" s="225"/>
+      <c r="S44" s="225"/>
+      <c r="T44" s="225"/>
+    </row>
+    <row r="45" spans="1:21" s="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="183"/>
       <c r="B45" s="146" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C45" s="143"/>
       <c r="D45" s="143"/>
@@ -5501,35 +5511,53 @@
       <c r="G45" s="143"/>
       <c r="H45" s="143"/>
       <c r="I45" s="145"/>
-    </row>
-    <row r="46" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A46" s="111" t="str">
-        <f t="shared" si="2"/>
+      <c r="K45" s="225"/>
+      <c r="L45" s="225"/>
+      <c r="M45" s="225"/>
+      <c r="N45" s="225"/>
+      <c r="O45" s="225"/>
+      <c r="P45" s="225"/>
+      <c r="Q45" s="225"/>
+      <c r="R45" s="225"/>
+      <c r="S45" s="225"/>
+      <c r="T45" s="225"/>
+    </row>
+    <row r="46" spans="1:21" s="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-36]</v>
       </c>
       <c r="B46" s="175" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="175" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="C46" s="175" t="s">
-        <v>223</v>
-      </c>
-      <c r="D46" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="E46" s="191" t="s">
-        <v>228</v>
+      <c r="E46" s="190" t="s">
+        <v>226</v>
       </c>
       <c r="F46" s="175"/>
       <c r="G46" s="175"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="193"/>
-    </row>
-    <row r="47" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="185" t="s">
-        <v>111</v>
-      </c>
+      <c r="H46" s="191"/>
+      <c r="I46" s="192"/>
+      <c r="K46" s="225"/>
+      <c r="L46" s="225"/>
+      <c r="M46" s="225"/>
+      <c r="N46" s="225"/>
+      <c r="O46" s="225"/>
+      <c r="P46" s="225"/>
+      <c r="Q46" s="225"/>
+      <c r="R46" s="225"/>
+      <c r="S46" s="225"/>
+      <c r="T46" s="225"/>
+    </row>
+    <row r="47" spans="1:21" s="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="183"/>
       <c r="B47" s="146" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C47" s="143"/>
       <c r="D47" s="143"/>
@@ -5538,125 +5566,238 @@
       <c r="G47" s="143"/>
       <c r="H47" s="143"/>
       <c r="I47" s="145"/>
-    </row>
-    <row r="48" spans="1:10" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A48" s="175" t="str">
-        <f t="shared" si="2"/>
+      <c r="K47" s="225"/>
+      <c r="L47" s="225"/>
+      <c r="M47" s="225"/>
+      <c r="N47" s="225"/>
+      <c r="O47" s="225"/>
+      <c r="P47" s="225"/>
+      <c r="Q47" s="225"/>
+      <c r="R47" s="225"/>
+      <c r="S47" s="225"/>
+      <c r="T47" s="225"/>
+    </row>
+    <row r="48" spans="1:21" s="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="183" t="str">
+        <f t="shared" si="0"/>
         <v>[User Module-38]</v>
       </c>
       <c r="B48" s="175" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="175" t="s">
         <v>225</v>
       </c>
-      <c r="C48" s="175" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" s="175" t="s">
+      <c r="E48" s="190" t="s">
         <v>227</v>
-      </c>
-      <c r="E48" s="191" t="s">
-        <v>229</v>
       </c>
       <c r="F48" s="175"/>
       <c r="G48" s="175"/>
-      <c r="H48" s="192"/>
-      <c r="I48" s="193"/>
-    </row>
-    <row r="49" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A49" s="175"/>
-      <c r="B49" s="175"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="175"/>
-      <c r="E49" s="191"/>
-      <c r="F49" s="175"/>
-      <c r="G49" s="175"/>
-      <c r="H49" s="192"/>
-      <c r="I49" s="193"/>
-    </row>
-    <row r="50" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A50" s="175"/>
-      <c r="B50" s="175"/>
-      <c r="C50" s="175"/>
-      <c r="D50" s="175"/>
-      <c r="E50" s="191"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="175"/>
-      <c r="H50" s="192"/>
-      <c r="I50" s="193"/>
-    </row>
-    <row r="51" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A51" s="165"/>
-      <c r="B51" s="166"/>
-      <c r="C51" s="166"/>
-      <c r="D51" s="166"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="166"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="168"/>
-    </row>
-    <row r="52" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A52" s="165"/>
-      <c r="B52" s="166"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="166"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="166"/>
-      <c r="H52" s="167"/>
-      <c r="I52" s="168"/>
-    </row>
-    <row r="53" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A53" s="194"/>
-      <c r="B53" s="194" t="s">
+      <c r="H48" s="191"/>
+      <c r="I48" s="192"/>
+      <c r="K48" s="225"/>
+      <c r="L48" s="225"/>
+      <c r="M48" s="225"/>
+      <c r="N48" s="225"/>
+      <c r="O48" s="225"/>
+      <c r="P48" s="225"/>
+      <c r="Q48" s="225"/>
+      <c r="R48" s="225"/>
+      <c r="S48" s="225"/>
+      <c r="T48" s="225"/>
+    </row>
+    <row r="49" spans="1:21" s="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="165"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="167"/>
+      <c r="I49" s="168"/>
+      <c r="K49" s="225"/>
+      <c r="L49" s="225"/>
+      <c r="M49" s="225"/>
+      <c r="N49" s="225"/>
+      <c r="O49" s="225"/>
+      <c r="P49" s="225"/>
+      <c r="Q49" s="225"/>
+      <c r="R49" s="225"/>
+      <c r="S49" s="225"/>
+      <c r="T49" s="225"/>
+    </row>
+    <row r="50" spans="1:21" s="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="165"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="167"/>
+      <c r="I50" s="168"/>
+      <c r="K50" s="225"/>
+      <c r="L50" s="225"/>
+      <c r="M50" s="225"/>
+      <c r="N50" s="225"/>
+      <c r="O50" s="225"/>
+      <c r="P50" s="225"/>
+      <c r="Q50" s="225"/>
+      <c r="R50" s="225"/>
+      <c r="S50" s="225"/>
+      <c r="T50" s="225"/>
+    </row>
+    <row r="51" spans="1:21" s="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="193"/>
+      <c r="B51" s="193" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="226"/>
+      <c r="D51" s="227"/>
+      <c r="E51" s="227"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="227"/>
+      <c r="H51" s="227"/>
+      <c r="I51" s="228"/>
+      <c r="K51" s="225"/>
+      <c r="L51" s="225"/>
+      <c r="M51" s="225"/>
+      <c r="N51" s="225"/>
+      <c r="O51" s="225"/>
+      <c r="P51" s="225"/>
+      <c r="Q51" s="225"/>
+      <c r="R51" s="225"/>
+      <c r="S51" s="225"/>
+      <c r="T51" s="225"/>
+    </row>
+    <row r="52" spans="1:21" s="146" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="158"/>
+      <c r="B52" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="226"/>
-      <c r="D53" s="227"/>
-      <c r="E53" s="227"/>
-      <c r="F53" s="227"/>
-      <c r="G53" s="227"/>
-      <c r="H53" s="227"/>
-      <c r="I53" s="228"/>
-    </row>
-    <row r="54" spans="1:9" s="146" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A54" s="158"/>
-      <c r="B54" s="159" t="s">
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="160"/>
+      <c r="K52" s="225"/>
+      <c r="L52" s="225"/>
+      <c r="M52" s="225"/>
+      <c r="N52" s="225"/>
+      <c r="O52" s="225"/>
+      <c r="P52" s="225"/>
+      <c r="Q52" s="225"/>
+      <c r="R52" s="225"/>
+      <c r="S52" s="225"/>
+      <c r="T52" s="225"/>
+      <c r="U52" s="143"/>
+    </row>
+    <row r="53" spans="1:21" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="111" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A52)+1)</f>
+        <v>ID-22</v>
+      </c>
+      <c r="B53" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="160"/>
-      <c r="D54" s="160"/>
-      <c r="E54" s="160"/>
-      <c r="F54" s="160"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="160"/>
-      <c r="I54" s="160"/>
-    </row>
-    <row r="55" spans="1:9" s="163" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C53" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="161" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="225"/>
+      <c r="L53" s="225"/>
+      <c r="M53" s="225"/>
+      <c r="N53" s="225"/>
+      <c r="O53" s="225"/>
+      <c r="P53" s="225"/>
+      <c r="Q53" s="225"/>
+      <c r="R53" s="225"/>
+      <c r="S53" s="225"/>
+      <c r="T53" s="225"/>
+    </row>
+    <row r="54" spans="1:21" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="111" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A53)+1)</f>
+        <v>ID-23</v>
+      </c>
+      <c r="B54" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="161" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" s="225"/>
+      <c r="L54" s="225"/>
+      <c r="M54" s="225"/>
+      <c r="N54" s="225"/>
+      <c r="O54" s="225"/>
+      <c r="P54" s="225"/>
+      <c r="Q54" s="225"/>
+      <c r="R54" s="225"/>
+      <c r="S54" s="225"/>
+      <c r="T54" s="225"/>
+    </row>
+    <row r="55" spans="1:21" s="163" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A54)+1)</f>
-        <v>ID-36</v>
+        <v>ID-24</v>
       </c>
       <c r="B55" s="111" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C55" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="111" t="s">
         <v>65</v>
-      </c>
-      <c r="D55" s="111" t="s">
-        <v>66</v>
       </c>
       <c r="E55" s="111"/>
       <c r="F55" s="111"/>
       <c r="G55" s="111"/>
       <c r="H55" s="111"/>
       <c r="I55" s="161" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="163" customFormat="1" ht="14.25" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="K55" s="225"/>
+      <c r="L55" s="225"/>
+      <c r="M55" s="225"/>
+      <c r="N55" s="225"/>
+      <c r="O55" s="225"/>
+      <c r="P55" s="225"/>
+      <c r="Q55" s="225"/>
+      <c r="R55" s="225"/>
+      <c r="S55" s="225"/>
+      <c r="T55" s="225"/>
+    </row>
+    <row r="56" spans="1:21" s="162" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A55)+1)</f>
-        <v>ID-37</v>
+        <v>ID-25</v>
       </c>
       <c r="B56" s="111" t="s">
         <v>114</v>
@@ -5665,379 +5806,425 @@
         <v>117</v>
       </c>
       <c r="D56" s="111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E56" s="111"/>
       <c r="F56" s="111"/>
       <c r="G56" s="111"/>
       <c r="H56" s="111"/>
       <c r="I56" s="161" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="163" customFormat="1" ht="14.25" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="K56" s="225"/>
+      <c r="L56" s="225"/>
+      <c r="M56" s="225"/>
+      <c r="N56" s="225"/>
+      <c r="O56" s="225"/>
+      <c r="P56" s="225"/>
+      <c r="Q56" s="225"/>
+      <c r="R56" s="225"/>
+      <c r="S56" s="225"/>
+      <c r="T56" s="225"/>
+    </row>
+    <row r="57" spans="1:21" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A56)+1)</f>
-        <v>ID-38</v>
+        <v>ID-26</v>
       </c>
       <c r="B57" s="111" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="C57" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D57" s="111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E57" s="111"/>
       <c r="F57" s="111"/>
       <c r="G57" s="111"/>
       <c r="H57" s="111"/>
       <c r="I57" s="161" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57" s="225"/>
+      <c r="L57" s="225"/>
+      <c r="M57" s="225"/>
+      <c r="N57" s="225"/>
+      <c r="O57" s="225"/>
+      <c r="P57" s="225"/>
+      <c r="Q57" s="225"/>
+      <c r="R57" s="225"/>
+      <c r="S57" s="225"/>
+      <c r="T57" s="225"/>
+    </row>
+    <row r="58" spans="1:21" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="146"/>
+      <c r="B58" s="146" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="162" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A58" s="111" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A57)+1)</f>
-        <v>ID-39</v>
-      </c>
-      <c r="B58" s="111" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="161" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C58" s="146"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="146"/>
+      <c r="G58" s="146"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
+      <c r="K58" s="225"/>
+      <c r="L58" s="225"/>
+      <c r="M58" s="225"/>
+      <c r="N58" s="225"/>
+      <c r="O58" s="225"/>
+      <c r="P58" s="225"/>
+      <c r="Q58" s="225"/>
+      <c r="R58" s="225"/>
+      <c r="S58" s="225"/>
+      <c r="T58" s="225"/>
+    </row>
+    <row r="59" spans="1:21" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A58)+1)</f>
-        <v>ID-40</v>
+        <v>ID-27</v>
       </c>
       <c r="B59" s="111" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="C59" s="111" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D59" s="111" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="E59" s="111"/>
       <c r="F59" s="111"/>
       <c r="G59" s="111"/>
       <c r="H59" s="111"/>
-      <c r="I59" s="161" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A60" s="146"/>
-      <c r="B60" s="146" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="146"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
-    </row>
-    <row r="61" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I59" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="K59" s="225"/>
+      <c r="L59" s="225"/>
+      <c r="M59" s="225"/>
+      <c r="N59" s="225"/>
+      <c r="O59" s="225"/>
+      <c r="P59" s="225"/>
+      <c r="Q59" s="225"/>
+      <c r="R59" s="225"/>
+      <c r="S59" s="225"/>
+      <c r="T59" s="225"/>
+    </row>
+    <row r="60" spans="1:21" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="111" t="str">
+        <f>"ID-" &amp; (COUNTA(A$9:A59)+1)</f>
+        <v>ID-28</v>
+      </c>
+      <c r="B60" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="111"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="K60" s="225"/>
+      <c r="L60" s="225"/>
+      <c r="M60" s="225"/>
+      <c r="N60" s="225"/>
+      <c r="O60" s="225"/>
+      <c r="P60" s="225"/>
+      <c r="Q60" s="225"/>
+      <c r="R60" s="225"/>
+      <c r="S60" s="225"/>
+      <c r="T60" s="225"/>
+    </row>
+    <row r="61" spans="1:21" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A60)+1)</f>
-        <v>ID-41</v>
+        <v>ID-29</v>
       </c>
       <c r="B61" s="111" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C61" s="111" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D61" s="111" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E61" s="111"/>
       <c r="F61" s="111"/>
       <c r="G61" s="111"/>
       <c r="H61" s="111"/>
       <c r="I61" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="K61" s="225"/>
+      <c r="L61" s="225"/>
+      <c r="M61" s="225"/>
+      <c r="N61" s="225"/>
+      <c r="O61" s="225"/>
+      <c r="P61" s="225"/>
+      <c r="Q61" s="225"/>
+      <c r="R61" s="225"/>
+      <c r="S61" s="225"/>
+      <c r="T61" s="225"/>
+    </row>
+    <row r="62" spans="1:21" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A61)+1)</f>
-        <v>ID-42</v>
+        <v>ID-30</v>
       </c>
       <c r="B62" s="111" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C62" s="111" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D62" s="111" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E62" s="111"/>
       <c r="F62" s="111"/>
       <c r="G62" s="111"/>
       <c r="H62" s="111"/>
       <c r="I62" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="K62" s="225"/>
+      <c r="L62" s="225"/>
+      <c r="M62" s="225"/>
+      <c r="N62" s="225"/>
+      <c r="O62" s="225"/>
+      <c r="P62" s="225"/>
+      <c r="Q62" s="225"/>
+      <c r="R62" s="225"/>
+      <c r="S62" s="225"/>
+      <c r="T62" s="225"/>
+    </row>
+    <row r="63" spans="1:21" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A62)+1)</f>
-        <v>ID-43</v>
+        <v>ID-31</v>
       </c>
       <c r="B63" s="111" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C63" s="111" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D63" s="111" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E63" s="111"/>
       <c r="F63" s="111"/>
       <c r="G63" s="111"/>
       <c r="H63" s="111"/>
       <c r="I63" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="K63" s="225"/>
+      <c r="L63" s="225"/>
+      <c r="M63" s="225"/>
+      <c r="N63" s="225"/>
+      <c r="O63" s="225"/>
+      <c r="P63" s="225"/>
+      <c r="Q63" s="225"/>
+      <c r="R63" s="225"/>
+      <c r="S63" s="225"/>
+      <c r="T63" s="225"/>
+    </row>
+    <row r="64" spans="1:21" s="157" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A63)+1)</f>
-        <v>ID-44</v>
+        <v>ID-32</v>
       </c>
       <c r="B64" s="111" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C64" s="111" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D64" s="111" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E64" s="111"/>
       <c r="F64" s="111"/>
       <c r="G64" s="111"/>
       <c r="H64" s="111"/>
       <c r="I64" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="K64" s="225"/>
+      <c r="L64" s="225"/>
+      <c r="M64" s="225"/>
+      <c r="N64" s="225"/>
+      <c r="O64" s="225"/>
+      <c r="P64" s="225"/>
+      <c r="Q64" s="225"/>
+      <c r="R64" s="225"/>
+      <c r="S64" s="225"/>
+      <c r="T64" s="225"/>
+    </row>
+    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A64)+1)</f>
-        <v>ID-45</v>
+        <v>ID-33</v>
       </c>
       <c r="B65" s="111" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C65" s="111" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D65" s="111" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E65" s="111"/>
       <c r="F65" s="111"/>
       <c r="G65" s="111"/>
       <c r="H65" s="111"/>
       <c r="I65" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="157" customFormat="1" ht="14.25" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A65)+1)</f>
-        <v>ID-46</v>
+        <v>ID-34</v>
       </c>
       <c r="B66" s="111" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C66" s="111" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D66" s="111" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E66" s="111"/>
       <c r="F66" s="111"/>
       <c r="G66" s="111"/>
       <c r="H66" s="111"/>
       <c r="I66" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A66)+1)</f>
-        <v>ID-47</v>
+        <v>ID-35</v>
       </c>
       <c r="B67" s="111" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C67" s="111" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D67" s="111" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E67" s="111"/>
       <c r="F67" s="111"/>
       <c r="G67" s="111"/>
       <c r="H67" s="111"/>
       <c r="I67" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A67)+1)</f>
-        <v>ID-48</v>
+        <v>ID-36</v>
       </c>
       <c r="B68" s="111" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C68" s="111" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D68" s="111" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E68" s="111"/>
       <c r="F68" s="111"/>
       <c r="G68" s="111"/>
       <c r="H68" s="111"/>
       <c r="I68" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="13.5" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A68)+1)</f>
-        <v>ID-49</v>
+        <v>ID-37</v>
       </c>
       <c r="B69" s="111" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C69" s="111" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D69" s="111" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E69" s="111"/>
       <c r="F69" s="111"/>
       <c r="G69" s="111"/>
       <c r="H69" s="111"/>
       <c r="I69" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A69)+1)</f>
-        <v>ID-50</v>
+        <v>ID-38</v>
       </c>
       <c r="B70" s="111" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C70" s="111" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D70" s="111" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E70" s="111"/>
       <c r="F70" s="111"/>
       <c r="G70" s="111"/>
       <c r="H70" s="111"/>
       <c r="I70" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="111" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A70)+1)</f>
-        <v>ID-51</v>
+        <v>ID-39</v>
       </c>
       <c r="B71" s="111" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C71" s="111" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D71" s="111" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E71" s="111"/>
       <c r="F71" s="111"/>
       <c r="G71" s="111"/>
       <c r="H71" s="111"/>
       <c r="I71" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A72" s="111" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A71)+1)</f>
-        <v>ID-52</v>
-      </c>
-      <c r="B72" s="111" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="111"/>
-      <c r="F72" s="111"/>
-      <c r="G72" s="111"/>
-      <c r="H72" s="111"/>
-      <c r="I72" s="111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A73" s="111" t="str">
-        <f>"ID-" &amp; (COUNTA(A$9:A72)+1)</f>
-        <v>ID-53</v>
-      </c>
-      <c r="B73" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="111" t="s">
-        <v>102</v>
-      </c>
-      <c r="D73" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6046,8 +6233,9 @@
       <dataRef ref="K2:K6" sheet="User Module"/>
     </dataRefs>
   </dataConsolidate>
-  <mergeCells count="6">
-    <mergeCell ref="C53:I53"/>
+  <mergeCells count="7">
+    <mergeCell ref="K40:T64"/>
+    <mergeCell ref="C51:I51"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -6055,17 +6243,17 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G74:G65304 F14:F15 F17 F12:G12 G11 F19:F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G72:G65302 F14:F15 F17 F12:G12 G11 F19:F26">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G14:G15 G17 G19:G26">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E55:I59 GJ42:GQ53 QF42:QM53 AAB42:AAI53 AJX42:AKE53 ATT42:AUA53 BDP42:BDW53 BNL42:BNS53 BXH42:BXO53 CHD42:CHK53 CQZ42:CRG53 DAV42:DBC53 DKR42:DKY53 DUN42:DUU53 EEJ42:EEQ53 EOF42:EOM53 EYB42:EYI53 FHX42:FIE53 FRT42:FSA53 GBP42:GBW53 GLL42:GLS53 GVH42:GVO53 HFD42:HFK53 HOZ42:HPG53 HYV42:HZC53 IIR42:IIY53 ISN42:ISU53 JCJ42:JCQ53 JMF42:JMM53 JWB42:JWI53 KFX42:KGE53 KPT42:KQA53 KZP42:KZW53 LJL42:LJS53 LTH42:LTO53 MDD42:MDK53 MMZ42:MNG53 MWV42:MXC53 NGR42:NGY53 NQN42:NQU53 OAJ42:OAQ53 OKF42:OKM53 OUB42:OUI53 PDX42:PEE53 PNT42:POA53 PXP42:PXW53 QHL42:QHS53 QRH42:QRO53 RBD42:RBK53 RKZ42:RLG53 RUV42:RVC53 SER42:SEY53 SON42:SOU53 SYJ42:SYQ53 TIF42:TIM53 TSB42:TSI53 UBX42:UCE53 ULT42:UMA53 UVP42:UVW53 VFL42:VFS53 VPH42:VPO53 VZD42:VZK53 WIZ42:WJG53 E61:I73 WIZ55:WJG66 GJ55:GQ66 QF55:QM66 AAB55:AAI66 AJX55:AKE66 ATT55:AUA66 BDP55:BDW66 BNL55:BNS66 BXH55:BXO66 CHD55:CHK66 CQZ55:CRG66 DAV55:DBC66 DKR55:DKY66 DUN55:DUU66 EEJ55:EEQ66 EOF55:EOM66 EYB55:EYI66 FHX55:FIE66 FRT55:FSA66 GBP55:GBW66 GLL55:GLS66 GVH55:GVO66 HFD55:HFK66 HOZ55:HPG66 HYV55:HZC66 IIR55:IIY66 ISN55:ISU66 JCJ55:JCQ66 JMF55:JMM66 JWB55:JWI66 KFX55:KGE66 KPT55:KQA66 KZP55:KZW66 LJL55:LJS66 LTH55:LTO66 MDD55:MDK66 MMZ55:MNG66 MWV55:MXC66 NGR55:NGY66 NQN55:NQU66 OAJ55:OAQ66 OKF55:OKM66 OUB55:OUI66 PDX55:PEE66 PNT55:POA66 PXP55:PXW66 QHL55:QHS66 QRH55:QRO66 RBD55:RBK66 RKZ55:RLG66 RUV55:RVC66 SER55:SEY66 SON55:SOU66 SYJ55:SYQ66 TIF55:TIM66 TSB55:TSI66 UBX55:UCE66 ULT55:UMA66 UVP55:UVW66 VFL55:VFS66 VPH55:VPO66 VZD55:VZK66 WJJ40:WJJ66 VZN40:VZN66 VPR40:VPR66 VFV40:VFV66 UVZ40:UVZ66 UMD40:UMD66 UCH40:UCH66 TSL40:TSL66 TIP40:TIP66 SYT40:SYT66 SOX40:SOX66 SFB40:SFB66 RVF40:RVF66 RLJ40:RLJ66 RBN40:RBN66 QRR40:QRR66 QHV40:QHV66 PXZ40:PXZ66 POD40:POD66 PEH40:PEH66 OUL40:OUL66 OKP40:OKP66 OAT40:OAT66 NQX40:NQX66 NHB40:NHB66 MXF40:MXF66 MNJ40:MNJ66 MDN40:MDN66 LTR40:LTR66 LJV40:LJV66 KZZ40:KZZ66 KQD40:KQD66 KGH40:KGH66 JWL40:JWL66 JMP40:JMP66 JCT40:JCT66 ISX40:ISX66 IJB40:IJB66 HZF40:HZF66 HPJ40:HPJ66 HFN40:HFN66 GVR40:GVR66 GLV40:GLV66 GBZ40:GBZ66 FSD40:FSD66 FIH40:FIH66 EYL40:EYL66 EOP40:EOP66 EET40:EET66 DUX40:DUX66 DLB40:DLB66 DBF40:DBF66 CRJ40:CRJ66 CHN40:CHN66 BXR40:BXR66 BNV40:BNV66 BDZ40:BDZ66 AUD40:AUD66 AKH40:AKH66 AAL40:AAL66 QP40:QP66 GT40:GT66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:I57 E59:I71 WIP53:WIW64 FZ53:GG64 PV53:QC64 ZR53:ZY64 AJN53:AJU64 ATJ53:ATQ64 BDF53:BDM64 BNB53:BNI64 BWX53:BXE64 CGT53:CHA64 CQP53:CQW64 DAL53:DAS64 DKH53:DKO64 DUD53:DUK64 EDZ53:EEG64 ENV53:EOC64 EXR53:EXY64 FHN53:FHU64 FRJ53:FRQ64 GBF53:GBM64 GLB53:GLI64 GUX53:GVE64 HET53:HFA64 HOP53:HOW64 HYL53:HYS64 IIH53:IIO64 ISD53:ISK64 JBZ53:JCG64 JLV53:JMC64 JVR53:JVY64 KFN53:KFU64 KPJ53:KPQ64 KZF53:KZM64 LJB53:LJI64 LSX53:LTE64 MCT53:MDA64 MMP53:MMW64 MWL53:MWS64 NGH53:NGO64 NQD53:NQK64 NZZ53:OAG64 OJV53:OKC64 OTR53:OTY64 PDN53:PDU64 PNJ53:PNQ64 PXF53:PXM64 QHB53:QHI64 QQX53:QRE64 RAT53:RBA64 RKP53:RKW64 RUL53:RUS64 SEH53:SEO64 SOD53:SOK64 SXZ53:SYG64 THV53:TIC64 TRR53:TRY64 UBN53:UBU64 ULJ53:ULQ64 UVF53:UVM64 VFB53:VFI64 VOX53:VPE64 VYT53:VZA64 GJ40:GJ64 QF40:QF64 AAB40:AAB64 AJX40:AJX64 ATT40:ATT64 BDP40:BDP64 BNL40:BNL64 BXH40:BXH64 CHD40:CHD64 CQZ40:CQZ64 DAV40:DAV64 DKR40:DKR64 DUN40:DUN64 EEJ40:EEJ64 EOF40:EOF64 EYB40:EYB64 FHX40:FHX64 FRT40:FRT64 GBP40:GBP64 GLL40:GLL64 GVH40:GVH64 HFD40:HFD64 HOZ40:HOZ64 HYV40:HYV64 IIR40:IIR64 ISN40:ISN64 JCJ40:JCJ64 JMF40:JMF64 JWB40:JWB64 KFX40:KFX64 KPT40:KPT64 KZP40:KZP64 LJL40:LJL64 LTH40:LTH64 MDD40:MDD64 MMZ40:MMZ64 MWV40:MWV64 NGR40:NGR64 NQN40:NQN64 OAJ40:OAJ64 OKF40:OKF64 OUB40:OUB64 PDX40:PDX64 PNT40:PNT64 PXP40:PXP64 QHL40:QHL64 QRH40:QRH64 RBD40:RBD64 RKZ40:RKZ64 RUV40:RUV64 SER40:SER64 SON40:SON64 SYJ40:SYJ64 TIF40:TIF64 TSB40:TSB64 UBX40:UBX64 ULT40:ULT64 UVP40:UVP64 VFL40:VFL64 VPH40:VPH64 VZD40:VZD64 WIZ40:WIZ64 WIP42:WIW51 VYT42:VZA51 VOX42:VPE51 VFB42:VFI51 UVF42:UVM51 ULJ42:ULQ51 UBN42:UBU51 TRR42:TRY51 THV42:TIC51 SXZ42:SYG51 SOD42:SOK51 SEH42:SEO51 RUL42:RUS51 RKP42:RKW51 RAT42:RBA51 QQX42:QRE51 QHB42:QHI51 PXF42:PXM51 PNJ42:PNQ51 PDN42:PDU51 OTR42:OTY51 OJV42:OKC51 NZZ42:OAG51 NQD42:NQK51 NGH42:NGO51 MWL42:MWS51 MMP42:MMW51 MCT42:MDA51 LSX42:LTE51 LJB42:LJI51 KZF42:KZM51 KPJ42:KPQ51 KFN42:KFU51 JVR42:JVY51 JLV42:JMC51 JBZ42:JCG51 ISD42:ISK51 IIH42:IIO51 HYL42:HYS51 HOP42:HOW51 HET42:HFA51 GUX42:GVE51 GLB42:GLI51 GBF42:GBM51 FRJ42:FRQ51 FHN42:FHU51 EXR42:EXY51 ENV42:EOC51 EDZ42:EEG51 DUD42:DUK51 DKH42:DKO51 DAL42:DAS51 CQP42:CQW51 CGT42:CHA51 BWX42:BXE51 BNB42:BNI51 BDF42:BDM51 ATJ42:ATQ51 AJN42:AJU51 ZR42:ZY51 PV42:QC51 FZ42:GG51">
       <formula1>"OK,NG,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28:G28 F30:G30 F32:G52">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28:G28 F30:G30 F32:G50">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6075,11 +6263,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6087,31 +6270,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="123" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="99" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="123" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" style="99" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="99" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="99" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="99" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="99" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="99" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="99" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="99" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="103" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="99" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="102" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="99" customWidth="1"/>
-    <col min="12" max="16" width="15.125" style="99"/>
+    <col min="7" max="7" width="11.83203125" style="99" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="103" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="99" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="102" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="99" customWidth="1"/>
+    <col min="12" max="16" width="15.1640625" style="99"/>
     <col min="17" max="17" width="0" style="99" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="15.125" style="99"/>
+    <col min="18" max="16384" width="15.1640625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -6120,12 +6303,12 @@
       <c r="F1" s="126"/>
       <c r="G1" s="127"/>
     </row>
-    <row r="2" spans="1:10" s="124" customFormat="1" ht="14.25">
+    <row r="2" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="128" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="229" t="s">
-        <v>110</v>
+        <v>347</v>
       </c>
       <c r="C2" s="229"/>
       <c r="D2" s="229"/>
@@ -6136,12 +6319,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="124" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:10" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="229" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="229" t="s">
-        <v>54</v>
       </c>
       <c r="C3" s="229"/>
       <c r="D3" s="229"/>
@@ -6152,12 +6335,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="124" customFormat="1" ht="14.25">
+    <row r="4" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="230" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="230"/>
       <c r="D4" s="230"/>
@@ -6166,7 +6349,7 @@
       <c r="G4" s="230"/>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:10" s="124" customFormat="1" ht="14.25">
+    <row r="5" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="130" t="s">
         <v>14</v>
       </c>
@@ -6174,13 +6357,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="132" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="233" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="233"/>
       <c r="G5" s="233"/>
@@ -6188,7 +6371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1">
+    <row r="6" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="120">
         <f>COUNTIF(F11:G247,"Pass")</f>
         <v>0</v>
@@ -6215,7 +6398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="124" customFormat="1" ht="14.25">
+    <row r="7" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="154"/>
       <c r="B7" s="155"/>
       <c r="C7" s="155"/>
@@ -6225,7 +6408,7 @@
       <c r="G7" s="156"/>
       <c r="J7" s="89"/>
     </row>
-    <row r="8" spans="1:10" s="124" customFormat="1" ht="14.25">
+    <row r="8" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="154"/>
       <c r="B8" s="155"/>
       <c r="C8" s="155"/>
@@ -6235,40 +6418,40 @@
       <c r="G8" s="156"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" s="124" customFormat="1"/>
-    <row r="10" spans="1:10" s="124" customFormat="1" ht="51.75" customHeight="1">
+    <row r="9" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:10" s="124" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="52" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>61</v>
       </c>
       <c r="I10" s="51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="150"/>
       <c r="B11" s="53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="150"/>
       <c r="D11" s="150"/>
@@ -6279,32 +6462,32 @@
       <c r="I11" s="152"/>
       <c r="J11" s="99"/>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="142" t="str">
         <f t="shared" ref="A12:A38" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Mod_login-2]</v>
+        <v>[Mod Module-2]</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E12" s="153" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F12" s="111"/>
       <c r="G12" s="111"/>
       <c r="H12" s="148"/>
       <c r="I12" s="149"/>
     </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1">
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="150"/>
       <c r="B13" s="53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="150"/>
       <c r="D13" s="150"/>
@@ -6314,32 +6497,32 @@
       <c r="H13" s="150"/>
       <c r="I13" s="152"/>
     </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1">
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="142" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-4]</v>
+        <v>[Mod Module-4]</v>
       </c>
       <c r="B14" s="111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D14" s="111" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E14" s="147" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F14" s="111"/>
       <c r="G14" s="111"/>
       <c r="H14" s="148"/>
       <c r="I14" s="149"/>
     </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1">
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="150"/>
       <c r="B15" s="53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C15" s="150"/>
       <c r="D15" s="150"/>
@@ -6349,32 +6532,32 @@
       <c r="H15" s="150"/>
       <c r="I15" s="152"/>
     </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1">
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="142" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-6]</v>
+        <v>[Mod Module-6]</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E16" s="147" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F16" s="111"/>
       <c r="G16" s="111"/>
       <c r="H16" s="148"/>
       <c r="I16" s="149"/>
     </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="150"/>
       <c r="B17" s="53" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="150"/>
       <c r="D17" s="150"/>
@@ -6384,32 +6567,32 @@
       <c r="H17" s="150"/>
       <c r="I17" s="152"/>
     </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1">
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-8]</v>
+        <v>[Mod Module-8]</v>
       </c>
       <c r="B18" s="111" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="E18" s="111" t="s">
         <v>261</v>
-      </c>
-      <c r="D18" s="111" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="111" t="s">
-        <v>263</v>
       </c>
       <c r="F18" s="111"/>
       <c r="G18" s="111"/>
       <c r="H18" s="111"/>
       <c r="I18" s="111"/>
     </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A19" s="204"/>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="203"/>
       <c r="B19" s="150" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="150"/>
       <c r="D19" s="150"/>
@@ -6417,210 +6600,210 @@
       <c r="F19" s="150"/>
       <c r="G19" s="150"/>
       <c r="H19" s="150"/>
-      <c r="I19" s="202"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+      <c r="I19" s="201"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="111" t="str">
         <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Mod_login-10]</v>
+        <v>[Mod Module-10]</v>
       </c>
       <c r="B20" s="111" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C20" s="111" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D20" s="111" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E20" s="111" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F20" s="111"/>
       <c r="G20" s="111"/>
       <c r="H20" s="111"/>
       <c r="I20" s="111"/>
     </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1">
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-11]</v>
+        <v>[Mod Module-11]</v>
       </c>
       <c r="B21" s="111" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="111" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="111" t="s">
         <v>266</v>
-      </c>
-      <c r="C21" s="111" t="s">
-        <v>297</v>
-      </c>
-      <c r="D21" s="111" t="s">
-        <v>267</v>
-      </c>
-      <c r="E21" s="111" t="s">
-        <v>268</v>
       </c>
       <c r="F21" s="111"/>
       <c r="G21" s="111"/>
       <c r="H21" s="111"/>
       <c r="I21" s="111"/>
     </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1">
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-12]</v>
+        <v>[Mod Module-12]</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D22" s="111" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="205" t="s">
-        <v>277</v>
-      </c>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1">
+        <v>265</v>
+      </c>
+      <c r="E22" s="204" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="204"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-13]</v>
+        <v>[Mod Module-13]</v>
       </c>
       <c r="B23" s="111" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C23" s="111" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>273</v>
-      </c>
-      <c r="E23" s="205" t="s">
-        <v>278</v>
+        <v>271</v>
+      </c>
+      <c r="E23" s="204" t="s">
+        <v>276</v>
       </c>
       <c r="F23" s="111"/>
       <c r="G23" s="111"/>
       <c r="H23" s="111"/>
       <c r="I23" s="111"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-14]</v>
+        <v>[Mod Module-14]</v>
       </c>
       <c r="B24" s="111" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C24" s="111" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D24" s="111" t="s">
-        <v>276</v>
-      </c>
-      <c r="E24" s="205" t="s">
-        <v>279</v>
+        <v>274</v>
+      </c>
+      <c r="E24" s="204" t="s">
+        <v>277</v>
       </c>
       <c r="F24" s="111"/>
       <c r="G24" s="111"/>
       <c r="H24" s="111"/>
       <c r="I24" s="111"/>
     </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1">
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-15]</v>
+        <v>[Mod Module-15]</v>
       </c>
       <c r="B25" s="111" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C25" s="111" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" s="111" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="111" t="s">
-        <v>276</v>
-      </c>
-      <c r="E25" s="205" t="s">
-        <v>280</v>
-      </c>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1">
+      <c r="E25" s="204" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="204"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-16]</v>
+        <v>[Mod Module-16]</v>
       </c>
       <c r="B26" s="111" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D26" s="111" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" s="205" t="s">
-        <v>281</v>
+        <v>265</v>
+      </c>
+      <c r="E26" s="204" t="s">
+        <v>279</v>
       </c>
       <c r="F26" s="111"/>
       <c r="G26" s="111"/>
       <c r="H26" s="111"/>
       <c r="I26" s="111"/>
     </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1">
+    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-17]</v>
+        <v>[Mod Module-17]</v>
       </c>
       <c r="B27" s="111" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C27" s="111" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="111" t="s">
         <v>286</v>
       </c>
-      <c r="D27" s="111" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27" s="205" t="s">
-        <v>282</v>
+      <c r="E27" s="204" t="s">
+        <v>280</v>
       </c>
       <c r="F27" s="111"/>
       <c r="G27" s="111"/>
       <c r="H27" s="111"/>
       <c r="I27" s="111"/>
     </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-18]</v>
+        <v>[Mod Module-18]</v>
       </c>
       <c r="B28" s="111" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C28" s="111" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D28" s="111" t="s">
-        <v>288</v>
-      </c>
-      <c r="E28" s="205" t="s">
-        <v>283</v>
+        <v>286</v>
+      </c>
+      <c r="E28" s="204" t="s">
+        <v>281</v>
       </c>
       <c r="F28" s="111"/>
       <c r="G28" s="111"/>
       <c r="H28" s="111"/>
       <c r="I28" s="111"/>
     </row>
-    <row r="29" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A29" s="204"/>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="203"/>
       <c r="B29" s="150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C29" s="150"/>
       <c r="D29" s="150"/>
@@ -6628,205 +6811,205 @@
       <c r="F29" s="150"/>
       <c r="G29" s="150"/>
       <c r="H29" s="150"/>
-      <c r="I29" s="202"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.5" customHeight="1">
+      <c r="I29" s="201"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-20]</v>
+        <v>[Mod Module-20]</v>
       </c>
       <c r="B30" s="111" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C30" s="111" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D30" s="111" t="s">
-        <v>300</v>
-      </c>
-      <c r="E30" s="205" t="s">
-        <v>313</v>
-      </c>
-      <c r="F30" s="205"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="205"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.5" customHeight="1">
+        <v>298</v>
+      </c>
+      <c r="E30" s="204" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-21]</v>
+        <v>[Mod Module-21]</v>
       </c>
       <c r="B31" s="111" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C31" s="111" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D31" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="E31" s="205" t="s">
-        <v>314</v>
-      </c>
-      <c r="F31" s="205"/>
-      <c r="G31" s="205"/>
-      <c r="H31" s="205"/>
-      <c r="I31" s="205"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.5" customHeight="1">
+        <v>300</v>
+      </c>
+      <c r="E31" s="204" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-22]</v>
+        <v>[Mod Module-22]</v>
       </c>
       <c r="B32" s="111" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C32" s="111" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D32" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="E32" s="205" t="s">
-        <v>315</v>
-      </c>
-      <c r="F32" s="205"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="205"/>
-      <c r="I32" s="205"/>
-    </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1">
+        <v>300</v>
+      </c>
+      <c r="E32" s="204" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="204"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-23]</v>
+        <v>[Mod Module-23]</v>
       </c>
       <c r="B33" s="111" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C33" s="111" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D33" s="111" t="s">
-        <v>305</v>
-      </c>
-      <c r="E33" s="205" t="s">
-        <v>316</v>
-      </c>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="206"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1">
+        <v>303</v>
+      </c>
+      <c r="E33" s="204" t="s">
+        <v>314</v>
+      </c>
+      <c r="F33" s="205"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="205"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-24]</v>
+        <v>[Mod Module-24]</v>
       </c>
       <c r="B34" s="111" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D34" s="111" t="s">
-        <v>307</v>
-      </c>
-      <c r="E34" s="205" t="s">
-        <v>317</v>
-      </c>
-      <c r="F34" s="206"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="206"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1">
+        <v>305</v>
+      </c>
+      <c r="E34" s="204" t="s">
+        <v>315</v>
+      </c>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="205"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-25]</v>
+        <v>[Mod Module-25]</v>
       </c>
       <c r="B35" s="111" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C35" s="111" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D35" s="111" t="s">
-        <v>307</v>
-      </c>
-      <c r="E35" s="205" t="s">
-        <v>318</v>
-      </c>
-      <c r="F35" s="206"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="207"/>
-      <c r="I35" s="206"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1">
+        <v>305</v>
+      </c>
+      <c r="E35" s="204" t="s">
+        <v>316</v>
+      </c>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="205"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-26]</v>
+        <v>[Mod Module-26]</v>
       </c>
       <c r="B36" s="111" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C36" s="111" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D36" s="111" t="s">
-        <v>302</v>
-      </c>
-      <c r="E36" s="205" t="s">
-        <v>319</v>
-      </c>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="206"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1">
+        <v>300</v>
+      </c>
+      <c r="E36" s="204" t="s">
+        <v>317</v>
+      </c>
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="205"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-27]</v>
+        <v>[Mod Module-27]</v>
       </c>
       <c r="B37" s="111" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C37" s="111" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D37" s="111" t="s">
-        <v>311</v>
-      </c>
-      <c r="E37" s="205" t="s">
-        <v>320</v>
-      </c>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="206"/>
-    </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1">
+        <v>309</v>
+      </c>
+      <c r="E37" s="204" t="s">
+        <v>318</v>
+      </c>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="205"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="111" t="str">
         <f t="shared" si="0"/>
-        <v>[Mod_login-28]</v>
+        <v>[Mod Module-28]</v>
       </c>
       <c r="B38" s="111" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C38" s="111" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D38" s="111" t="s">
-        <v>311</v>
-      </c>
-      <c r="E38" s="205" t="s">
-        <v>321</v>
-      </c>
-      <c r="F38" s="206"/>
-      <c r="G38" s="206"/>
-      <c r="H38" s="207"/>
-      <c r="I38" s="206"/>
+        <v>309</v>
+      </c>
+      <c r="E38" s="204" t="s">
+        <v>319</v>
+      </c>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6850,11 +7033,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6862,31 +7040,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="123" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="99" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="123" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" style="99" customWidth="1"/>
     <col min="3" max="3" width="33" style="99" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="99" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="99" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="99" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="99" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="103" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="99" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="102" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="99" customWidth="1"/>
-    <col min="12" max="16" width="15.125" style="99"/>
+    <col min="4" max="4" width="28.83203125" style="99" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="99" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="99" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="99" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="103" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="99" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="102" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="99" customWidth="1"/>
+    <col min="12" max="16" width="15.1640625" style="99"/>
     <col min="17" max="17" width="0" style="99" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="15.125" style="99"/>
+    <col min="18" max="16384" width="15.1640625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -6895,12 +7073,12 @@
       <c r="F1" s="126"/>
       <c r="G1" s="127"/>
     </row>
-    <row r="2" spans="1:10" s="124" customFormat="1" ht="14.25">
+    <row r="2" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="128" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="229" t="s">
-        <v>39</v>
+        <v>348</v>
       </c>
       <c r="C2" s="229"/>
       <c r="D2" s="229"/>
@@ -6911,12 +7089,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="124" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:10" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="229" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="229" t="s">
-        <v>54</v>
       </c>
       <c r="C3" s="229"/>
       <c r="D3" s="229"/>
@@ -6927,12 +7105,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="124" customFormat="1" ht="14.25">
+    <row r="4" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="230" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="230"/>
       <c r="D4" s="230"/>
@@ -6941,7 +7119,7 @@
       <c r="G4" s="230"/>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:10" s="124" customFormat="1" ht="14.25">
+    <row r="5" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="130" t="s">
         <v>14</v>
       </c>
@@ -6949,13 +7127,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="132" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="233" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="233"/>
       <c r="G5" s="233"/>
@@ -6963,7 +7141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1">
+    <row r="6" spans="1:10" s="124" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="120">
         <f>COUNTIF(F11:G260,"Pass")</f>
         <v>0</v>
@@ -6990,7 +7168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="124" customFormat="1" ht="14.25">
+    <row r="7" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="154"/>
       <c r="B7" s="155"/>
       <c r="C7" s="155"/>
@@ -7000,7 +7178,7 @@
       <c r="G7" s="156"/>
       <c r="J7" s="89"/>
     </row>
-    <row r="8" spans="1:10" s="124" customFormat="1" ht="14.25">
+    <row r="8" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="154"/>
       <c r="B8" s="155"/>
       <c r="C8" s="155"/>
@@ -7010,40 +7188,40 @@
       <c r="G8" s="156"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" s="124" customFormat="1"/>
-    <row r="10" spans="1:10" s="124" customFormat="1" ht="51.75" customHeight="1">
+    <row r="9" spans="1:10" s="124" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:10" s="124" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="52" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>61</v>
       </c>
       <c r="I10" s="52" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="124" customFormat="1" ht="14.25" customHeight="1">
+    <row r="11" spans="1:10" s="124" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="150"/>
       <c r="B11" s="151" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" s="150"/>
       <c r="D11" s="150"/>
@@ -7053,32 +7231,32 @@
       <c r="H11" s="150"/>
       <c r="I11" s="152"/>
     </row>
-    <row r="12" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="142" t="str">
         <f t="shared" ref="A12:A16" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin_login-2]</v>
-      </c>
-      <c r="B12" s="186" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="186" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="186" t="s">
-        <v>211</v>
+        <v>[Admin Module-2]</v>
+      </c>
+      <c r="B12" s="185" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="185" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="185" t="s">
+        <v>209</v>
       </c>
       <c r="E12" s="153" t="s">
-        <v>336</v>
-      </c>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="188"/>
-    </row>
-    <row r="13" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+        <v>334</v>
+      </c>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="187"/>
+    </row>
+    <row r="13" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="53"/>
       <c r="B13" s="151" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C13" s="150"/>
       <c r="D13" s="150"/>
@@ -7088,32 +7266,32 @@
       <c r="H13" s="150"/>
       <c r="I13" s="152"/>
     </row>
-    <row r="14" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="142" t="str">
         <f t="shared" si="0"/>
-        <v>[Admin_login-4]</v>
+        <v>[Admin Module-4]</v>
       </c>
       <c r="B14" s="111" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="111" t="s">
-        <v>215</v>
-      </c>
       <c r="D14" s="111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E14" s="147" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F14" s="111"/>
       <c r="G14" s="111"/>
       <c r="H14" s="148"/>
       <c r="I14" s="148"/>
     </row>
-    <row r="15" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+    <row r="15" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="53"/>
       <c r="B15" s="151" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C15" s="150"/>
       <c r="D15" s="150"/>
@@ -7123,32 +7301,32 @@
       <c r="H15" s="150"/>
       <c r="I15" s="152"/>
     </row>
-    <row r="16" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+    <row r="16" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="142" t="str">
         <f t="shared" si="0"/>
-        <v>[Admin_login-6]</v>
+        <v>[Admin Module-6]</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E16" s="147" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F16" s="111"/>
       <c r="G16" s="111"/>
       <c r="H16" s="148"/>
       <c r="I16" s="148"/>
     </row>
-    <row r="17" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="53"/>
       <c r="B17" s="53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
@@ -7158,136 +7336,136 @@
       <c r="H17" s="150"/>
       <c r="I17" s="152"/>
     </row>
-    <row r="18" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="189" t="str">
+    <row r="18" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="188" t="str">
         <f t="shared" ref="A18:A27" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin_login-8]</v>
+        <v>[Admin Module-8]</v>
       </c>
       <c r="B18" s="115" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="195" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="196" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="197"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="198"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A19" s="199"/>
-      <c r="B19" s="200" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201"/>
+        <v>215</v>
+      </c>
+      <c r="C18" s="194" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="195" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="196"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="198"/>
+      <c r="B19" s="199" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="200"/>
       <c r="J19" s="99"/>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1">
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="111" t="str">
         <f t="shared" si="1"/>
-        <v>[Admin_login-10]</v>
+        <v>[Admin Module-10]</v>
       </c>
       <c r="B20" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="205" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="204" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="204" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="205" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="205" t="s">
-        <v>330</v>
-      </c>
-      <c r="F20" s="205"/>
-      <c r="G20" s="205"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="209"/>
+      <c r="E20" s="204" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="204"/>
+      <c r="I20" s="208"/>
       <c r="J20" s="99"/>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1">
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="111" t="str">
         <f t="shared" si="1"/>
-        <v>[Admin_login-11]</v>
+        <v>[Admin Module-11]</v>
       </c>
       <c r="B21" s="175" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="204" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="204" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="205" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="205" t="s">
-        <v>241</v>
-      </c>
-      <c r="E21" s="205" t="s">
-        <v>329</v>
-      </c>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="209"/>
+      <c r="E21" s="204" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="208"/>
       <c r="J21" s="99"/>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1">
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="111" t="str">
         <f t="shared" si="1"/>
-        <v>[Admin_login-12]</v>
+        <v>[Admin Module-12]</v>
       </c>
       <c r="B22" s="175" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="205" t="s">
-        <v>326</v>
-      </c>
-      <c r="D22" s="205" t="s">
-        <v>241</v>
-      </c>
-      <c r="E22" s="205" t="s">
-        <v>331</v>
-      </c>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="209"/>
+        <v>323</v>
+      </c>
+      <c r="C22" s="204" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="204" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="204" t="s">
+        <v>329</v>
+      </c>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="208"/>
       <c r="J22" s="99"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="111" t="str">
         <f t="shared" si="1"/>
-        <v>[Admin_login-13]</v>
+        <v>[Admin Module-13]</v>
       </c>
       <c r="B23" s="175" t="s">
-        <v>327</v>
-      </c>
-      <c r="C23" s="205" t="s">
-        <v>328</v>
-      </c>
-      <c r="D23" s="205" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" s="203" t="s">
-        <v>332</v>
-      </c>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="208"/>
+        <v>325</v>
+      </c>
+      <c r="C23" s="204" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="204" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="202" t="s">
+        <v>330</v>
+      </c>
+      <c r="F23" s="202"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="207"/>
       <c r="J23" s="99"/>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="53"/>
       <c r="B24" s="234" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C24" s="235"/>
       <c r="D24" s="235"/>
@@ -7298,85 +7476,85 @@
       <c r="I24" s="236"/>
       <c r="J24" s="99"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1">
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="111" t="str">
         <f t="shared" si="1"/>
-        <v>[Admin_login-15]</v>
+        <v>[Admin Module-15]</v>
       </c>
       <c r="B25" s="111" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="111" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="111" t="s">
-        <v>236</v>
-      </c>
       <c r="E25" s="111" t="s">
-        <v>333</v>
-      </c>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="214"/>
+        <v>331</v>
+      </c>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="213"/>
       <c r="J25" s="99"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1">
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="111" t="str">
         <f t="shared" si="1"/>
-        <v>[Admin_login-16]</v>
+        <v>[Admin Module-16]</v>
       </c>
       <c r="B26" s="111" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="111" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="C26" s="111" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="111" t="s">
-        <v>244</v>
-      </c>
       <c r="E26" s="111" t="s">
-        <v>334</v>
-      </c>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="214"/>
+        <v>332</v>
+      </c>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="213"/>
       <c r="J26" s="99"/>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="111" t="str">
         <f t="shared" si="1"/>
-        <v>[Admin_login-17]</v>
+        <v>[Admin Module-17]</v>
       </c>
       <c r="B27" s="111" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C27" s="111" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D27" s="111" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E27" s="111" t="s">
-        <v>335</v>
-      </c>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="214"/>
+        <v>333</v>
+      </c>
+      <c r="F27" s="204"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="204"/>
+      <c r="I27" s="213"/>
       <c r="J27" s="99"/>
     </row>
-    <row r="28" spans="1:10" ht="13.5" customHeight="1">
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="111"/>
       <c r="B28" s="111"/>
       <c r="C28" s="111"/>
       <c r="D28" s="111"/>
       <c r="E28" s="111"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="214"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7401,10 +7579,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>